--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GW102"/>
+  <dimension ref="A1:GX102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,6 +971,9 @@
       <c r="GW1" t="n">
         <v>10310</v>
       </c>
+      <c r="GX1" t="n">
+        <v>10334</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1590,6 +1593,9 @@
       <c r="GW2" t="n">
         <v>2020</v>
       </c>
+      <c r="GX2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2209,6 +2215,9 @@
       <c r="GW3" t="n">
         <v>18</v>
       </c>
+      <c r="GX3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2828,6 +2837,9 @@
       <c r="GW4" t="n">
         <v>1</v>
       </c>
+      <c r="GX4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3447,6 +3459,9 @@
       <c r="GW5" t="n">
         <v>0</v>
       </c>
+      <c r="GX5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4066,6 +4081,9 @@
       <c r="GW6" t="n">
         <v>30</v>
       </c>
+      <c r="GX6" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4685,6 +4703,9 @@
       <c r="GW7" t="n">
         <v>82</v>
       </c>
+      <c r="GX7" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5304,6 +5325,9 @@
       <c r="GW8" t="n">
         <v>-52</v>
       </c>
+      <c r="GX8" t="n">
+        <v>-8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5923,6 +5947,9 @@
       <c r="GW9" t="n">
         <v>0</v>
       </c>
+      <c r="GX9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6542,6 +6569,9 @@
       <c r="GW10" t="n">
         <v>15</v>
       </c>
+      <c r="GX10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7161,6 +7191,9 @@
       <c r="GW11" t="n">
         <v>187</v>
       </c>
+      <c r="GX11" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7780,6 +7813,9 @@
       <c r="GW12" t="n">
         <v>115</v>
       </c>
+      <c r="GX12" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8399,6 +8435,9 @@
       <c r="GW13" t="n">
         <v>302</v>
       </c>
+      <c r="GX13" t="n">
+        <v>370</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9018,6 +9057,9 @@
       <c r="GW14" t="n">
         <v>1.63</v>
       </c>
+      <c r="GX14" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9637,6 +9679,9 @@
       <c r="GW15" t="n">
         <v>102</v>
       </c>
+      <c r="GX15" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10256,6 +10301,9 @@
       <c r="GW16" t="n">
         <v>36</v>
       </c>
+      <c r="GX16" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10875,6 +10923,9 @@
       <c r="GW17" t="n">
         <v>15</v>
       </c>
+      <c r="GX17" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11494,6 +11545,9 @@
       <c r="GW18" t="n">
         <v>10</v>
       </c>
+      <c r="GX18" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12113,6 +12167,9 @@
       <c r="GW19" t="n">
         <v>16</v>
       </c>
+      <c r="GX19" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12732,6 +12789,9 @@
       <c r="GW20" t="n">
         <v>3</v>
       </c>
+      <c r="GX20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13351,6 +13411,9 @@
       <c r="GW21" t="n">
         <v>1</v>
       </c>
+      <c r="GX21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13970,6 +14033,9 @@
       <c r="GW22" t="n">
         <v>10</v>
       </c>
+      <c r="GX22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14589,6 +14655,9 @@
       <c r="GW23" t="n">
         <v>2</v>
       </c>
+      <c r="GX23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15208,6 +15277,9 @@
       <c r="GW24" t="n">
         <v>15</v>
       </c>
+      <c r="GX24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15827,6 +15899,9 @@
       <c r="GW25" t="n">
         <v>20</v>
       </c>
+      <c r="GX25" t="n">
+        <v>47.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16446,6 +16521,9 @@
       <c r="GW26" t="n">
         <v>100.67</v>
       </c>
+      <c r="GX26" t="n">
+        <v>33.64</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17065,6 +17143,9 @@
       <c r="GW27" t="n">
         <v>20.13</v>
       </c>
+      <c r="GX27" t="n">
+        <v>16.09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17684,6 +17765,9 @@
       <c r="GW28" t="n">
         <v>24</v>
       </c>
+      <c r="GX28" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18303,6 +18387,9 @@
       <c r="GW29" t="n">
         <v>47</v>
       </c>
+      <c r="GX29" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -18922,6 +19009,9 @@
       <c r="GW30" t="n">
         <v>36</v>
       </c>
+      <c r="GX30" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19541,6 +19631,9 @@
       <c r="GW31" t="n">
         <v>33</v>
       </c>
+      <c r="GX31" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20160,6 +20253,9 @@
       <c r="GW32" t="n">
         <v>2.2</v>
       </c>
+      <c r="GX32" t="n">
+        <v>2.96</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20779,6 +20875,9 @@
       <c r="GW33" t="n">
         <v>11</v>
       </c>
+      <c r="GX33" t="n">
+        <v>6.18</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21398,6 +21497,9 @@
       <c r="GW34" t="n">
         <v>39.4</v>
       </c>
+      <c r="GX34" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22017,6 +22119,9 @@
       <c r="GW35" t="n">
         <v>9.1</v>
       </c>
+      <c r="GX35" t="n">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22636,6 +22741,9 @@
       <c r="GW36" t="n">
         <v>188.4</v>
       </c>
+      <c r="GX36" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23255,6 +23363,9 @@
       <c r="GW37" t="n">
         <v>87.5</v>
       </c>
+      <c r="GX37" t="n">
+        <v>86.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -23874,6 +23985,9 @@
       <c r="GW38" t="n">
         <v>25.74</v>
       </c>
+      <c r="GX38" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24493,6 +24607,9 @@
       <c r="GW39" t="n">
         <v>95.40000000000001</v>
       </c>
+      <c r="GX39" t="n">
+        <v>79.09999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25112,6 +25229,9 @@
       <c r="GW40" t="n">
         <v>6</v>
       </c>
+      <c r="GX40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -25731,6 +25851,9 @@
       <c r="GW41" t="n">
         <v>7</v>
       </c>
+      <c r="GX41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26350,6 +26473,9 @@
       <c r="GW42" t="n">
         <v>4</v>
       </c>
+      <c r="GX42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -26969,6 +27095,9 @@
       <c r="GW43" t="n">
         <v>5</v>
       </c>
+      <c r="GX43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27588,6 +27717,9 @@
       <c r="GW44" t="n">
         <v>99</v>
       </c>
+      <c r="GX44" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28207,6 +28339,9 @@
       <c r="GW45" t="n">
         <v>195</v>
       </c>
+      <c r="GX45" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -28826,6 +28961,9 @@
       <c r="GW46" t="n">
         <v>202</v>
       </c>
+      <c r="GX46" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29445,6 +29583,9 @@
       <c r="GW47" t="n">
         <v>66.90000000000001</v>
       </c>
+      <c r="GX47" t="n">
+        <v>68.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30064,6 +30205,9 @@
       <c r="GW48" t="n">
         <v>47</v>
       </c>
+      <c r="GX48" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -30683,6 +30827,9 @@
       <c r="GW49" t="n">
         <v>10</v>
       </c>
+      <c r="GX49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31302,6 +31449,9 @@
       <c r="GW50" t="n">
         <v>9</v>
       </c>
+      <c r="GX50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -31921,6 +32071,9 @@
       <c r="GW51" t="n">
         <v>24</v>
       </c>
+      <c r="GX51" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -32540,6 +32693,9 @@
       <c r="GW52" t="n">
         <v>36</v>
       </c>
+      <c r="GX52" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33159,6 +33315,9 @@
       <c r="GW53" t="n">
         <v>51</v>
       </c>
+      <c r="GX53" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -33778,6 +33937,9 @@
       <c r="GW54" t="n">
         <v>0</v>
       </c>
+      <c r="GX54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -34397,6 +34559,9 @@
       <c r="GW55" t="n">
         <v>1</v>
       </c>
+      <c r="GX55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35016,6 +35181,9 @@
       <c r="GW56" t="n">
         <v>33.3</v>
       </c>
+      <c r="GX56" t="n">
+        <v>81.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -35635,6 +35803,9 @@
       <c r="GW57" t="n">
         <v>183</v>
       </c>
+      <c r="GX57" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36254,6 +36425,9 @@
       <c r="GW58" t="n">
         <v>74</v>
       </c>
+      <c r="GX58" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -36873,6 +37047,9 @@
       <c r="GW59" t="n">
         <v>257</v>
       </c>
+      <c r="GX59" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -37492,6 +37669,9 @@
       <c r="GW60" t="n">
         <v>2.47</v>
       </c>
+      <c r="GX60" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -38111,6 +38291,9 @@
       <c r="GW61" t="n">
         <v>66</v>
       </c>
+      <c r="GX61" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -38730,6 +38913,9 @@
       <c r="GW62" t="n">
         <v>39</v>
       </c>
+      <c r="GX62" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -39349,6 +39535,9 @@
       <c r="GW63" t="n">
         <v>36</v>
       </c>
+      <c r="GX63" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -39968,6 +40157,9 @@
       <c r="GW64" t="n">
         <v>16</v>
       </c>
+      <c r="GX64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -40587,6 +40779,9 @@
       <c r="GW65" t="n">
         <v>10</v>
       </c>
+      <c r="GX65" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41206,6 +41401,9 @@
       <c r="GW66" t="n">
         <v>12</v>
       </c>
+      <c r="GX66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -41825,6 +42023,9 @@
       <c r="GW67" t="n">
         <v>4</v>
       </c>
+      <c r="GX67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -42444,6 +42645,9 @@
       <c r="GW68" t="n">
         <v>7</v>
       </c>
+      <c r="GX68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -43063,6 +43267,9 @@
       <c r="GW69" t="n">
         <v>3</v>
       </c>
+      <c r="GX69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -43682,6 +43889,9 @@
       <c r="GW70" t="n">
         <v>22</v>
       </c>
+      <c r="GX70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -44301,6 +44511,9 @@
       <c r="GW71" t="n">
         <v>54.5</v>
       </c>
+      <c r="GX71" t="n">
+        <v>61.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -44920,6 +45133,9 @@
       <c r="GW72" t="n">
         <v>21.42</v>
       </c>
+      <c r="GX72" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -45539,6 +45755,9 @@
       <c r="GW73" t="n">
         <v>11.68</v>
       </c>
+      <c r="GX73" t="n">
+        <v>16.71</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -46158,6 +46377,9 @@
       <c r="GW74" t="n">
         <v>36</v>
       </c>
+      <c r="GX74" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -46777,6 +46999,9 @@
       <c r="GW75" t="n">
         <v>36</v>
       </c>
+      <c r="GX75" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -47396,6 +47621,9 @@
       <c r="GW76" t="n">
         <v>30</v>
       </c>
+      <c r="GX76" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -48015,6 +48243,9 @@
       <c r="GW77" t="n">
         <v>48</v>
       </c>
+      <c r="GX77" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -48634,6 +48865,9 @@
       <c r="GW78" t="n">
         <v>2.18</v>
       </c>
+      <c r="GX78" t="n">
+        <v>2.76</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -49253,6 +49487,9 @@
       <c r="GW79" t="n">
         <v>4</v>
       </c>
+      <c r="GX79" t="n">
+        <v>4.46</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -49872,6 +50109,9 @@
       <c r="GW80" t="n">
         <v>39.6</v>
       </c>
+      <c r="GX80" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -50491,6 +50731,9 @@
       <c r="GW81" t="n">
         <v>25</v>
       </c>
+      <c r="GX81" t="n">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -51110,6 +51353,9 @@
       <c r="GW82" t="n">
         <v>188.3</v>
       </c>
+      <c r="GX82" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -51729,6 +51975,9 @@
       <c r="GW83" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="GX83" t="n">
+        <v>84.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -52348,6 +52597,9 @@
       <c r="GW84" t="n">
         <v>25.33</v>
       </c>
+      <c r="GX84" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -52967,6 +53219,9 @@
       <c r="GW85" t="n">
         <v>97.09999999999999</v>
       </c>
+      <c r="GX85" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -53586,6 +53841,9 @@
       <c r="GW86" t="n">
         <v>7</v>
       </c>
+      <c r="GX86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -54205,6 +54463,9 @@
       <c r="GW87" t="n">
         <v>7</v>
       </c>
+      <c r="GX87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -54824,6 +55085,9 @@
       <c r="GW88" t="n">
         <v>4</v>
       </c>
+      <c r="GX88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -55443,6 +55707,9 @@
       <c r="GW89" t="n">
         <v>4</v>
       </c>
+      <c r="GX89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -56062,6 +56329,9 @@
       <c r="GW90" t="n">
         <v>108</v>
       </c>
+      <c r="GX90" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -56681,6 +56951,9 @@
       <c r="GW91" t="n">
         <v>144</v>
       </c>
+      <c r="GX91" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -57300,6 +57573,9 @@
       <c r="GW92" t="n">
         <v>187</v>
       </c>
+      <c r="GX92" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -57919,6 +58195,9 @@
       <c r="GW93" t="n">
         <v>72.8</v>
       </c>
+      <c r="GX93" t="n">
+        <v>66.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -58538,6 +58817,9 @@
       <c r="GW94" t="n">
         <v>36</v>
       </c>
+      <c r="GX94" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -59157,6 +59439,9 @@
       <c r="GW95" t="n">
         <v>6</v>
       </c>
+      <c r="GX95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -59776,6 +60061,9 @@
       <c r="GW96" t="n">
         <v>6</v>
       </c>
+      <c r="GX96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -60395,6 +60683,9 @@
       <c r="GW97" t="n">
         <v>36</v>
       </c>
+      <c r="GX97" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -61014,6 +61305,9 @@
       <c r="GW98" t="n">
         <v>30</v>
       </c>
+      <c r="GX98" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -61633,6 +61927,9 @@
       <c r="GW99" t="n">
         <v>35</v>
       </c>
+      <c r="GX99" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -62252,6 +62549,9 @@
       <c r="GW100" t="n">
         <v>4</v>
       </c>
+      <c r="GX100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -62871,6 +63171,9 @@
       <c r="GW101" t="n">
         <v>4</v>
       </c>
+      <c r="GX101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -63490,6 +63793,9 @@
       <c r="GW102" t="n">
         <v>33.3</v>
       </c>
+      <c r="GX102" t="n">
+        <v>53.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GX102"/>
+  <dimension ref="A1:GY102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,6 +974,9 @@
       <c r="GX1" t="n">
         <v>10334</v>
       </c>
+      <c r="GY1" t="n">
+        <v>10344</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1596,6 +1599,9 @@
       <c r="GX2" t="n">
         <v>2021</v>
       </c>
+      <c r="GY2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2218,6 +2224,9 @@
       <c r="GX3" t="n">
         <v>1</v>
       </c>
+      <c r="GY3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2840,6 +2849,9 @@
       <c r="GX4" t="n">
         <v>0</v>
       </c>
+      <c r="GY4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3462,6 +3474,9 @@
       <c r="GX5" t="n">
         <v>1</v>
       </c>
+      <c r="GY5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4084,6 +4099,9 @@
       <c r="GX6" t="n">
         <v>78</v>
       </c>
+      <c r="GY6" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4706,6 +4724,9 @@
       <c r="GX7" t="n">
         <v>86</v>
       </c>
+      <c r="GY7" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5328,6 +5349,9 @@
       <c r="GX8" t="n">
         <v>-8</v>
       </c>
+      <c r="GY8" t="n">
+        <v>-31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5950,6 +5974,9 @@
       <c r="GX9" t="n">
         <v>0</v>
       </c>
+      <c r="GY9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6572,6 +6599,9 @@
       <c r="GX10" t="n">
         <v>15</v>
       </c>
+      <c r="GY10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7194,6 +7224,9 @@
       <c r="GX11" t="n">
         <v>218</v>
       </c>
+      <c r="GY11" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7816,6 +7849,9 @@
       <c r="GX12" t="n">
         <v>152</v>
       </c>
+      <c r="GY12" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8438,6 +8474,9 @@
       <c r="GX13" t="n">
         <v>370</v>
       </c>
+      <c r="GY13" t="n">
+        <v>345</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9060,6 +9099,9 @@
       <c r="GX14" t="n">
         <v>1.43</v>
       </c>
+      <c r="GY14" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9682,6 +9724,9 @@
       <c r="GX15" t="n">
         <v>60</v>
       </c>
+      <c r="GY15" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10304,6 +10349,9 @@
       <c r="GX16" t="n">
         <v>46</v>
       </c>
+      <c r="GY16" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10926,6 +10974,9 @@
       <c r="GX17" t="n">
         <v>47</v>
       </c>
+      <c r="GY17" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11548,6 +11599,9 @@
       <c r="GX18" t="n">
         <v>30</v>
       </c>
+      <c r="GY18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12170,6 +12224,9 @@
       <c r="GX19" t="n">
         <v>14</v>
       </c>
+      <c r="GY19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12792,6 +12849,9 @@
       <c r="GX20" t="n">
         <v>11</v>
       </c>
+      <c r="GY20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13414,6 +13474,9 @@
       <c r="GX21" t="n">
         <v>9</v>
       </c>
+      <c r="GY21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14036,6 +14099,9 @@
       <c r="GX22" t="n">
         <v>9</v>
       </c>
+      <c r="GY22" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14658,6 +14724,9 @@
       <c r="GX23" t="n">
         <v>3</v>
       </c>
+      <c r="GY23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15280,6 +15349,9 @@
       <c r="GX24" t="n">
         <v>23</v>
       </c>
+      <c r="GY24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15902,6 +15974,9 @@
       <c r="GX25" t="n">
         <v>47.8</v>
       </c>
+      <c r="GY25" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16524,6 +16599,9 @@
       <c r="GX26" t="n">
         <v>33.64</v>
       </c>
+      <c r="GY26" t="n">
+        <v>49.29</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17146,6 +17224,9 @@
       <c r="GX27" t="n">
         <v>16.09</v>
       </c>
+      <c r="GY27" t="n">
+        <v>16.43</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17768,6 +17849,9 @@
       <c r="GX28" t="n">
         <v>40</v>
       </c>
+      <c r="GY28" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18390,6 +18474,9 @@
       <c r="GX29" t="n">
         <v>67</v>
       </c>
+      <c r="GY29" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19012,6 +19099,9 @@
       <c r="GX30" t="n">
         <v>43</v>
       </c>
+      <c r="GY30" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19634,6 +19724,9 @@
       <c r="GX31" t="n">
         <v>68</v>
       </c>
+      <c r="GY31" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20256,6 +20349,9 @@
       <c r="GX32" t="n">
         <v>2.96</v>
       </c>
+      <c r="GY32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20878,6 +20974,9 @@
       <c r="GX33" t="n">
         <v>6.18</v>
       </c>
+      <c r="GY33" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21500,6 +21599,9 @@
       <c r="GX34" t="n">
         <v>29.4</v>
       </c>
+      <c r="GY34" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22122,6 +22224,9 @@
       <c r="GX35" t="n">
         <v>16.2</v>
       </c>
+      <c r="GY35" t="n">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22744,6 +22849,9 @@
       <c r="GX36" t="n">
         <v>188.8</v>
       </c>
+      <c r="GY36" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23366,6 +23474,9 @@
       <c r="GX37" t="n">
         <v>86.5</v>
       </c>
+      <c r="GY37" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -23988,6 +24099,9 @@
       <c r="GX38" t="n">
         <v>25</v>
       </c>
+      <c r="GY38" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24610,6 +24724,9 @@
       <c r="GX39" t="n">
         <v>79.09999999999999</v>
       </c>
+      <c r="GY39" t="n">
+        <v>81.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25232,6 +25349,9 @@
       <c r="GX40" t="n">
         <v>9</v>
       </c>
+      <c r="GY40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -25854,6 +25974,9 @@
       <c r="GX41" t="n">
         <v>6</v>
       </c>
+      <c r="GY41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26476,6 +26599,9 @@
       <c r="GX42" t="n">
         <v>2</v>
       </c>
+      <c r="GY42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27098,6 +27224,9 @@
       <c r="GX43" t="n">
         <v>5</v>
       </c>
+      <c r="GY43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27720,6 +27849,9 @@
       <c r="GX44" t="n">
         <v>169</v>
       </c>
+      <c r="GY44" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28342,6 +28474,9 @@
       <c r="GX45" t="n">
         <v>190</v>
       </c>
+      <c r="GY45" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -28964,6 +29099,9 @@
       <c r="GX46" t="n">
         <v>252</v>
       </c>
+      <c r="GY46" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29586,6 +29724,9 @@
       <c r="GX47" t="n">
         <v>68.09999999999999</v>
       </c>
+      <c r="GY47" t="n">
+        <v>75.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30208,6 +30349,9 @@
       <c r="GX48" t="n">
         <v>67</v>
       </c>
+      <c r="GY48" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -30830,6 +30974,9 @@
       <c r="GX49" t="n">
         <v>12</v>
       </c>
+      <c r="GY49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31452,6 +31599,9 @@
       <c r="GX50" t="n">
         <v>8</v>
       </c>
+      <c r="GY50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32074,6 +32224,9 @@
       <c r="GX51" t="n">
         <v>40</v>
       </c>
+      <c r="GY51" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -32696,6 +32849,9 @@
       <c r="GX52" t="n">
         <v>43</v>
       </c>
+      <c r="GY52" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33318,6 +33474,9 @@
       <c r="GX53" t="n">
         <v>70</v>
       </c>
+      <c r="GY53" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -33940,6 +34099,9 @@
       <c r="GX54" t="n">
         <v>5</v>
       </c>
+      <c r="GY54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -34562,6 +34724,9 @@
       <c r="GX55" t="n">
         <v>9</v>
       </c>
+      <c r="GY55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35184,6 +35349,9 @@
       <c r="GX56" t="n">
         <v>81.8</v>
       </c>
+      <c r="GY56" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -35806,6 +35974,9 @@
       <c r="GX57" t="n">
         <v>235</v>
       </c>
+      <c r="GY57" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36428,6 +36599,9 @@
       <c r="GX58" t="n">
         <v>116</v>
       </c>
+      <c r="GY58" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37050,6 +37224,9 @@
       <c r="GX59" t="n">
         <v>351</v>
       </c>
+      <c r="GY59" t="n">
+        <v>419</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -37672,6 +37849,9 @@
       <c r="GX60" t="n">
         <v>2.03</v>
       </c>
+      <c r="GY60" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -38294,6 +38474,9 @@
       <c r="GX61" t="n">
         <v>56</v>
       </c>
+      <c r="GY61" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -38916,6 +39099,9 @@
       <c r="GX62" t="n">
         <v>72</v>
       </c>
+      <c r="GY62" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -39538,6 +39724,9 @@
       <c r="GX63" t="n">
         <v>38</v>
       </c>
+      <c r="GY63" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -40160,6 +40349,9 @@
       <c r="GX64" t="n">
         <v>14</v>
       </c>
+      <c r="GY64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -40782,6 +40974,9 @@
       <c r="GX65" t="n">
         <v>29</v>
       </c>
+      <c r="GY65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41404,6 +41599,9 @@
       <c r="GX66" t="n">
         <v>13</v>
       </c>
+      <c r="GY66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42026,6 +42224,9 @@
       <c r="GX67" t="n">
         <v>7</v>
       </c>
+      <c r="GY67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -42648,6 +42849,9 @@
       <c r="GX68" t="n">
         <v>5</v>
       </c>
+      <c r="GY68" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -43270,6 +43474,9 @@
       <c r="GX69" t="n">
         <v>3</v>
       </c>
+      <c r="GY69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -43892,6 +44099,9 @@
       <c r="GX70" t="n">
         <v>21</v>
       </c>
+      <c r="GY70" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -44514,6 +44724,9 @@
       <c r="GX71" t="n">
         <v>61.9</v>
       </c>
+      <c r="GY71" t="n">
+        <v>34.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -45136,6 +45349,9 @@
       <c r="GX72" t="n">
         <v>27</v>
       </c>
+      <c r="GY72" t="n">
+        <v>38.09</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -45758,6 +45974,9 @@
       <c r="GX73" t="n">
         <v>16.71</v>
       </c>
+      <c r="GY73" t="n">
+        <v>13.09</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -46380,6 +46599,9 @@
       <c r="GX74" t="n">
         <v>49</v>
       </c>
+      <c r="GY74" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -47002,6 +47224,9 @@
       <c r="GX75" t="n">
         <v>78</v>
       </c>
+      <c r="GY75" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -47624,6 +47849,9 @@
       <c r="GX76" t="n">
         <v>55</v>
       </c>
+      <c r="GY76" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -48246,6 +48474,9 @@
       <c r="GX77" t="n">
         <v>58</v>
       </c>
+      <c r="GY77" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -48868,6 +49099,9 @@
       <c r="GX78" t="n">
         <v>2.76</v>
       </c>
+      <c r="GY78" t="n">
+        <v>1.81</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -49490,6 +49724,9 @@
       <c r="GX79" t="n">
         <v>4.46</v>
       </c>
+      <c r="GY79" t="n">
+        <v>5.27</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -50112,6 +50349,9 @@
       <c r="GX80" t="n">
         <v>31</v>
       </c>
+      <c r="GY80" t="n">
+        <v>48.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -50734,6 +50974,9 @@
       <c r="GX81" t="n">
         <v>22.4</v>
       </c>
+      <c r="GY81" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -51356,6 +51599,9 @@
       <c r="GX82" t="n">
         <v>187.1</v>
       </c>
+      <c r="GY82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -51978,6 +52224,9 @@
       <c r="GX83" t="n">
         <v>84.90000000000001</v>
       </c>
+      <c r="GY83" t="n">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -52600,6 +52849,9 @@
       <c r="GX84" t="n">
         <v>25</v>
       </c>
+      <c r="GY84" t="n">
+        <v>24.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -53222,6 +53474,9 @@
       <c r="GX85" t="n">
         <v>70</v>
       </c>
+      <c r="GY85" t="n">
+        <v>73.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -53844,6 +54099,9 @@
       <c r="GX86" t="n">
         <v>9</v>
       </c>
+      <c r="GY86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -54466,6 +54724,9 @@
       <c r="GX87" t="n">
         <v>9</v>
       </c>
+      <c r="GY87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -55088,6 +55349,9 @@
       <c r="GX88" t="n">
         <v>3</v>
       </c>
+      <c r="GY88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -55710,6 +55974,9 @@
       <c r="GX89" t="n">
         <v>1</v>
       </c>
+      <c r="GY89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -56332,6 +56599,9 @@
       <c r="GX90" t="n">
         <v>139</v>
       </c>
+      <c r="GY90" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -56954,6 +57224,9 @@
       <c r="GX91" t="n">
         <v>188</v>
       </c>
+      <c r="GY91" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -57576,6 +57849,9 @@
       <c r="GX92" t="n">
         <v>232</v>
       </c>
+      <c r="GY92" t="n">
+        <v>318</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -58198,6 +58474,9 @@
       <c r="GX93" t="n">
         <v>66.09999999999999</v>
       </c>
+      <c r="GY93" t="n">
+        <v>75.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -58820,6 +59099,9 @@
       <c r="GX94" t="n">
         <v>78</v>
       </c>
+      <c r="GY94" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -59442,6 +59724,9 @@
       <c r="GX95" t="n">
         <v>1</v>
       </c>
+      <c r="GY95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -60064,6 +60349,9 @@
       <c r="GX96" t="n">
         <v>8</v>
       </c>
+      <c r="GY96" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -60686,6 +60974,9 @@
       <c r="GX97" t="n">
         <v>49</v>
       </c>
+      <c r="GY97" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -61308,6 +61599,9 @@
       <c r="GX98" t="n">
         <v>55</v>
       </c>
+      <c r="GY98" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -61930,6 +62224,9 @@
       <c r="GX99" t="n">
         <v>69</v>
       </c>
+      <c r="GY99" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -62552,6 +62849,9 @@
       <c r="GX100" t="n">
         <v>4</v>
       </c>
+      <c r="GY100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -63174,6 +63474,9 @@
       <c r="GX101" t="n">
         <v>7</v>
       </c>
+      <c r="GY101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -63796,6 +64099,9 @@
       <c r="GX102" t="n">
         <v>53.8</v>
       </c>
+      <c r="GY102" t="n">
+        <v>72.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GY102"/>
+  <dimension ref="A1:GZ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -977,6 +977,9 @@
       <c r="GY1" t="n">
         <v>10344</v>
       </c>
+      <c r="GZ1" t="n">
+        <v>10352</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1602,6 +1605,9 @@
       <c r="GY2" t="n">
         <v>2021</v>
       </c>
+      <c r="GZ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2227,6 +2233,9 @@
       <c r="GY3" t="n">
         <v>2</v>
       </c>
+      <c r="GZ3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2852,6 +2861,9 @@
       <c r="GY4" t="n">
         <v>1</v>
       </c>
+      <c r="GZ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3477,6 +3489,9 @@
       <c r="GY5" t="n">
         <v>0</v>
       </c>
+      <c r="GZ5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4102,6 +4117,9 @@
       <c r="GY6" t="n">
         <v>56</v>
       </c>
+      <c r="GZ6" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4727,6 +4745,9 @@
       <c r="GY7" t="n">
         <v>87</v>
       </c>
+      <c r="GZ7" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5352,6 +5373,9 @@
       <c r="GY8" t="n">
         <v>-31</v>
       </c>
+      <c r="GZ8" t="n">
+        <v>-34</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5977,6 +6001,9 @@
       <c r="GY9" t="n">
         <v>0</v>
       </c>
+      <c r="GZ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6602,6 +6629,9 @@
       <c r="GY10" t="n">
         <v>6</v>
       </c>
+      <c r="GZ10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7227,6 +7257,9 @@
       <c r="GY11" t="n">
         <v>207</v>
       </c>
+      <c r="GZ11" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7852,6 +7885,9 @@
       <c r="GY12" t="n">
         <v>138</v>
       </c>
+      <c r="GZ12" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8477,6 +8513,9 @@
       <c r="GY13" t="n">
         <v>345</v>
       </c>
+      <c r="GZ13" t="n">
+        <v>359</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9102,6 +9141,9 @@
       <c r="GY14" t="n">
         <v>1.5</v>
       </c>
+      <c r="GZ14" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9727,6 +9769,9 @@
       <c r="GY15" t="n">
         <v>81</v>
       </c>
+      <c r="GZ15" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10352,6 +10397,9 @@
       <c r="GY16" t="n">
         <v>48</v>
       </c>
+      <c r="GZ16" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10977,6 +11025,9 @@
       <c r="GY17" t="n">
         <v>19</v>
       </c>
+      <c r="GZ17" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11602,6 +11653,9 @@
       <c r="GY18" t="n">
         <v>21</v>
       </c>
+      <c r="GZ18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12227,6 +12281,9 @@
       <c r="GY19" t="n">
         <v>21</v>
       </c>
+      <c r="GZ19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12852,6 +12909,9 @@
       <c r="GY20" t="n">
         <v>7</v>
       </c>
+      <c r="GZ20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13477,6 +13537,9 @@
       <c r="GY21" t="n">
         <v>6</v>
       </c>
+      <c r="GZ21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14102,6 +14165,9 @@
       <c r="GY22" t="n">
         <v>14</v>
       </c>
+      <c r="GZ22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14727,6 +14793,9 @@
       <c r="GY23" t="n">
         <v>0</v>
       </c>
+      <c r="GZ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15352,6 +15421,9 @@
       <c r="GY24" t="n">
         <v>21</v>
       </c>
+      <c r="GZ24" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15977,6 +16049,9 @@
       <c r="GY25" t="n">
         <v>33.3</v>
       </c>
+      <c r="GZ25" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16602,6 +16677,9 @@
       <c r="GY26" t="n">
         <v>49.29</v>
       </c>
+      <c r="GZ26" t="n">
+        <v>32.64</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17227,6 +17305,9 @@
       <c r="GY27" t="n">
         <v>16.43</v>
       </c>
+      <c r="GZ27" t="n">
+        <v>27.62</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17852,6 +17933,9 @@
       <c r="GY28" t="n">
         <v>21</v>
       </c>
+      <c r="GZ28" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18477,6 +18561,9 @@
       <c r="GY29" t="n">
         <v>50</v>
       </c>
+      <c r="GZ29" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19102,6 +19189,9 @@
       <c r="GY30" t="n">
         <v>46</v>
       </c>
+      <c r="GZ30" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19727,6 +19817,9 @@
       <c r="GY31" t="n">
         <v>42</v>
       </c>
+      <c r="GZ31" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20352,6 +20445,9 @@
       <c r="GY32" t="n">
         <v>2</v>
       </c>
+      <c r="GZ32" t="n">
+        <v>3.77</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20977,6 +21073,9 @@
       <c r="GY33" t="n">
         <v>6</v>
       </c>
+      <c r="GZ33" t="n">
+        <v>4.45</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21602,6 +21701,9 @@
       <c r="GY34" t="n">
         <v>50</v>
       </c>
+      <c r="GZ34" t="n">
+        <v>26.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22227,6 +22329,9 @@
       <c r="GY35" t="n">
         <v>16.7</v>
       </c>
+      <c r="GZ35" t="n">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22852,6 +22957,9 @@
       <c r="GY36" t="n">
         <v>188.3</v>
       </c>
+      <c r="GZ36" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23477,6 +23585,9 @@
       <c r="GY37" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="GZ37" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24102,6 +24213,9 @@
       <c r="GY38" t="n">
         <v>25.24</v>
       </c>
+      <c r="GZ38" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24727,6 +24841,9 @@
       <c r="GY39" t="n">
         <v>81.90000000000001</v>
       </c>
+      <c r="GZ39" t="n">
+        <v>75.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25352,6 +25469,9 @@
       <c r="GY40" t="n">
         <v>8</v>
       </c>
+      <c r="GZ40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -25977,6 +26097,9 @@
       <c r="GY41" t="n">
         <v>7</v>
       </c>
+      <c r="GZ41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26602,6 +26725,9 @@
       <c r="GY42" t="n">
         <v>2</v>
       </c>
+      <c r="GZ42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27227,6 +27353,9 @@
       <c r="GY43" t="n">
         <v>5</v>
       </c>
+      <c r="GZ43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27852,6 +27981,9 @@
       <c r="GY44" t="n">
         <v>113</v>
       </c>
+      <c r="GZ44" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28477,6 +28609,9 @@
       <c r="GY45" t="n">
         <v>219</v>
       </c>
+      <c r="GZ45" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29102,6 +29237,9 @@
       <c r="GY46" t="n">
         <v>260</v>
       </c>
+      <c r="GZ46" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29727,6 +29865,9 @@
       <c r="GY47" t="n">
         <v>75.40000000000001</v>
       </c>
+      <c r="GZ47" t="n">
+        <v>71.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30352,6 +30493,9 @@
       <c r="GY48" t="n">
         <v>50</v>
       </c>
+      <c r="GZ48" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -30977,6 +31121,9 @@
       <c r="GY49" t="n">
         <v>6</v>
       </c>
+      <c r="GZ49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31602,6 +31749,9 @@
       <c r="GY50" t="n">
         <v>5</v>
       </c>
+      <c r="GZ50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32227,6 +32377,9 @@
       <c r="GY51" t="n">
         <v>21</v>
       </c>
+      <c r="GZ51" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -32852,6 +33005,9 @@
       <c r="GY52" t="n">
         <v>46</v>
       </c>
+      <c r="GZ52" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33477,6 +33633,9 @@
       <c r="GY53" t="n">
         <v>49</v>
       </c>
+      <c r="GZ53" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34102,6 +34261,9 @@
       <c r="GY54" t="n">
         <v>6</v>
       </c>
+      <c r="GZ54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -34727,6 +34889,9 @@
       <c r="GY55" t="n">
         <v>6</v>
       </c>
+      <c r="GZ55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35352,6 +35517,9 @@
       <c r="GY56" t="n">
         <v>85.7</v>
       </c>
+      <c r="GZ56" t="n">
+        <v>72.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -35977,6 +36145,9 @@
       <c r="GY57" t="n">
         <v>241</v>
       </c>
+      <c r="GZ57" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36602,6 +36773,9 @@
       <c r="GY58" t="n">
         <v>178</v>
       </c>
+      <c r="GZ58" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37227,6 +37401,9 @@
       <c r="GY59" t="n">
         <v>419</v>
       </c>
+      <c r="GZ59" t="n">
+        <v>377</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -37852,6 +38029,9 @@
       <c r="GY60" t="n">
         <v>1.35</v>
       </c>
+      <c r="GZ60" t="n">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -38477,6 +38657,9 @@
       <c r="GY61" t="n">
         <v>114</v>
       </c>
+      <c r="GZ61" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39102,6 +39285,9 @@
       <c r="GY62" t="n">
         <v>48</v>
       </c>
+      <c r="GZ62" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -39727,6 +39913,9 @@
       <c r="GY63" t="n">
         <v>27</v>
       </c>
+      <c r="GZ63" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -40352,6 +40541,9 @@
       <c r="GY64" t="n">
         <v>21</v>
       </c>
+      <c r="GZ64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -40977,6 +41169,9 @@
       <c r="GY65" t="n">
         <v>21</v>
       </c>
+      <c r="GZ65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41602,6 +41797,9 @@
       <c r="GY66" t="n">
         <v>11</v>
       </c>
+      <c r="GZ66" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42227,6 +42425,9 @@
       <c r="GY67" t="n">
         <v>8</v>
       </c>
+      <c r="GZ67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -42852,6 +43053,9 @@
       <c r="GY68" t="n">
         <v>17</v>
       </c>
+      <c r="GZ68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -43477,6 +43681,9 @@
       <c r="GY69" t="n">
         <v>4</v>
       </c>
+      <c r="GZ69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -44102,6 +44309,9 @@
       <c r="GY70" t="n">
         <v>32</v>
       </c>
+      <c r="GZ70" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -44727,6 +44937,9 @@
       <c r="GY71" t="n">
         <v>34.4</v>
       </c>
+      <c r="GZ71" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -45352,6 +45565,9 @@
       <c r="GY72" t="n">
         <v>38.09</v>
       </c>
+      <c r="GZ72" t="n">
+        <v>25.13</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -45977,6 +46193,9 @@
       <c r="GY73" t="n">
         <v>13.09</v>
       </c>
+      <c r="GZ73" t="n">
+        <v>13.96</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -46602,6 +46821,9 @@
       <c r="GY74" t="n">
         <v>29</v>
       </c>
+      <c r="GZ74" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -47227,6 +47449,9 @@
       <c r="GY75" t="n">
         <v>55</v>
       </c>
+      <c r="GZ75" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -47852,6 +48077,9 @@
       <c r="GY76" t="n">
         <v>35</v>
       </c>
+      <c r="GZ76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -48477,6 +48705,9 @@
       <c r="GY77" t="n">
         <v>58</v>
       </c>
+      <c r="GZ77" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -49102,6 +49333,9 @@
       <c r="GY78" t="n">
         <v>1.81</v>
       </c>
+      <c r="GZ78" t="n">
+        <v>2.48</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -49727,6 +49961,9 @@
       <c r="GY79" t="n">
         <v>5.27</v>
       </c>
+      <c r="GZ79" t="n">
+        <v>4.47</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -50352,6 +50589,9 @@
       <c r="GY80" t="n">
         <v>48.3</v>
       </c>
+      <c r="GZ80" t="n">
+        <v>38.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -50977,6 +51217,9 @@
       <c r="GY81" t="n">
         <v>19</v>
       </c>
+      <c r="GZ81" t="n">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -51602,6 +51845,9 @@
       <c r="GY82" t="n">
         <v>187.3</v>
       </c>
+      <c r="GZ82" t="n">
+        <v>186.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -52227,6 +52473,9 @@
       <c r="GY83" t="n">
         <v>87.3</v>
       </c>
+      <c r="GZ83" t="n">
+        <v>85.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -52852,6 +53101,9 @@
       <c r="GY84" t="n">
         <v>24.66</v>
       </c>
+      <c r="GZ84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -53477,6 +53729,9 @@
       <c r="GY85" t="n">
         <v>73.40000000000001</v>
       </c>
+      <c r="GZ85" t="n">
+        <v>96.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -54102,6 +54357,9 @@
       <c r="GY86" t="n">
         <v>10</v>
       </c>
+      <c r="GZ86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -54727,6 +54985,9 @@
       <c r="GY87" t="n">
         <v>7</v>
       </c>
+      <c r="GZ87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -55352,6 +55613,9 @@
       <c r="GY88" t="n">
         <v>4</v>
       </c>
+      <c r="GZ88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -55977,6 +56241,9 @@
       <c r="GY89" t="n">
         <v>2</v>
       </c>
+      <c r="GZ89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -56602,6 +56869,9 @@
       <c r="GY90" t="n">
         <v>145</v>
       </c>
+      <c r="GZ90" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -57227,6 +57497,9 @@
       <c r="GY91" t="n">
         <v>278</v>
       </c>
+      <c r="GZ91" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -57852,6 +58125,9 @@
       <c r="GY92" t="n">
         <v>318</v>
       </c>
+      <c r="GZ92" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -58477,6 +58753,9 @@
       <c r="GY93" t="n">
         <v>75.90000000000001</v>
       </c>
+      <c r="GZ93" t="n">
+        <v>72.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -59102,6 +59381,9 @@
       <c r="GY94" t="n">
         <v>55</v>
       </c>
+      <c r="GZ94" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -59727,6 +60009,9 @@
       <c r="GY95" t="n">
         <v>12</v>
       </c>
+      <c r="GZ95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -60352,6 +60637,9 @@
       <c r="GY96" t="n">
         <v>22</v>
       </c>
+      <c r="GZ96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -60977,6 +61265,9 @@
       <c r="GY97" t="n">
         <v>29</v>
       </c>
+      <c r="GZ97" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -61602,6 +61893,9 @@
       <c r="GY98" t="n">
         <v>35</v>
       </c>
+      <c r="GZ98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -62227,6 +62521,9 @@
       <c r="GY99" t="n">
         <v>56</v>
       </c>
+      <c r="GZ99" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -62852,6 +63149,9 @@
       <c r="GY100" t="n">
         <v>3</v>
       </c>
+      <c r="GZ100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -63477,6 +63777,9 @@
       <c r="GY101" t="n">
         <v>8</v>
       </c>
+      <c r="GZ101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -64102,6 +64405,9 @@
       <c r="GY102" t="n">
         <v>72.7</v>
       </c>
+      <c r="GZ102" t="n">
+        <v>53.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GZ102"/>
+  <dimension ref="A1:HA102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,6 +980,9 @@
       <c r="GZ1" t="n">
         <v>10352</v>
       </c>
+      <c r="HA1" t="n">
+        <v>10359</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1608,6 +1611,9 @@
       <c r="GZ2" t="n">
         <v>2021</v>
       </c>
+      <c r="HA2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2236,6 +2242,9 @@
       <c r="GZ3" t="n">
         <v>3</v>
       </c>
+      <c r="HA3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2864,6 +2873,9 @@
       <c r="GZ4" t="n">
         <v>0</v>
       </c>
+      <c r="HA4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3492,6 +3504,9 @@
       <c r="GZ5" t="n">
         <v>1</v>
       </c>
+      <c r="HA5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4120,6 +4135,9 @@
       <c r="GZ6" t="n">
         <v>68</v>
       </c>
+      <c r="HA6" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4748,6 +4766,9 @@
       <c r="GZ7" t="n">
         <v>102</v>
       </c>
+      <c r="HA7" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5376,6 +5397,9 @@
       <c r="GZ8" t="n">
         <v>-34</v>
       </c>
+      <c r="HA8" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6004,6 +6028,9 @@
       <c r="GZ9" t="n">
         <v>0</v>
       </c>
+      <c r="HA9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6632,6 +6659,9 @@
       <c r="GZ10" t="n">
         <v>11</v>
       </c>
+      <c r="HA10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7260,6 +7290,9 @@
       <c r="GZ11" t="n">
         <v>208</v>
       </c>
+      <c r="HA11" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7888,6 +7921,9 @@
       <c r="GZ12" t="n">
         <v>151</v>
       </c>
+      <c r="HA12" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8516,6 +8552,9 @@
       <c r="GZ13" t="n">
         <v>359</v>
       </c>
+      <c r="HA13" t="n">
+        <v>407</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9144,6 +9183,9 @@
       <c r="GZ14" t="n">
         <v>1.38</v>
       </c>
+      <c r="HA14" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9772,6 +9814,9 @@
       <c r="GZ15" t="n">
         <v>80</v>
       </c>
+      <c r="HA15" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10400,6 +10445,9 @@
       <c r="GZ16" t="n">
         <v>53</v>
       </c>
+      <c r="HA16" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11028,6 +11076,9 @@
       <c r="GZ17" t="n">
         <v>32</v>
       </c>
+      <c r="HA17" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11656,6 +11707,9 @@
       <c r="GZ18" t="n">
         <v>20</v>
       </c>
+      <c r="HA18" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12284,6 +12338,9 @@
       <c r="GZ19" t="n">
         <v>21</v>
       </c>
+      <c r="HA19" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12912,6 +12969,9 @@
       <c r="GZ20" t="n">
         <v>11</v>
       </c>
+      <c r="HA20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13540,6 +13600,9 @@
       <c r="GZ21" t="n">
         <v>8</v>
       </c>
+      <c r="HA21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14168,6 +14231,9 @@
       <c r="GZ22" t="n">
         <v>2</v>
       </c>
+      <c r="HA22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14796,6 +14862,9 @@
       <c r="GZ23" t="n">
         <v>0</v>
       </c>
+      <c r="HA23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15424,6 +15493,9 @@
       <c r="GZ24" t="n">
         <v>13</v>
       </c>
+      <c r="HA24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16052,6 +16124,9 @@
       <c r="GZ25" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="HA25" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16680,6 +16755,9 @@
       <c r="GZ26" t="n">
         <v>32.64</v>
       </c>
+      <c r="HA26" t="n">
+        <v>29.07</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17308,6 +17386,9 @@
       <c r="GZ27" t="n">
         <v>27.62</v>
       </c>
+      <c r="HA27" t="n">
+        <v>20.35</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17936,6 +18017,9 @@
       <c r="GZ28" t="n">
         <v>38</v>
       </c>
+      <c r="HA28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18564,6 +18648,9 @@
       <c r="GZ29" t="n">
         <v>71</v>
       </c>
+      <c r="HA29" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19192,6 +19279,9 @@
       <c r="GZ30" t="n">
         <v>49</v>
       </c>
+      <c r="HA30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19820,6 +19910,9 @@
       <c r="GZ31" t="n">
         <v>49</v>
       </c>
+      <c r="HA31" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20448,6 +20541,9 @@
       <c r="GZ32" t="n">
         <v>3.77</v>
       </c>
+      <c r="HA32" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21076,6 +21172,9 @@
       <c r="GZ33" t="n">
         <v>4.45</v>
       </c>
+      <c r="HA33" t="n">
+        <v>3.43</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21704,6 +21803,9 @@
       <c r="GZ34" t="n">
         <v>26.5</v>
       </c>
+      <c r="HA34" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22332,6 +22434,9 @@
       <c r="GZ35" t="n">
         <v>22.4</v>
       </c>
+      <c r="HA35" t="n">
+        <v>29.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22960,6 +23065,9 @@
       <c r="GZ36" t="n">
         <v>188.3</v>
       </c>
+      <c r="HA36" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23588,6 +23696,9 @@
       <c r="GZ37" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="HA37" t="n">
+        <v>86.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24216,6 +24327,9 @@
       <c r="GZ38" t="n">
         <v>24.8</v>
       </c>
+      <c r="HA38" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24844,6 +24958,9 @@
       <c r="GZ39" t="n">
         <v>75.90000000000001</v>
       </c>
+      <c r="HA39" t="n">
+        <v>67.59999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25472,6 +25589,9 @@
       <c r="GZ40" t="n">
         <v>10</v>
       </c>
+      <c r="HA40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26100,6 +26220,9 @@
       <c r="GZ41" t="n">
         <v>6</v>
       </c>
+      <c r="HA41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26728,6 +26851,9 @@
       <c r="GZ42" t="n">
         <v>2</v>
       </c>
+      <c r="HA42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27356,6 +27482,9 @@
       <c r="GZ43" t="n">
         <v>5</v>
       </c>
+      <c r="HA43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27984,6 +28113,9 @@
       <c r="GZ44" t="n">
         <v>133</v>
       </c>
+      <c r="HA44" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28612,6 +28744,9 @@
       <c r="GZ45" t="n">
         <v>223</v>
       </c>
+      <c r="HA45" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29240,6 +29375,9 @@
       <c r="GZ46" t="n">
         <v>256</v>
       </c>
+      <c r="HA46" t="n">
+        <v>281</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29868,6 +30006,9 @@
       <c r="GZ47" t="n">
         <v>71.3</v>
       </c>
+      <c r="HA47" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30496,6 +30637,9 @@
       <c r="GZ48" t="n">
         <v>71</v>
       </c>
+      <c r="HA48" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31124,6 +31268,9 @@
       <c r="GZ49" t="n">
         <v>6</v>
       </c>
+      <c r="HA49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31752,6 +31899,9 @@
       <c r="GZ50" t="n">
         <v>6</v>
       </c>
+      <c r="HA50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32380,6 +32530,9 @@
       <c r="GZ51" t="n">
         <v>38</v>
       </c>
+      <c r="HA51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33008,6 +33161,9 @@
       <c r="GZ52" t="n">
         <v>49</v>
       </c>
+      <c r="HA52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33636,6 +33792,9 @@
       <c r="GZ53" t="n">
         <v>70</v>
       </c>
+      <c r="HA53" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34264,6 +34423,9 @@
       <c r="GZ54" t="n">
         <v>4</v>
       </c>
+      <c r="HA54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -34892,6 +35054,9 @@
       <c r="GZ55" t="n">
         <v>8</v>
       </c>
+      <c r="HA55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35520,6 +35685,9 @@
       <c r="GZ56" t="n">
         <v>72.7</v>
       </c>
+      <c r="HA56" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36148,6 +36316,9 @@
       <c r="GZ57" t="n">
         <v>241</v>
       </c>
+      <c r="HA57" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36776,6 +36947,9 @@
       <c r="GZ58" t="n">
         <v>136</v>
       </c>
+      <c r="HA58" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37404,6 +37578,9 @@
       <c r="GZ59" t="n">
         <v>377</v>
       </c>
+      <c r="HA59" t="n">
+        <v>353</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38032,6 +38209,9 @@
       <c r="GZ60" t="n">
         <v>1.77</v>
       </c>
+      <c r="HA60" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -38660,6 +38840,9 @@
       <c r="GZ61" t="n">
         <v>97</v>
       </c>
+      <c r="HA61" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39288,6 +39471,9 @@
       <c r="GZ62" t="n">
         <v>62</v>
       </c>
+      <c r="HA62" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -39916,6 +40102,9 @@
       <c r="GZ63" t="n">
         <v>41</v>
       </c>
+      <c r="HA63" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -40544,6 +40733,9 @@
       <c r="GZ64" t="n">
         <v>21</v>
       </c>
+      <c r="HA64" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41172,6 +41364,9 @@
       <c r="GZ65" t="n">
         <v>20</v>
       </c>
+      <c r="HA65" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41800,6 +41995,9 @@
       <c r="GZ66" t="n">
         <v>15</v>
       </c>
+      <c r="HA66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42428,6 +42626,9 @@
       <c r="GZ67" t="n">
         <v>8</v>
       </c>
+      <c r="HA67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43056,6 +43257,9 @@
       <c r="GZ68" t="n">
         <v>11</v>
       </c>
+      <c r="HA68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -43684,6 +43888,9 @@
       <c r="GZ69" t="n">
         <v>1</v>
       </c>
+      <c r="HA69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -44312,6 +44519,9 @@
       <c r="GZ70" t="n">
         <v>27</v>
       </c>
+      <c r="HA70" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -44940,6 +45150,9 @@
       <c r="GZ71" t="n">
         <v>55.6</v>
       </c>
+      <c r="HA71" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -45568,6 +45781,9 @@
       <c r="GZ72" t="n">
         <v>25.13</v>
       </c>
+      <c r="HA72" t="n">
+        <v>39.22</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -46196,6 +46412,9 @@
       <c r="GZ73" t="n">
         <v>13.96</v>
       </c>
+      <c r="HA73" t="n">
+        <v>23.53</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -46824,6 +47043,9 @@
       <c r="GZ74" t="n">
         <v>44</v>
       </c>
+      <c r="HA74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -47452,6 +47674,9 @@
       <c r="GZ75" t="n">
         <v>62</v>
       </c>
+      <c r="HA75" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48080,6 +48305,9 @@
       <c r="GZ76" t="n">
         <v>38</v>
       </c>
+      <c r="HA76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -48708,6 +48936,9 @@
       <c r="GZ77" t="n">
         <v>67</v>
       </c>
+      <c r="HA77" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -49336,6 +49567,9 @@
       <c r="GZ78" t="n">
         <v>2.48</v>
       </c>
+      <c r="HA78" t="n">
+        <v>3.47</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -49964,6 +50198,9 @@
       <c r="GZ79" t="n">
         <v>4.47</v>
       </c>
+      <c r="HA79" t="n">
+        <v>5.78</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -50592,6 +50829,9 @@
       <c r="GZ80" t="n">
         <v>38.8</v>
       </c>
+      <c r="HA80" t="n">
+        <v>28.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -51220,6 +51460,9 @@
       <c r="GZ81" t="n">
         <v>22.4</v>
       </c>
+      <c r="HA81" t="n">
+        <v>17.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -51848,6 +52091,9 @@
       <c r="GZ82" t="n">
         <v>186.5</v>
       </c>
+      <c r="HA82" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -52476,6 +52722,9 @@
       <c r="GZ83" t="n">
         <v>85.90000000000001</v>
       </c>
+      <c r="HA83" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -53104,6 +53353,9 @@
       <c r="GZ84" t="n">
         <v>25.16</v>
       </c>
+      <c r="HA84" t="n">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -53732,6 +53984,9 @@
       <c r="GZ85" t="n">
         <v>96.2</v>
       </c>
+      <c r="HA85" t="n">
+        <v>116.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -54360,6 +54615,9 @@
       <c r="GZ86" t="n">
         <v>6</v>
       </c>
+      <c r="HA86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -54988,6 +55246,9 @@
       <c r="GZ87" t="n">
         <v>6</v>
       </c>
+      <c r="HA87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -55616,6 +55877,9 @@
       <c r="GZ88" t="n">
         <v>5</v>
       </c>
+      <c r="HA88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -56244,6 +56508,9 @@
       <c r="GZ89" t="n">
         <v>5</v>
       </c>
+      <c r="HA89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -56872,6 +57139,9 @@
       <c r="GZ90" t="n">
         <v>153</v>
       </c>
+      <c r="HA90" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -57500,6 +57770,9 @@
       <c r="GZ91" t="n">
         <v>226</v>
       </c>
+      <c r="HA91" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -58128,6 +58401,9 @@
       <c r="GZ92" t="n">
         <v>275</v>
       </c>
+      <c r="HA92" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -58756,6 +59032,9 @@
       <c r="GZ93" t="n">
         <v>72.90000000000001</v>
       </c>
+      <c r="HA93" t="n">
+        <v>64.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -59384,6 +59663,9 @@
       <c r="GZ94" t="n">
         <v>62</v>
       </c>
+      <c r="HA94" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -60012,6 +60294,9 @@
       <c r="GZ95" t="n">
         <v>12</v>
       </c>
+      <c r="HA95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -60640,6 +60925,9 @@
       <c r="GZ96" t="n">
         <v>12</v>
       </c>
+      <c r="HA96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -61268,6 +61556,9 @@
       <c r="GZ97" t="n">
         <v>44</v>
       </c>
+      <c r="HA97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -61896,6 +62187,9 @@
       <c r="GZ98" t="n">
         <v>38</v>
       </c>
+      <c r="HA98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -62524,6 +62818,9 @@
       <c r="GZ99" t="n">
         <v>45</v>
       </c>
+      <c r="HA99" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -63152,6 +63449,9 @@
       <c r="GZ100" t="n">
         <v>6</v>
       </c>
+      <c r="HA100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -63780,6 +64080,9 @@
       <c r="GZ101" t="n">
         <v>8</v>
       </c>
+      <c r="HA101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -64408,6 +64711,9 @@
       <c r="GZ102" t="n">
         <v>53.3</v>
       </c>
+      <c r="HA102" t="n">
+        <v>44.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HA102"/>
+  <dimension ref="A1:HB102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,6 +983,9 @@
       <c r="HA1" t="n">
         <v>10359</v>
       </c>
+      <c r="HB1" t="n">
+        <v>10366</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1614,6 +1617,9 @@
       <c r="HA2" t="n">
         <v>2021</v>
       </c>
+      <c r="HB2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2245,6 +2251,9 @@
       <c r="HA3" t="n">
         <v>4</v>
       </c>
+      <c r="HB3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2876,6 +2885,9 @@
       <c r="HA4" t="n">
         <v>1</v>
       </c>
+      <c r="HB4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3507,6 +3519,9 @@
       <c r="HA5" t="n">
         <v>1</v>
       </c>
+      <c r="HB5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4138,6 +4153,9 @@
       <c r="HA6" t="n">
         <v>90</v>
       </c>
+      <c r="HB6" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4769,6 +4787,9 @@
       <c r="HA7" t="n">
         <v>60</v>
       </c>
+      <c r="HB7" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5400,6 +5421,9 @@
       <c r="HA8" t="n">
         <v>30</v>
       </c>
+      <c r="HB8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6031,6 +6055,9 @@
       <c r="HA9" t="n">
         <v>1</v>
       </c>
+      <c r="HB9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6662,6 +6689,9 @@
       <c r="HA10" t="n">
         <v>4</v>
       </c>
+      <c r="HB10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7293,6 +7323,9 @@
       <c r="HA11" t="n">
         <v>237</v>
       </c>
+      <c r="HB11" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7924,6 +7957,9 @@
       <c r="HA12" t="n">
         <v>170</v>
       </c>
+      <c r="HB12" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8555,6 +8591,9 @@
       <c r="HA13" t="n">
         <v>407</v>
       </c>
+      <c r="HB13" t="n">
+        <v>375</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9186,6 +9225,9 @@
       <c r="HA14" t="n">
         <v>1.39</v>
       </c>
+      <c r="HB14" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9817,6 +9859,9 @@
       <c r="HA15" t="n">
         <v>107</v>
       </c>
+      <c r="HB15" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10448,6 +10493,9 @@
       <c r="HA16" t="n">
         <v>63</v>
       </c>
+      <c r="HB16" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11079,6 +11127,9 @@
       <c r="HA17" t="n">
         <v>18</v>
       </c>
+      <c r="HB17" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11710,6 +11761,9 @@
       <c r="HA18" t="n">
         <v>27</v>
       </c>
+      <c r="HB18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12341,6 +12395,9 @@
       <c r="HA19" t="n">
         <v>24</v>
       </c>
+      <c r="HB19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12972,6 +13029,9 @@
       <c r="HA20" t="n">
         <v>14</v>
       </c>
+      <c r="HB20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13603,6 +13663,9 @@
       <c r="HA21" t="n">
         <v>10</v>
       </c>
+      <c r="HB21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14234,6 +14297,9 @@
       <c r="HA22" t="n">
         <v>4</v>
       </c>
+      <c r="HB22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14865,6 +14931,9 @@
       <c r="HA23" t="n">
         <v>2</v>
       </c>
+      <c r="HB23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15496,6 +15565,9 @@
       <c r="HA24" t="n">
         <v>20</v>
       </c>
+      <c r="HB24" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16127,6 +16199,9 @@
       <c r="HA25" t="n">
         <v>70</v>
       </c>
+      <c r="HB25" t="n">
+        <v>34.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16758,6 +16833,9 @@
       <c r="HA26" t="n">
         <v>29.07</v>
       </c>
+      <c r="HB26" t="n">
+        <v>41.67</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17389,6 +17467,9 @@
       <c r="HA27" t="n">
         <v>20.35</v>
       </c>
+      <c r="HB27" t="n">
+        <v>14.42</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18020,6 +18101,9 @@
       <c r="HA28" t="n">
         <v>36</v>
       </c>
+      <c r="HB28" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18651,6 +18735,9 @@
       <c r="HA29" t="n">
         <v>70</v>
       </c>
+      <c r="HB29" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19282,6 +19369,9 @@
       <c r="HA30" t="n">
         <v>41</v>
       </c>
+      <c r="HB30" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19913,6 +20003,9 @@
       <c r="HA31" t="n">
         <v>48</v>
       </c>
+      <c r="HB31" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20544,6 +20637,9 @@
       <c r="HA32" t="n">
         <v>2.4</v>
       </c>
+      <c r="HB32" t="n">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21175,6 +21271,9 @@
       <c r="HA33" t="n">
         <v>3.43</v>
       </c>
+      <c r="HB33" t="n">
+        <v>6.22</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21806,6 +21905,9 @@
       <c r="HA34" t="n">
         <v>37.5</v>
       </c>
+      <c r="HB34" t="n">
+        <v>39.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22437,6 +22539,9 @@
       <c r="HA35" t="n">
         <v>29.2</v>
       </c>
+      <c r="HB35" t="n">
+        <v>16.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23068,6 +23173,9 @@
       <c r="HA36" t="n">
         <v>188.8</v>
       </c>
+      <c r="HB36" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23699,6 +23807,9 @@
       <c r="HA37" t="n">
         <v>86.59999999999999</v>
       </c>
+      <c r="HB37" t="n">
+        <v>86.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24330,6 +24441,9 @@
       <c r="HA38" t="n">
         <v>24.41</v>
       </c>
+      <c r="HB38" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24961,6 +25075,9 @@
       <c r="HA39" t="n">
         <v>67.59999999999999</v>
       </c>
+      <c r="HB39" t="n">
+        <v>69.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25592,6 +25709,9 @@
       <c r="HA40" t="n">
         <v>10</v>
       </c>
+      <c r="HB40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26223,6 +26343,9 @@
       <c r="HA41" t="n">
         <v>7</v>
       </c>
+      <c r="HB41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26854,6 +26977,9 @@
       <c r="HA42" t="n">
         <v>2</v>
       </c>
+      <c r="HB42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27485,6 +27611,9 @@
       <c r="HA43" t="n">
         <v>3</v>
       </c>
+      <c r="HB43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28116,6 +28245,9 @@
       <c r="HA44" t="n">
         <v>150</v>
       </c>
+      <c r="HB44" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28747,6 +28879,9 @@
       <c r="HA45" t="n">
         <v>241</v>
       </c>
+      <c r="HB45" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29378,6 +29513,9 @@
       <c r="HA46" t="n">
         <v>281</v>
       </c>
+      <c r="HB46" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30009,6 +30147,9 @@
       <c r="HA47" t="n">
         <v>69</v>
       </c>
+      <c r="HB47" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30640,6 +30781,9 @@
       <c r="HA48" t="n">
         <v>70</v>
       </c>
+      <c r="HB48" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31271,6 +31415,9 @@
       <c r="HA49" t="n">
         <v>11</v>
       </c>
+      <c r="HB49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31902,6 +32049,9 @@
       <c r="HA50" t="n">
         <v>9</v>
       </c>
+      <c r="HB50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32533,6 +32683,9 @@
       <c r="HA51" t="n">
         <v>36</v>
       </c>
+      <c r="HB51" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33164,6 +33317,9 @@
       <c r="HA52" t="n">
         <v>41</v>
       </c>
+      <c r="HB52" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33795,6 +33951,9 @@
       <c r="HA53" t="n">
         <v>61</v>
       </c>
+      <c r="HB53" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34426,6 +34585,9 @@
       <c r="HA54" t="n">
         <v>2</v>
       </c>
+      <c r="HB54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35057,6 +35219,9 @@
       <c r="HA55" t="n">
         <v>10</v>
       </c>
+      <c r="HB55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35688,6 +35853,9 @@
       <c r="HA56" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="HB56" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36319,6 +36487,9 @@
       <c r="HA57" t="n">
         <v>212</v>
       </c>
+      <c r="HB57" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36950,6 +37121,9 @@
       <c r="HA58" t="n">
         <v>141</v>
       </c>
+      <c r="HB58" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37581,6 +37755,9 @@
       <c r="HA59" t="n">
         <v>353</v>
       </c>
+      <c r="HB59" t="n">
+        <v>337</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38212,6 +38389,9 @@
       <c r="HA60" t="n">
         <v>1.5</v>
       </c>
+      <c r="HB60" t="n">
+        <v>1.63</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -38843,6 +39023,9 @@
       <c r="HA61" t="n">
         <v>83</v>
       </c>
+      <c r="HB61" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39474,6 +39657,9 @@
       <c r="HA62" t="n">
         <v>61</v>
       </c>
+      <c r="HB62" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40105,6 +40291,9 @@
       <c r="HA63" t="n">
         <v>44</v>
       </c>
+      <c r="HB63" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -40736,6 +40925,9 @@
       <c r="HA64" t="n">
         <v>24</v>
       </c>
+      <c r="HB64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41367,6 +41559,9 @@
       <c r="HA65" t="n">
         <v>27</v>
       </c>
+      <c r="HB65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41998,6 +42193,9 @@
       <c r="HA66" t="n">
         <v>9</v>
       </c>
+      <c r="HB66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42629,6 +42827,9 @@
       <c r="HA67" t="n">
         <v>4</v>
       </c>
+      <c r="HB67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43260,6 +43461,9 @@
       <c r="HA68" t="n">
         <v>6</v>
       </c>
+      <c r="HB68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -43891,6 +44095,9 @@
       <c r="HA69" t="n">
         <v>0</v>
       </c>
+      <c r="HB69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -44522,6 +44729,9 @@
       <c r="HA70" t="n">
         <v>15</v>
       </c>
+      <c r="HB70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -45153,6 +45363,9 @@
       <c r="HA71" t="n">
         <v>60</v>
       </c>
+      <c r="HB71" t="n">
+        <v>52.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -45784,6 +45997,9 @@
       <c r="HA72" t="n">
         <v>39.22</v>
       </c>
+      <c r="HB72" t="n">
+        <v>33.7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -46415,6 +46631,9 @@
       <c r="HA73" t="n">
         <v>23.53</v>
       </c>
+      <c r="HB73" t="n">
+        <v>17.74</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47046,6 +47265,9 @@
       <c r="HA74" t="n">
         <v>32</v>
       </c>
+      <c r="HB74" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -47677,6 +47899,9 @@
       <c r="HA75" t="n">
         <v>80</v>
       </c>
+      <c r="HB75" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48308,6 +48533,9 @@
       <c r="HA76" t="n">
         <v>34</v>
       </c>
+      <c r="HB76" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -48939,6 +49167,9 @@
       <c r="HA77" t="n">
         <v>52</v>
       </c>
+      <c r="HB77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -49570,6 +49801,9 @@
       <c r="HA78" t="n">
         <v>3.47</v>
       </c>
+      <c r="HB78" t="n">
+        <v>2.89</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -50201,6 +50435,9 @@
       <c r="HA79" t="n">
         <v>5.78</v>
       </c>
+      <c r="HB79" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -50832,6 +51069,9 @@
       <c r="HA80" t="n">
         <v>28.8</v>
       </c>
+      <c r="HB80" t="n">
+        <v>32.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -51463,6 +51703,9 @@
       <c r="HA81" t="n">
         <v>17.3</v>
       </c>
+      <c r="HB81" t="n">
+        <v>18.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -52094,6 +52337,9 @@
       <c r="HA82" t="n">
         <v>188.7</v>
       </c>
+      <c r="HB82" t="n">
+        <v>187.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -52725,6 +52971,9 @@
       <c r="HA83" t="n">
         <v>88</v>
       </c>
+      <c r="HB83" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -53356,6 +53605,9 @@
       <c r="HA84" t="n">
         <v>27.8</v>
       </c>
+      <c r="HB84" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -53987,6 +54239,9 @@
       <c r="HA85" t="n">
         <v>116.7</v>
       </c>
+      <c r="HB85" t="n">
+        <v>88.59999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -54618,6 +54873,9 @@
       <c r="HA86" t="n">
         <v>6</v>
       </c>
+      <c r="HB86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -55249,6 +55507,9 @@
       <c r="HA87" t="n">
         <v>4</v>
       </c>
+      <c r="HB87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -55880,6 +56141,9 @@
       <c r="HA88" t="n">
         <v>4</v>
       </c>
+      <c r="HB88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -56511,6 +56775,9 @@
       <c r="HA89" t="n">
         <v>9</v>
       </c>
+      <c r="HB89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -57142,6 +57409,9 @@
       <c r="HA90" t="n">
         <v>135</v>
       </c>
+      <c r="HB90" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -57773,6 +58043,9 @@
       <c r="HA91" t="n">
         <v>202</v>
       </c>
+      <c r="HB91" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -58404,6 +58677,9 @@
       <c r="HA92" t="n">
         <v>227</v>
       </c>
+      <c r="HB92" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -59035,6 +59311,9 @@
       <c r="HA93" t="n">
         <v>64.3</v>
       </c>
+      <c r="HB93" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -59666,6 +59945,9 @@
       <c r="HA94" t="n">
         <v>80</v>
       </c>
+      <c r="HB94" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -60297,6 +60579,9 @@
       <c r="HA95" t="n">
         <v>12</v>
       </c>
+      <c r="HB95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -60928,6 +61213,9 @@
       <c r="HA96" t="n">
         <v>6</v>
       </c>
+      <c r="HB96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -61559,6 +61847,9 @@
       <c r="HA97" t="n">
         <v>32</v>
       </c>
+      <c r="HB97" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -62190,6 +62481,9 @@
       <c r="HA98" t="n">
         <v>34</v>
       </c>
+      <c r="HB98" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -62821,6 +63115,9 @@
       <c r="HA99" t="n">
         <v>39</v>
       </c>
+      <c r="HB99" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -63452,6 +63749,9 @@
       <c r="HA100" t="n">
         <v>0</v>
       </c>
+      <c r="HB100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -64083,6 +64383,9 @@
       <c r="HA101" t="n">
         <v>4</v>
       </c>
+      <c r="HB101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -64714,6 +65017,9 @@
       <c r="HA102" t="n">
         <v>44.4</v>
       </c>
+      <c r="HB102" t="n">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HB102"/>
+  <dimension ref="A1:HC102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,6 +1054,9 @@
       <c r="HB1" t="n">
         <v>10366</v>
       </c>
+      <c r="HC1" t="n">
+        <v>10372</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1620,6 +1691,9 @@
       <c r="HB2" t="n">
         <v>2021</v>
       </c>
+      <c r="HC2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2254,6 +2328,9 @@
       <c r="HB3" t="n">
         <v>5</v>
       </c>
+      <c r="HC3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2888,6 +2965,9 @@
       <c r="HB4" t="n">
         <v>1</v>
       </c>
+      <c r="HC4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3522,6 +3602,9 @@
       <c r="HB5" t="n">
         <v>1</v>
       </c>
+      <c r="HC5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4156,6 +4239,9 @@
       <c r="HB6" t="n">
         <v>71</v>
       </c>
+      <c r="HC6" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4790,6 +4876,9 @@
       <c r="HB7" t="n">
         <v>69</v>
       </c>
+      <c r="HC7" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5424,6 +5513,9 @@
       <c r="HB8" t="n">
         <v>2</v>
       </c>
+      <c r="HC8" t="n">
+        <v>-39</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6058,6 +6150,9 @@
       <c r="HB9" t="n">
         <v>1</v>
       </c>
+      <c r="HC9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6692,6 +6787,9 @@
       <c r="HB10" t="n">
         <v>16</v>
       </c>
+      <c r="HC10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7326,6 +7424,9 @@
       <c r="HB11" t="n">
         <v>208</v>
       </c>
+      <c r="HC11" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7960,6 +8061,9 @@
       <c r="HB12" t="n">
         <v>167</v>
       </c>
+      <c r="HC12" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8594,6 +8698,9 @@
       <c r="HB13" t="n">
         <v>375</v>
       </c>
+      <c r="HC13" t="n">
+        <v>328</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9228,6 +9335,9 @@
       <c r="HB14" t="n">
         <v>1.25</v>
       </c>
+      <c r="HC14" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9862,6 +9972,9 @@
       <c r="HB15" t="n">
         <v>73</v>
       </c>
+      <c r="HC15" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10496,6 +10609,9 @@
       <c r="HB16" t="n">
         <v>42</v>
       </c>
+      <c r="HC16" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11130,6 +11246,9 @@
       <c r="HB17" t="n">
         <v>29</v>
       </c>
+      <c r="HC17" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11764,6 +11883,9 @@
       <c r="HB18" t="n">
         <v>20</v>
       </c>
+      <c r="HC18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12398,6 +12520,9 @@
       <c r="HB19" t="n">
         <v>22</v>
       </c>
+      <c r="HC19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13032,6 +13157,9 @@
       <c r="HB20" t="n">
         <v>9</v>
       </c>
+      <c r="HC20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13666,6 +13794,9 @@
       <c r="HB21" t="n">
         <v>5</v>
       </c>
+      <c r="HC21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14300,6 +14431,9 @@
       <c r="HB22" t="n">
         <v>13</v>
       </c>
+      <c r="HC22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14934,6 +15068,9 @@
       <c r="HB23" t="n">
         <v>4</v>
       </c>
+      <c r="HC23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15568,6 +15705,9 @@
       <c r="HB24" t="n">
         <v>26</v>
       </c>
+      <c r="HC24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16202,6 +16342,9 @@
       <c r="HB25" t="n">
         <v>34.6</v>
       </c>
+      <c r="HC25" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16836,6 +16979,9 @@
       <c r="HB26" t="n">
         <v>41.67</v>
       </c>
+      <c r="HC26" t="n">
+        <v>36.44</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17470,6 +17616,9 @@
       <c r="HB27" t="n">
         <v>14.42</v>
       </c>
+      <c r="HC27" t="n">
+        <v>16.4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18104,6 +18253,9 @@
       <c r="HB28" t="n">
         <v>40</v>
       </c>
+      <c r="HC28" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18738,6 +18890,9 @@
       <c r="HB29" t="n">
         <v>58</v>
       </c>
+      <c r="HC29" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19372,6 +19527,9 @@
       <c r="HB30" t="n">
         <v>43</v>
       </c>
+      <c r="HC30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20006,6 +20164,9 @@
       <c r="HB31" t="n">
         <v>56</v>
       </c>
+      <c r="HC31" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20640,6 +20801,9 @@
       <c r="HB32" t="n">
         <v>2.15</v>
       </c>
+      <c r="HC32" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21274,6 +21438,9 @@
       <c r="HB33" t="n">
         <v>6.22</v>
       </c>
+      <c r="HC33" t="n">
+        <v>4.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21908,6 +22075,9 @@
       <c r="HB34" t="n">
         <v>39.3</v>
       </c>
+      <c r="HC34" t="n">
+        <v>40.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22542,6 +22712,9 @@
       <c r="HB35" t="n">
         <v>16.1</v>
       </c>
+      <c r="HC35" t="n">
+        <v>21.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23176,6 +23349,9 @@
       <c r="HB36" t="n">
         <v>188.7</v>
       </c>
+      <c r="HC36" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23810,6 +23986,9 @@
       <c r="HB37" t="n">
         <v>86.59999999999999</v>
       </c>
+      <c r="HC37" t="n">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24444,6 +24623,9 @@
       <c r="HB38" t="n">
         <v>24.74</v>
       </c>
+      <c r="HC38" t="n">
+        <v>23.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25078,6 +25260,9 @@
       <c r="HB39" t="n">
         <v>69.8</v>
       </c>
+      <c r="HC39" t="n">
+        <v>57.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25712,6 +25897,9 @@
       <c r="HB40" t="n">
         <v>10</v>
       </c>
+      <c r="HC40" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26346,6 +26534,9 @@
       <c r="HB41" t="n">
         <v>8</v>
       </c>
+      <c r="HC41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26980,6 +27171,9 @@
       <c r="HB42" t="n">
         <v>1</v>
       </c>
+      <c r="HC42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27614,6 +27808,9 @@
       <c r="HB43" t="n">
         <v>4</v>
       </c>
+      <c r="HC43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28248,6 +28445,9 @@
       <c r="HB44" t="n">
         <v>151</v>
       </c>
+      <c r="HC44" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28882,6 +29082,9 @@
       <c r="HB45" t="n">
         <v>221</v>
       </c>
+      <c r="HC45" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29516,6 +29719,9 @@
       <c r="HB46" t="n">
         <v>270</v>
       </c>
+      <c r="HC46" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30150,6 +30356,9 @@
       <c r="HB47" t="n">
         <v>72</v>
       </c>
+      <c r="HC47" t="n">
+        <v>73.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30784,6 +30993,9 @@
       <c r="HB48" t="n">
         <v>58</v>
       </c>
+      <c r="HC48" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31418,6 +31630,9 @@
       <c r="HB49" t="n">
         <v>12</v>
       </c>
+      <c r="HC49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32052,6 +32267,9 @@
       <c r="HB50" t="n">
         <v>12</v>
       </c>
+      <c r="HC50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32686,6 +32904,9 @@
       <c r="HB51" t="n">
         <v>40</v>
       </c>
+      <c r="HC51" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33320,6 +33541,9 @@
       <c r="HB52" t="n">
         <v>43</v>
       </c>
+      <c r="HC52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33954,6 +34178,9 @@
       <c r="HB53" t="n">
         <v>77</v>
       </c>
+      <c r="HC53" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34588,6 +34815,9 @@
       <c r="HB54" t="n">
         <v>4</v>
       </c>
+      <c r="HC54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35222,6 +35452,9 @@
       <c r="HB55" t="n">
         <v>5</v>
       </c>
+      <c r="HC55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35856,6 +36089,9 @@
       <c r="HB56" t="n">
         <v>55.6</v>
       </c>
+      <c r="HC56" t="n">
+        <v>77.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36490,6 +36726,9 @@
       <c r="HB57" t="n">
         <v>209</v>
       </c>
+      <c r="HC57" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37124,6 +37363,9 @@
       <c r="HB58" t="n">
         <v>128</v>
       </c>
+      <c r="HC58" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37758,6 +38000,9 @@
       <c r="HB59" t="n">
         <v>337</v>
       </c>
+      <c r="HC59" t="n">
+        <v>396</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38392,6 +38637,9 @@
       <c r="HB60" t="n">
         <v>1.63</v>
       </c>
+      <c r="HC60" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39026,6 +39274,9 @@
       <c r="HB61" t="n">
         <v>78</v>
       </c>
+      <c r="HC61" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39660,6 +39911,9 @@
       <c r="HB62" t="n">
         <v>69</v>
       </c>
+      <c r="HC62" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40294,6 +40548,9 @@
       <c r="HB63" t="n">
         <v>38</v>
       </c>
+      <c r="HC63" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -40928,6 +41185,9 @@
       <c r="HB64" t="n">
         <v>22</v>
       </c>
+      <c r="HC64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41562,6 +41822,9 @@
       <c r="HB65" t="n">
         <v>20</v>
       </c>
+      <c r="HC65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -42196,6 +42459,9 @@
       <c r="HB66" t="n">
         <v>10</v>
       </c>
+      <c r="HC66" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42830,6 +43096,9 @@
       <c r="HB67" t="n">
         <v>8</v>
       </c>
+      <c r="HC67" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43464,6 +43733,9 @@
       <c r="HB68" t="n">
         <v>8</v>
       </c>
+      <c r="HC68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -44098,6 +44370,9 @@
       <c r="HB69" t="n">
         <v>1</v>
       </c>
+      <c r="HC69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -44732,6 +45007,9 @@
       <c r="HB70" t="n">
         <v>19</v>
       </c>
+      <c r="HC70" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -45366,6 +45644,9 @@
       <c r="HB71" t="n">
         <v>52.6</v>
       </c>
+      <c r="HC71" t="n">
+        <v>51.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -46000,6 +46281,9 @@
       <c r="HB72" t="n">
         <v>33.7</v>
       </c>
+      <c r="HC72" t="n">
+        <v>26.4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -46634,6 +46918,9 @@
       <c r="HB73" t="n">
         <v>17.74</v>
       </c>
+      <c r="HC73" t="n">
+        <v>13.66</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47268,6 +47555,9 @@
       <c r="HB74" t="n">
         <v>39</v>
       </c>
+      <c r="HC74" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -47902,6 +48192,9 @@
       <c r="HB75" t="n">
         <v>60</v>
       </c>
+      <c r="HC75" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48536,6 +48829,9 @@
       <c r="HB76" t="n">
         <v>47</v>
       </c>
+      <c r="HC76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -49170,6 +49466,9 @@
       <c r="HB77" t="n">
         <v>55</v>
       </c>
+      <c r="HC77" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -49804,6 +50103,9 @@
       <c r="HB78" t="n">
         <v>2.89</v>
       </c>
+      <c r="HC78" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -50438,6 +50740,9 @@
       <c r="HB79" t="n">
         <v>5.5</v>
       </c>
+      <c r="HC79" t="n">
+        <v>3.27</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -51072,6 +51377,9 @@
       <c r="HB80" t="n">
         <v>32.7</v>
       </c>
+      <c r="HC80" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -51706,6 +52014,9 @@
       <c r="HB81" t="n">
         <v>18.2</v>
       </c>
+      <c r="HC81" t="n">
+        <v>30.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -52340,6 +52651,9 @@
       <c r="HB82" t="n">
         <v>187.6</v>
       </c>
+      <c r="HC82" t="n">
+        <v>187.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -52974,6 +53288,9 @@
       <c r="HB83" t="n">
         <v>84</v>
       </c>
+      <c r="HC83" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -53608,6 +53925,9 @@
       <c r="HB84" t="n">
         <v>24.33</v>
       </c>
+      <c r="HC84" t="n">
+        <v>26.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -54242,6 +54562,9 @@
       <c r="HB85" t="n">
         <v>88.59999999999999</v>
       </c>
+      <c r="HC85" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -54876,6 +55199,9 @@
       <c r="HB86" t="n">
         <v>10</v>
       </c>
+      <c r="HC86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -55510,6 +55836,9 @@
       <c r="HB87" t="n">
         <v>4</v>
       </c>
+      <c r="HC87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -56144,6 +56473,9 @@
       <c r="HB88" t="n">
         <v>4</v>
       </c>
+      <c r="HC88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -56778,6 +57110,9 @@
       <c r="HB89" t="n">
         <v>5</v>
       </c>
+      <c r="HC89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -57412,6 +57747,9 @@
       <c r="HB90" t="n">
         <v>138</v>
       </c>
+      <c r="HC90" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -58046,6 +58384,9 @@
       <c r="HB91" t="n">
         <v>188</v>
       </c>
+      <c r="HC91" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -58680,6 +59021,9 @@
       <c r="HB92" t="n">
         <v>238</v>
       </c>
+      <c r="HC92" t="n">
+        <v>292</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -59314,6 +59658,9 @@
       <c r="HB93" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="HC93" t="n">
+        <v>73.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -59948,6 +60295,9 @@
       <c r="HB94" t="n">
         <v>60</v>
       </c>
+      <c r="HC94" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -60582,6 +60932,9 @@
       <c r="HB95" t="n">
         <v>14</v>
       </c>
+      <c r="HC95" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -61216,6 +61569,9 @@
       <c r="HB96" t="n">
         <v>9</v>
       </c>
+      <c r="HC96" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -61850,6 +62206,9 @@
       <c r="HB97" t="n">
         <v>39</v>
       </c>
+      <c r="HC97" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -62484,6 +62843,9 @@
       <c r="HB98" t="n">
         <v>47</v>
       </c>
+      <c r="HC98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -63118,6 +63480,9 @@
       <c r="HB99" t="n">
         <v>47</v>
       </c>
+      <c r="HC99" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -63752,6 +64117,9 @@
       <c r="HB100" t="n">
         <v>3</v>
       </c>
+      <c r="HC100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -64386,6 +64754,9 @@
       <c r="HB101" t="n">
         <v>8</v>
       </c>
+      <c r="HC101" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -65020,6 +65391,9 @@
       <c r="HB102" t="n">
         <v>80</v>
       </c>
+      <c r="HC102" t="n">
+        <v>86.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC102"/>
+  <dimension ref="A1:HD102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,6 +989,9 @@
       <c r="HC1" t="n">
         <v>10372</v>
       </c>
+      <c r="HD1" t="n">
+        <v>10388</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1694,6 +1629,9 @@
       <c r="HC2" t="n">
         <v>2021</v>
       </c>
+      <c r="HD2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2331,6 +2269,9 @@
       <c r="HC3" t="n">
         <v>6</v>
       </c>
+      <c r="HD3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2968,6 +2909,9 @@
       <c r="HC4" t="n">
         <v>0</v>
       </c>
+      <c r="HD4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3605,6 +3549,9 @@
       <c r="HC5" t="n">
         <v>1</v>
       </c>
+      <c r="HD5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4242,6 +4189,9 @@
       <c r="HC6" t="n">
         <v>65</v>
       </c>
+      <c r="HD6" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4879,6 +4829,9 @@
       <c r="HC7" t="n">
         <v>104</v>
       </c>
+      <c r="HD7" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5516,6 +5469,9 @@
       <c r="HC8" t="n">
         <v>-39</v>
       </c>
+      <c r="HD8" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6153,6 +6109,9 @@
       <c r="HC9" t="n">
         <v>0</v>
       </c>
+      <c r="HD9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6790,6 +6749,9 @@
       <c r="HC10" t="n">
         <v>18</v>
       </c>
+      <c r="HD10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7427,6 +7389,9 @@
       <c r="HC11" t="n">
         <v>214</v>
       </c>
+      <c r="HD11" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8064,6 +8029,9 @@
       <c r="HC12" t="n">
         <v>114</v>
       </c>
+      <c r="HD12" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8701,6 +8669,9 @@
       <c r="HC13" t="n">
         <v>328</v>
       </c>
+      <c r="HD13" t="n">
+        <v>409</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9338,6 +9309,9 @@
       <c r="HC14" t="n">
         <v>1.88</v>
       </c>
+      <c r="HD14" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9975,6 +9949,9 @@
       <c r="HC15" t="n">
         <v>99</v>
       </c>
+      <c r="HD15" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10612,6 +10589,9 @@
       <c r="HC16" t="n">
         <v>52</v>
       </c>
+      <c r="HD16" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11249,6 +11229,9 @@
       <c r="HC17" t="n">
         <v>26</v>
       </c>
+      <c r="HD17" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11886,6 +11869,9 @@
       <c r="HC18" t="n">
         <v>15</v>
       </c>
+      <c r="HD18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12523,6 +12509,9 @@
       <c r="HC19" t="n">
         <v>16</v>
       </c>
+      <c r="HD19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13160,6 +13149,9 @@
       <c r="HC20" t="n">
         <v>9</v>
       </c>
+      <c r="HD20" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13797,6 +13789,9 @@
       <c r="HC21" t="n">
         <v>7</v>
       </c>
+      <c r="HD21" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14434,6 +14429,9 @@
       <c r="HC22" t="n">
         <v>8</v>
       </c>
+      <c r="HD22" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15071,6 +15069,9 @@
       <c r="HC23" t="n">
         <v>3</v>
       </c>
+      <c r="HD23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15708,6 +15709,9 @@
       <c r="HC24" t="n">
         <v>20</v>
       </c>
+      <c r="HD24" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16345,6 +16349,9 @@
       <c r="HC25" t="n">
         <v>45</v>
       </c>
+      <c r="HD25" t="n">
+        <v>48.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16982,6 +16989,9 @@
       <c r="HC26" t="n">
         <v>36.44</v>
       </c>
+      <c r="HD26" t="n">
+        <v>27.27</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17619,6 +17629,9 @@
       <c r="HC27" t="n">
         <v>16.4</v>
       </c>
+      <c r="HD27" t="n">
+        <v>13.19</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18256,6 +18269,9 @@
       <c r="HC28" t="n">
         <v>32</v>
       </c>
+      <c r="HD28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18893,6 +18909,9 @@
       <c r="HC29" t="n">
         <v>40</v>
       </c>
+      <c r="HD29" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19530,6 +19549,9 @@
       <c r="HC30" t="n">
         <v>34</v>
       </c>
+      <c r="HD30" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20167,6 +20189,9 @@
       <c r="HC31" t="n">
         <v>42</v>
       </c>
+      <c r="HD31" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20804,6 +20829,9 @@
       <c r="HC32" t="n">
         <v>2.1</v>
       </c>
+      <c r="HD32" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21441,6 +21469,9 @@
       <c r="HC33" t="n">
         <v>4.67</v>
       </c>
+      <c r="HD33" t="n">
+        <v>3.87</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22078,6 +22109,9 @@
       <c r="HC34" t="n">
         <v>40.5</v>
       </c>
+      <c r="HD34" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22715,6 +22749,9 @@
       <c r="HC35" t="n">
         <v>21.4</v>
       </c>
+      <c r="HD35" t="n">
+        <v>25.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23352,6 +23389,9 @@
       <c r="HC36" t="n">
         <v>188.4</v>
       </c>
+      <c r="HD36" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23989,6 +24029,9 @@
       <c r="HC37" t="n">
         <v>85.8</v>
       </c>
+      <c r="HD37" t="n">
+        <v>86.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24626,6 +24669,9 @@
       <c r="HC38" t="n">
         <v>23.49</v>
       </c>
+      <c r="HD38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25263,6 +25309,9 @@
       <c r="HC39" t="n">
         <v>57.7</v>
       </c>
+      <c r="HD39" t="n">
+        <v>77.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25900,6 +25949,9 @@
       <c r="HC40" t="n">
         <v>12</v>
       </c>
+      <c r="HD40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26537,6 +26589,9 @@
       <c r="HC41" t="n">
         <v>7</v>
       </c>
+      <c r="HD41" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27174,6 +27229,9 @@
       <c r="HC42" t="n">
         <v>1</v>
       </c>
+      <c r="HD42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27811,6 +27869,9 @@
       <c r="HC43" t="n">
         <v>3</v>
       </c>
+      <c r="HD43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28448,6 +28509,9 @@
       <c r="HC44" t="n">
         <v>124</v>
       </c>
+      <c r="HD44" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29085,6 +29149,9 @@
       <c r="HC45" t="n">
         <v>191</v>
       </c>
+      <c r="HD45" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29722,6 +29789,9 @@
       <c r="HC46" t="n">
         <v>240</v>
       </c>
+      <c r="HD46" t="n">
+        <v>309</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30359,6 +30429,9 @@
       <c r="HC47" t="n">
         <v>73.2</v>
       </c>
+      <c r="HD47" t="n">
+        <v>75.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30996,6 +31069,9 @@
       <c r="HC48" t="n">
         <v>40</v>
       </c>
+      <c r="HD48" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31633,6 +31709,9 @@
       <c r="HC49" t="n">
         <v>12</v>
       </c>
+      <c r="HD49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32270,6 +32349,9 @@
       <c r="HC50" t="n">
         <v>7</v>
       </c>
+      <c r="HD50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32907,6 +32989,9 @@
       <c r="HC51" t="n">
         <v>32</v>
       </c>
+      <c r="HD51" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33544,6 +33629,9 @@
       <c r="HC52" t="n">
         <v>34</v>
       </c>
+      <c r="HD52" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34181,6 +34269,9 @@
       <c r="HC53" t="n">
         <v>48</v>
       </c>
+      <c r="HD53" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34818,6 +34909,9 @@
       <c r="HC54" t="n">
         <v>2</v>
       </c>
+      <c r="HD54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35455,6 +35549,9 @@
       <c r="HC55" t="n">
         <v>7</v>
       </c>
+      <c r="HD55" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36092,6 +36189,9 @@
       <c r="HC56" t="n">
         <v>77.8</v>
       </c>
+      <c r="HD56" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36729,6 +36829,9 @@
       <c r="HC57" t="n">
         <v>221</v>
       </c>
+      <c r="HD57" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37366,6 +37469,9 @@
       <c r="HC58" t="n">
         <v>175</v>
       </c>
+      <c r="HD58" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38003,6 +38109,9 @@
       <c r="HC59" t="n">
         <v>396</v>
       </c>
+      <c r="HD59" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38640,6 +38749,9 @@
       <c r="HC60" t="n">
         <v>1.26</v>
       </c>
+      <c r="HD60" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39277,6 +39389,9 @@
       <c r="HC61" t="n">
         <v>89</v>
       </c>
+      <c r="HD61" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39914,6 +40029,9 @@
       <c r="HC62" t="n">
         <v>53</v>
       </c>
+      <c r="HD62" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40551,6 +40669,9 @@
       <c r="HC63" t="n">
         <v>45</v>
       </c>
+      <c r="HD63" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41188,6 +41309,9 @@
       <c r="HC64" t="n">
         <v>16</v>
       </c>
+      <c r="HD64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41825,6 +41949,9 @@
       <c r="HC65" t="n">
         <v>15</v>
       </c>
+      <c r="HD65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -42462,6 +42589,9 @@
       <c r="HC66" t="n">
         <v>15</v>
       </c>
+      <c r="HD66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -43099,6 +43229,9 @@
       <c r="HC67" t="n">
         <v>13</v>
       </c>
+      <c r="HD67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43736,6 +43869,9 @@
       <c r="HC68" t="n">
         <v>10</v>
       </c>
+      <c r="HD68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -44373,6 +44509,9 @@
       <c r="HC69" t="n">
         <v>4</v>
       </c>
+      <c r="HD69" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45010,6 +45149,9 @@
       <c r="HC70" t="n">
         <v>29</v>
       </c>
+      <c r="HD70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -45647,6 +45789,9 @@
       <c r="HC71" t="n">
         <v>51.7</v>
       </c>
+      <c r="HD71" t="n">
+        <v>21.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -46284,6 +46429,9 @@
       <c r="HC72" t="n">
         <v>26.4</v>
       </c>
+      <c r="HD72" t="n">
+        <v>87.25</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -46921,6 +47069,9 @@
       <c r="HC73" t="n">
         <v>13.66</v>
       </c>
+      <c r="HD73" t="n">
+        <v>18.37</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47558,6 +47709,9 @@
       <c r="HC74" t="n">
         <v>46</v>
       </c>
+      <c r="HD74" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -48195,6 +48349,9 @@
       <c r="HC75" t="n">
         <v>43</v>
       </c>
+      <c r="HD75" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48832,6 +48989,9 @@
       <c r="HC76" t="n">
         <v>33</v>
       </c>
+      <c r="HD76" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -49469,6 +49629,9 @@
       <c r="HC77" t="n">
         <v>49</v>
       </c>
+      <c r="HD77" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -50106,6 +50269,9 @@
       <c r="HC78" t="n">
         <v>1.69</v>
       </c>
+      <c r="HD78" t="n">
+        <v>2.74</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -50743,6 +50909,9 @@
       <c r="HC79" t="n">
         <v>3.27</v>
       </c>
+      <c r="HD79" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -51380,6 +51549,9 @@
       <c r="HC80" t="n">
         <v>51</v>
       </c>
+      <c r="HD80" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -52017,6 +52189,9 @@
       <c r="HC81" t="n">
         <v>30.6</v>
       </c>
+      <c r="HD81" t="n">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -52654,6 +52829,9 @@
       <c r="HC82" t="n">
         <v>187.2</v>
       </c>
+      <c r="HD82" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -53291,6 +53469,9 @@
       <c r="HC83" t="n">
         <v>85.7</v>
       </c>
+      <c r="HD83" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -53928,6 +54109,9 @@
       <c r="HC84" t="n">
         <v>26.33</v>
       </c>
+      <c r="HD84" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -54565,6 +54749,9 @@
       <c r="HC85" t="n">
         <v>103</v>
       </c>
+      <c r="HD85" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -55202,6 +55389,9 @@
       <c r="HC86" t="n">
         <v>4</v>
       </c>
+      <c r="HD86" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -55839,6 +56029,9 @@
       <c r="HC87" t="n">
         <v>7</v>
       </c>
+      <c r="HD87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -56476,6 +56669,9 @@
       <c r="HC88" t="n">
         <v>6</v>
       </c>
+      <c r="HD88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -57113,6 +57309,9 @@
       <c r="HC89" t="n">
         <v>6</v>
       </c>
+      <c r="HD89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -57750,6 +57949,9 @@
       <c r="HC90" t="n">
         <v>168</v>
       </c>
+      <c r="HD90" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -58387,6 +58589,9 @@
       <c r="HC91" t="n">
         <v>231</v>
       </c>
+      <c r="HD91" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -59024,6 +59229,9 @@
       <c r="HC92" t="n">
         <v>292</v>
       </c>
+      <c r="HD92" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -59661,6 +59869,9 @@
       <c r="HC93" t="n">
         <v>73.7</v>
       </c>
+      <c r="HD93" t="n">
+        <v>76.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -60298,6 +60509,9 @@
       <c r="HC94" t="n">
         <v>43</v>
       </c>
+      <c r="HD94" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -60935,6 +61149,9 @@
       <c r="HC95" t="n">
         <v>17</v>
       </c>
+      <c r="HD95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -61572,6 +61789,9 @@
       <c r="HC96" t="n">
         <v>18</v>
       </c>
+      <c r="HD96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -62209,6 +62429,9 @@
       <c r="HC97" t="n">
         <v>46</v>
       </c>
+      <c r="HD97" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -62846,6 +63069,9 @@
       <c r="HC98" t="n">
         <v>33</v>
       </c>
+      <c r="HD98" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -63483,6 +63709,9 @@
       <c r="HC99" t="n">
         <v>48</v>
       </c>
+      <c r="HD99" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -64120,6 +64349,9 @@
       <c r="HC100" t="n">
         <v>2</v>
       </c>
+      <c r="HD100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -64757,6 +64989,9 @@
       <c r="HC101" t="n">
         <v>13</v>
       </c>
+      <c r="HD101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -65394,6 +65629,9 @@
       <c r="HC102" t="n">
         <v>86.7</v>
       </c>
+      <c r="HD102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD102"/>
+  <dimension ref="A1:HE102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -992,6 +992,9 @@
       <c r="HD1" t="n">
         <v>10388</v>
       </c>
+      <c r="HE1" t="n">
+        <v>10391</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1632,6 +1635,9 @@
       <c r="HD2" t="n">
         <v>2021</v>
       </c>
+      <c r="HE2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2272,6 +2278,9 @@
       <c r="HD3" t="n">
         <v>7</v>
       </c>
+      <c r="HE3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2912,6 +2921,9 @@
       <c r="HD4" t="n">
         <v>1</v>
       </c>
+      <c r="HE4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3552,6 +3564,9 @@
       <c r="HD5" t="n">
         <v>1</v>
       </c>
+      <c r="HE5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4192,6 +4207,9 @@
       <c r="HD6" t="n">
         <v>106</v>
       </c>
+      <c r="HE6" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4832,6 +4850,9 @@
       <c r="HD7" t="n">
         <v>39</v>
       </c>
+      <c r="HE7" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5472,6 +5493,9 @@
       <c r="HD8" t="n">
         <v>67</v>
       </c>
+      <c r="HE8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6112,6 +6136,9 @@
       <c r="HD9" t="n">
         <v>1</v>
       </c>
+      <c r="HE9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6752,6 +6779,9 @@
       <c r="HD10" t="n">
         <v>1</v>
       </c>
+      <c r="HE10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7392,6 +7422,9 @@
       <c r="HD11" t="n">
         <v>246</v>
       </c>
+      <c r="HE11" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8032,6 +8065,9 @@
       <c r="HD12" t="n">
         <v>163</v>
       </c>
+      <c r="HE12" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8672,6 +8708,9 @@
       <c r="HD13" t="n">
         <v>409</v>
       </c>
+      <c r="HE13" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9312,6 +9351,9 @@
       <c r="HD14" t="n">
         <v>1.51</v>
       </c>
+      <c r="HE14" t="n">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9952,6 +9994,9 @@
       <c r="HD15" t="n">
         <v>112</v>
       </c>
+      <c r="HE15" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10592,6 +10637,9 @@
       <c r="HD16" t="n">
         <v>60</v>
       </c>
+      <c r="HE16" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11232,6 +11280,9 @@
       <c r="HD17" t="n">
         <v>24</v>
       </c>
+      <c r="HE17" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11872,6 +11923,9 @@
       <c r="HD18" t="n">
         <v>18</v>
       </c>
+      <c r="HE18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12512,6 +12566,9 @@
       <c r="HD19" t="n">
         <v>17</v>
       </c>
+      <c r="HE19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13152,6 +13209,9 @@
       <c r="HD20" t="n">
         <v>15</v>
       </c>
+      <c r="HE20" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13792,6 +13852,9 @@
       <c r="HD21" t="n">
         <v>12</v>
       </c>
+      <c r="HE21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14432,6 +14495,9 @@
       <c r="HD22" t="n">
         <v>14</v>
       </c>
+      <c r="HE22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15072,6 +15138,9 @@
       <c r="HD23" t="n">
         <v>2</v>
       </c>
+      <c r="HE23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15712,6 +15781,9 @@
       <c r="HD24" t="n">
         <v>31</v>
       </c>
+      <c r="HE24" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16352,6 +16424,9 @@
       <c r="HD25" t="n">
         <v>48.4</v>
       </c>
+      <c r="HE25" t="n">
+        <v>59.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16992,6 +17067,9 @@
       <c r="HD26" t="n">
         <v>27.27</v>
       </c>
+      <c r="HE26" t="n">
+        <v>23.75</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17632,6 +17710,9 @@
       <c r="HD27" t="n">
         <v>13.19</v>
       </c>
+      <c r="HE27" t="n">
+        <v>14.07</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18272,6 +18353,9 @@
       <c r="HD28" t="n">
         <v>41</v>
       </c>
+      <c r="HE28" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18912,6 +18996,9 @@
       <c r="HD29" t="n">
         <v>52</v>
       </c>
+      <c r="HE29" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19552,6 +19639,9 @@
       <c r="HD30" t="n">
         <v>48</v>
       </c>
+      <c r="HE30" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20192,6 +20282,9 @@
       <c r="HD31" t="n">
         <v>58</v>
       </c>
+      <c r="HE31" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20832,6 +20925,9 @@
       <c r="HD32" t="n">
         <v>1.87</v>
       </c>
+      <c r="HE32" t="n">
+        <v>1.81</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21472,6 +21568,9 @@
       <c r="HD33" t="n">
         <v>3.87</v>
       </c>
+      <c r="HE33" t="n">
+        <v>3.06</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22112,6 +22211,9 @@
       <c r="HD34" t="n">
         <v>50</v>
       </c>
+      <c r="HE34" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22752,6 +22854,9 @@
       <c r="HD35" t="n">
         <v>25.9</v>
       </c>
+      <c r="HE35" t="n">
+        <v>32.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23392,6 +23497,9 @@
       <c r="HD36" t="n">
         <v>188.3</v>
       </c>
+      <c r="HE36" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24032,6 +24140,9 @@
       <c r="HD37" t="n">
         <v>86.40000000000001</v>
       </c>
+      <c r="HE37" t="n">
+        <v>86.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24672,6 +24783,9 @@
       <c r="HD38" t="n">
         <v>25.8</v>
       </c>
+      <c r="HE38" t="n">
+        <v>24.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25312,6 +25426,9 @@
       <c r="HD39" t="n">
         <v>77.5</v>
       </c>
+      <c r="HE39" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25952,6 +26069,9 @@
       <c r="HD40" t="n">
         <v>8</v>
       </c>
+      <c r="HE40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26592,6 +26712,9 @@
       <c r="HD41" t="n">
         <v>10</v>
       </c>
+      <c r="HE41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27232,6 +27355,9 @@
       <c r="HD42" t="n">
         <v>1</v>
       </c>
+      <c r="HE42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27872,6 +27998,9 @@
       <c r="HD43" t="n">
         <v>4</v>
       </c>
+      <c r="HE43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28512,6 +28641,9 @@
       <c r="HD44" t="n">
         <v>135</v>
       </c>
+      <c r="HE44" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29152,6 +29284,9 @@
       <c r="HD45" t="n">
         <v>262</v>
       </c>
+      <c r="HE45" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29792,6 +29927,9 @@
       <c r="HD46" t="n">
         <v>309</v>
       </c>
+      <c r="HE46" t="n">
+        <v>284</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30432,6 +30570,9 @@
       <c r="HD47" t="n">
         <v>75.59999999999999</v>
       </c>
+      <c r="HE47" t="n">
+        <v>74.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31072,6 +31213,9 @@
       <c r="HD48" t="n">
         <v>52</v>
       </c>
+      <c r="HE48" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31712,6 +31856,9 @@
       <c r="HD49" t="n">
         <v>7</v>
       </c>
+      <c r="HE49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32352,6 +32499,9 @@
       <c r="HD50" t="n">
         <v>14</v>
       </c>
+      <c r="HE50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32992,6 +33142,9 @@
       <c r="HD51" t="n">
         <v>41</v>
       </c>
+      <c r="HE51" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33632,6 +33785,9 @@
       <c r="HD52" t="n">
         <v>48</v>
       </c>
+      <c r="HE52" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34272,6 +34428,9 @@
       <c r="HD53" t="n">
         <v>57</v>
       </c>
+      <c r="HE53" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34912,6 +35071,9 @@
       <c r="HD54" t="n">
         <v>5</v>
       </c>
+      <c r="HE54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35552,6 +35714,9 @@
       <c r="HD55" t="n">
         <v>12</v>
       </c>
+      <c r="HE55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36192,6 +36357,9 @@
       <c r="HD56" t="n">
         <v>80</v>
       </c>
+      <c r="HE56" t="n">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36832,6 +37000,9 @@
       <c r="HD57" t="n">
         <v>197</v>
       </c>
+      <c r="HE57" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37472,6 +37643,9 @@
       <c r="HD58" t="n">
         <v>152</v>
       </c>
+      <c r="HE58" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38112,6 +38286,9 @@
       <c r="HD59" t="n">
         <v>349</v>
       </c>
+      <c r="HE59" t="n">
+        <v>393</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38752,6 +38929,9 @@
       <c r="HD60" t="n">
         <v>1.3</v>
       </c>
+      <c r="HE60" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39392,6 +39572,9 @@
       <c r="HD61" t="n">
         <v>86</v>
       </c>
+      <c r="HE61" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40032,6 +40215,9 @@
       <c r="HD62" t="n">
         <v>43</v>
       </c>
+      <c r="HE62" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40672,6 +40858,9 @@
       <c r="HD63" t="n">
         <v>29</v>
       </c>
+      <c r="HE63" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41312,6 +41501,9 @@
       <c r="HD64" t="n">
         <v>17</v>
       </c>
+      <c r="HE64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41952,6 +42144,9 @@
       <c r="HD65" t="n">
         <v>18</v>
       </c>
+      <c r="HE65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -42592,6 +42787,9 @@
       <c r="HD66" t="n">
         <v>4</v>
       </c>
+      <c r="HE66" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -43232,6 +43430,9 @@
       <c r="HD67" t="n">
         <v>2</v>
       </c>
+      <c r="HE67" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43872,6 +44073,9 @@
       <c r="HD68" t="n">
         <v>9</v>
       </c>
+      <c r="HE68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -44512,6 +44716,9 @@
       <c r="HD69" t="n">
         <v>6</v>
       </c>
+      <c r="HE69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45152,6 +45359,9 @@
       <c r="HD70" t="n">
         <v>19</v>
       </c>
+      <c r="HE70" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -45792,6 +46002,9 @@
       <c r="HD71" t="n">
         <v>21.1</v>
       </c>
+      <c r="HE71" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -46432,6 +46645,9 @@
       <c r="HD72" t="n">
         <v>87.25</v>
       </c>
+      <c r="HE72" t="n">
+        <v>24.56</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -47072,6 +47288,9 @@
       <c r="HD73" t="n">
         <v>18.37</v>
       </c>
+      <c r="HE73" t="n">
+        <v>15.72</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47712,6 +47931,9 @@
       <c r="HD74" t="n">
         <v>17</v>
       </c>
+      <c r="HE74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -48352,6 +48574,9 @@
       <c r="HD75" t="n">
         <v>54</v>
       </c>
+      <c r="HE75" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48992,6 +49217,9 @@
       <c r="HD76" t="n">
         <v>42</v>
       </c>
+      <c r="HE76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -49632,6 +49860,9 @@
       <c r="HD77" t="n">
         <v>52</v>
       </c>
+      <c r="HE77" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -50272,6 +50503,9 @@
       <c r="HD78" t="n">
         <v>2.74</v>
       </c>
+      <c r="HE78" t="n">
+        <v>2.44</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -50912,6 +51146,9 @@
       <c r="HD79" t="n">
         <v>13</v>
       </c>
+      <c r="HE79" t="n">
+        <v>3.81</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -51552,6 +51789,9 @@
       <c r="HD80" t="n">
         <v>25</v>
       </c>
+      <c r="HE80" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -52192,6 +52432,9 @@
       <c r="HD81" t="n">
         <v>7.7</v>
       </c>
+      <c r="HE81" t="n">
+        <v>26.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -52832,6 +53075,9 @@
       <c r="HD82" t="n">
         <v>187.1</v>
       </c>
+      <c r="HE82" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -53472,6 +53718,9 @@
       <c r="HD83" t="n">
         <v>85</v>
       </c>
+      <c r="HE83" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -54112,6 +54361,9 @@
       <c r="HD84" t="n">
         <v>24</v>
       </c>
+      <c r="HE84" t="n">
+        <v>24.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -54752,6 +55004,9 @@
       <c r="HD85" t="n">
         <v>60.9</v>
       </c>
+      <c r="HE85" t="n">
+        <v>75.59999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -55392,6 +55647,9 @@
       <c r="HD86" t="n">
         <v>14</v>
       </c>
+      <c r="HE86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -56032,6 +56290,9 @@
       <c r="HD87" t="n">
         <v>3</v>
       </c>
+      <c r="HE87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -56672,6 +56933,9 @@
       <c r="HD88" t="n">
         <v>1</v>
       </c>
+      <c r="HE88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -57312,6 +57576,9 @@
       <c r="HD89" t="n">
         <v>4</v>
       </c>
+      <c r="HE89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -57952,6 +58219,9 @@
       <c r="HD90" t="n">
         <v>114</v>
       </c>
+      <c r="HE90" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -58592,6 +58862,9 @@
       <c r="HD91" t="n">
         <v>230</v>
       </c>
+      <c r="HE91" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -59232,6 +59505,9 @@
       <c r="HD92" t="n">
         <v>266</v>
       </c>
+      <c r="HE92" t="n">
+        <v>303</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -59872,6 +60148,9 @@
       <c r="HD93" t="n">
         <v>76.2</v>
       </c>
+      <c r="HE93" t="n">
+        <v>77.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -60512,6 +60791,9 @@
       <c r="HD94" t="n">
         <v>54</v>
       </c>
+      <c r="HE94" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -61152,6 +61434,9 @@
       <c r="HD95" t="n">
         <v>9</v>
       </c>
+      <c r="HE95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -61792,6 +62077,9 @@
       <c r="HD96" t="n">
         <v>5</v>
       </c>
+      <c r="HE96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -62432,6 +62720,9 @@
       <c r="HD97" t="n">
         <v>17</v>
       </c>
+      <c r="HE97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -63072,6 +63363,9 @@
       <c r="HD98" t="n">
         <v>42</v>
       </c>
+      <c r="HE98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -63712,6 +64006,9 @@
       <c r="HD99" t="n">
         <v>44</v>
       </c>
+      <c r="HE99" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -64352,6 +64649,9 @@
       <c r="HD100" t="n">
         <v>9</v>
       </c>
+      <c r="HE100" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -64992,6 +65292,9 @@
       <c r="HD101" t="n">
         <v>2</v>
       </c>
+      <c r="HE101" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -65632,6 +65935,9 @@
       <c r="HD102" t="n">
         <v>50</v>
       </c>
+      <c r="HE102" t="n">
+        <v>87.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HE102"/>
+  <dimension ref="A1:HF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,6 +995,9 @@
       <c r="HE1" t="n">
         <v>10391</v>
       </c>
+      <c r="HF1" t="n">
+        <v>10403</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1638,6 +1641,9 @@
       <c r="HE2" t="n">
         <v>2021</v>
       </c>
+      <c r="HF2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2281,6 +2287,9 @@
       <c r="HE3" t="n">
         <v>8</v>
       </c>
+      <c r="HF3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2924,6 +2933,9 @@
       <c r="HE4" t="n">
         <v>0</v>
       </c>
+      <c r="HF4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3567,6 +3579,9 @@
       <c r="HE5" t="n">
         <v>0</v>
       </c>
+      <c r="HF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4210,6 +4225,9 @@
       <c r="HE6" t="n">
         <v>107</v>
       </c>
+      <c r="HF6" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4853,6 +4871,9 @@
       <c r="HE7" t="n">
         <v>105</v>
       </c>
+      <c r="HF7" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5496,6 +5517,9 @@
       <c r="HE8" t="n">
         <v>2</v>
       </c>
+      <c r="HF8" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6139,6 +6163,9 @@
       <c r="HE9" t="n">
         <v>1</v>
       </c>
+      <c r="HF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6782,6 +6809,9 @@
       <c r="HE10" t="n">
         <v>5</v>
       </c>
+      <c r="HF10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7425,6 +7455,9 @@
       <c r="HE11" t="n">
         <v>226</v>
       </c>
+      <c r="HF11" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8068,6 +8101,9 @@
       <c r="HE12" t="n">
         <v>154</v>
       </c>
+      <c r="HF12" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8711,6 +8747,9 @@
       <c r="HE13" t="n">
         <v>380</v>
       </c>
+      <c r="HF13" t="n">
+        <v>373</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9354,6 +9393,9 @@
       <c r="HE14" t="n">
         <v>1.47</v>
       </c>
+      <c r="HF14" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9997,6 +10039,9 @@
       <c r="HE15" t="n">
         <v>88</v>
       </c>
+      <c r="HF15" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10640,6 +10685,9 @@
       <c r="HE16" t="n">
         <v>43</v>
       </c>
+      <c r="HF16" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11283,6 +11331,9 @@
       <c r="HE17" t="n">
         <v>28</v>
       </c>
+      <c r="HF17" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11926,6 +11977,9 @@
       <c r="HE18" t="n">
         <v>17</v>
       </c>
+      <c r="HF18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12569,6 +12623,9 @@
       <c r="HE19" t="n">
         <v>17</v>
       </c>
+      <c r="HF19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13212,6 +13269,9 @@
       <c r="HE20" t="n">
         <v>16</v>
       </c>
+      <c r="HF20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13855,6 +13915,9 @@
       <c r="HE21" t="n">
         <v>10</v>
       </c>
+      <c r="HF21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14498,6 +14561,9 @@
       <c r="HE22" t="n">
         <v>8</v>
       </c>
+      <c r="HF22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15141,6 +15207,9 @@
       <c r="HE23" t="n">
         <v>3</v>
       </c>
+      <c r="HF23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15784,6 +15853,9 @@
       <c r="HE24" t="n">
         <v>27</v>
       </c>
+      <c r="HF24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16427,6 +16499,9 @@
       <c r="HE25" t="n">
         <v>59.3</v>
       </c>
+      <c r="HF25" t="n">
+        <v>52.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17070,6 +17145,9 @@
       <c r="HE26" t="n">
         <v>23.75</v>
       </c>
+      <c r="HF26" t="n">
+        <v>31.08</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17713,6 +17791,9 @@
       <c r="HE27" t="n">
         <v>14.07</v>
       </c>
+      <c r="HF27" t="n">
+        <v>16.22</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18356,6 +18437,9 @@
       <c r="HE28" t="n">
         <v>37</v>
       </c>
+      <c r="HF28" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18999,6 +19083,9 @@
       <c r="HE29" t="n">
         <v>56</v>
       </c>
+      <c r="HF29" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19642,6 +19729,9 @@
       <c r="HE30" t="n">
         <v>44</v>
       </c>
+      <c r="HF30" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20285,6 +20375,9 @@
       <c r="HE31" t="n">
         <v>49</v>
       </c>
+      <c r="HF31" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20928,6 +21021,9 @@
       <c r="HE32" t="n">
         <v>1.81</v>
       </c>
+      <c r="HF32" t="n">
+        <v>1.91</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21571,6 +21667,9 @@
       <c r="HE33" t="n">
         <v>3.06</v>
       </c>
+      <c r="HF33" t="n">
+        <v>3.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22214,6 +22313,9 @@
       <c r="HE34" t="n">
         <v>49</v>
       </c>
+      <c r="HF34" t="n">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22857,6 +22959,9 @@
       <c r="HE35" t="n">
         <v>32.7</v>
       </c>
+      <c r="HF35" t="n">
+        <v>27.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23500,6 +23605,9 @@
       <c r="HE36" t="n">
         <v>188.9</v>
       </c>
+      <c r="HF36" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24143,6 +24251,9 @@
       <c r="HE37" t="n">
         <v>86.2</v>
       </c>
+      <c r="HF37" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24786,6 +24897,9 @@
       <c r="HE38" t="n">
         <v>24.58</v>
       </c>
+      <c r="HF38" t="n">
+        <v>23.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25429,6 +25543,9 @@
       <c r="HE39" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="HF39" t="n">
+        <v>60.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26072,6 +26189,9 @@
       <c r="HE40" t="n">
         <v>10</v>
       </c>
+      <c r="HF40" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26715,6 +26835,9 @@
       <c r="HE41" t="n">
         <v>7</v>
       </c>
+      <c r="HF41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27358,6 +27481,9 @@
       <c r="HE42" t="n">
         <v>1</v>
       </c>
+      <c r="HF42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28001,6 +28127,9 @@
       <c r="HE43" t="n">
         <v>4</v>
       </c>
+      <c r="HF43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28644,6 +28773,9 @@
       <c r="HE44" t="n">
         <v>135</v>
       </c>
+      <c r="HF44" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29287,6 +29419,9 @@
       <c r="HE45" t="n">
         <v>241</v>
       </c>
+      <c r="HF45" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29930,6 +30065,9 @@
       <c r="HE46" t="n">
         <v>284</v>
       </c>
+      <c r="HF46" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30573,6 +30711,9 @@
       <c r="HE47" t="n">
         <v>74.7</v>
       </c>
+      <c r="HF47" t="n">
+        <v>66.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31216,6 +31357,9 @@
       <c r="HE48" t="n">
         <v>56</v>
       </c>
+      <c r="HF48" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31859,6 +32003,9 @@
       <c r="HE49" t="n">
         <v>11</v>
       </c>
+      <c r="HF49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32502,6 +32649,9 @@
       <c r="HE50" t="n">
         <v>9</v>
       </c>
+      <c r="HF50" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33145,6 +33295,9 @@
       <c r="HE51" t="n">
         <v>37</v>
       </c>
+      <c r="HF51" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33788,6 +33941,9 @@
       <c r="HE52" t="n">
         <v>44</v>
       </c>
+      <c r="HF52" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34431,6 +34587,9 @@
       <c r="HE53" t="n">
         <v>56</v>
       </c>
+      <c r="HF53" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35074,6 +35233,9 @@
       <c r="HE54" t="n">
         <v>8</v>
       </c>
+      <c r="HF54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35717,6 +35879,9 @@
       <c r="HE55" t="n">
         <v>10</v>
       </c>
+      <c r="HF55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36360,6 +36525,9 @@
       <c r="HE56" t="n">
         <v>62.5</v>
       </c>
+      <c r="HF56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37003,6 +37171,9 @@
       <c r="HE57" t="n">
         <v>227</v>
       </c>
+      <c r="HF57" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37646,6 +37817,9 @@
       <c r="HE58" t="n">
         <v>166</v>
       </c>
+      <c r="HF58" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38289,6 +38463,9 @@
       <c r="HE59" t="n">
         <v>393</v>
       </c>
+      <c r="HF59" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38932,6 +39109,9 @@
       <c r="HE60" t="n">
         <v>1.37</v>
       </c>
+      <c r="HF60" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39575,6 +39755,9 @@
       <c r="HE61" t="n">
         <v>104</v>
       </c>
+      <c r="HF61" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40218,6 +40401,9 @@
       <c r="HE62" t="n">
         <v>44</v>
       </c>
+      <c r="HF62" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40861,6 +41047,9 @@
       <c r="HE63" t="n">
         <v>36</v>
       </c>
+      <c r="HF63" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41504,6 +41693,9 @@
       <c r="HE64" t="n">
         <v>17</v>
       </c>
+      <c r="HF64" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42147,6 +42339,9 @@
       <c r="HE65" t="n">
         <v>17</v>
       </c>
+      <c r="HF65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -42790,6 +42985,9 @@
       <c r="HE66" t="n">
         <v>16</v>
       </c>
+      <c r="HF66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -43433,6 +43631,9 @@
       <c r="HE67" t="n">
         <v>14</v>
       </c>
+      <c r="HF67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44076,6 +44277,9 @@
       <c r="HE68" t="n">
         <v>9</v>
       </c>
+      <c r="HF68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -44719,6 +44923,9 @@
       <c r="HE69" t="n">
         <v>0</v>
       </c>
+      <c r="HF69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45362,6 +45569,9 @@
       <c r="HE70" t="n">
         <v>25</v>
       </c>
+      <c r="HF70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46005,6 +46215,9 @@
       <c r="HE71" t="n">
         <v>64</v>
       </c>
+      <c r="HF71" t="n">
+        <v>59.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -46648,6 +46861,9 @@
       <c r="HE72" t="n">
         <v>24.56</v>
       </c>
+      <c r="HF72" t="n">
+        <v>26.46</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -47291,6 +47507,9 @@
       <c r="HE73" t="n">
         <v>15.72</v>
       </c>
+      <c r="HF73" t="n">
+        <v>15.64</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47934,6 +48153,9 @@
       <c r="HE74" t="n">
         <v>32</v>
       </c>
+      <c r="HF74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -48577,6 +48799,9 @@
       <c r="HE75" t="n">
         <v>56</v>
       </c>
+      <c r="HF75" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -49220,6 +49445,9 @@
       <c r="HE76" t="n">
         <v>33</v>
       </c>
+      <c r="HF76" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -49863,6 +50091,9 @@
       <c r="HE77" t="n">
         <v>61</v>
       </c>
+      <c r="HF77" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -50506,6 +50737,9 @@
       <c r="HE78" t="n">
         <v>2.44</v>
       </c>
+      <c r="HF78" t="n">
+        <v>2.09</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -51149,6 +51383,9 @@
       <c r="HE79" t="n">
         <v>3.81</v>
       </c>
+      <c r="HF79" t="n">
+        <v>3.54</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -51792,6 +52029,9 @@
       <c r="HE80" t="n">
         <v>41</v>
       </c>
+      <c r="HF80" t="n">
+        <v>45.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -52435,6 +52675,9 @@
       <c r="HE81" t="n">
         <v>26.2</v>
       </c>
+      <c r="HF81" t="n">
+        <v>28.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -53078,6 +53321,9 @@
       <c r="HE82" t="n">
         <v>187.7</v>
       </c>
+      <c r="HF82" t="n">
+        <v>186.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -53721,6 +53967,9 @@
       <c r="HE83" t="n">
         <v>85.3</v>
       </c>
+      <c r="HF83" t="n">
+        <v>85.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -54364,6 +54613,9 @@
       <c r="HE84" t="n">
         <v>24.91</v>
       </c>
+      <c r="HF84" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -55007,6 +55259,9 @@
       <c r="HE85" t="n">
         <v>75.59999999999999</v>
       </c>
+      <c r="HF85" t="n">
+        <v>102.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -55650,6 +55905,9 @@
       <c r="HE86" t="n">
         <v>11</v>
       </c>
+      <c r="HF86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -56293,6 +56551,9 @@
       <c r="HE87" t="n">
         <v>5</v>
       </c>
+      <c r="HF87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -56936,6 +57197,9 @@
       <c r="HE88" t="n">
         <v>3</v>
       </c>
+      <c r="HF88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -57579,6 +57843,9 @@
       <c r="HE89" t="n">
         <v>4</v>
       </c>
+      <c r="HF89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -58222,6 +58489,9 @@
       <c r="HE90" t="n">
         <v>117</v>
       </c>
+      <c r="HF90" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -58865,6 +59135,9 @@
       <c r="HE91" t="n">
         <v>264</v>
       </c>
+      <c r="HF91" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -59508,6 +59781,9 @@
       <c r="HE92" t="n">
         <v>303</v>
       </c>
+      <c r="HF92" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -60151,6 +60427,9 @@
       <c r="HE93" t="n">
         <v>77.09999999999999</v>
       </c>
+      <c r="HF93" t="n">
+        <v>68.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -60794,6 +61073,9 @@
       <c r="HE94" t="n">
         <v>56</v>
       </c>
+      <c r="HF94" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -61437,6 +61719,9 @@
       <c r="HE95" t="n">
         <v>9</v>
       </c>
+      <c r="HF95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -62080,6 +62365,9 @@
       <c r="HE96" t="n">
         <v>14</v>
       </c>
+      <c r="HF96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -62723,6 +63011,9 @@
       <c r="HE97" t="n">
         <v>32</v>
       </c>
+      <c r="HF97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -63366,6 +63657,9 @@
       <c r="HE98" t="n">
         <v>33</v>
       </c>
+      <c r="HF98" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -64009,6 +64303,9 @@
       <c r="HE99" t="n">
         <v>51</v>
       </c>
+      <c r="HF99" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -64652,6 +64949,9 @@
       <c r="HE100" t="n">
         <v>12</v>
       </c>
+      <c r="HF100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -65295,6 +65595,9 @@
       <c r="HE101" t="n">
         <v>14</v>
       </c>
+      <c r="HF101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -65938,6 +66241,9 @@
       <c r="HE102" t="n">
         <v>87.5</v>
       </c>
+      <c r="HF102" t="n">
+        <v>46.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HF102"/>
+  <dimension ref="A1:HG102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -998,6 +998,9 @@
       <c r="HF1" t="n">
         <v>10403</v>
       </c>
+      <c r="HG1" t="n">
+        <v>10413</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1644,6 +1647,9 @@
       <c r="HF2" t="n">
         <v>2021</v>
       </c>
+      <c r="HG2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2290,6 +2296,9 @@
       <c r="HF3" t="n">
         <v>9</v>
       </c>
+      <c r="HG3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2936,6 +2945,9 @@
       <c r="HF4" t="n">
         <v>1</v>
       </c>
+      <c r="HG4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3582,6 +3594,9 @@
       <c r="HF5" t="n">
         <v>0</v>
       </c>
+      <c r="HG5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4228,6 +4243,9 @@
       <c r="HF6" t="n">
         <v>83</v>
       </c>
+      <c r="HG6" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4874,6 +4892,9 @@
       <c r="HF7" t="n">
         <v>87</v>
       </c>
+      <c r="HG7" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5520,6 +5541,9 @@
       <c r="HF8" t="n">
         <v>-4</v>
       </c>
+      <c r="HG8" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6166,6 +6190,9 @@
       <c r="HF9" t="n">
         <v>0</v>
       </c>
+      <c r="HG9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6812,6 +6839,9 @@
       <c r="HF10" t="n">
         <v>14</v>
       </c>
+      <c r="HG10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7458,6 +7488,9 @@
       <c r="HF11" t="n">
         <v>210</v>
       </c>
+      <c r="HG11" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8104,6 +8137,9 @@
       <c r="HF12" t="n">
         <v>163</v>
       </c>
+      <c r="HG12" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8750,6 +8786,9 @@
       <c r="HF13" t="n">
         <v>373</v>
       </c>
+      <c r="HG13" t="n">
+        <v>404</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9396,6 +9435,9 @@
       <c r="HF14" t="n">
         <v>1.29</v>
       </c>
+      <c r="HG14" t="n">
+        <v>1.59</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10042,6 +10084,9 @@
       <c r="HF15" t="n">
         <v>89</v>
       </c>
+      <c r="HG15" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10688,6 +10733,9 @@
       <c r="HF16" t="n">
         <v>77</v>
       </c>
+      <c r="HG16" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11334,6 +11382,9 @@
       <c r="HF17" t="n">
         <v>45</v>
       </c>
+      <c r="HG17" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11980,6 +12031,9 @@
       <c r="HF18" t="n">
         <v>19</v>
       </c>
+      <c r="HG18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12626,6 +12680,9 @@
       <c r="HF19" t="n">
         <v>12</v>
       </c>
+      <c r="HG19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13272,6 +13329,9 @@
       <c r="HF20" t="n">
         <v>12</v>
       </c>
+      <c r="HG20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13918,6 +13978,9 @@
       <c r="HF21" t="n">
         <v>9</v>
       </c>
+      <c r="HG21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14564,6 +14627,9 @@
       <c r="HF22" t="n">
         <v>8</v>
       </c>
+      <c r="HG22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15210,6 +15276,9 @@
       <c r="HF23" t="n">
         <v>3</v>
       </c>
+      <c r="HG23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15856,6 +15925,9 @@
       <c r="HF24" t="n">
         <v>23</v>
       </c>
+      <c r="HG24" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16502,6 +16574,9 @@
       <c r="HF25" t="n">
         <v>52.2</v>
       </c>
+      <c r="HG25" t="n">
+        <v>46.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17148,6 +17223,9 @@
       <c r="HF26" t="n">
         <v>31.08</v>
       </c>
+      <c r="HG26" t="n">
+        <v>31.08</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17794,6 +17872,9 @@
       <c r="HF27" t="n">
         <v>16.22</v>
       </c>
+      <c r="HG27" t="n">
+        <v>14.43</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18440,6 +18521,9 @@
       <c r="HF28" t="n">
         <v>40</v>
       </c>
+      <c r="HG28" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19086,6 +19170,9 @@
       <c r="HF29" t="n">
         <v>62</v>
       </c>
+      <c r="HG29" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19732,6 +19819,9 @@
       <c r="HF30" t="n">
         <v>32</v>
       </c>
+      <c r="HG30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20378,6 +20468,9 @@
       <c r="HF31" t="n">
         <v>44</v>
       </c>
+      <c r="HG31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21024,6 +21117,9 @@
       <c r="HF32" t="n">
         <v>1.91</v>
       </c>
+      <c r="HG32" t="n">
+        <v>1.79</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21670,6 +21766,9 @@
       <c r="HF33" t="n">
         <v>3.67</v>
       </c>
+      <c r="HG33" t="n">
+        <v>3.85</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22316,6 +22415,9 @@
       <c r="HF34" t="n">
         <v>45.5</v>
       </c>
+      <c r="HG34" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22962,6 +23064,9 @@
       <c r="HF35" t="n">
         <v>27.3</v>
       </c>
+      <c r="HG35" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23608,6 +23713,9 @@
       <c r="HF36" t="n">
         <v>188.7</v>
       </c>
+      <c r="HG36" t="n">
+        <v>190.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24254,6 +24362,9 @@
       <c r="HF37" t="n">
         <v>86.3</v>
       </c>
+      <c r="HG37" t="n">
+        <v>87.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24900,6 +25011,9 @@
       <c r="HF38" t="n">
         <v>23.74</v>
       </c>
+      <c r="HG38" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25546,6 +25660,9 @@
       <c r="HF39" t="n">
         <v>60.7</v>
       </c>
+      <c r="HG39" t="n">
+        <v>72.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26192,6 +26309,9 @@
       <c r="HF40" t="n">
         <v>12</v>
       </c>
+      <c r="HG40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26838,6 +26958,9 @@
       <c r="HF41" t="n">
         <v>7</v>
       </c>
+      <c r="HG41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27484,6 +27607,9 @@
       <c r="HF42" t="n">
         <v>1</v>
       </c>
+      <c r="HG42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28130,6 +28256,9 @@
       <c r="HF43" t="n">
         <v>3</v>
       </c>
+      <c r="HG43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28776,6 +28905,9 @@
       <c r="HF44" t="n">
         <v>150</v>
       </c>
+      <c r="HG44" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29422,6 +29554,9 @@
       <c r="HF45" t="n">
         <v>219</v>
       </c>
+      <c r="HG45" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30068,6 +30203,9 @@
       <c r="HF46" t="n">
         <v>247</v>
       </c>
+      <c r="HG46" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30714,6 +30852,9 @@
       <c r="HF47" t="n">
         <v>66.2</v>
       </c>
+      <c r="HG47" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31360,6 +31501,9 @@
       <c r="HF48" t="n">
         <v>62</v>
       </c>
+      <c r="HG48" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32006,6 +32150,9 @@
       <c r="HF49" t="n">
         <v>6</v>
       </c>
+      <c r="HG49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32652,6 +32799,9 @@
       <c r="HF50" t="n">
         <v>17</v>
       </c>
+      <c r="HG50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33298,6 +33448,9 @@
       <c r="HF51" t="n">
         <v>40</v>
       </c>
+      <c r="HG51" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33944,6 +34097,9 @@
       <c r="HF52" t="n">
         <v>32</v>
       </c>
+      <c r="HG52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34590,6 +34746,9 @@
       <c r="HF53" t="n">
         <v>46</v>
       </c>
+      <c r="HG53" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35236,6 +35395,9 @@
       <c r="HF54" t="n">
         <v>4</v>
       </c>
+      <c r="HG54" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35882,6 +36044,9 @@
       <c r="HF55" t="n">
         <v>9</v>
       </c>
+      <c r="HG55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36528,6 +36693,9 @@
       <c r="HF56" t="n">
         <v>75</v>
       </c>
+      <c r="HG56" t="n">
+        <v>69.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37174,6 +37342,9 @@
       <c r="HF57" t="n">
         <v>193</v>
       </c>
+      <c r="HG57" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37820,6 +37991,9 @@
       <c r="HF58" t="n">
         <v>151</v>
       </c>
+      <c r="HG58" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38466,6 +38640,9 @@
       <c r="HF59" t="n">
         <v>344</v>
       </c>
+      <c r="HG59" t="n">
+        <v>303</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -39112,6 +39289,9 @@
       <c r="HF60" t="n">
         <v>1.28</v>
       </c>
+      <c r="HG60" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39758,6 +39938,9 @@
       <c r="HF61" t="n">
         <v>82</v>
       </c>
+      <c r="HG61" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40404,6 +40587,9 @@
       <c r="HF62" t="n">
         <v>69</v>
       </c>
+      <c r="HG62" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41050,6 +41236,9 @@
       <c r="HF63" t="n">
         <v>37</v>
       </c>
+      <c r="HG63" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41696,6 +41885,9 @@
       <c r="HF64" t="n">
         <v>12</v>
       </c>
+      <c r="HG64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42342,6 +42534,9 @@
       <c r="HF65" t="n">
         <v>19</v>
       </c>
+      <c r="HG65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -42988,6 +43183,9 @@
       <c r="HF66" t="n">
         <v>13</v>
       </c>
+      <c r="HG66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -43634,6 +43832,9 @@
       <c r="HF67" t="n">
         <v>6</v>
       </c>
+      <c r="HG67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44280,6 +44481,9 @@
       <c r="HF68" t="n">
         <v>8</v>
       </c>
+      <c r="HG68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -44926,6 +45130,9 @@
       <c r="HF69" t="n">
         <v>1</v>
       </c>
+      <c r="HG69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45572,6 +45779,9 @@
       <c r="HF70" t="n">
         <v>22</v>
       </c>
+      <c r="HG70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46218,6 +46428,9 @@
       <c r="HF71" t="n">
         <v>59.1</v>
       </c>
+      <c r="HG71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -46864,6 +47077,9 @@
       <c r="HF72" t="n">
         <v>26.46</v>
       </c>
+      <c r="HG72" t="n">
+        <v>27.55</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -47510,6 +47726,9 @@
       <c r="HF73" t="n">
         <v>15.64</v>
       </c>
+      <c r="HG73" t="n">
+        <v>13.77</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -48156,6 +48375,9 @@
       <c r="HF74" t="n">
         <v>37</v>
       </c>
+      <c r="HG74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -48802,6 +49024,9 @@
       <c r="HF75" t="n">
         <v>63</v>
       </c>
+      <c r="HG75" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -49448,6 +49673,9 @@
       <c r="HF76" t="n">
         <v>32</v>
       </c>
+      <c r="HG76" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -50094,6 +50322,9 @@
       <c r="HF77" t="n">
         <v>46</v>
       </c>
+      <c r="HG77" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -50740,6 +50971,9 @@
       <c r="HF78" t="n">
         <v>2.09</v>
       </c>
+      <c r="HG78" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -51386,6 +51620,9 @@
       <c r="HF79" t="n">
         <v>3.54</v>
       </c>
+      <c r="HG79" t="n">
+        <v>4.09</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -52032,6 +52269,9 @@
       <c r="HF80" t="n">
         <v>45.7</v>
       </c>
+      <c r="HG80" t="n">
+        <v>44.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -52678,6 +52918,9 @@
       <c r="HF81" t="n">
         <v>28.3</v>
       </c>
+      <c r="HG81" t="n">
+        <v>24.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -53324,6 +53567,9 @@
       <c r="HF82" t="n">
         <v>186.4</v>
       </c>
+      <c r="HG82" t="n">
+        <v>189.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -53970,6 +54216,9 @@
       <c r="HF83" t="n">
         <v>85.2</v>
       </c>
+      <c r="HG83" t="n">
+        <v>88.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -54616,6 +54865,9 @@
       <c r="HF84" t="n">
         <v>26.16</v>
       </c>
+      <c r="HG84" t="n">
+        <v>26.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -55262,6 +55514,9 @@
       <c r="HF85" t="n">
         <v>102.8</v>
       </c>
+      <c r="HG85" t="n">
+        <v>116.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -55908,6 +56163,9 @@
       <c r="HF86" t="n">
         <v>7</v>
       </c>
+      <c r="HG86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -56554,6 +56812,9 @@
       <c r="HF87" t="n">
         <v>4</v>
       </c>
+      <c r="HG87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -57200,6 +57461,9 @@
       <c r="HF88" t="n">
         <v>5</v>
       </c>
+      <c r="HG88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -57846,6 +58110,9 @@
       <c r="HF89" t="n">
         <v>6</v>
       </c>
+      <c r="HG89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -58492,6 +58759,9 @@
       <c r="HF90" t="n">
         <v>135</v>
       </c>
+      <c r="HG90" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -59138,6 +59408,9 @@
       <c r="HF91" t="n">
         <v>200</v>
       </c>
+      <c r="HG91" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -59784,6 +60057,9 @@
       <c r="HF92" t="n">
         <v>235</v>
       </c>
+      <c r="HG92" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -60430,6 +60706,9 @@
       <c r="HF93" t="n">
         <v>68.3</v>
       </c>
+      <c r="HG93" t="n">
+        <v>73.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -61076,6 +61355,9 @@
       <c r="HF94" t="n">
         <v>63</v>
       </c>
+      <c r="HG94" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -61722,6 +62004,9 @@
       <c r="HF95" t="n">
         <v>9</v>
       </c>
+      <c r="HG95" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -62368,6 +62653,9 @@
       <c r="HF96" t="n">
         <v>9</v>
       </c>
+      <c r="HG96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -63014,6 +63302,9 @@
       <c r="HF97" t="n">
         <v>37</v>
       </c>
+      <c r="HG97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -63660,6 +63951,9 @@
       <c r="HF98" t="n">
         <v>32</v>
       </c>
+      <c r="HG98" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -64306,6 +64600,9 @@
       <c r="HF99" t="n">
         <v>40</v>
       </c>
+      <c r="HG99" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -64952,6 +65249,9 @@
       <c r="HF100" t="n">
         <v>3</v>
       </c>
+      <c r="HG100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -65598,6 +65898,9 @@
       <c r="HF101" t="n">
         <v>6</v>
       </c>
+      <c r="HG101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -66244,6 +66547,9 @@
       <c r="HF102" t="n">
         <v>46.2</v>
       </c>
+      <c r="HG102" t="n">
+        <v>72.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HG102"/>
+  <dimension ref="A1:HH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,6 +1001,9 @@
       <c r="HG1" t="n">
         <v>10413</v>
       </c>
+      <c r="HH1" t="n">
+        <v>10417</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1650,6 +1653,9 @@
       <c r="HG2" t="n">
         <v>2021</v>
       </c>
+      <c r="HH2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2299,6 +2305,9 @@
       <c r="HG3" t="n">
         <v>10</v>
       </c>
+      <c r="HH3" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2948,6 +2957,9 @@
       <c r="HG4" t="n">
         <v>0</v>
       </c>
+      <c r="HH4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3597,6 +3609,9 @@
       <c r="HG5" t="n">
         <v>0</v>
       </c>
+      <c r="HH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4246,6 +4261,9 @@
       <c r="HG6" t="n">
         <v>93</v>
       </c>
+      <c r="HH6" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4895,6 +4913,9 @@
       <c r="HG7" t="n">
         <v>77</v>
       </c>
+      <c r="HH7" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5544,6 +5565,9 @@
       <c r="HG8" t="n">
         <v>16</v>
       </c>
+      <c r="HH8" t="n">
+        <v>-64</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6193,6 +6217,9 @@
       <c r="HG9" t="n">
         <v>1</v>
       </c>
+      <c r="HH9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6842,6 +6869,9 @@
       <c r="HG10" t="n">
         <v>17</v>
       </c>
+      <c r="HH10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7491,6 +7521,9 @@
       <c r="HG11" t="n">
         <v>248</v>
       </c>
+      <c r="HH11" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8140,6 +8173,9 @@
       <c r="HG12" t="n">
         <v>156</v>
       </c>
+      <c r="HH12" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8789,6 +8825,9 @@
       <c r="HG13" t="n">
         <v>404</v>
       </c>
+      <c r="HH13" t="n">
+        <v>369</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9438,6 +9477,9 @@
       <c r="HG14" t="n">
         <v>1.59</v>
       </c>
+      <c r="HH14" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10087,6 +10129,9 @@
       <c r="HG15" t="n">
         <v>121</v>
       </c>
+      <c r="HH15" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10736,6 +10781,9 @@
       <c r="HG16" t="n">
         <v>79</v>
       </c>
+      <c r="HH16" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11385,6 +11433,9 @@
       <c r="HG17" t="n">
         <v>21</v>
       </c>
+      <c r="HH17" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12034,6 +12085,9 @@
       <c r="HG18" t="n">
         <v>15</v>
       </c>
+      <c r="HH18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12683,6 +12737,9 @@
       <c r="HG19" t="n">
         <v>15</v>
       </c>
+      <c r="HH19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13332,6 +13389,9 @@
       <c r="HG20" t="n">
         <v>13</v>
       </c>
+      <c r="HH20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13981,6 +14041,9 @@
       <c r="HG21" t="n">
         <v>9</v>
       </c>
+      <c r="HH21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14630,6 +14693,9 @@
       <c r="HG22" t="n">
         <v>11</v>
       </c>
+      <c r="HH22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15279,6 +15345,9 @@
       <c r="HG23" t="n">
         <v>4</v>
       </c>
+      <c r="HH23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15928,6 +15997,9 @@
       <c r="HG24" t="n">
         <v>28</v>
       </c>
+      <c r="HH24" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16577,6 +16649,9 @@
       <c r="HG25" t="n">
         <v>46.4</v>
       </c>
+      <c r="HH25" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17226,6 +17301,9 @@
       <c r="HG26" t="n">
         <v>31.08</v>
       </c>
+      <c r="HH26" t="n">
+        <v>36.9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17875,6 +17953,9 @@
       <c r="HG27" t="n">
         <v>14.43</v>
       </c>
+      <c r="HH27" t="n">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18524,6 +18605,9 @@
       <c r="HG28" t="n">
         <v>42</v>
       </c>
+      <c r="HH28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19173,6 +19257,9 @@
       <c r="HG29" t="n">
         <v>54</v>
       </c>
+      <c r="HH29" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19822,6 +19909,9 @@
       <c r="HG30" t="n">
         <v>34</v>
       </c>
+      <c r="HH30" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20471,6 +20561,9 @@
       <c r="HG31" t="n">
         <v>50</v>
       </c>
+      <c r="HH31" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21120,6 +21213,9 @@
       <c r="HG32" t="n">
         <v>1.79</v>
       </c>
+      <c r="HH32" t="n">
+        <v>2.87</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21769,6 +21865,9 @@
       <c r="HG33" t="n">
         <v>3.85</v>
       </c>
+      <c r="HH33" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22418,6 +22517,9 @@
       <c r="HG34" t="n">
         <v>48</v>
       </c>
+      <c r="HH34" t="n">
+        <v>32.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23067,6 +23169,9 @@
       <c r="HG35" t="n">
         <v>26</v>
       </c>
+      <c r="HH35" t="n">
+        <v>23.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23716,6 +23821,9 @@
       <c r="HG36" t="n">
         <v>190.1</v>
       </c>
+      <c r="HH36" t="n">
+        <v>189.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24365,6 +24473,9 @@
       <c r="HG37" t="n">
         <v>87.59999999999999</v>
       </c>
+      <c r="HH37" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25014,6 +25125,9 @@
       <c r="HG38" t="n">
         <v>25.16</v>
       </c>
+      <c r="HH38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25663,6 +25777,9 @@
       <c r="HG39" t="n">
         <v>72.8</v>
       </c>
+      <c r="HH39" t="n">
+        <v>72.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26312,6 +26429,9 @@
       <c r="HG40" t="n">
         <v>10</v>
       </c>
+      <c r="HH40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26961,6 +27081,9 @@
       <c r="HG41" t="n">
         <v>7</v>
       </c>
+      <c r="HH41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27610,6 +27733,9 @@
       <c r="HG42" t="n">
         <v>1</v>
       </c>
+      <c r="HH42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28259,6 +28385,9 @@
       <c r="HG43" t="n">
         <v>4</v>
       </c>
+      <c r="HH43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28908,6 +29037,9 @@
       <c r="HG44" t="n">
         <v>134</v>
       </c>
+      <c r="HH44" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29557,6 +29689,9 @@
       <c r="HG45" t="n">
         <v>270</v>
       </c>
+      <c r="HH45" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30206,6 +30341,9 @@
       <c r="HG46" t="n">
         <v>315</v>
       </c>
+      <c r="HH46" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30855,6 +30993,9 @@
       <c r="HG47" t="n">
         <v>78</v>
       </c>
+      <c r="HH47" t="n">
+        <v>71.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31504,6 +31645,9 @@
       <c r="HG48" t="n">
         <v>54</v>
       </c>
+      <c r="HH48" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32153,6 +32297,9 @@
       <c r="HG49" t="n">
         <v>10</v>
       </c>
+      <c r="HH49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32802,6 +32949,9 @@
       <c r="HG50" t="n">
         <v>13</v>
       </c>
+      <c r="HH50" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33451,6 +33601,9 @@
       <c r="HG51" t="n">
         <v>42</v>
       </c>
+      <c r="HH51" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34100,6 +34253,9 @@
       <c r="HG52" t="n">
         <v>34</v>
       </c>
+      <c r="HH52" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34749,6 +34905,9 @@
       <c r="HG53" t="n">
         <v>60</v>
       </c>
+      <c r="HH53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35398,6 +35557,9 @@
       <c r="HG54" t="n">
         <v>11</v>
       </c>
+      <c r="HH54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36047,6 +36209,9 @@
       <c r="HG55" t="n">
         <v>9</v>
       </c>
+      <c r="HH55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36696,6 +36861,9 @@
       <c r="HG56" t="n">
         <v>69.2</v>
       </c>
+      <c r="HH56" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37345,6 +37513,9 @@
       <c r="HG57" t="n">
         <v>177</v>
       </c>
+      <c r="HH57" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37994,6 +38165,9 @@
       <c r="HG58" t="n">
         <v>126</v>
       </c>
+      <c r="HH58" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38643,6 +38817,9 @@
       <c r="HG59" t="n">
         <v>303</v>
       </c>
+      <c r="HH59" t="n">
+        <v>373</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -39292,6 +39469,9 @@
       <c r="HG60" t="n">
         <v>1.4</v>
       </c>
+      <c r="HH60" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39941,6 +40121,9 @@
       <c r="HG61" t="n">
         <v>71</v>
       </c>
+      <c r="HH61" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40590,6 +40773,9 @@
       <c r="HG62" t="n">
         <v>46</v>
       </c>
+      <c r="HH62" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41239,6 +41425,9 @@
       <c r="HG63" t="n">
         <v>46</v>
       </c>
+      <c r="HH63" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41888,6 +42077,9 @@
       <c r="HG64" t="n">
         <v>15</v>
       </c>
+      <c r="HH64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42537,6 +42729,9 @@
       <c r="HG65" t="n">
         <v>15</v>
       </c>
+      <c r="HH65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43186,6 +43381,9 @@
       <c r="HG66" t="n">
         <v>11</v>
       </c>
+      <c r="HH66" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -43835,6 +44033,9 @@
       <c r="HG67" t="n">
         <v>8</v>
       </c>
+      <c r="HH67" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44484,6 +44685,9 @@
       <c r="HG68" t="n">
         <v>9</v>
       </c>
+      <c r="HH68" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45133,6 +45337,9 @@
       <c r="HG69" t="n">
         <v>2</v>
       </c>
+      <c r="HH69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45782,6 +45989,9 @@
       <c r="HG70" t="n">
         <v>22</v>
       </c>
+      <c r="HH70" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46431,6 +46641,9 @@
       <c r="HG71" t="n">
         <v>50</v>
       </c>
+      <c r="HH71" t="n">
+        <v>55.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47080,6 +47293,9 @@
       <c r="HG72" t="n">
         <v>27.55</v>
       </c>
+      <c r="HH72" t="n">
+        <v>19.63</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -47729,6 +47945,9 @@
       <c r="HG73" t="n">
         <v>13.77</v>
       </c>
+      <c r="HH73" t="n">
+        <v>10.97</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -48378,6 +48597,9 @@
       <c r="HG74" t="n">
         <v>32</v>
       </c>
+      <c r="HH74" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49027,6 +49249,9 @@
       <c r="HG75" t="n">
         <v>49</v>
       </c>
+      <c r="HH75" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -49676,6 +49901,9 @@
       <c r="HG76" t="n">
         <v>36</v>
       </c>
+      <c r="HH76" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -50325,6 +50553,9 @@
       <c r="HG77" t="n">
         <v>45</v>
       </c>
+      <c r="HH77" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -50974,6 +51205,9 @@
       <c r="HG78" t="n">
         <v>2.05</v>
       </c>
+      <c r="HH78" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -51623,6 +51857,9 @@
       <c r="HG79" t="n">
         <v>4.09</v>
       </c>
+      <c r="HH79" t="n">
+        <v>2.95</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -52272,6 +52509,9 @@
       <c r="HG80" t="n">
         <v>44.4</v>
       </c>
+      <c r="HH80" t="n">
+        <v>55.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -52921,6 +53161,9 @@
       <c r="HG81" t="n">
         <v>24.4</v>
       </c>
+      <c r="HH81" t="n">
+        <v>33.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -53570,6 +53813,9 @@
       <c r="HG82" t="n">
         <v>189.9</v>
       </c>
+      <c r="HH82" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -54219,6 +54465,9 @@
       <c r="HG83" t="n">
         <v>88.59999999999999</v>
       </c>
+      <c r="HH83" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -54868,6 +55117,9 @@
       <c r="HG84" t="n">
         <v>26.41</v>
       </c>
+      <c r="HH84" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -55517,6 +55769,9 @@
       <c r="HG85" t="n">
         <v>116.8</v>
       </c>
+      <c r="HH85" t="n">
+        <v>100.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -56166,6 +56421,9 @@
       <c r="HG86" t="n">
         <v>7</v>
       </c>
+      <c r="HH86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -56815,6 +57073,9 @@
       <c r="HG87" t="n">
         <v>6</v>
       </c>
+      <c r="HH87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -57464,6 +57725,9 @@
       <c r="HG88" t="n">
         <v>1</v>
       </c>
+      <c r="HH88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -58113,6 +58377,9 @@
       <c r="HG89" t="n">
         <v>8</v>
       </c>
+      <c r="HH89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -58762,6 +59029,9 @@
       <c r="HG90" t="n">
         <v>135</v>
       </c>
+      <c r="HH90" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -59411,6 +59681,9 @@
       <c r="HG91" t="n">
         <v>175</v>
       </c>
+      <c r="HH91" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -60060,6 +60333,9 @@
       <c r="HG92" t="n">
         <v>223</v>
       </c>
+      <c r="HH92" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -60709,6 +60985,9 @@
       <c r="HG93" t="n">
         <v>73.59999999999999</v>
       </c>
+      <c r="HH93" t="n">
+        <v>71.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -61358,6 +61637,9 @@
       <c r="HG94" t="n">
         <v>49</v>
       </c>
+      <c r="HH94" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -62007,6 +62289,9 @@
       <c r="HG95" t="n">
         <v>17</v>
       </c>
+      <c r="HH95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -62656,6 +62941,9 @@
       <c r="HG96" t="n">
         <v>13</v>
       </c>
+      <c r="HH96" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -63305,6 +63593,9 @@
       <c r="HG97" t="n">
         <v>32</v>
       </c>
+      <c r="HH97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -63954,6 +64245,9 @@
       <c r="HG98" t="n">
         <v>36</v>
       </c>
+      <c r="HH98" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -64603,6 +64897,9 @@
       <c r="HG99" t="n">
         <v>43</v>
       </c>
+      <c r="HH99" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -65252,6 +65549,9 @@
       <c r="HG100" t="n">
         <v>3</v>
       </c>
+      <c r="HH100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -65901,6 +66201,9 @@
       <c r="HG101" t="n">
         <v>8</v>
       </c>
+      <c r="HH101" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -66550,6 +66853,9 @@
       <c r="HG102" t="n">
         <v>72.7</v>
       </c>
+      <c r="HH102" t="n">
+        <v>63.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HH102"/>
+  <dimension ref="A1:HI102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,6 +1004,9 @@
       <c r="HH1" t="n">
         <v>10417</v>
       </c>
+      <c r="HI1" t="n">
+        <v>10433</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1656,6 +1659,9 @@
       <c r="HH2" t="n">
         <v>2021</v>
       </c>
+      <c r="HI2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2308,6 +2314,9 @@
       <c r="HH3" t="n">
         <v>11</v>
       </c>
+      <c r="HI3" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2960,6 +2969,9 @@
       <c r="HH4" t="n">
         <v>1</v>
       </c>
+      <c r="HI4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3612,6 +3624,9 @@
       <c r="HH5" t="n">
         <v>0</v>
       </c>
+      <c r="HI5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4264,6 +4279,9 @@
       <c r="HH6" t="n">
         <v>65</v>
       </c>
+      <c r="HI6" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4916,6 +4934,9 @@
       <c r="HH7" t="n">
         <v>129</v>
       </c>
+      <c r="HI7" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5568,6 +5589,9 @@
       <c r="HH8" t="n">
         <v>-64</v>
       </c>
+      <c r="HI8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6220,6 +6244,9 @@
       <c r="HH9" t="n">
         <v>0</v>
       </c>
+      <c r="HI9" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6872,6 +6899,9 @@
       <c r="HH10" t="n">
         <v>2</v>
       </c>
+      <c r="HI10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7524,6 +7554,9 @@
       <c r="HH11" t="n">
         <v>223</v>
       </c>
+      <c r="HI11" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8176,6 +8209,9 @@
       <c r="HH12" t="n">
         <v>146</v>
       </c>
+      <c r="HI12" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8828,6 +8864,9 @@
       <c r="HH13" t="n">
         <v>369</v>
       </c>
+      <c r="HI13" t="n">
+        <v>356</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9480,6 +9519,9 @@
       <c r="HH14" t="n">
         <v>1.53</v>
       </c>
+      <c r="HI14" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10132,6 +10174,9 @@
       <c r="HH15" t="n">
         <v>102</v>
       </c>
+      <c r="HI15" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10784,6 +10829,9 @@
       <c r="HH16" t="n">
         <v>57</v>
       </c>
+      <c r="HI16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11436,6 +11484,9 @@
       <c r="HH17" t="n">
         <v>38</v>
       </c>
+      <c r="HI17" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12088,6 +12139,9 @@
       <c r="HH18" t="n">
         <v>16</v>
       </c>
+      <c r="HI18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12740,6 +12794,9 @@
       <c r="HH19" t="n">
         <v>18</v>
       </c>
+      <c r="HI19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13392,6 +13449,9 @@
       <c r="HH20" t="n">
         <v>10</v>
       </c>
+      <c r="HI20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14044,6 +14104,9 @@
       <c r="HH21" t="n">
         <v>4</v>
       </c>
+      <c r="HI21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14696,6 +14759,9 @@
       <c r="HH22" t="n">
         <v>4</v>
       </c>
+      <c r="HI22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15348,6 +15414,9 @@
       <c r="HH23" t="n">
         <v>1</v>
       </c>
+      <c r="HI23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16000,6 +16069,9 @@
       <c r="HH24" t="n">
         <v>15</v>
       </c>
+      <c r="HI24" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16652,6 +16724,9 @@
       <c r="HH25" t="n">
         <v>66.7</v>
       </c>
+      <c r="HI25" t="n">
+        <v>58.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17304,6 +17379,9 @@
       <c r="HH26" t="n">
         <v>36.9</v>
       </c>
+      <c r="HI26" t="n">
+        <v>25.43</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17956,6 +18034,9 @@
       <c r="HH27" t="n">
         <v>24.6</v>
       </c>
+      <c r="HI27" t="n">
+        <v>14.83</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18608,6 +18689,9 @@
       <c r="HH28" t="n">
         <v>41</v>
       </c>
+      <c r="HI28" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19260,6 +19344,9 @@
       <c r="HH29" t="n">
         <v>66</v>
       </c>
+      <c r="HI29" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19912,6 +19999,9 @@
       <c r="HH30" t="n">
         <v>37</v>
       </c>
+      <c r="HI30" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20564,6 +20654,9 @@
       <c r="HH31" t="n">
         <v>43</v>
       </c>
+      <c r="HI31" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21216,6 +21309,9 @@
       <c r="HH32" t="n">
         <v>2.87</v>
       </c>
+      <c r="HI32" t="n">
+        <v>2.21</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21868,6 +21964,9 @@
       <c r="HH33" t="n">
         <v>4.3</v>
       </c>
+      <c r="HI33" t="n">
+        <v>3.79</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22520,6 +22619,9 @@
       <c r="HH34" t="n">
         <v>32.6</v>
       </c>
+      <c r="HI34" t="n">
+        <v>39.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23172,6 +23274,9 @@
       <c r="HH35" t="n">
         <v>23.3</v>
       </c>
+      <c r="HI35" t="n">
+        <v>26.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23824,6 +23929,9 @@
       <c r="HH36" t="n">
         <v>189.6</v>
       </c>
+      <c r="HI36" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24476,6 +24584,9 @@
       <c r="HH37" t="n">
         <v>87.2</v>
       </c>
+      <c r="HI37" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25128,6 +25239,9 @@
       <c r="HH38" t="n">
         <v>25.8</v>
       </c>
+      <c r="HI38" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25780,6 +25894,9 @@
       <c r="HH39" t="n">
         <v>72.2</v>
       </c>
+      <c r="HI39" t="n">
+        <v>91.59999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26432,6 +26549,9 @@
       <c r="HH40" t="n">
         <v>10</v>
       </c>
+      <c r="HI40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27084,6 +27204,9 @@
       <c r="HH41" t="n">
         <v>7</v>
       </c>
+      <c r="HI41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27736,6 +27859,9 @@
       <c r="HH42" t="n">
         <v>1</v>
       </c>
+      <c r="HI42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28388,6 +28514,9 @@
       <c r="HH43" t="n">
         <v>4</v>
       </c>
+      <c r="HI43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29040,6 +29169,9 @@
       <c r="HH44" t="n">
         <v>140</v>
       </c>
+      <c r="HI44" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29692,6 +29824,9 @@
       <c r="HH45" t="n">
         <v>225</v>
       </c>
+      <c r="HI45" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30344,6 +30479,9 @@
       <c r="HH46" t="n">
         <v>263</v>
       </c>
+      <c r="HI46" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30996,6 +31134,9 @@
       <c r="HH47" t="n">
         <v>71.3</v>
       </c>
+      <c r="HI47" t="n">
+        <v>69.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31648,6 +31789,9 @@
       <c r="HH48" t="n">
         <v>66</v>
       </c>
+      <c r="HI48" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32300,6 +32444,9 @@
       <c r="HH49" t="n">
         <v>12</v>
       </c>
+      <c r="HI49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32952,6 +33099,9 @@
       <c r="HH50" t="n">
         <v>4</v>
       </c>
+      <c r="HI50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33604,6 +33754,9 @@
       <c r="HH51" t="n">
         <v>41</v>
       </c>
+      <c r="HI51" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34256,6 +34409,9 @@
       <c r="HH52" t="n">
         <v>37</v>
       </c>
+      <c r="HI52" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34908,6 +35064,9 @@
       <c r="HH53" t="n">
         <v>51</v>
       </c>
+      <c r="HI53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35560,6 +35719,9 @@
       <c r="HH54" t="n">
         <v>5</v>
       </c>
+      <c r="HI54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36212,6 +36374,9 @@
       <c r="HH55" t="n">
         <v>4</v>
       </c>
+      <c r="HI55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36864,6 +37029,9 @@
       <c r="HH56" t="n">
         <v>40</v>
       </c>
+      <c r="HI56" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37516,6 +37684,9 @@
       <c r="HH57" t="n">
         <v>242</v>
       </c>
+      <c r="HI57" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38168,6 +38339,9 @@
       <c r="HH58" t="n">
         <v>131</v>
       </c>
+      <c r="HI58" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38820,6 +38994,9 @@
       <c r="HH59" t="n">
         <v>373</v>
       </c>
+      <c r="HI59" t="n">
+        <v>360</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -39472,6 +39649,9 @@
       <c r="HH60" t="n">
         <v>1.85</v>
       </c>
+      <c r="HI60" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40124,6 +40304,9 @@
       <c r="HH61" t="n">
         <v>120</v>
       </c>
+      <c r="HI61" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40776,6 +40959,9 @@
       <c r="HH62" t="n">
         <v>50</v>
       </c>
+      <c r="HI62" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41428,6 +41614,9 @@
       <c r="HH63" t="n">
         <v>33</v>
       </c>
+      <c r="HI63" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42080,6 +42269,9 @@
       <c r="HH64" t="n">
         <v>18</v>
       </c>
+      <c r="HI64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42732,6 +42924,9 @@
       <c r="HH65" t="n">
         <v>16</v>
       </c>
+      <c r="HI65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43384,6 +43579,9 @@
       <c r="HH66" t="n">
         <v>19</v>
       </c>
+      <c r="HI66" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44036,6 +44234,9 @@
       <c r="HH67" t="n">
         <v>12</v>
       </c>
+      <c r="HI67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44688,6 +44889,9 @@
       <c r="HH68" t="n">
         <v>12</v>
       </c>
+      <c r="HI68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45340,6 +45544,9 @@
       <c r="HH69" t="n">
         <v>3</v>
       </c>
+      <c r="HI69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45992,6 +46199,9 @@
       <c r="HH70" t="n">
         <v>34</v>
       </c>
+      <c r="HI70" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46644,6 +46854,9 @@
       <c r="HH71" t="n">
         <v>55.9</v>
       </c>
+      <c r="HI71" t="n">
+        <v>58.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47296,6 +47509,9 @@
       <c r="HH72" t="n">
         <v>19.63</v>
       </c>
+      <c r="HI72" t="n">
+        <v>25.71</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -47948,6 +48164,9 @@
       <c r="HH73" t="n">
         <v>10.97</v>
       </c>
+      <c r="HI73" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -48600,6 +48819,9 @@
       <c r="HH74" t="n">
         <v>34</v>
       </c>
+      <c r="HI74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49252,6 +49474,9 @@
       <c r="HH75" t="n">
         <v>49</v>
       </c>
+      <c r="HI75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -49904,6 +50129,9 @@
       <c r="HH76" t="n">
         <v>31</v>
       </c>
+      <c r="HI76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -50556,6 +50784,9 @@
       <c r="HH77" t="n">
         <v>56</v>
       </c>
+      <c r="HI77" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51208,6 +51439,9 @@
       <c r="HH78" t="n">
         <v>1.65</v>
       </c>
+      <c r="HI78" t="n">
+        <v>2.12</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -51860,6 +52094,9 @@
       <c r="HH79" t="n">
         <v>2.95</v>
       </c>
+      <c r="HI79" t="n">
+        <v>3.64</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -52512,6 +52749,9 @@
       <c r="HH80" t="n">
         <v>55.4</v>
       </c>
+      <c r="HI80" t="n">
+        <v>39.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53164,6 +53404,9 @@
       <c r="HH81" t="n">
         <v>33.9</v>
       </c>
+      <c r="HI81" t="n">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -53816,6 +54059,9 @@
       <c r="HH82" t="n">
         <v>188.1</v>
       </c>
+      <c r="HI82" t="n">
+        <v>189.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -54468,6 +54714,9 @@
       <c r="HH83" t="n">
         <v>87</v>
       </c>
+      <c r="HI83" t="n">
+        <v>85.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55120,6 +55369,9 @@
       <c r="HH84" t="n">
         <v>25.66</v>
       </c>
+      <c r="HI84" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -55772,6 +56024,9 @@
       <c r="HH85" t="n">
         <v>100.8</v>
       </c>
+      <c r="HI85" t="n">
+        <v>92.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -56424,6 +56679,9 @@
       <c r="HH86" t="n">
         <v>6</v>
       </c>
+      <c r="HI86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57076,6 +57334,9 @@
       <c r="HH87" t="n">
         <v>6</v>
       </c>
+      <c r="HI87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -57728,6 +57989,9 @@
       <c r="HH88" t="n">
         <v>6</v>
       </c>
+      <c r="HI88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -58380,6 +58644,9 @@
       <c r="HH89" t="n">
         <v>4</v>
       </c>
+      <c r="HI89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59032,6 +59299,9 @@
       <c r="HH90" t="n">
         <v>136</v>
       </c>
+      <c r="HI90" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -59684,6 +59954,9 @@
       <c r="HH91" t="n">
         <v>228</v>
       </c>
+      <c r="HI91" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -60336,6 +60609,9 @@
       <c r="HH92" t="n">
         <v>266</v>
       </c>
+      <c r="HI92" t="n">
+        <v>269</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -60988,6 +61264,9 @@
       <c r="HH93" t="n">
         <v>71.3</v>
       </c>
+      <c r="HI93" t="n">
+        <v>74.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -61640,6 +61919,9 @@
       <c r="HH94" t="n">
         <v>49</v>
       </c>
+      <c r="HI94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -62292,6 +62574,9 @@
       <c r="HH95" t="n">
         <v>12</v>
       </c>
+      <c r="HI95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -62944,6 +63229,9 @@
       <c r="HH96" t="n">
         <v>15</v>
       </c>
+      <c r="HI96" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -63596,6 +63884,9 @@
       <c r="HH97" t="n">
         <v>34</v>
       </c>
+      <c r="HI97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -64248,6 +64539,9 @@
       <c r="HH98" t="n">
         <v>31</v>
       </c>
+      <c r="HI98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -64900,6 +65194,9 @@
       <c r="HH99" t="n">
         <v>39</v>
       </c>
+      <c r="HI99" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -65552,6 +65849,9 @@
       <c r="HH100" t="n">
         <v>4</v>
       </c>
+      <c r="HI100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -66204,6 +66504,9 @@
       <c r="HH101" t="n">
         <v>12</v>
       </c>
+      <c r="HI101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -66856,6 +67159,9 @@
       <c r="HH102" t="n">
         <v>63.2</v>
       </c>
+      <c r="HI102" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HJ102"/>
+  <dimension ref="A1:HK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1010,6 +1010,9 @@
       <c r="HJ1" t="n">
         <v>10440</v>
       </c>
+      <c r="HK1" t="n">
+        <v>10448</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1668,6 +1671,9 @@
       <c r="HJ2" t="n">
         <v>2021</v>
       </c>
+      <c r="HK2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2326,6 +2332,9 @@
       <c r="HJ3" t="n">
         <v>14</v>
       </c>
+      <c r="HK3" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2984,6 +2993,9 @@
       <c r="HJ4" t="n">
         <v>0</v>
       </c>
+      <c r="HK4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3642,6 +3654,9 @@
       <c r="HJ5" t="n">
         <v>0</v>
       </c>
+      <c r="HK5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4300,6 +4315,9 @@
       <c r="HJ6" t="n">
         <v>102</v>
       </c>
+      <c r="HK6" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4958,6 +4976,9 @@
       <c r="HJ7" t="n">
         <v>66</v>
       </c>
+      <c r="HK7" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5616,6 +5637,9 @@
       <c r="HJ8" t="n">
         <v>36</v>
       </c>
+      <c r="HK8" t="n">
+        <v>-18</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6274,6 +6298,9 @@
       <c r="HJ9" t="n">
         <v>1</v>
       </c>
+      <c r="HK9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6932,6 +6959,9 @@
       <c r="HJ10" t="n">
         <v>3</v>
       </c>
+      <c r="HK10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7590,6 +7620,9 @@
       <c r="HJ11" t="n">
         <v>242</v>
       </c>
+      <c r="HK11" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8248,6 +8281,9 @@
       <c r="HJ12" t="n">
         <v>107</v>
       </c>
+      <c r="HK12" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8906,6 +8942,9 @@
       <c r="HJ13" t="n">
         <v>349</v>
       </c>
+      <c r="HK13" t="n">
+        <v>360</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9564,6 +9603,9 @@
       <c r="HJ14" t="n">
         <v>2.26</v>
       </c>
+      <c r="HK14" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10222,6 +10264,9 @@
       <c r="HJ15" t="n">
         <v>138</v>
       </c>
+      <c r="HK15" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10880,6 +10925,9 @@
       <c r="HJ16" t="n">
         <v>79</v>
       </c>
+      <c r="HK16" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11538,6 +11586,9 @@
       <c r="HJ17" t="n">
         <v>33</v>
       </c>
+      <c r="HK17" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12196,6 +12247,9 @@
       <c r="HJ18" t="n">
         <v>19</v>
       </c>
+      <c r="HK18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12854,6 +12908,9 @@
       <c r="HJ19" t="n">
         <v>21</v>
       </c>
+      <c r="HK19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13512,6 +13569,9 @@
       <c r="HJ20" t="n">
         <v>16</v>
       </c>
+      <c r="HK20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14170,6 +14230,9 @@
       <c r="HJ21" t="n">
         <v>9</v>
       </c>
+      <c r="HK21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14828,6 +14891,9 @@
       <c r="HJ22" t="n">
         <v>5</v>
       </c>
+      <c r="HK22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15486,6 +15552,9 @@
       <c r="HJ23" t="n">
         <v>1</v>
       </c>
+      <c r="HK23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16144,6 +16213,9 @@
       <c r="HJ24" t="n">
         <v>22</v>
       </c>
+      <c r="HK24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16802,6 +16874,9 @@
       <c r="HJ25" t="n">
         <v>72.7</v>
       </c>
+      <c r="HK25" t="n">
+        <v>64.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17460,6 +17535,9 @@
       <c r="HJ26" t="n">
         <v>21.81</v>
       </c>
+      <c r="HK26" t="n">
+        <v>32.73</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18118,6 +18196,9 @@
       <c r="HJ27" t="n">
         <v>15.86</v>
       </c>
+      <c r="HK27" t="n">
+        <v>21.18</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18776,6 +18857,9 @@
       <c r="HJ28" t="n">
         <v>39</v>
       </c>
+      <c r="HK28" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19434,6 +19518,9 @@
       <c r="HJ29" t="n">
         <v>58</v>
       </c>
+      <c r="HK29" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20092,6 +20179,9 @@
       <c r="HJ30" t="n">
         <v>38</v>
       </c>
+      <c r="HK30" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20750,6 +20840,9 @@
       <c r="HJ31" t="n">
         <v>52</v>
       </c>
+      <c r="HK31" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21408,6 +21501,9 @@
       <c r="HJ32" t="n">
         <v>2.36</v>
       </c>
+      <c r="HK32" t="n">
+        <v>2.88</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22066,6 +22162,9 @@
       <c r="HJ33" t="n">
         <v>3.25</v>
       </c>
+      <c r="HK33" t="n">
+        <v>4.45</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22724,6 +22823,9 @@
       <c r="HJ34" t="n">
         <v>40.4</v>
       </c>
+      <c r="HK34" t="n">
+        <v>32.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23382,6 +23484,9 @@
       <c r="HJ35" t="n">
         <v>30.8</v>
       </c>
+      <c r="HK35" t="n">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24040,6 +24145,9 @@
       <c r="HJ36" t="n">
         <v>188.9</v>
       </c>
+      <c r="HK36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24698,6 +24806,9 @@
       <c r="HJ37" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="HK37" t="n">
+        <v>86.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25356,6 +25467,9 @@
       <c r="HJ38" t="n">
         <v>25.8</v>
       </c>
+      <c r="HK38" t="n">
+        <v>25.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26014,6 +26128,9 @@
       <c r="HJ39" t="n">
         <v>92.5</v>
       </c>
+      <c r="HK39" t="n">
+        <v>95.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26672,6 +26789,9 @@
       <c r="HJ40" t="n">
         <v>7</v>
       </c>
+      <c r="HK40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27330,6 +27450,9 @@
       <c r="HJ41" t="n">
         <v>6</v>
       </c>
+      <c r="HK41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27988,6 +28111,9 @@
       <c r="HJ42" t="n">
         <v>3</v>
       </c>
+      <c r="HK42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28646,6 +28772,9 @@
       <c r="HJ43" t="n">
         <v>6</v>
       </c>
+      <c r="HK43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29304,6 +29433,9 @@
       <c r="HJ44" t="n">
         <v>123</v>
       </c>
+      <c r="HK44" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29962,6 +30094,9 @@
       <c r="HJ45" t="n">
         <v>221</v>
       </c>
+      <c r="HK45" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30620,6 +30755,9 @@
       <c r="HJ46" t="n">
         <v>277</v>
       </c>
+      <c r="HK46" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31278,6 +31416,9 @@
       <c r="HJ47" t="n">
         <v>79.40000000000001</v>
       </c>
+      <c r="HK47" t="n">
+        <v>76.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31936,6 +32077,9 @@
       <c r="HJ48" t="n">
         <v>58</v>
       </c>
+      <c r="HK48" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32594,6 +32738,9 @@
       <c r="HJ49" t="n">
         <v>18</v>
       </c>
+      <c r="HK49" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33252,6 +33399,9 @@
       <c r="HJ50" t="n">
         <v>13</v>
       </c>
+      <c r="HK50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33910,6 +34060,9 @@
       <c r="HJ51" t="n">
         <v>39</v>
       </c>
+      <c r="HK51" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34568,6 +34721,9 @@
       <c r="HJ52" t="n">
         <v>38</v>
       </c>
+      <c r="HK52" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35226,6 +35382,9 @@
       <c r="HJ53" t="n">
         <v>42</v>
       </c>
+      <c r="HK53" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35884,6 +36043,9 @@
       <c r="HJ54" t="n">
         <v>7</v>
       </c>
+      <c r="HK54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36542,6 +36704,9 @@
       <c r="HJ55" t="n">
         <v>9</v>
       </c>
+      <c r="HK55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37200,6 +37365,9 @@
       <c r="HJ56" t="n">
         <v>56.2</v>
       </c>
+      <c r="HK56" t="n">
+        <v>81.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37858,6 +38026,9 @@
       <c r="HJ57" t="n">
         <v>193</v>
       </c>
+      <c r="HK57" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38516,6 +38687,9 @@
       <c r="HJ58" t="n">
         <v>117</v>
       </c>
+      <c r="HK58" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39174,6 +39348,9 @@
       <c r="HJ59" t="n">
         <v>310</v>
       </c>
+      <c r="HK59" t="n">
+        <v>399</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -39832,6 +40009,9 @@
       <c r="HJ60" t="n">
         <v>1.65</v>
       </c>
+      <c r="HK60" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40490,6 +40670,9 @@
       <c r="HJ61" t="n">
         <v>89</v>
       </c>
+      <c r="HK61" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41148,6 +41331,9 @@
       <c r="HJ62" t="n">
         <v>41</v>
       </c>
+      <c r="HK62" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41806,6 +41992,9 @@
       <c r="HJ63" t="n">
         <v>37</v>
       </c>
+      <c r="HK63" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42464,6 +42653,9 @@
       <c r="HJ64" t="n">
         <v>21</v>
       </c>
+      <c r="HK64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43122,6 +43314,9 @@
       <c r="HJ65" t="n">
         <v>20</v>
       </c>
+      <c r="HK65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43780,6 +43975,9 @@
       <c r="HJ66" t="n">
         <v>9</v>
       </c>
+      <c r="HK66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44438,6 +44636,9 @@
       <c r="HJ67" t="n">
         <v>4</v>
       </c>
+      <c r="HK67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45096,6 +45297,9 @@
       <c r="HJ68" t="n">
         <v>10</v>
       </c>
+      <c r="HK68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45754,6 +45958,9 @@
       <c r="HJ69" t="n">
         <v>2</v>
       </c>
+      <c r="HK69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46412,6 +46619,9 @@
       <c r="HJ70" t="n">
         <v>21</v>
       </c>
+      <c r="HK70" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47070,6 +47280,9 @@
       <c r="HJ71" t="n">
         <v>42.9</v>
       </c>
+      <c r="HK71" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47728,6 +47941,9 @@
       <c r="HJ72" t="n">
         <v>34.44</v>
       </c>
+      <c r="HK72" t="n">
+        <v>30.69</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48386,6 +48602,9 @@
       <c r="HJ73" t="n">
         <v>14.76</v>
       </c>
+      <c r="HK73" t="n">
+        <v>15.96</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49044,6 +49263,9 @@
       <c r="HJ74" t="n">
         <v>31</v>
       </c>
+      <c r="HK74" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49702,6 +49924,9 @@
       <c r="HJ75" t="n">
         <v>49</v>
       </c>
+      <c r="HK75" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50360,6 +50585,9 @@
       <c r="HJ76" t="n">
         <v>35</v>
       </c>
+      <c r="HK76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51018,6 +51246,9 @@
       <c r="HJ77" t="n">
         <v>49</v>
       </c>
+      <c r="HK77" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51676,6 +51907,9 @@
       <c r="HJ78" t="n">
         <v>2.33</v>
       </c>
+      <c r="HK78" t="n">
+        <v>2.36</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52334,6 +52568,9 @@
       <c r="HJ79" t="n">
         <v>5.44</v>
       </c>
+      <c r="HK79" t="n">
+        <v>4.54</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -52992,6 +53229,9 @@
       <c r="HJ80" t="n">
         <v>38.8</v>
       </c>
+      <c r="HK80" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53650,6 +53890,9 @@
       <c r="HJ81" t="n">
         <v>18.4</v>
       </c>
+      <c r="HK81" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54308,6 +54551,9 @@
       <c r="HJ82" t="n">
         <v>188.1</v>
       </c>
+      <c r="HK82" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -54966,6 +55212,9 @@
       <c r="HJ83" t="n">
         <v>86.7</v>
       </c>
+      <c r="HK83" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55624,6 +55873,9 @@
       <c r="HJ84" t="n">
         <v>25.33</v>
       </c>
+      <c r="HK84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56282,6 +56534,9 @@
       <c r="HJ85" t="n">
         <v>91.7</v>
       </c>
+      <c r="HK85" t="n">
+        <v>105.9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -56940,6 +57195,9 @@
       <c r="HJ86" t="n">
         <v>7</v>
       </c>
+      <c r="HK86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57598,6 +57856,9 @@
       <c r="HJ87" t="n">
         <v>6</v>
       </c>
+      <c r="HK87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -58256,6 +58517,9 @@
       <c r="HJ88" t="n">
         <v>6</v>
       </c>
+      <c r="HK88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -58914,6 +59178,9 @@
       <c r="HJ89" t="n">
         <v>4</v>
       </c>
+      <c r="HK89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59572,6 +59839,9 @@
       <c r="HJ90" t="n">
         <v>125</v>
       </c>
+      <c r="HK90" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -60230,6 +60500,9 @@
       <c r="HJ91" t="n">
         <v>178</v>
       </c>
+      <c r="HK91" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -60888,6 +61161,9 @@
       <c r="HJ92" t="n">
         <v>215</v>
       </c>
+      <c r="HK92" t="n">
+        <v>302</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -61546,6 +61822,9 @@
       <c r="HJ93" t="n">
         <v>69.40000000000001</v>
       </c>
+      <c r="HK93" t="n">
+        <v>75.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -62204,6 +62483,9 @@
       <c r="HJ94" t="n">
         <v>49</v>
       </c>
+      <c r="HK94" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -62862,6 +63144,9 @@
       <c r="HJ95" t="n">
         <v>12</v>
       </c>
+      <c r="HK95" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -63520,6 +63805,9 @@
       <c r="HJ96" t="n">
         <v>8</v>
       </c>
+      <c r="HK96" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -64178,6 +64466,9 @@
       <c r="HJ97" t="n">
         <v>31</v>
       </c>
+      <c r="HK97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -64836,6 +65127,9 @@
       <c r="HJ98" t="n">
         <v>35</v>
       </c>
+      <c r="HK98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -65494,6 +65788,9 @@
       <c r="HJ99" t="n">
         <v>34</v>
       </c>
+      <c r="HK99" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -66152,6 +66449,9 @@
       <c r="HJ100" t="n">
         <v>11</v>
       </c>
+      <c r="HK100" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -66810,6 +67110,9 @@
       <c r="HJ101" t="n">
         <v>4</v>
       </c>
+      <c r="HK101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -67468,8 +67771,11 @@
       <c r="HJ102" t="n">
         <v>44.4</v>
       </c>
+      <c r="HK102" t="n">
+        <v>69.2</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HK102"/>
+  <dimension ref="A1:HL102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1013,6 +1013,9 @@
       <c r="HK1" t="n">
         <v>10448</v>
       </c>
+      <c r="HL1" t="n">
+        <v>10457</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1674,6 +1677,9 @@
       <c r="HK2" t="n">
         <v>2021</v>
       </c>
+      <c r="HL2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2335,6 +2341,9 @@
       <c r="HK3" t="n">
         <v>15</v>
       </c>
+      <c r="HL3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2996,6 +3005,9 @@
       <c r="HK4" t="n">
         <v>0</v>
       </c>
+      <c r="HL4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3657,6 +3669,9 @@
       <c r="HK5" t="n">
         <v>1</v>
       </c>
+      <c r="HL5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4318,6 +4333,9 @@
       <c r="HK6" t="n">
         <v>72</v>
       </c>
+      <c r="HL6" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4979,6 +4997,9 @@
       <c r="HK7" t="n">
         <v>90</v>
       </c>
+      <c r="HL7" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5640,6 +5661,9 @@
       <c r="HK8" t="n">
         <v>-18</v>
       </c>
+      <c r="HL8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6301,6 +6325,9 @@
       <c r="HK9" t="n">
         <v>0</v>
       </c>
+      <c r="HL9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6962,6 +6989,9 @@
       <c r="HK10" t="n">
         <v>10</v>
       </c>
+      <c r="HL10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7623,6 +7653,9 @@
       <c r="HK11" t="n">
         <v>207</v>
       </c>
+      <c r="HL11" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8284,6 +8317,9 @@
       <c r="HK12" t="n">
         <v>153</v>
       </c>
+      <c r="HL12" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8945,6 +8981,9 @@
       <c r="HK13" t="n">
         <v>360</v>
       </c>
+      <c r="HL13" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9606,6 +9645,9 @@
       <c r="HK14" t="n">
         <v>1.35</v>
       </c>
+      <c r="HL14" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10267,6 +10309,9 @@
       <c r="HK15" t="n">
         <v>94</v>
       </c>
+      <c r="HL15" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10928,6 +10973,9 @@
       <c r="HK16" t="n">
         <v>61</v>
       </c>
+      <c r="HL16" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11589,6 +11637,9 @@
       <c r="HK17" t="n">
         <v>26</v>
       </c>
+      <c r="HL17" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12250,6 +12301,9 @@
       <c r="HK18" t="n">
         <v>22</v>
       </c>
+      <c r="HL18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12911,6 +12965,9 @@
       <c r="HK19" t="n">
         <v>19</v>
       </c>
+      <c r="HL19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13572,6 +13629,9 @@
       <c r="HK20" t="n">
         <v>11</v>
       </c>
+      <c r="HL20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14233,6 +14293,9 @@
       <c r="HK21" t="n">
         <v>9</v>
       </c>
+      <c r="HL21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14894,6 +14957,9 @@
       <c r="HK22" t="n">
         <v>5</v>
       </c>
+      <c r="HL22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15555,6 +15621,9 @@
       <c r="HK23" t="n">
         <v>1</v>
       </c>
+      <c r="HL23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16216,6 +16285,9 @@
       <c r="HK24" t="n">
         <v>17</v>
       </c>
+      <c r="HL24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16877,6 +16949,9 @@
       <c r="HK25" t="n">
         <v>64.7</v>
       </c>
+      <c r="HL25" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17538,6 +17613,9 @@
       <c r="HK26" t="n">
         <v>32.73</v>
       </c>
+      <c r="HL26" t="n">
+        <v>38.22</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18199,6 +18277,9 @@
       <c r="HK27" t="n">
         <v>21.18</v>
       </c>
+      <c r="HL27" t="n">
+        <v>18.11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18860,6 +18941,9 @@
       <c r="HK28" t="n">
         <v>34</v>
       </c>
+      <c r="HL28" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19521,6 +19605,9 @@
       <c r="HK29" t="n">
         <v>57</v>
       </c>
+      <c r="HL29" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20182,6 +20269,9 @@
       <c r="HK30" t="n">
         <v>43</v>
       </c>
+      <c r="HL30" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20843,6 +20933,9 @@
       <c r="HK31" t="n">
         <v>49</v>
       </c>
+      <c r="HL31" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21504,6 +21597,9 @@
       <c r="HK32" t="n">
         <v>2.88</v>
       </c>
+      <c r="HL32" t="n">
+        <v>2.89</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22165,6 +22261,9 @@
       <c r="HK33" t="n">
         <v>4.45</v>
       </c>
+      <c r="HL33" t="n">
+        <v>6.11</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22826,6 +22925,9 @@
       <c r="HK34" t="n">
         <v>32.7</v>
       </c>
+      <c r="HL34" t="n">
+        <v>29.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23487,6 +23589,9 @@
       <c r="HK35" t="n">
         <v>22.4</v>
       </c>
+      <c r="HL35" t="n">
+        <v>16.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24148,6 +24253,9 @@
       <c r="HK36" t="n">
         <v>188</v>
       </c>
+      <c r="HL36" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24809,6 +24917,9 @@
       <c r="HK37" t="n">
         <v>86.40000000000001</v>
       </c>
+      <c r="HL37" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25470,6 +25581,9 @@
       <c r="HK38" t="n">
         <v>25.91</v>
       </c>
+      <c r="HL38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26131,6 +26245,9 @@
       <c r="HK39" t="n">
         <v>95.2</v>
       </c>
+      <c r="HL39" t="n">
+        <v>93.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26792,6 +26909,9 @@
       <c r="HK40" t="n">
         <v>6</v>
       </c>
+      <c r="HL40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27453,6 +27573,9 @@
       <c r="HK41" t="n">
         <v>7</v>
       </c>
+      <c r="HL41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28114,6 +28237,9 @@
       <c r="HK42" t="n">
         <v>3</v>
       </c>
+      <c r="HL42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28775,6 +28901,9 @@
       <c r="HK43" t="n">
         <v>6</v>
       </c>
+      <c r="HL43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29436,6 +29565,9 @@
       <c r="HK44" t="n">
         <v>124</v>
       </c>
+      <c r="HL44" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30097,6 +30229,9 @@
       <c r="HK45" t="n">
         <v>231</v>
       </c>
+      <c r="HL45" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30758,6 +30893,9 @@
       <c r="HK46" t="n">
         <v>275</v>
       </c>
+      <c r="HL46" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31419,6 +31557,9 @@
       <c r="HK47" t="n">
         <v>76.40000000000001</v>
       </c>
+      <c r="HL47" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32080,6 +32221,9 @@
       <c r="HK48" t="n">
         <v>57</v>
       </c>
+      <c r="HL48" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32741,6 +32885,9 @@
       <c r="HK49" t="n">
         <v>14</v>
       </c>
+      <c r="HL49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33402,6 +33549,9 @@
       <c r="HK50" t="n">
         <v>7</v>
       </c>
+      <c r="HL50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34063,6 +34213,9 @@
       <c r="HK51" t="n">
         <v>34</v>
       </c>
+      <c r="HL51" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34724,6 +34877,9 @@
       <c r="HK52" t="n">
         <v>43</v>
       </c>
+      <c r="HL52" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35385,6 +35541,9 @@
       <c r="HK53" t="n">
         <v>39</v>
       </c>
+      <c r="HL53" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36046,6 +36205,9 @@
       <c r="HK54" t="n">
         <v>8</v>
       </c>
+      <c r="HL54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36707,6 +36869,9 @@
       <c r="HK55" t="n">
         <v>9</v>
       </c>
+      <c r="HL55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37368,6 +37533,9 @@
       <c r="HK56" t="n">
         <v>81.8</v>
       </c>
+      <c r="HL56" t="n">
+        <v>88.90000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38029,6 +38197,9 @@
       <c r="HK57" t="n">
         <v>222</v>
       </c>
+      <c r="HL57" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38690,6 +38861,9 @@
       <c r="HK58" t="n">
         <v>177</v>
       </c>
+      <c r="HL58" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39351,6 +39525,9 @@
       <c r="HK59" t="n">
         <v>399</v>
       </c>
+      <c r="HL59" t="n">
+        <v>378</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40012,6 +40189,9 @@
       <c r="HK60" t="n">
         <v>1.25</v>
       </c>
+      <c r="HL60" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40673,6 +40853,9 @@
       <c r="HK61" t="n">
         <v>109</v>
       </c>
+      <c r="HL61" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41334,6 +41517,9 @@
       <c r="HK62" t="n">
         <v>45</v>
       </c>
+      <c r="HL62" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41995,6 +42181,9 @@
       <c r="HK63" t="n">
         <v>38</v>
       </c>
+      <c r="HL63" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42656,6 +42845,9 @@
       <c r="HK64" t="n">
         <v>19</v>
       </c>
+      <c r="HL64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43317,6 +43509,9 @@
       <c r="HK65" t="n">
         <v>22</v>
       </c>
+      <c r="HL65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43978,6 +44173,9 @@
       <c r="HK66" t="n">
         <v>13</v>
       </c>
+      <c r="HL66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44639,6 +44837,9 @@
       <c r="HK67" t="n">
         <v>9</v>
       </c>
+      <c r="HL67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45300,6 +45501,9 @@
       <c r="HK68" t="n">
         <v>10</v>
       </c>
+      <c r="HL68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45961,6 +46165,9 @@
       <c r="HK69" t="n">
         <v>2</v>
       </c>
+      <c r="HL69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46622,6 +46829,9 @@
       <c r="HK70" t="n">
         <v>25</v>
       </c>
+      <c r="HL70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47283,6 +47493,9 @@
       <c r="HK71" t="n">
         <v>52</v>
       </c>
+      <c r="HL71" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47944,6 +48157,9 @@
       <c r="HK72" t="n">
         <v>30.69</v>
       </c>
+      <c r="HL72" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48605,6 +48821,9 @@
       <c r="HK73" t="n">
         <v>15.96</v>
       </c>
+      <c r="HL73" t="n">
+        <v>18.9</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49266,6 +49485,9 @@
       <c r="HK74" t="n">
         <v>34</v>
       </c>
+      <c r="HL74" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49927,6 +50149,9 @@
       <c r="HK75" t="n">
         <v>54</v>
       </c>
+      <c r="HL75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50588,6 +50813,9 @@
       <c r="HK76" t="n">
         <v>38</v>
       </c>
+      <c r="HL76" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51249,6 +51477,9 @@
       <c r="HK77" t="n">
         <v>59</v>
       </c>
+      <c r="HL77" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51910,6 +52141,9 @@
       <c r="HK78" t="n">
         <v>2.36</v>
       </c>
+      <c r="HL78" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52571,6 +52805,9 @@
       <c r="HK79" t="n">
         <v>4.54</v>
       </c>
+      <c r="HL79" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53232,6 +53469,9 @@
       <c r="HK80" t="n">
         <v>39</v>
       </c>
+      <c r="HL80" t="n">
+        <v>30.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53893,6 +54133,9 @@
       <c r="HK81" t="n">
         <v>22</v>
       </c>
+      <c r="HL81" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54554,6 +54797,9 @@
       <c r="HK82" t="n">
         <v>188.3</v>
       </c>
+      <c r="HL82" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55215,6 +55461,9 @@
       <c r="HK83" t="n">
         <v>85.09999999999999</v>
       </c>
+      <c r="HL83" t="n">
+        <v>85.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55876,6 +56125,9 @@
       <c r="HK84" t="n">
         <v>25.16</v>
       </c>
+      <c r="HL84" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56537,6 +56789,9 @@
       <c r="HK85" t="n">
         <v>105.9</v>
       </c>
+      <c r="HL85" t="n">
+        <v>91.59999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57198,6 +57453,9 @@
       <c r="HK86" t="n">
         <v>8</v>
       </c>
+      <c r="HL86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57859,6 +58117,9 @@
       <c r="HK87" t="n">
         <v>5</v>
       </c>
+      <c r="HL87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -58520,6 +58781,9 @@
       <c r="HK88" t="n">
         <v>5</v>
       </c>
+      <c r="HL88" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59181,6 +59445,9 @@
       <c r="HK89" t="n">
         <v>5</v>
       </c>
+      <c r="HL89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59842,6 +60109,9 @@
       <c r="HK90" t="n">
         <v>136</v>
       </c>
+      <c r="HL90" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -60503,6 +60773,9 @@
       <c r="HK91" t="n">
         <v>259</v>
       </c>
+      <c r="HL91" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61164,6 +61437,9 @@
       <c r="HK92" t="n">
         <v>302</v>
       </c>
+      <c r="HL92" t="n">
+        <v>282</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -61825,6 +62101,9 @@
       <c r="HK93" t="n">
         <v>75.7</v>
       </c>
+      <c r="HL93" t="n">
+        <v>74.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -62486,6 +62765,9 @@
       <c r="HK94" t="n">
         <v>54</v>
       </c>
+      <c r="HL94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -63147,6 +63429,9 @@
       <c r="HK95" t="n">
         <v>17</v>
       </c>
+      <c r="HL95" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -63808,6 +64093,9 @@
       <c r="HK96" t="n">
         <v>15</v>
       </c>
+      <c r="HL96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -64469,6 +64757,9 @@
       <c r="HK97" t="n">
         <v>34</v>
       </c>
+      <c r="HL97" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -65130,6 +65421,9 @@
       <c r="HK98" t="n">
         <v>38</v>
       </c>
+      <c r="HL98" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -65791,6 +66085,9 @@
       <c r="HK99" t="n">
         <v>53</v>
       </c>
+      <c r="HL99" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -66452,6 +66749,9 @@
       <c r="HK100" t="n">
         <v>10</v>
       </c>
+      <c r="HL100" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -67113,6 +67413,9 @@
       <c r="HK101" t="n">
         <v>9</v>
       </c>
+      <c r="HL101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -67774,8 +68077,11 @@
       <c r="HK102" t="n">
         <v>69.2</v>
       </c>
+      <c r="HL102" t="n">
+        <v>85.7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HL102"/>
+  <dimension ref="A1:HM102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,6 +1016,9 @@
       <c r="HL1" t="n">
         <v>10457</v>
       </c>
+      <c r="HM1" t="n">
+        <v>10465</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1680,6 +1683,9 @@
       <c r="HL2" t="n">
         <v>2021</v>
       </c>
+      <c r="HM2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2344,6 +2350,9 @@
       <c r="HL3" t="n">
         <v>16</v>
       </c>
+      <c r="HM3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3008,6 +3017,9 @@
       <c r="HL4" t="n">
         <v>1</v>
       </c>
+      <c r="HM4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3672,6 +3684,9 @@
       <c r="HL5" t="n">
         <v>1</v>
       </c>
+      <c r="HM5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4336,6 +4351,9 @@
       <c r="HL6" t="n">
         <v>64</v>
       </c>
+      <c r="HM6" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5000,6 +5018,9 @@
       <c r="HL7" t="n">
         <v>55</v>
       </c>
+      <c r="HM7" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5664,6 +5685,9 @@
       <c r="HL8" t="n">
         <v>9</v>
       </c>
+      <c r="HM8" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6328,6 +6352,9 @@
       <c r="HL9" t="n">
         <v>1</v>
       </c>
+      <c r="HM9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6992,6 +7019,9 @@
       <c r="HL10" t="n">
         <v>11</v>
       </c>
+      <c r="HM10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7656,6 +7686,9 @@
       <c r="HL11" t="n">
         <v>209</v>
       </c>
+      <c r="HM11" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8320,6 +8353,9 @@
       <c r="HL12" t="n">
         <v>135</v>
       </c>
+      <c r="HM12" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8984,6 +9020,9 @@
       <c r="HL13" t="n">
         <v>344</v>
       </c>
+      <c r="HM13" t="n">
+        <v>377</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9648,6 +9687,9 @@
       <c r="HL14" t="n">
         <v>1.55</v>
       </c>
+      <c r="HM14" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10312,6 +10354,9 @@
       <c r="HL15" t="n">
         <v>84</v>
       </c>
+      <c r="HM15" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10976,6 +11021,9 @@
       <c r="HL16" t="n">
         <v>60</v>
       </c>
+      <c r="HM16" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11640,6 +11688,9 @@
       <c r="HL17" t="n">
         <v>32</v>
       </c>
+      <c r="HM17" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12304,6 +12355,9 @@
       <c r="HL18" t="n">
         <v>20</v>
       </c>
+      <c r="HM18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12968,6 +13022,9 @@
       <c r="HL19" t="n">
         <v>19</v>
       </c>
+      <c r="HM19" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13632,6 +13689,9 @@
       <c r="HL20" t="n">
         <v>9</v>
       </c>
+      <c r="HM20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14296,6 +14356,9 @@
       <c r="HL21" t="n">
         <v>8</v>
       </c>
+      <c r="HM21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14960,6 +15023,9 @@
       <c r="HL22" t="n">
         <v>7</v>
       </c>
+      <c r="HM22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15624,6 +15690,9 @@
       <c r="HL23" t="n">
         <v>3</v>
       </c>
+      <c r="HM23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16288,6 +16357,9 @@
       <c r="HL24" t="n">
         <v>19</v>
       </c>
+      <c r="HM24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16952,6 +17024,9 @@
       <c r="HL25" t="n">
         <v>47.4</v>
       </c>
+      <c r="HM25" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17616,6 +17691,9 @@
       <c r="HL26" t="n">
         <v>38.22</v>
       </c>
+      <c r="HM26" t="n">
+        <v>41.89</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18280,6 +18358,9 @@
       <c r="HL27" t="n">
         <v>18.11</v>
       </c>
+      <c r="HM27" t="n">
+        <v>19.84</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18944,6 +19025,9 @@
       <c r="HL28" t="n">
         <v>39</v>
       </c>
+      <c r="HM28" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19608,6 +19692,9 @@
       <c r="HL29" t="n">
         <v>52</v>
       </c>
+      <c r="HM29" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20272,6 +20359,9 @@
       <c r="HL30" t="n">
         <v>47</v>
       </c>
+      <c r="HM30" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20936,6 +21026,9 @@
       <c r="HL31" t="n">
         <v>55</v>
       </c>
+      <c r="HM31" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21600,6 +21693,9 @@
       <c r="HL32" t="n">
         <v>2.89</v>
       </c>
+      <c r="HM32" t="n">
+        <v>2.79</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22264,6 +22360,9 @@
       <c r="HL33" t="n">
         <v>6.11</v>
       </c>
+      <c r="HM33" t="n">
+        <v>5.89</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22928,6 +23027,9 @@
       <c r="HL34" t="n">
         <v>29.1</v>
       </c>
+      <c r="HM34" t="n">
+        <v>30.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23592,6 +23694,9 @@
       <c r="HL35" t="n">
         <v>16.4</v>
       </c>
+      <c r="HM35" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24256,6 +24361,9 @@
       <c r="HL36" t="n">
         <v>187.8</v>
       </c>
+      <c r="HM36" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24920,6 +25028,9 @@
       <c r="HL37" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="HM37" t="n">
+        <v>86.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25584,6 +25695,9 @@
       <c r="HL38" t="n">
         <v>25.8</v>
       </c>
+      <c r="HM38" t="n">
+        <v>25.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26248,6 +26362,9 @@
       <c r="HL39" t="n">
         <v>93.90000000000001</v>
       </c>
+      <c r="HM39" t="n">
+        <v>99.59999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26912,6 +27029,9 @@
       <c r="HL40" t="n">
         <v>7</v>
       </c>
+      <c r="HM40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27576,6 +27696,9 @@
       <c r="HL41" t="n">
         <v>7</v>
       </c>
+      <c r="HM41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28240,6 +28363,9 @@
       <c r="HL42" t="n">
         <v>3</v>
       </c>
+      <c r="HM42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28904,6 +29030,9 @@
       <c r="HL43" t="n">
         <v>6</v>
       </c>
+      <c r="HM43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29568,6 +29697,9 @@
       <c r="HL44" t="n">
         <v>131</v>
       </c>
+      <c r="HM44" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30232,6 +30364,9 @@
       <c r="HL45" t="n">
         <v>207</v>
       </c>
+      <c r="HM45" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30896,6 +31031,9 @@
       <c r="HL46" t="n">
         <v>251</v>
       </c>
+      <c r="HM46" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31560,6 +31698,9 @@
       <c r="HL47" t="n">
         <v>73</v>
       </c>
+      <c r="HM47" t="n">
+        <v>63.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32224,6 +32365,9 @@
       <c r="HL48" t="n">
         <v>52</v>
       </c>
+      <c r="HM48" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32888,6 +33032,9 @@
       <c r="HL49" t="n">
         <v>9</v>
       </c>
+      <c r="HM49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33552,6 +33699,9 @@
       <c r="HL50" t="n">
         <v>6</v>
       </c>
+      <c r="HM50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34216,6 +34366,9 @@
       <c r="HL51" t="n">
         <v>39</v>
       </c>
+      <c r="HM51" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34880,6 +35033,9 @@
       <c r="HL52" t="n">
         <v>47</v>
       </c>
+      <c r="HM52" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35544,6 +35700,9 @@
       <c r="HL53" t="n">
         <v>60</v>
       </c>
+      <c r="HM53" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36208,6 +36367,9 @@
       <c r="HL54" t="n">
         <v>4</v>
       </c>
+      <c r="HM54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36872,6 +37034,9 @@
       <c r="HL55" t="n">
         <v>8</v>
       </c>
+      <c r="HM55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37536,6 +37701,9 @@
       <c r="HL56" t="n">
         <v>88.90000000000001</v>
       </c>
+      <c r="HM56" t="n">
+        <v>88.90000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38200,6 +38368,9 @@
       <c r="HL57" t="n">
         <v>227</v>
       </c>
+      <c r="HM57" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38864,6 +39035,9 @@
       <c r="HL58" t="n">
         <v>151</v>
       </c>
+      <c r="HM58" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39528,6 +39702,9 @@
       <c r="HL59" t="n">
         <v>378</v>
       </c>
+      <c r="HM59" t="n">
+        <v>369</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40192,6 +40369,9 @@
       <c r="HL60" t="n">
         <v>1.5</v>
       </c>
+      <c r="HM60" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40856,6 +41036,9 @@
       <c r="HL61" t="n">
         <v>115</v>
       </c>
+      <c r="HM61" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41520,6 +41703,9 @@
       <c r="HL62" t="n">
         <v>63</v>
       </c>
+      <c r="HM62" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42184,6 +42370,9 @@
       <c r="HL63" t="n">
         <v>29</v>
       </c>
+      <c r="HM63" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42848,6 +43037,9 @@
       <c r="HL64" t="n">
         <v>19</v>
       </c>
+      <c r="HM64" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43512,6 +43704,9 @@
       <c r="HL65" t="n">
         <v>20</v>
       </c>
+      <c r="HM65" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44176,6 +44371,9 @@
       <c r="HL66" t="n">
         <v>7</v>
       </c>
+      <c r="HM66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44840,6 +45038,9 @@
       <c r="HL67" t="n">
         <v>6</v>
       </c>
+      <c r="HM67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45504,6 +45705,9 @@
       <c r="HL68" t="n">
         <v>10</v>
       </c>
+      <c r="HM68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46168,6 +46372,9 @@
       <c r="HL69" t="n">
         <v>3</v>
       </c>
+      <c r="HM69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46832,6 +47039,9 @@
       <c r="HL70" t="n">
         <v>20</v>
       </c>
+      <c r="HM70" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47496,6 +47706,9 @@
       <c r="HL71" t="n">
         <v>35</v>
       </c>
+      <c r="HM71" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -48160,6 +48373,9 @@
       <c r="HL72" t="n">
         <v>54</v>
       </c>
+      <c r="HM72" t="n">
+        <v>36.9</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48824,6 +49040,9 @@
       <c r="HL73" t="n">
         <v>18.9</v>
       </c>
+      <c r="HM73" t="n">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49488,6 +49707,9 @@
       <c r="HL74" t="n">
         <v>24</v>
       </c>
+      <c r="HM74" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -50152,6 +50374,9 @@
       <c r="HL75" t="n">
         <v>59</v>
       </c>
+      <c r="HM75" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50816,6 +51041,9 @@
       <c r="HL76" t="n">
         <v>45</v>
       </c>
+      <c r="HM76" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51480,6 +51708,9 @@
       <c r="HL77" t="n">
         <v>56</v>
       </c>
+      <c r="HM77" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -52144,6 +52375,9 @@
       <c r="HL78" t="n">
         <v>2.8</v>
       </c>
+      <c r="HM78" t="n">
+        <v>3.93</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52808,6 +53042,9 @@
       <c r="HL79" t="n">
         <v>8</v>
       </c>
+      <c r="HM79" t="n">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53472,6 +53709,9 @@
       <c r="HL80" t="n">
         <v>30.4</v>
       </c>
+      <c r="HM80" t="n">
+        <v>25.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -54136,6 +54376,9 @@
       <c r="HL81" t="n">
         <v>12.5</v>
       </c>
+      <c r="HM81" t="n">
+        <v>16.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54800,6 +55043,9 @@
       <c r="HL82" t="n">
         <v>187.1</v>
       </c>
+      <c r="HM82" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55464,6 +55710,9 @@
       <c r="HL83" t="n">
         <v>85.59999999999999</v>
       </c>
+      <c r="HM83" t="n">
+        <v>84.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -56128,6 +56377,9 @@
       <c r="HL84" t="n">
         <v>24.74</v>
       </c>
+      <c r="HM84" t="n">
+        <v>24.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56792,6 +57044,9 @@
       <c r="HL85" t="n">
         <v>91.59999999999999</v>
       </c>
+      <c r="HM85" t="n">
+        <v>76.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57456,6 +57711,9 @@
       <c r="HL86" t="n">
         <v>7</v>
       </c>
+      <c r="HM86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -58120,6 +58378,9 @@
       <c r="HL87" t="n">
         <v>4</v>
       </c>
+      <c r="HM87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -58784,6 +59045,9 @@
       <c r="HL88" t="n">
         <v>8</v>
       </c>
+      <c r="HM88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59448,6 +59712,9 @@
       <c r="HL89" t="n">
         <v>3</v>
       </c>
+      <c r="HM89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -60112,6 +60379,9 @@
       <c r="HL90" t="n">
         <v>138</v>
       </c>
+      <c r="HM90" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -60776,6 +61046,9 @@
       <c r="HL91" t="n">
         <v>237</v>
       </c>
+      <c r="HM91" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61440,6 +61713,9 @@
       <c r="HL92" t="n">
         <v>282</v>
       </c>
+      <c r="HM92" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -62104,6 +62380,9 @@
       <c r="HL93" t="n">
         <v>74.59999999999999</v>
       </c>
+      <c r="HM93" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -62768,6 +63047,9 @@
       <c r="HL94" t="n">
         <v>59</v>
       </c>
+      <c r="HM94" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -63432,6 +63714,9 @@
       <c r="HL95" t="n">
         <v>20</v>
       </c>
+      <c r="HM95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -64096,6 +64381,9 @@
       <c r="HL96" t="n">
         <v>10</v>
       </c>
+      <c r="HM96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -64760,6 +65048,9 @@
       <c r="HL97" t="n">
         <v>24</v>
       </c>
+      <c r="HM97" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -65424,6 +65715,9 @@
       <c r="HL98" t="n">
         <v>45</v>
       </c>
+      <c r="HM98" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -66088,6 +66382,9 @@
       <c r="HL99" t="n">
         <v>47</v>
       </c>
+      <c r="HM99" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -66752,6 +67049,9 @@
       <c r="HL100" t="n">
         <v>7</v>
       </c>
+      <c r="HM100" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -67416,6 +67716,9 @@
       <c r="HL101" t="n">
         <v>6</v>
       </c>
+      <c r="HM101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -68080,6 +68383,9 @@
       <c r="HL102" t="n">
         <v>85.7</v>
       </c>
+      <c r="HM102" t="n">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HM102"/>
+  <dimension ref="A1:HN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1019,6 +1019,9 @@
       <c r="HM1" t="n">
         <v>10465</v>
       </c>
+      <c r="HN1" t="n">
+        <v>10473</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1686,6 +1689,9 @@
       <c r="HM2" t="n">
         <v>2021</v>
       </c>
+      <c r="HN2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2353,6 +2359,9 @@
       <c r="HM3" t="n">
         <v>17</v>
       </c>
+      <c r="HN3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3020,6 +3029,9 @@
       <c r="HM4" t="n">
         <v>0</v>
       </c>
+      <c r="HN4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3687,6 +3699,9 @@
       <c r="HM5" t="n">
         <v>1</v>
       </c>
+      <c r="HN5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4354,6 +4369,9 @@
       <c r="HM6" t="n">
         <v>64</v>
       </c>
+      <c r="HN6" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5021,6 +5039,9 @@
       <c r="HM7" t="n">
         <v>65</v>
       </c>
+      <c r="HN7" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5688,6 +5709,9 @@
       <c r="HM8" t="n">
         <v>-1</v>
       </c>
+      <c r="HN8" t="n">
+        <v>-26</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6355,6 +6379,9 @@
       <c r="HM9" t="n">
         <v>0</v>
       </c>
+      <c r="HN9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7022,6 +7049,9 @@
       <c r="HM10" t="n">
         <v>8</v>
       </c>
+      <c r="HN10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7689,6 +7719,9 @@
       <c r="HM11" t="n">
         <v>207</v>
       </c>
+      <c r="HN11" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8356,6 +8389,9 @@
       <c r="HM12" t="n">
         <v>170</v>
       </c>
+      <c r="HN12" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9023,6 +9059,9 @@
       <c r="HM13" t="n">
         <v>377</v>
       </c>
+      <c r="HN13" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9690,6 +9729,9 @@
       <c r="HM14" t="n">
         <v>1.22</v>
       </c>
+      <c r="HN14" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10357,6 +10399,9 @@
       <c r="HM15" t="n">
         <v>52</v>
       </c>
+      <c r="HN15" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11024,6 +11069,9 @@
       <c r="HM16" t="n">
         <v>85</v>
       </c>
+      <c r="HN16" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11691,6 +11739,9 @@
       <c r="HM17" t="n">
         <v>57</v>
       </c>
+      <c r="HN17" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12358,6 +12409,9 @@
       <c r="HM18" t="n">
         <v>12</v>
       </c>
+      <c r="HN18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13025,6 +13079,9 @@
       <c r="HM19" t="n">
         <v>23</v>
       </c>
+      <c r="HN19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13692,6 +13749,9 @@
       <c r="HM20" t="n">
         <v>9</v>
       </c>
+      <c r="HN20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14359,6 +14419,9 @@
       <c r="HM21" t="n">
         <v>8</v>
       </c>
+      <c r="HN21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15026,6 +15089,9 @@
       <c r="HM22" t="n">
         <v>7</v>
       </c>
+      <c r="HN22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15693,6 +15759,9 @@
       <c r="HM23" t="n">
         <v>3</v>
       </c>
+      <c r="HN23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16360,6 +16429,9 @@
       <c r="HM24" t="n">
         <v>19</v>
       </c>
+      <c r="HN24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17027,6 +17099,9 @@
       <c r="HM25" t="n">
         <v>47.4</v>
       </c>
+      <c r="HN25" t="n">
+        <v>64.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17694,6 +17769,9 @@
       <c r="HM26" t="n">
         <v>41.89</v>
       </c>
+      <c r="HN26" t="n">
+        <v>31.27</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18361,6 +18439,9 @@
       <c r="HM27" t="n">
         <v>19.84</v>
       </c>
+      <c r="HN27" t="n">
+        <v>20.24</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19028,6 +19109,9 @@
       <c r="HM28" t="n">
         <v>53</v>
       </c>
+      <c r="HN28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19695,6 +19779,9 @@
       <c r="HM29" t="n">
         <v>87</v>
       </c>
+      <c r="HN29" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20362,6 +20449,9 @@
       <c r="HM30" t="n">
         <v>48</v>
       </c>
+      <c r="HN30" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21029,6 +21119,9 @@
       <c r="HM31" t="n">
         <v>53</v>
       </c>
+      <c r="HN31" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21696,6 +21789,9 @@
       <c r="HM32" t="n">
         <v>2.79</v>
       </c>
+      <c r="HN32" t="n">
+        <v>2.41</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22363,6 +22459,9 @@
       <c r="HM33" t="n">
         <v>5.89</v>
       </c>
+      <c r="HN33" t="n">
+        <v>3.73</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23030,6 +23129,9 @@
       <c r="HM34" t="n">
         <v>30.2</v>
       </c>
+      <c r="HN34" t="n">
+        <v>36.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23697,6 +23799,9 @@
       <c r="HM35" t="n">
         <v>17</v>
       </c>
+      <c r="HN35" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24364,6 +24469,9 @@
       <c r="HM36" t="n">
         <v>187.7</v>
       </c>
+      <c r="HN36" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25031,6 +25139,9 @@
       <c r="HM37" t="n">
         <v>86.2</v>
       </c>
+      <c r="HN37" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25698,6 +25809,9 @@
       <c r="HM38" t="n">
         <v>25.91</v>
       </c>
+      <c r="HN38" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26365,6 +26479,9 @@
       <c r="HM39" t="n">
         <v>99.59999999999999</v>
       </c>
+      <c r="HN39" t="n">
+        <v>82.59999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27032,6 +27149,9 @@
       <c r="HM40" t="n">
         <v>6</v>
       </c>
+      <c r="HN40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27699,6 +27819,9 @@
       <c r="HM41" t="n">
         <v>7</v>
       </c>
+      <c r="HN41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28366,6 +28489,9 @@
       <c r="HM42" t="n">
         <v>4</v>
       </c>
+      <c r="HN42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29033,6 +29159,9 @@
       <c r="HM43" t="n">
         <v>6</v>
       </c>
+      <c r="HN43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29700,6 +29829,9 @@
       <c r="HM44" t="n">
         <v>185</v>
       </c>
+      <c r="HN44" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30367,6 +30499,9 @@
       <c r="HM45" t="n">
         <v>191</v>
       </c>
+      <c r="HN45" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31034,6 +31169,9 @@
       <c r="HM46" t="n">
         <v>240</v>
       </c>
+      <c r="HN46" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31701,6 +31839,9 @@
       <c r="HM47" t="n">
         <v>63.7</v>
       </c>
+      <c r="HN47" t="n">
+        <v>72.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32368,6 +32509,9 @@
       <c r="HM48" t="n">
         <v>87</v>
       </c>
+      <c r="HN48" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33035,6 +33179,9 @@
       <c r="HM49" t="n">
         <v>13</v>
       </c>
+      <c r="HN49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33702,6 +33849,9 @@
       <c r="HM50" t="n">
         <v>8</v>
       </c>
+      <c r="HN50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34369,6 +34519,9 @@
       <c r="HM51" t="n">
         <v>53</v>
       </c>
+      <c r="HN51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35036,6 +35189,9 @@
       <c r="HM52" t="n">
         <v>48</v>
       </c>
+      <c r="HN52" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35703,6 +35859,9 @@
       <c r="HM53" t="n">
         <v>65</v>
       </c>
+      <c r="HN53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36370,6 +36529,9 @@
       <c r="HM54" t="n">
         <v>5</v>
       </c>
+      <c r="HN54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37037,6 +37199,9 @@
       <c r="HM55" t="n">
         <v>8</v>
       </c>
+      <c r="HN55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37704,6 +37869,9 @@
       <c r="HM56" t="n">
         <v>88.90000000000001</v>
       </c>
+      <c r="HN56" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38371,6 +38539,9 @@
       <c r="HM57" t="n">
         <v>224</v>
       </c>
+      <c r="HN57" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39038,6 +39209,9 @@
       <c r="HM58" t="n">
         <v>145</v>
       </c>
+      <c r="HN58" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39705,6 +39879,9 @@
       <c r="HM59" t="n">
         <v>369</v>
       </c>
+      <c r="HN59" t="n">
+        <v>378</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40372,6 +40549,9 @@
       <c r="HM60" t="n">
         <v>1.54</v>
       </c>
+      <c r="HN60" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41039,6 +41219,9 @@
       <c r="HM61" t="n">
         <v>86</v>
       </c>
+      <c r="HN61" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41706,6 +41889,9 @@
       <c r="HM62" t="n">
         <v>92</v>
       </c>
+      <c r="HN62" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42373,6 +42559,9 @@
       <c r="HM63" t="n">
         <v>50</v>
       </c>
+      <c r="HN63" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43040,6 +43229,9 @@
       <c r="HM64" t="n">
         <v>23</v>
       </c>
+      <c r="HN64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43707,6 +43899,9 @@
       <c r="HM65" t="n">
         <v>12</v>
       </c>
+      <c r="HN65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44374,6 +44569,9 @@
       <c r="HM66" t="n">
         <v>10</v>
       </c>
+      <c r="HN66" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45041,6 +45239,9 @@
       <c r="HM67" t="n">
         <v>7</v>
       </c>
+      <c r="HN67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45708,6 +45909,9 @@
       <c r="HM68" t="n">
         <v>5</v>
       </c>
+      <c r="HN68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46375,6 +46579,9 @@
       <c r="HM69" t="n">
         <v>0</v>
       </c>
+      <c r="HN69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47042,6 +47249,9 @@
       <c r="HM70" t="n">
         <v>15</v>
       </c>
+      <c r="HN70" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47709,6 +47919,9 @@
       <c r="HM71" t="n">
         <v>66.7</v>
       </c>
+      <c r="HN71" t="n">
+        <v>65.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -48376,6 +48589,9 @@
       <c r="HM72" t="n">
         <v>36.9</v>
       </c>
+      <c r="HN72" t="n">
+        <v>25.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49043,6 +49259,9 @@
       <c r="HM73" t="n">
         <v>24.6</v>
       </c>
+      <c r="HN73" t="n">
+        <v>16.43</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49710,6 +49929,9 @@
       <c r="HM74" t="n">
         <v>38</v>
       </c>
+      <c r="HN74" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -50377,6 +50599,9 @@
       <c r="HM75" t="n">
         <v>63</v>
       </c>
+      <c r="HN75" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51044,6 +51269,9 @@
       <c r="HM76" t="n">
         <v>42</v>
       </c>
+      <c r="HN76" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51711,6 +51939,9 @@
       <c r="HM77" t="n">
         <v>59</v>
       </c>
+      <c r="HN77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -52378,6 +52609,9 @@
       <c r="HM78" t="n">
         <v>3.93</v>
       </c>
+      <c r="HN78" t="n">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53045,6 +53279,9 @@
       <c r="HM79" t="n">
         <v>5.9</v>
       </c>
+      <c r="HN79" t="n">
+        <v>3.13</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53712,6 +53949,9 @@
       <c r="HM80" t="n">
         <v>25.4</v>
       </c>
+      <c r="HN80" t="n">
+        <v>44.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -54379,6 +54619,9 @@
       <c r="HM81" t="n">
         <v>16.9</v>
       </c>
+      <c r="HN81" t="n">
+        <v>31.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55046,6 +55289,9 @@
       <c r="HM82" t="n">
         <v>187.1</v>
       </c>
+      <c r="HN82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55713,6 +55959,9 @@
       <c r="HM83" t="n">
         <v>84.3</v>
       </c>
+      <c r="HN83" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -56380,6 +56629,9 @@
       <c r="HM84" t="n">
         <v>24.49</v>
       </c>
+      <c r="HN84" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57047,6 +57299,9 @@
       <c r="HM85" t="n">
         <v>76.3</v>
       </c>
+      <c r="HN85" t="n">
+        <v>98.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57714,6 +57969,9 @@
       <c r="HM86" t="n">
         <v>7</v>
       </c>
+      <c r="HN86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -58381,6 +58639,9 @@
       <c r="HM87" t="n">
         <v>9</v>
       </c>
+      <c r="HN87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59048,6 +59309,9 @@
       <c r="HM88" t="n">
         <v>5</v>
       </c>
+      <c r="HN88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59715,6 +59979,9 @@
       <c r="HM89" t="n">
         <v>2</v>
       </c>
+      <c r="HN89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -60382,6 +60649,9 @@
       <c r="HM90" t="n">
         <v>157</v>
       </c>
+      <c r="HN90" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61049,6 +61319,9 @@
       <c r="HM91" t="n">
         <v>208</v>
       </c>
+      <c r="HN91" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61716,6 +61989,9 @@
       <c r="HM92" t="n">
         <v>251</v>
       </c>
+      <c r="HN92" t="n">
+        <v>292</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -62383,6 +62659,9 @@
       <c r="HM93" t="n">
         <v>68</v>
       </c>
+      <c r="HN93" t="n">
+        <v>77.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63050,6 +63329,9 @@
       <c r="HM94" t="n">
         <v>63</v>
       </c>
+      <c r="HN94" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -63717,6 +63999,9 @@
       <c r="HM95" t="n">
         <v>12</v>
       </c>
+      <c r="HN95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -64384,6 +64669,9 @@
       <c r="HM96" t="n">
         <v>5</v>
       </c>
+      <c r="HN96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65051,6 +65339,9 @@
       <c r="HM97" t="n">
         <v>38</v>
       </c>
+      <c r="HN97" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -65718,6 +66009,9 @@
       <c r="HM98" t="n">
         <v>42</v>
       </c>
+      <c r="HN98" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -66385,6 +66679,9 @@
       <c r="HM99" t="n">
         <v>56</v>
       </c>
+      <c r="HN99" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67052,6 +67349,9 @@
       <c r="HM100" t="n">
         <v>10</v>
       </c>
+      <c r="HN100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -67719,6 +68019,9 @@
       <c r="HM101" t="n">
         <v>7</v>
       </c>
+      <c r="HN101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -68386,6 +68689,9 @@
       <c r="HM102" t="n">
         <v>70</v>
       </c>
+      <c r="HN102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HN102"/>
+  <dimension ref="A1:HO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,6 +1022,9 @@
       <c r="HN1" t="n">
         <v>10473</v>
       </c>
+      <c r="HO1" t="n">
+        <v>10481</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1692,6 +1695,9 @@
       <c r="HN2" t="n">
         <v>2021</v>
       </c>
+      <c r="HO2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2362,6 +2368,9 @@
       <c r="HN3" t="n">
         <v>18</v>
       </c>
+      <c r="HO3" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3032,6 +3041,9 @@
       <c r="HN4" t="n">
         <v>0</v>
       </c>
+      <c r="HO4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3702,6 +3714,9 @@
       <c r="HN5" t="n">
         <v>1</v>
       </c>
+      <c r="HO5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4372,6 +4387,9 @@
       <c r="HN6" t="n">
         <v>72</v>
       </c>
+      <c r="HO6" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5042,6 +5060,9 @@
       <c r="HN7" t="n">
         <v>98</v>
       </c>
+      <c r="HO7" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5712,6 +5733,9 @@
       <c r="HN8" t="n">
         <v>-26</v>
       </c>
+      <c r="HO8" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6382,6 +6406,9 @@
       <c r="HN9" t="n">
         <v>0</v>
       </c>
+      <c r="HO9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7052,6 +7079,9 @@
       <c r="HN10" t="n">
         <v>16</v>
       </c>
+      <c r="HO10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7722,6 +7752,9 @@
       <c r="HN11" t="n">
         <v>186</v>
       </c>
+      <c r="HO11" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8392,6 +8425,9 @@
       <c r="HN12" t="n">
         <v>158</v>
       </c>
+      <c r="HO12" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9062,6 +9098,9 @@
       <c r="HN13" t="n">
         <v>344</v>
       </c>
+      <c r="HO13" t="n">
+        <v>374</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9732,6 +9771,9 @@
       <c r="HN14" t="n">
         <v>1.18</v>
       </c>
+      <c r="HO14" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10402,6 +10444,9 @@
       <c r="HN15" t="n">
         <v>69</v>
       </c>
+      <c r="HO15" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11072,6 +11117,9 @@
       <c r="HN16" t="n">
         <v>66</v>
       </c>
+      <c r="HO16" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11742,6 +11790,9 @@
       <c r="HN17" t="n">
         <v>35</v>
       </c>
+      <c r="HO17" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12412,6 +12463,9 @@
       <c r="HN18" t="n">
         <v>18</v>
       </c>
+      <c r="HO18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13082,6 +13136,9 @@
       <c r="HN19" t="n">
         <v>16</v>
       </c>
+      <c r="HO19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13752,6 +13809,9 @@
       <c r="HN20" t="n">
         <v>11</v>
       </c>
+      <c r="HO20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14422,6 +14482,9 @@
       <c r="HN21" t="n">
         <v>6</v>
       </c>
+      <c r="HO21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15092,6 +15155,9 @@
       <c r="HN22" t="n">
         <v>4</v>
       </c>
+      <c r="HO22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15762,6 +15828,9 @@
       <c r="HN23" t="n">
         <v>2</v>
       </c>
+      <c r="HO23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16432,6 +16501,9 @@
       <c r="HN24" t="n">
         <v>17</v>
       </c>
+      <c r="HO24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17102,6 +17174,9 @@
       <c r="HN25" t="n">
         <v>64.7</v>
       </c>
+      <c r="HO25" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17772,6 +17847,9 @@
       <c r="HN26" t="n">
         <v>31.27</v>
       </c>
+      <c r="HO26" t="n">
+        <v>41.56</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18442,6 +18520,9 @@
       <c r="HN27" t="n">
         <v>20.24</v>
       </c>
+      <c r="HO27" t="n">
+        <v>17.81</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19112,6 +19193,9 @@
       <c r="HN28" t="n">
         <v>36</v>
       </c>
+      <c r="HO28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19782,6 +19866,9 @@
       <c r="HN29" t="n">
         <v>49</v>
       </c>
+      <c r="HO29" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20452,6 +20539,9 @@
       <c r="HN30" t="n">
         <v>31</v>
       </c>
+      <c r="HO30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21122,6 +21212,9 @@
       <c r="HN31" t="n">
         <v>41</v>
       </c>
+      <c r="HO31" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21792,6 +21885,9 @@
       <c r="HN32" t="n">
         <v>2.41</v>
       </c>
+      <c r="HO32" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22462,6 +22558,9 @@
       <c r="HN33" t="n">
         <v>3.73</v>
       </c>
+      <c r="HO33" t="n">
+        <v>4.78</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23132,6 +23231,9 @@
       <c r="HN34" t="n">
         <v>36.6</v>
       </c>
+      <c r="HO34" t="n">
+        <v>46.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23802,6 +23904,9 @@
       <c r="HN35" t="n">
         <v>26.8</v>
       </c>
+      <c r="HO35" t="n">
+        <v>20.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24472,6 +24577,9 @@
       <c r="HN36" t="n">
         <v>188.6</v>
       </c>
+      <c r="HO36" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25142,6 +25250,9 @@
       <c r="HN37" t="n">
         <v>87.2</v>
       </c>
+      <c r="HO37" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25812,6 +25923,9 @@
       <c r="HN38" t="n">
         <v>25.16</v>
       </c>
+      <c r="HO38" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26482,6 +26596,9 @@
       <c r="HN39" t="n">
         <v>82.59999999999999</v>
       </c>
+      <c r="HO39" t="n">
+        <v>94.59999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27152,6 +27269,9 @@
       <c r="HN40" t="n">
         <v>8</v>
       </c>
+      <c r="HO40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27822,6 +27942,9 @@
       <c r="HN41" t="n">
         <v>7</v>
       </c>
+      <c r="HO41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28492,6 +28615,9 @@
       <c r="HN42" t="n">
         <v>4</v>
       </c>
+      <c r="HO42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29162,6 +29288,9 @@
       <c r="HN43" t="n">
         <v>4</v>
       </c>
+      <c r="HO43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29832,6 +29961,9 @@
       <c r="HN44" t="n">
         <v>141</v>
       </c>
+      <c r="HO44" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30502,6 +30634,9 @@
       <c r="HN45" t="n">
         <v>205</v>
       </c>
+      <c r="HO45" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31172,6 +31307,9 @@
       <c r="HN46" t="n">
         <v>248</v>
       </c>
+      <c r="HO46" t="n">
+        <v>294</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31842,6 +31980,9 @@
       <c r="HN47" t="n">
         <v>72.09999999999999</v>
       </c>
+      <c r="HO47" t="n">
+        <v>78.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32512,6 +32653,9 @@
       <c r="HN48" t="n">
         <v>49</v>
       </c>
+      <c r="HO48" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33182,6 +33326,9 @@
       <c r="HN49" t="n">
         <v>10</v>
       </c>
+      <c r="HO49" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33852,6 +33999,9 @@
       <c r="HN50" t="n">
         <v>11</v>
       </c>
+      <c r="HO50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34522,6 +34672,9 @@
       <c r="HN51" t="n">
         <v>36</v>
       </c>
+      <c r="HO51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35192,6 +35345,9 @@
       <c r="HN52" t="n">
         <v>31</v>
       </c>
+      <c r="HO52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35862,6 +36018,9 @@
       <c r="HN53" t="n">
         <v>44</v>
       </c>
+      <c r="HO53" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36532,6 +36691,9 @@
       <c r="HN54" t="n">
         <v>2</v>
       </c>
+      <c r="HO54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37202,6 +37364,9 @@
       <c r="HN55" t="n">
         <v>6</v>
       </c>
+      <c r="HO55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37872,6 +38037,9 @@
       <c r="HN56" t="n">
         <v>54.5</v>
       </c>
+      <c r="HO56" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38542,6 +38710,9 @@
       <c r="HN57" t="n">
         <v>213</v>
       </c>
+      <c r="HO57" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39212,6 +39383,9 @@
       <c r="HN58" t="n">
         <v>165</v>
       </c>
+      <c r="HO58" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39882,6 +40056,9 @@
       <c r="HN59" t="n">
         <v>378</v>
       </c>
+      <c r="HO59" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40552,6 +40729,9 @@
       <c r="HN60" t="n">
         <v>1.29</v>
       </c>
+      <c r="HO60" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41222,6 +41402,9 @@
       <c r="HN61" t="n">
         <v>88</v>
       </c>
+      <c r="HO61" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41892,6 +42075,9 @@
       <c r="HN62" t="n">
         <v>56</v>
       </c>
+      <c r="HO62" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42562,6 +42748,9 @@
       <c r="HN63" t="n">
         <v>49</v>
       </c>
+      <c r="HO63" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43232,6 +43421,9 @@
       <c r="HN64" t="n">
         <v>16</v>
       </c>
+      <c r="HO64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43902,6 +44094,9 @@
       <c r="HN65" t="n">
         <v>18</v>
       </c>
+      <c r="HO65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44572,6 +44767,9 @@
       <c r="HN66" t="n">
         <v>15</v>
       </c>
+      <c r="HO66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45242,6 +45440,9 @@
       <c r="HN67" t="n">
         <v>10</v>
       </c>
+      <c r="HO67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45912,6 +46113,9 @@
       <c r="HN68" t="n">
         <v>6</v>
       </c>
+      <c r="HO68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46582,6 +46786,9 @@
       <c r="HN69" t="n">
         <v>2</v>
       </c>
+      <c r="HO69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47252,6 +47459,9 @@
       <c r="HN70" t="n">
         <v>23</v>
       </c>
+      <c r="HO70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47922,6 +48132,9 @@
       <c r="HN71" t="n">
         <v>65.2</v>
       </c>
+      <c r="HO71" t="n">
+        <v>38.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -48592,6 +48805,9 @@
       <c r="HN72" t="n">
         <v>25.2</v>
       </c>
+      <c r="HO72" t="n">
+        <v>44.86</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49262,6 +49478,9 @@
       <c r="HN73" t="n">
         <v>16.43</v>
       </c>
+      <c r="HO73" t="n">
+        <v>17.44</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49932,6 +50151,9 @@
       <c r="HN74" t="n">
         <v>43</v>
       </c>
+      <c r="HO74" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -50602,6 +50824,9 @@
       <c r="HN75" t="n">
         <v>47</v>
       </c>
+      <c r="HO75" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51272,6 +51497,9 @@
       <c r="HN76" t="n">
         <v>29</v>
       </c>
+      <c r="HO76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51942,6 +52170,9 @@
       <c r="HN77" t="n">
         <v>47</v>
       </c>
+      <c r="HO77" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -52612,6 +52843,9 @@
       <c r="HN78" t="n">
         <v>2.04</v>
       </c>
+      <c r="HO78" t="n">
+        <v>2.39</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53282,6 +53516,9 @@
       <c r="HN79" t="n">
         <v>3.13</v>
       </c>
+      <c r="HO79" t="n">
+        <v>6.14</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53952,6 +54189,9 @@
       <c r="HN80" t="n">
         <v>44.7</v>
       </c>
+      <c r="HO80" t="n">
+        <v>39.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -54622,6 +54862,9 @@
       <c r="HN81" t="n">
         <v>31.9</v>
       </c>
+      <c r="HO81" t="n">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55292,6 +55535,9 @@
       <c r="HN82" t="n">
         <v>187.3</v>
       </c>
+      <c r="HO82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55962,6 +56208,9 @@
       <c r="HN83" t="n">
         <v>84</v>
       </c>
+      <c r="HO83" t="n">
+        <v>85.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -56632,6 +56881,9 @@
       <c r="HN84" t="n">
         <v>25</v>
       </c>
+      <c r="HO84" t="n">
+        <v>24.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57302,6 +57554,9 @@
       <c r="HN85" t="n">
         <v>98.3</v>
       </c>
+      <c r="HO85" t="n">
+        <v>94.09999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57972,6 +58227,9 @@
       <c r="HN86" t="n">
         <v>9</v>
       </c>
+      <c r="HO86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -58642,6 +58900,9 @@
       <c r="HN87" t="n">
         <v>4</v>
       </c>
+      <c r="HO87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59312,6 +59573,9 @@
       <c r="HN88" t="n">
         <v>4</v>
       </c>
+      <c r="HO88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59982,6 +60246,9 @@
       <c r="HN89" t="n">
         <v>5</v>
       </c>
+      <c r="HO89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -60652,6 +60919,9 @@
       <c r="HN90" t="n">
         <v>139</v>
       </c>
+      <c r="HO90" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61322,6 +61592,9 @@
       <c r="HN91" t="n">
         <v>236</v>
       </c>
+      <c r="HO91" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61992,6 +62265,9 @@
       <c r="HN92" t="n">
         <v>292</v>
       </c>
+      <c r="HO92" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -62662,6 +62938,9 @@
       <c r="HN93" t="n">
         <v>77.2</v>
       </c>
+      <c r="HO93" t="n">
+        <v>74.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63332,6 +63611,9 @@
       <c r="HN94" t="n">
         <v>47</v>
       </c>
+      <c r="HO94" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64002,6 +64284,9 @@
       <c r="HN95" t="n">
         <v>10</v>
       </c>
+      <c r="HO95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -64672,6 +64957,9 @@
       <c r="HN96" t="n">
         <v>10</v>
       </c>
+      <c r="HO96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65342,6 +65630,9 @@
       <c r="HN97" t="n">
         <v>43</v>
       </c>
+      <c r="HO97" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66012,6 +66303,9 @@
       <c r="HN98" t="n">
         <v>29</v>
       </c>
+      <c r="HO98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -66682,6 +66976,9 @@
       <c r="HN99" t="n">
         <v>51</v>
       </c>
+      <c r="HO99" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67352,6 +67649,9 @@
       <c r="HN100" t="n">
         <v>9</v>
       </c>
+      <c r="HO100" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68022,6 +68322,9 @@
       <c r="HN101" t="n">
         <v>10</v>
       </c>
+      <c r="HO101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -68692,6 +68995,9 @@
       <c r="HN102" t="n">
         <v>66.7</v>
       </c>
+      <c r="HO102" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HO102"/>
+  <dimension ref="A1:HP102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1025,6 +1025,9 @@
       <c r="HO1" t="n">
         <v>10481</v>
       </c>
+      <c r="HP1" t="n">
+        <v>10492</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1698,6 +1701,9 @@
       <c r="HO2" t="n">
         <v>2021</v>
       </c>
+      <c r="HP2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2371,6 +2377,9 @@
       <c r="HO3" t="n">
         <v>19</v>
       </c>
+      <c r="HP3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3044,6 +3053,9 @@
       <c r="HO4" t="n">
         <v>1</v>
       </c>
+      <c r="HP4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3717,6 +3729,9 @@
       <c r="HO5" t="n">
         <v>1</v>
       </c>
+      <c r="HP5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4390,6 +4405,9 @@
       <c r="HO6" t="n">
         <v>66</v>
       </c>
+      <c r="HP6" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5063,6 +5081,9 @@
       <c r="HO7" t="n">
         <v>53</v>
       </c>
+      <c r="HP7" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5736,6 +5757,9 @@
       <c r="HO8" t="n">
         <v>13</v>
       </c>
+      <c r="HP8" t="n">
+        <v>-27</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6409,6 +6433,9 @@
       <c r="HO9" t="n">
         <v>1</v>
       </c>
+      <c r="HP9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7082,6 +7109,9 @@
       <c r="HO10" t="n">
         <v>5</v>
       </c>
+      <c r="HP10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7755,6 +7785,9 @@
       <c r="HO11" t="n">
         <v>244</v>
       </c>
+      <c r="HP11" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8428,6 +8461,9 @@
       <c r="HO12" t="n">
         <v>130</v>
       </c>
+      <c r="HP12" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9101,6 +9137,9 @@
       <c r="HO13" t="n">
         <v>374</v>
       </c>
+      <c r="HP13" t="n">
+        <v>360</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9774,6 +9813,9 @@
       <c r="HO14" t="n">
         <v>1.88</v>
       </c>
+      <c r="HP14" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10447,6 +10489,9 @@
       <c r="HO15" t="n">
         <v>139</v>
       </c>
+      <c r="HP15" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11120,6 +11165,9 @@
       <c r="HO16" t="n">
         <v>39</v>
       </c>
+      <c r="HP16" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11793,6 +11841,9 @@
       <c r="HO17" t="n">
         <v>20</v>
       </c>
+      <c r="HP17" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12466,6 +12517,9 @@
       <c r="HO18" t="n">
         <v>21</v>
       </c>
+      <c r="HP18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13139,6 +13193,9 @@
       <c r="HO19" t="n">
         <v>22</v>
       </c>
+      <c r="HP19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13812,6 +13869,9 @@
       <c r="HO20" t="n">
         <v>9</v>
       </c>
+      <c r="HP20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14485,6 +14545,9 @@
       <c r="HO21" t="n">
         <v>5</v>
       </c>
+      <c r="HP21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15158,6 +15221,9 @@
       <c r="HO22" t="n">
         <v>11</v>
       </c>
+      <c r="HP22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15831,6 +15897,9 @@
       <c r="HO23" t="n">
         <v>1</v>
       </c>
+      <c r="HP23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16504,6 +16573,9 @@
       <c r="HO24" t="n">
         <v>21</v>
       </c>
+      <c r="HP24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17177,6 +17249,9 @@
       <c r="HO25" t="n">
         <v>42.9</v>
       </c>
+      <c r="HP25" t="n">
+        <v>61.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17850,6 +17925,9 @@
       <c r="HO26" t="n">
         <v>41.56</v>
       </c>
+      <c r="HP26" t="n">
+        <v>32.73</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18523,6 +18601,9 @@
       <c r="HO27" t="n">
         <v>17.81</v>
       </c>
+      <c r="HP27" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19196,6 +19277,9 @@
       <c r="HO28" t="n">
         <v>30</v>
       </c>
+      <c r="HP28" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19869,6 +19953,9 @@
       <c r="HO29" t="n">
         <v>50</v>
       </c>
+      <c r="HP29" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20542,6 +20629,9 @@
       <c r="HO30" t="n">
         <v>35</v>
       </c>
+      <c r="HP30" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21215,6 +21305,9 @@
       <c r="HO31" t="n">
         <v>43</v>
       </c>
+      <c r="HP31" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21888,6 +21981,9 @@
       <c r="HO32" t="n">
         <v>2.05</v>
       </c>
+      <c r="HP32" t="n">
+        <v>2.56</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22561,6 +22657,9 @@
       <c r="HO33" t="n">
         <v>4.78</v>
       </c>
+      <c r="HP33" t="n">
+        <v>4.18</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23234,6 +23333,9 @@
       <c r="HO34" t="n">
         <v>46.5</v>
       </c>
+      <c r="HP34" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23907,6 +24009,9 @@
       <c r="HO35" t="n">
         <v>20.9</v>
       </c>
+      <c r="HP35" t="n">
+        <v>23.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24580,6 +24685,9 @@
       <c r="HO36" t="n">
         <v>187.9</v>
       </c>
+      <c r="HP36" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25253,6 +25361,9 @@
       <c r="HO37" t="n">
         <v>86.3</v>
       </c>
+      <c r="HP37" t="n">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25926,6 +26037,9 @@
       <c r="HO38" t="n">
         <v>25.49</v>
       </c>
+      <c r="HP38" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26599,6 +26713,9 @@
       <c r="HO39" t="n">
         <v>94.59999999999999</v>
       </c>
+      <c r="HP39" t="n">
+        <v>93.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27272,6 +27389,9 @@
       <c r="HO40" t="n">
         <v>7</v>
       </c>
+      <c r="HP40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27945,6 +28065,9 @@
       <c r="HO41" t="n">
         <v>6</v>
       </c>
+      <c r="HP41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28618,6 +28741,9 @@
       <c r="HO42" t="n">
         <v>3</v>
       </c>
+      <c r="HP42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29291,6 +29417,9 @@
       <c r="HO43" t="n">
         <v>6</v>
       </c>
+      <c r="HP43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29964,6 +30093,9 @@
       <c r="HO44" t="n">
         <v>121</v>
       </c>
+      <c r="HP44" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30637,6 +30769,9 @@
       <c r="HO45" t="n">
         <v>254</v>
       </c>
+      <c r="HP45" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31310,6 +31445,9 @@
       <c r="HO46" t="n">
         <v>294</v>
       </c>
+      <c r="HP46" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31983,6 +32121,9 @@
       <c r="HO47" t="n">
         <v>78.59999999999999</v>
       </c>
+      <c r="HP47" t="n">
+        <v>75.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32656,6 +32797,9 @@
       <c r="HO48" t="n">
         <v>50</v>
       </c>
+      <c r="HP48" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33329,6 +33473,9 @@
       <c r="HO49" t="n">
         <v>17</v>
       </c>
+      <c r="HP49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34002,6 +34149,9 @@
       <c r="HO50" t="n">
         <v>12</v>
       </c>
+      <c r="HP50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34675,6 +34825,9 @@
       <c r="HO51" t="n">
         <v>30</v>
       </c>
+      <c r="HP51" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35348,6 +35501,9 @@
       <c r="HO52" t="n">
         <v>35</v>
       </c>
+      <c r="HP52" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36021,6 +36177,9 @@
       <c r="HO53" t="n">
         <v>47</v>
       </c>
+      <c r="HP53" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36694,6 +36853,9 @@
       <c r="HO54" t="n">
         <v>5</v>
       </c>
+      <c r="HP54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37367,6 +37529,9 @@
       <c r="HO55" t="n">
         <v>5</v>
       </c>
+      <c r="HP55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38040,6 +38205,9 @@
       <c r="HO56" t="n">
         <v>55.6</v>
       </c>
+      <c r="HP56" t="n">
+        <v>81.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38713,6 +38881,9 @@
       <c r="HO57" t="n">
         <v>190</v>
       </c>
+      <c r="HP57" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39386,6 +39557,9 @@
       <c r="HO58" t="n">
         <v>124</v>
       </c>
+      <c r="HP58" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40059,6 +40233,9 @@
       <c r="HO59" t="n">
         <v>314</v>
       </c>
+      <c r="HP59" t="n">
+        <v>384</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40732,6 +40909,9 @@
       <c r="HO60" t="n">
         <v>1.53</v>
       </c>
+      <c r="HP60" t="n">
+        <v>1.59</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41405,6 +41585,9 @@
       <c r="HO61" t="n">
         <v>89</v>
       </c>
+      <c r="HP61" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42078,6 +42261,9 @@
       <c r="HO62" t="n">
         <v>49</v>
       </c>
+      <c r="HP62" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42751,6 +42937,9 @@
       <c r="HO63" t="n">
         <v>33</v>
       </c>
+      <c r="HP63" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43424,6 +43613,9 @@
       <c r="HO64" t="n">
         <v>22</v>
       </c>
+      <c r="HP64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44097,6 +44289,9 @@
       <c r="HO65" t="n">
         <v>21</v>
       </c>
+      <c r="HP65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44770,6 +44965,9 @@
       <c r="HO66" t="n">
         <v>7</v>
       </c>
+      <c r="HP66" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45443,6 +45641,9 @@
       <c r="HO67" t="n">
         <v>5</v>
       </c>
+      <c r="HP67" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46116,6 +46317,9 @@
       <c r="HO68" t="n">
         <v>10</v>
       </c>
+      <c r="HP68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46789,6 +46993,9 @@
       <c r="HO69" t="n">
         <v>1</v>
       </c>
+      <c r="HP69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47462,6 +47669,9 @@
       <c r="HO70" t="n">
         <v>18</v>
       </c>
+      <c r="HP70" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48135,6 +48345,9 @@
       <c r="HO71" t="n">
         <v>38.9</v>
       </c>
+      <c r="HP71" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -48808,6 +49021,9 @@
       <c r="HO72" t="n">
         <v>44.86</v>
       </c>
+      <c r="HP72" t="n">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49481,6 +49697,9 @@
       <c r="HO73" t="n">
         <v>17.44</v>
       </c>
+      <c r="HP73" t="n">
+        <v>15.36</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50154,6 +50373,9 @@
       <c r="HO74" t="n">
         <v>27</v>
       </c>
+      <c r="HP74" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -50827,6 +51049,9 @@
       <c r="HO75" t="n">
         <v>48</v>
       </c>
+      <c r="HP75" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51500,6 +51725,9 @@
       <c r="HO76" t="n">
         <v>34</v>
       </c>
+      <c r="HP76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52173,6 +52401,9 @@
       <c r="HO77" t="n">
         <v>43</v>
       </c>
+      <c r="HP77" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -52846,6 +53077,9 @@
       <c r="HO78" t="n">
         <v>2.39</v>
       </c>
+      <c r="HP78" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53519,6 +53753,9 @@
       <c r="HO79" t="n">
         <v>6.14</v>
       </c>
+      <c r="HP79" t="n">
+        <v>4.33</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54192,6 +54429,9 @@
       <c r="HO80" t="n">
         <v>39.5</v>
       </c>
+      <c r="HP80" t="n">
+        <v>36.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -54865,6 +55105,9 @@
       <c r="HO81" t="n">
         <v>16.3</v>
       </c>
+      <c r="HP81" t="n">
+        <v>23.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55538,6 +55781,9 @@
       <c r="HO82" t="n">
         <v>187.3</v>
       </c>
+      <c r="HP82" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56211,6 +56457,9 @@
       <c r="HO83" t="n">
         <v>85.5</v>
       </c>
+      <c r="HP83" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -56884,6 +57133,9 @@
       <c r="HO84" t="n">
         <v>24.66</v>
       </c>
+      <c r="HP84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57557,6 +57809,9 @@
       <c r="HO85" t="n">
         <v>94.09999999999999</v>
       </c>
+      <c r="HP85" t="n">
+        <v>95.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58230,6 +58485,9 @@
       <c r="HO86" t="n">
         <v>8</v>
       </c>
+      <c r="HP86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -58903,6 +59161,9 @@
       <c r="HO87" t="n">
         <v>5</v>
       </c>
+      <c r="HP87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59576,6 +59837,9 @@
       <c r="HO88" t="n">
         <v>2</v>
       </c>
+      <c r="HP88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60249,6 +60513,9 @@
       <c r="HO89" t="n">
         <v>7</v>
       </c>
+      <c r="HP89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -60922,6 +61189,9 @@
       <c r="HO90" t="n">
         <v>113</v>
       </c>
+      <c r="HP90" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61595,6 +61865,9 @@
       <c r="HO91" t="n">
         <v>197</v>
       </c>
+      <c r="HP91" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62268,6 +62541,9 @@
       <c r="HO92" t="n">
         <v>233</v>
       </c>
+      <c r="HP92" t="n">
+        <v>297</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -62941,6 +63217,9 @@
       <c r="HO93" t="n">
         <v>74.2</v>
       </c>
+      <c r="HP93" t="n">
+        <v>77.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63614,6 +63893,9 @@
       <c r="HO94" t="n">
         <v>48</v>
       </c>
+      <c r="HP94" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64287,6 +64569,9 @@
       <c r="HO95" t="n">
         <v>10</v>
       </c>
+      <c r="HP95" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -64960,6 +65245,9 @@
       <c r="HO96" t="n">
         <v>13</v>
       </c>
+      <c r="HP96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65633,6 +65921,9 @@
       <c r="HO97" t="n">
         <v>27</v>
       </c>
+      <c r="HP97" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66306,6 +66597,9 @@
       <c r="HO98" t="n">
         <v>34</v>
       </c>
+      <c r="HP98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -66979,6 +67273,9 @@
       <c r="HO99" t="n">
         <v>44</v>
       </c>
+      <c r="HP99" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67652,6 +67949,9 @@
       <c r="HO100" t="n">
         <v>13</v>
       </c>
+      <c r="HP100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68325,6 +68625,9 @@
       <c r="HO101" t="n">
         <v>5</v>
       </c>
+      <c r="HP101" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -68998,6 +69301,9 @@
       <c r="HO102" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="HP102" t="n">
+        <v>73.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HP102"/>
+  <dimension ref="A1:HQ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,6 +1028,9 @@
       <c r="HP1" t="n">
         <v>10492</v>
       </c>
+      <c r="HQ1" t="n">
+        <v>10500</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1704,6 +1707,9 @@
       <c r="HP2" t="n">
         <v>2021</v>
       </c>
+      <c r="HQ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2380,6 +2386,9 @@
       <c r="HP3" t="n">
         <v>20</v>
       </c>
+      <c r="HQ3" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3056,6 +3065,9 @@
       <c r="HP4" t="n">
         <v>0</v>
       </c>
+      <c r="HQ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3732,6 +3744,9 @@
       <c r="HP5" t="n">
         <v>1</v>
       </c>
+      <c r="HQ5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4408,6 +4423,9 @@
       <c r="HP6" t="n">
         <v>73</v>
       </c>
+      <c r="HQ6" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5084,6 +5102,9 @@
       <c r="HP7" t="n">
         <v>100</v>
       </c>
+      <c r="HQ7" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5760,6 +5781,9 @@
       <c r="HP8" t="n">
         <v>-27</v>
       </c>
+      <c r="HQ8" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6436,6 +6460,9 @@
       <c r="HP9" t="n">
         <v>0</v>
       </c>
+      <c r="HQ9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7112,6 +7139,9 @@
       <c r="HP10" t="n">
         <v>13</v>
       </c>
+      <c r="HQ10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7788,6 +7818,9 @@
       <c r="HP11" t="n">
         <v>198</v>
       </c>
+      <c r="HQ11" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8464,6 +8497,9 @@
       <c r="HP12" t="n">
         <v>162</v>
       </c>
+      <c r="HQ12" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9140,6 +9176,9 @@
       <c r="HP13" t="n">
         <v>360</v>
       </c>
+      <c r="HQ13" t="n">
+        <v>359</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9816,6 +9855,9 @@
       <c r="HP14" t="n">
         <v>1.22</v>
       </c>
+      <c r="HQ14" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10492,6 +10534,9 @@
       <c r="HP15" t="n">
         <v>80</v>
       </c>
+      <c r="HQ15" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11168,6 +11213,9 @@
       <c r="HP16" t="n">
         <v>47</v>
       </c>
+      <c r="HQ16" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11844,6 +11892,9 @@
       <c r="HP17" t="n">
         <v>24</v>
       </c>
+      <c r="HQ17" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12520,6 +12571,9 @@
       <c r="HP18" t="n">
         <v>22</v>
       </c>
+      <c r="HQ18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13196,6 +13250,9 @@
       <c r="HP19" t="n">
         <v>21</v>
       </c>
+      <c r="HQ19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13872,6 +13929,9 @@
       <c r="HP20" t="n">
         <v>11</v>
       </c>
+      <c r="HQ20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14548,6 +14608,9 @@
       <c r="HP21" t="n">
         <v>9</v>
       </c>
+      <c r="HQ21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15224,6 +15287,9 @@
       <c r="HP22" t="n">
         <v>6</v>
       </c>
+      <c r="HQ22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15900,6 +15966,9 @@
       <c r="HP23" t="n">
         <v>1</v>
       </c>
+      <c r="HQ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16576,6 +16645,9 @@
       <c r="HP24" t="n">
         <v>18</v>
       </c>
+      <c r="HQ24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17252,6 +17324,9 @@
       <c r="HP25" t="n">
         <v>61.1</v>
       </c>
+      <c r="HQ25" t="n">
+        <v>68.40000000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17928,6 +18003,9 @@
       <c r="HP26" t="n">
         <v>32.73</v>
       </c>
+      <c r="HQ26" t="n">
+        <v>27.62</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18604,6 +18682,9 @@
       <c r="HP27" t="n">
         <v>20</v>
       </c>
+      <c r="HQ27" t="n">
+        <v>18.89</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19280,6 +19361,9 @@
       <c r="HP28" t="n">
         <v>28</v>
       </c>
+      <c r="HQ28" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19956,6 +20040,9 @@
       <c r="HP29" t="n">
         <v>56</v>
       </c>
+      <c r="HQ29" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20632,6 +20719,9 @@
       <c r="HP30" t="n">
         <v>49</v>
       </c>
+      <c r="HQ30" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21308,6 +21398,9 @@
       <c r="HP31" t="n">
         <v>46</v>
       </c>
+      <c r="HQ31" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21984,6 +22077,9 @@
       <c r="HP32" t="n">
         <v>2.56</v>
       </c>
+      <c r="HQ32" t="n">
+        <v>2.26</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22660,6 +22756,9 @@
       <c r="HP33" t="n">
         <v>4.18</v>
       </c>
+      <c r="HQ33" t="n">
+        <v>3.31</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23336,6 +23435,9 @@
       <c r="HP34" t="n">
         <v>37</v>
       </c>
+      <c r="HQ34" t="n">
+        <v>44.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24012,6 +24114,9 @@
       <c r="HP35" t="n">
         <v>23.9</v>
       </c>
+      <c r="HQ35" t="n">
+        <v>30.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24688,6 +24793,9 @@
       <c r="HP36" t="n">
         <v>187.7</v>
       </c>
+      <c r="HQ36" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25364,6 +25472,9 @@
       <c r="HP37" t="n">
         <v>85.8</v>
       </c>
+      <c r="HQ37" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26040,6 +26151,9 @@
       <c r="HP38" t="n">
         <v>24.41</v>
       </c>
+      <c r="HQ38" t="n">
+        <v>23.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26716,6 +26830,9 @@
       <c r="HP39" t="n">
         <v>93.40000000000001</v>
       </c>
+      <c r="HQ39" t="n">
+        <v>66.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27392,6 +27509,9 @@
       <c r="HP40" t="n">
         <v>8</v>
       </c>
+      <c r="HQ40" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28068,6 +28188,9 @@
       <c r="HP41" t="n">
         <v>5</v>
       </c>
+      <c r="HQ41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28744,6 +28867,9 @@
       <c r="HP42" t="n">
         <v>3</v>
       </c>
+      <c r="HQ42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29420,6 +29546,9 @@
       <c r="HP43" t="n">
         <v>7</v>
       </c>
+      <c r="HQ43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30096,6 +30225,9 @@
       <c r="HP44" t="n">
         <v>140</v>
       </c>
+      <c r="HQ44" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30772,6 +30904,9 @@
       <c r="HP45" t="n">
         <v>224</v>
       </c>
+      <c r="HQ45" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31448,6 +31583,9 @@
       <c r="HP46" t="n">
         <v>272</v>
       </c>
+      <c r="HQ46" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32124,6 +32262,9 @@
       <c r="HP47" t="n">
         <v>75.59999999999999</v>
       </c>
+      <c r="HQ47" t="n">
+        <v>69.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32800,6 +32941,9 @@
       <c r="HP48" t="n">
         <v>56</v>
       </c>
+      <c r="HQ48" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33476,6 +33620,9 @@
       <c r="HP49" t="n">
         <v>11</v>
       </c>
+      <c r="HQ49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34152,6 +34299,9 @@
       <c r="HP50" t="n">
         <v>11</v>
       </c>
+      <c r="HQ50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34828,6 +34978,9 @@
       <c r="HP51" t="n">
         <v>28</v>
       </c>
+      <c r="HQ51" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35504,6 +35657,9 @@
       <c r="HP52" t="n">
         <v>49</v>
       </c>
+      <c r="HQ52" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36180,6 +36336,9 @@
       <c r="HP53" t="n">
         <v>49</v>
       </c>
+      <c r="HQ53" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36856,6 +37015,9 @@
       <c r="HP54" t="n">
         <v>3</v>
       </c>
+      <c r="HQ54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37532,6 +37694,9 @@
       <c r="HP55" t="n">
         <v>9</v>
       </c>
+      <c r="HQ55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38208,6 +38373,9 @@
       <c r="HP56" t="n">
         <v>81.8</v>
       </c>
+      <c r="HQ56" t="n">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38884,6 +39052,9 @@
       <c r="HP57" t="n">
         <v>236</v>
       </c>
+      <c r="HQ57" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39560,6 +39731,9 @@
       <c r="HP58" t="n">
         <v>148</v>
       </c>
+      <c r="HQ58" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40236,6 +40410,9 @@
       <c r="HP59" t="n">
         <v>384</v>
       </c>
+      <c r="HQ59" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40912,6 +41089,9 @@
       <c r="HP60" t="n">
         <v>1.59</v>
       </c>
+      <c r="HQ60" t="n">
+        <v>1.84</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41588,6 +41768,9 @@
       <c r="HP61" t="n">
         <v>103</v>
       </c>
+      <c r="HQ61" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42264,6 +42447,9 @@
       <c r="HP62" t="n">
         <v>61</v>
       </c>
+      <c r="HQ62" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42940,6 +43126,9 @@
       <c r="HP63" t="n">
         <v>36</v>
       </c>
+      <c r="HQ63" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43616,6 +43805,9 @@
       <c r="HP64" t="n">
         <v>21</v>
       </c>
+      <c r="HQ64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44292,6 +44484,9 @@
       <c r="HP65" t="n">
         <v>22</v>
       </c>
+      <c r="HQ65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44968,6 +45163,9 @@
       <c r="HP66" t="n">
         <v>15</v>
       </c>
+      <c r="HQ66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45644,6 +45842,9 @@
       <c r="HP67" t="n">
         <v>11</v>
       </c>
+      <c r="HQ67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46320,6 +46521,9 @@
       <c r="HP68" t="n">
         <v>9</v>
       </c>
+      <c r="HQ68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46996,6 +47200,9 @@
       <c r="HP69" t="n">
         <v>1</v>
       </c>
+      <c r="HQ69" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47672,6 +47879,9 @@
       <c r="HP70" t="n">
         <v>25</v>
       </c>
+      <c r="HQ70" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48348,6 +48558,9 @@
       <c r="HP71" t="n">
         <v>60</v>
       </c>
+      <c r="HQ71" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49024,6 +49237,9 @@
       <c r="HP72" t="n">
         <v>25.6</v>
       </c>
+      <c r="HQ72" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49700,6 +49916,9 @@
       <c r="HP73" t="n">
         <v>15.36</v>
       </c>
+      <c r="HQ73" t="n">
+        <v>13.76</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50376,6 +50595,9 @@
       <c r="HP74" t="n">
         <v>29</v>
       </c>
+      <c r="HQ74" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51052,6 +51274,9 @@
       <c r="HP75" t="n">
         <v>65</v>
       </c>
+      <c r="HQ75" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51728,6 +51953,9 @@
       <c r="HP76" t="n">
         <v>34</v>
       </c>
+      <c r="HQ76" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52404,6 +52632,9 @@
       <c r="HP77" t="n">
         <v>65</v>
       </c>
+      <c r="HQ77" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53080,6 +53311,9 @@
       <c r="HP78" t="n">
         <v>2.6</v>
       </c>
+      <c r="HQ78" t="n">
+        <v>2.56</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53756,6 +53990,9 @@
       <c r="HP79" t="n">
         <v>4.33</v>
       </c>
+      <c r="HQ79" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54432,6 +54669,9 @@
       <c r="HP80" t="n">
         <v>36.9</v>
       </c>
+      <c r="HQ80" t="n">
+        <v>29.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55108,6 +55348,9 @@
       <c r="HP81" t="n">
         <v>23.1</v>
       </c>
+      <c r="HQ81" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55784,6 +56027,9 @@
       <c r="HP82" t="n">
         <v>189</v>
       </c>
+      <c r="HQ82" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56460,6 +56706,9 @@
       <c r="HP83" t="n">
         <v>84</v>
       </c>
+      <c r="HQ83" t="n">
+        <v>87.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57136,6 +57385,9 @@
       <c r="HP84" t="n">
         <v>25.16</v>
       </c>
+      <c r="HQ84" t="n">
+        <v>27.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57812,6 +58064,9 @@
       <c r="HP85" t="n">
         <v>95.40000000000001</v>
       </c>
+      <c r="HQ85" t="n">
+        <v>135.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58488,6 +58743,9 @@
       <c r="HP86" t="n">
         <v>6</v>
       </c>
+      <c r="HQ86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59164,6 +59422,9 @@
       <c r="HP87" t="n">
         <v>9</v>
       </c>
+      <c r="HQ87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59840,6 +60101,9 @@
       <c r="HP88" t="n">
         <v>3</v>
       </c>
+      <c r="HQ88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60516,6 +60780,9 @@
       <c r="HP89" t="n">
         <v>4</v>
       </c>
+      <c r="HQ89" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61192,6 +61459,9 @@
       <c r="HP90" t="n">
         <v>149</v>
       </c>
+      <c r="HQ90" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61868,6 +62138,9 @@
       <c r="HP91" t="n">
         <v>234</v>
       </c>
+      <c r="HQ91" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62544,6 +62817,9 @@
       <c r="HP92" t="n">
         <v>297</v>
       </c>
+      <c r="HQ92" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63220,6 +63496,9 @@
       <c r="HP93" t="n">
         <v>77.3</v>
       </c>
+      <c r="HQ93" t="n">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63896,6 +64175,9 @@
       <c r="HP94" t="n">
         <v>65</v>
       </c>
+      <c r="HQ94" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64572,6 +64854,9 @@
       <c r="HP95" t="n">
         <v>17</v>
       </c>
+      <c r="HQ95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65248,6 +65533,9 @@
       <c r="HP96" t="n">
         <v>10</v>
       </c>
+      <c r="HQ96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65924,6 +66212,9 @@
       <c r="HP97" t="n">
         <v>29</v>
       </c>
+      <c r="HQ97" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66600,6 +66891,9 @@
       <c r="HP98" t="n">
         <v>34</v>
       </c>
+      <c r="HQ98" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67276,6 +67570,9 @@
       <c r="HP99" t="n">
         <v>44</v>
       </c>
+      <c r="HQ99" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67952,6 +68249,9 @@
       <c r="HP100" t="n">
         <v>5</v>
       </c>
+      <c r="HQ100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68628,6 +68928,9 @@
       <c r="HP101" t="n">
         <v>11</v>
       </c>
+      <c r="HQ101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69304,6 +69607,9 @@
       <c r="HP102" t="n">
         <v>73.3</v>
       </c>
+      <c r="HQ102" t="n">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HQ102"/>
+  <dimension ref="A1:HR102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,6 +1099,9 @@
       <c r="HQ1" t="n">
         <v>10500</v>
       </c>
+      <c r="HR1" t="n">
+        <v>10510</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1710,6 +1781,9 @@
       <c r="HQ2" t="n">
         <v>2021</v>
       </c>
+      <c r="HR2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2389,6 +2463,9 @@
       <c r="HQ3" t="n">
         <v>21</v>
       </c>
+      <c r="HR3" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3068,6 +3145,9 @@
       <c r="HQ4" t="n">
         <v>1</v>
       </c>
+      <c r="HR4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3747,6 +3827,9 @@
       <c r="HQ5" t="n">
         <v>1</v>
       </c>
+      <c r="HR5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4426,6 +4509,9 @@
       <c r="HQ6" t="n">
         <v>84</v>
       </c>
+      <c r="HR6" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5105,6 +5191,9 @@
       <c r="HQ7" t="n">
         <v>65</v>
       </c>
+      <c r="HR7" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5784,6 +5873,9 @@
       <c r="HQ8" t="n">
         <v>19</v>
       </c>
+      <c r="HR8" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6463,6 +6555,9 @@
       <c r="HQ9" t="n">
         <v>1</v>
       </c>
+      <c r="HR9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7142,6 +7237,9 @@
       <c r="HQ10" t="n">
         <v>7</v>
       </c>
+      <c r="HR10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7821,6 +7919,9 @@
       <c r="HQ11" t="n">
         <v>207</v>
       </c>
+      <c r="HR11" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8500,6 +8601,9 @@
       <c r="HQ12" t="n">
         <v>152</v>
       </c>
+      <c r="HR12" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9179,6 +9283,9 @@
       <c r="HQ13" t="n">
         <v>359</v>
       </c>
+      <c r="HR13" t="n">
+        <v>330</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9858,6 +9965,9 @@
       <c r="HQ14" t="n">
         <v>1.36</v>
       </c>
+      <c r="HR14" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10537,6 +10647,9 @@
       <c r="HQ15" t="n">
         <v>74</v>
       </c>
+      <c r="HR15" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11216,6 +11329,9 @@
       <c r="HQ16" t="n">
         <v>71</v>
       </c>
+      <c r="HR16" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11895,6 +12011,9 @@
       <c r="HQ17" t="n">
         <v>26</v>
       </c>
+      <c r="HR17" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12574,6 +12693,9 @@
       <c r="HQ18" t="n">
         <v>18</v>
       </c>
+      <c r="HR18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13253,6 +13375,9 @@
       <c r="HQ19" t="n">
         <v>20</v>
       </c>
+      <c r="HR19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13932,6 +14057,9 @@
       <c r="HQ20" t="n">
         <v>13</v>
       </c>
+      <c r="HR20" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14611,6 +14739,9 @@
       <c r="HQ21" t="n">
         <v>6</v>
       </c>
+      <c r="HR21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15290,6 +15421,9 @@
       <c r="HQ22" t="n">
         <v>6</v>
       </c>
+      <c r="HR22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15969,6 +16103,9 @@
       <c r="HQ23" t="n">
         <v>0</v>
       </c>
+      <c r="HR23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16648,6 +16785,9 @@
       <c r="HQ24" t="n">
         <v>19</v>
       </c>
+      <c r="HR24" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17327,6 +17467,9 @@
       <c r="HQ25" t="n">
         <v>68.40000000000001</v>
       </c>
+      <c r="HR25" t="n">
+        <v>61.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18006,6 +18149,9 @@
       <c r="HQ26" t="n">
         <v>27.62</v>
       </c>
+      <c r="HR26" t="n">
+        <v>20.62</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18685,6 +18831,9 @@
       <c r="HQ27" t="n">
         <v>18.89</v>
       </c>
+      <c r="HR27" t="n">
+        <v>12.69</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19364,6 +19513,9 @@
       <c r="HQ28" t="n">
         <v>32</v>
       </c>
+      <c r="HR28" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20043,6 +20195,9 @@
       <c r="HQ29" t="n">
         <v>63</v>
       </c>
+      <c r="HR29" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20722,6 +20877,9 @@
       <c r="HQ30" t="n">
         <v>56</v>
       </c>
+      <c r="HR30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21401,6 +21559,9 @@
       <c r="HQ31" t="n">
         <v>43</v>
       </c>
+      <c r="HR31" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22080,6 +22241,9 @@
       <c r="HQ32" t="n">
         <v>2.26</v>
       </c>
+      <c r="HR32" t="n">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22759,6 +22923,9 @@
       <c r="HQ33" t="n">
         <v>3.31</v>
       </c>
+      <c r="HR33" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23438,6 +23605,9 @@
       <c r="HQ34" t="n">
         <v>44.2</v>
       </c>
+      <c r="HR34" t="n">
+        <v>46.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24117,6 +24287,9 @@
       <c r="HQ35" t="n">
         <v>30.2</v>
       </c>
+      <c r="HR35" t="n">
+        <v>28.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24796,6 +24969,9 @@
       <c r="HQ36" t="n">
         <v>188.5</v>
       </c>
+      <c r="HR36" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25475,6 +25651,9 @@
       <c r="HQ37" t="n">
         <v>86.3</v>
       </c>
+      <c r="HR37" t="n">
+        <v>86.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26154,6 +26333,9 @@
       <c r="HQ38" t="n">
         <v>23.16</v>
       </c>
+      <c r="HR38" t="n">
+        <v>24.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26833,6 +27015,9 @@
       <c r="HQ39" t="n">
         <v>66.5</v>
       </c>
+      <c r="HR39" t="n">
+        <v>90.09999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27512,6 +27697,9 @@
       <c r="HQ40" t="n">
         <v>13</v>
       </c>
+      <c r="HR40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28191,6 +28379,9 @@
       <c r="HQ41" t="n">
         <v>4</v>
       </c>
+      <c r="HR41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28870,6 +29061,9 @@
       <c r="HQ42" t="n">
         <v>1</v>
       </c>
+      <c r="HR42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29549,6 +29743,9 @@
       <c r="HQ43" t="n">
         <v>5</v>
       </c>
+      <c r="HR43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30228,6 +30425,9 @@
       <c r="HQ44" t="n">
         <v>154</v>
       </c>
+      <c r="HR44" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30907,6 +31107,9 @@
       <c r="HQ45" t="n">
         <v>202</v>
       </c>
+      <c r="HR45" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31586,6 +31789,9 @@
       <c r="HQ46" t="n">
         <v>251</v>
       </c>
+      <c r="HR46" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32265,6 +32471,9 @@
       <c r="HQ47" t="n">
         <v>69.90000000000001</v>
       </c>
+      <c r="HR47" t="n">
+        <v>74.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32944,6 +33153,9 @@
       <c r="HQ48" t="n">
         <v>63</v>
       </c>
+      <c r="HR48" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33623,6 +33835,9 @@
       <c r="HQ49" t="n">
         <v>11</v>
       </c>
+      <c r="HR49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34302,6 +34517,9 @@
       <c r="HQ50" t="n">
         <v>5</v>
       </c>
+      <c r="HR50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34981,6 +35199,9 @@
       <c r="HQ51" t="n">
         <v>32</v>
       </c>
+      <c r="HR51" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35660,6 +35881,9 @@
       <c r="HQ52" t="n">
         <v>56</v>
       </c>
+      <c r="HR52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36339,6 +36563,9 @@
       <c r="HQ53" t="n">
         <v>56</v>
       </c>
+      <c r="HR53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37018,6 +37245,9 @@
       <c r="HQ54" t="n">
         <v>3</v>
       </c>
+      <c r="HR54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37697,6 +37927,9 @@
       <c r="HQ55" t="n">
         <v>6</v>
       </c>
+      <c r="HR55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38376,6 +38609,9 @@
       <c r="HQ56" t="n">
         <v>46.2</v>
       </c>
+      <c r="HR56" t="n">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39055,6 +39291,9 @@
       <c r="HQ57" t="n">
         <v>223</v>
       </c>
+      <c r="HR57" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39734,6 +39973,9 @@
       <c r="HQ58" t="n">
         <v>121</v>
       </c>
+      <c r="HR58" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40413,6 +40655,9 @@
       <c r="HQ59" t="n">
         <v>344</v>
       </c>
+      <c r="HR59" t="n">
+        <v>352</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41092,6 +41337,9 @@
       <c r="HQ60" t="n">
         <v>1.84</v>
       </c>
+      <c r="HR60" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41771,6 +42019,9 @@
       <c r="HQ61" t="n">
         <v>103</v>
       </c>
+      <c r="HR61" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42450,6 +42701,9 @@
       <c r="HQ62" t="n">
         <v>77</v>
       </c>
+      <c r="HR62" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43129,6 +43383,9 @@
       <c r="HQ63" t="n">
         <v>49</v>
       </c>
+      <c r="HR63" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43808,6 +44065,9 @@
       <c r="HQ64" t="n">
         <v>20</v>
       </c>
+      <c r="HR64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44487,6 +44747,9 @@
       <c r="HQ65" t="n">
         <v>18</v>
       </c>
+      <c r="HR65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45166,6 +45429,9 @@
       <c r="HQ66" t="n">
         <v>8</v>
       </c>
+      <c r="HR66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45845,6 +46111,9 @@
       <c r="HQ67" t="n">
         <v>6</v>
       </c>
+      <c r="HR67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46524,6 +46793,9 @@
       <c r="HQ68" t="n">
         <v>11</v>
       </c>
+      <c r="HR68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47203,6 +47475,9 @@
       <c r="HQ69" t="n">
         <v>6</v>
       </c>
+      <c r="HR69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47882,6 +48157,9 @@
       <c r="HQ70" t="n">
         <v>25</v>
       </c>
+      <c r="HR70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48561,6 +48839,9 @@
       <c r="HQ71" t="n">
         <v>32</v>
       </c>
+      <c r="HR71" t="n">
+        <v>58.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49240,6 +49521,9 @@
       <c r="HQ72" t="n">
         <v>43</v>
       </c>
+      <c r="HR72" t="n">
+        <v>35.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49919,6 +50203,9 @@
       <c r="HQ73" t="n">
         <v>13.76</v>
       </c>
+      <c r="HR73" t="n">
+        <v>20.71</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50598,6 +50885,9 @@
       <c r="HQ74" t="n">
         <v>39</v>
       </c>
+      <c r="HR74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51277,6 +51567,9 @@
       <c r="HQ75" t="n">
         <v>51</v>
       </c>
+      <c r="HR75" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51956,6 +52249,9 @@
       <c r="HQ76" t="n">
         <v>29</v>
       </c>
+      <c r="HR76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52635,6 +52931,9 @@
       <c r="HQ77" t="n">
         <v>64</v>
       </c>
+      <c r="HR77" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53314,6 +53613,9 @@
       <c r="HQ78" t="n">
         <v>2.56</v>
       </c>
+      <c r="HR78" t="n">
+        <v>2.53</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53993,6 +54295,9 @@
       <c r="HQ79" t="n">
         <v>8</v>
       </c>
+      <c r="HR79" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54672,6 +54977,9 @@
       <c r="HQ80" t="n">
         <v>29.7</v>
       </c>
+      <c r="HR80" t="n">
+        <v>39.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55351,6 +55659,9 @@
       <c r="HQ81" t="n">
         <v>12.5</v>
       </c>
+      <c r="HR81" t="n">
+        <v>23.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56030,6 +56341,9 @@
       <c r="HQ82" t="n">
         <v>188.7</v>
       </c>
+      <c r="HR82" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56709,6 +57023,9 @@
       <c r="HQ83" t="n">
         <v>87.59999999999999</v>
       </c>
+      <c r="HR83" t="n">
+        <v>82.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57388,6 +57705,9 @@
       <c r="HQ84" t="n">
         <v>27.16</v>
       </c>
+      <c r="HR84" t="n">
+        <v>25.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58067,6 +58387,9 @@
       <c r="HQ85" t="n">
         <v>135.5</v>
       </c>
+      <c r="HR85" t="n">
+        <v>111.4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58746,6 +59069,9 @@
       <c r="HQ86" t="n">
         <v>6</v>
       </c>
+      <c r="HR86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59425,6 +59751,9 @@
       <c r="HQ87" t="n">
         <v>3</v>
       </c>
+      <c r="HR87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60104,6 +60433,9 @@
       <c r="HQ88" t="n">
         <v>4</v>
       </c>
+      <c r="HR88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60783,6 +61115,9 @@
       <c r="HQ89" t="n">
         <v>10</v>
       </c>
+      <c r="HR89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61462,6 +61797,9 @@
       <c r="HQ90" t="n">
         <v>136</v>
       </c>
+      <c r="HR90" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62141,6 +62479,9 @@
       <c r="HQ91" t="n">
         <v>204</v>
       </c>
+      <c r="HR91" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62820,6 +63161,9 @@
       <c r="HQ92" t="n">
         <v>252</v>
       </c>
+      <c r="HR92" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63499,6 +63843,9 @@
       <c r="HQ93" t="n">
         <v>73.3</v>
       </c>
+      <c r="HR93" t="n">
+        <v>73.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64178,6 +64525,9 @@
       <c r="HQ94" t="n">
         <v>51</v>
       </c>
+      <c r="HR94" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64857,6 +65207,9 @@
       <c r="HQ95" t="n">
         <v>14</v>
       </c>
+      <c r="HR95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65536,6 +65889,9 @@
       <c r="HQ96" t="n">
         <v>12</v>
       </c>
+      <c r="HR96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66215,6 +66571,9 @@
       <c r="HQ97" t="n">
         <v>39</v>
       </c>
+      <c r="HR97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66894,6 +67253,9 @@
       <c r="HQ98" t="n">
         <v>29</v>
       </c>
+      <c r="HR98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67573,6 +67935,9 @@
       <c r="HQ99" t="n">
         <v>37</v>
       </c>
+      <c r="HR99" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68252,6 +68617,9 @@
       <c r="HQ100" t="n">
         <v>4</v>
       </c>
+      <c r="HR100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68931,6 +69299,9 @@
       <c r="HQ101" t="n">
         <v>6</v>
       </c>
+      <c r="HR101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69610,6 +69981,9 @@
       <c r="HQ102" t="n">
         <v>75</v>
       </c>
+      <c r="HR102" t="n">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HR102"/>
+  <dimension ref="A1:HS102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1102,6 +1102,9 @@
       <c r="HR1" t="n">
         <v>10510</v>
       </c>
+      <c r="HS1" t="n">
+        <v>10517</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1784,6 +1787,9 @@
       <c r="HR2" t="n">
         <v>2021</v>
       </c>
+      <c r="HS2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2466,6 +2472,9 @@
       <c r="HR3" t="n">
         <v>22</v>
       </c>
+      <c r="HS3" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3148,6 +3157,9 @@
       <c r="HR4" t="n">
         <v>0</v>
       </c>
+      <c r="HS4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3830,6 +3842,9 @@
       <c r="HR5" t="n">
         <v>0</v>
       </c>
+      <c r="HS5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4512,6 +4527,9 @@
       <c r="HR6" t="n">
         <v>106</v>
       </c>
+      <c r="HS6" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5194,6 +5212,9 @@
       <c r="HR7" t="n">
         <v>67</v>
       </c>
+      <c r="HS7" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5876,6 +5897,9 @@
       <c r="HR8" t="n">
         <v>39</v>
       </c>
+      <c r="HS8" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6558,6 +6582,9 @@
       <c r="HR9" t="n">
         <v>1</v>
       </c>
+      <c r="HS9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7240,6 +7267,9 @@
       <c r="HR10" t="n">
         <v>14</v>
       </c>
+      <c r="HS10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7922,6 +7952,9 @@
       <c r="HR11" t="n">
         <v>203</v>
       </c>
+      <c r="HS11" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8604,6 +8637,9 @@
       <c r="HR12" t="n">
         <v>127</v>
       </c>
+      <c r="HS12" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9286,6 +9322,9 @@
       <c r="HR13" t="n">
         <v>330</v>
       </c>
+      <c r="HS13" t="n">
+        <v>354</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9968,6 +10007,9 @@
       <c r="HR14" t="n">
         <v>1.6</v>
       </c>
+      <c r="HS14" t="n">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10650,6 +10692,9 @@
       <c r="HR15" t="n">
         <v>97</v>
       </c>
+      <c r="HS15" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11332,6 +11377,9 @@
       <c r="HR16" t="n">
         <v>60</v>
       </c>
+      <c r="HS16" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12014,6 +12062,9 @@
       <c r="HR17" t="n">
         <v>29</v>
       </c>
+      <c r="HS17" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12696,6 +12747,9 @@
       <c r="HR18" t="n">
         <v>21</v>
       </c>
+      <c r="HS18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13378,6 +13432,9 @@
       <c r="HR19" t="n">
         <v>16</v>
       </c>
+      <c r="HS19" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14060,6 +14117,9 @@
       <c r="HR20" t="n">
         <v>16</v>
       </c>
+      <c r="HS20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14742,6 +14802,9 @@
       <c r="HR21" t="n">
         <v>11</v>
       </c>
+      <c r="HS21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15424,6 +15487,9 @@
       <c r="HR22" t="n">
         <v>10</v>
       </c>
+      <c r="HS22" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16106,6 +16172,9 @@
       <c r="HR23" t="n">
         <v>0</v>
       </c>
+      <c r="HS23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16788,6 +16857,9 @@
       <c r="HR24" t="n">
         <v>26</v>
       </c>
+      <c r="HS24" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17470,6 +17542,9 @@
       <c r="HR25" t="n">
         <v>61.5</v>
       </c>
+      <c r="HS25" t="n">
+        <v>41.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18152,6 +18227,9 @@
       <c r="HR26" t="n">
         <v>20.62</v>
       </c>
+      <c r="HS26" t="n">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18834,6 +18912,9 @@
       <c r="HR27" t="n">
         <v>12.69</v>
       </c>
+      <c r="HS27" t="n">
+        <v>12.21</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19516,6 +19597,9 @@
       <c r="HR28" t="n">
         <v>34</v>
       </c>
+      <c r="HS28" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20198,6 +20282,9 @@
       <c r="HR29" t="n">
         <v>42</v>
       </c>
+      <c r="HS29" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20880,6 +20967,9 @@
       <c r="HR30" t="n">
         <v>33</v>
       </c>
+      <c r="HS30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21562,6 +21652,9 @@
       <c r="HR31" t="n">
         <v>56</v>
       </c>
+      <c r="HS31" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22244,6 +22337,9 @@
       <c r="HR32" t="n">
         <v>2.15</v>
       </c>
+      <c r="HS32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22926,6 +23022,9 @@
       <c r="HR33" t="n">
         <v>3.5</v>
       </c>
+      <c r="HS33" t="n">
+        <v>4.83</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23608,6 +23707,9 @@
       <c r="HR34" t="n">
         <v>46.4</v>
       </c>
+      <c r="HS34" t="n">
+        <v>44.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24290,6 +24392,9 @@
       <c r="HR35" t="n">
         <v>28.6</v>
       </c>
+      <c r="HS35" t="n">
+        <v>20.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24972,6 +25077,9 @@
       <c r="HR36" t="n">
         <v>188.9</v>
       </c>
+      <c r="HS36" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25654,6 +25762,9 @@
       <c r="HR37" t="n">
         <v>86.59999999999999</v>
       </c>
+      <c r="HS37" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26336,6 +26447,9 @@
       <c r="HR38" t="n">
         <v>24.58</v>
       </c>
+      <c r="HS38" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27018,6 +27132,9 @@
       <c r="HR39" t="n">
         <v>90.09999999999999</v>
       </c>
+      <c r="HS39" t="n">
+        <v>92.09999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27700,6 +27817,9 @@
       <c r="HR40" t="n">
         <v>8</v>
       </c>
+      <c r="HS40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28382,6 +28502,9 @@
       <c r="HR41" t="n">
         <v>5</v>
       </c>
+      <c r="HS41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29064,6 +29187,9 @@
       <c r="HR42" t="n">
         <v>3</v>
       </c>
+      <c r="HS42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29746,6 +29872,9 @@
       <c r="HR43" t="n">
         <v>6</v>
       </c>
+      <c r="HS43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30428,6 +30557,9 @@
       <c r="HR44" t="n">
         <v>116</v>
       </c>
+      <c r="HS44" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31110,6 +31242,9 @@
       <c r="HR45" t="n">
         <v>209</v>
       </c>
+      <c r="HS45" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31792,6 +31927,9 @@
       <c r="HR46" t="n">
         <v>247</v>
       </c>
+      <c r="HS46" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32474,6 +32612,9 @@
       <c r="HR47" t="n">
         <v>74.8</v>
       </c>
+      <c r="HS47" t="n">
+        <v>73.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33156,6 +33297,9 @@
       <c r="HR48" t="n">
         <v>42</v>
       </c>
+      <c r="HS48" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33838,6 +33982,9 @@
       <c r="HR49" t="n">
         <v>8</v>
       </c>
+      <c r="HS49" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34520,6 +34667,9 @@
       <c r="HR50" t="n">
         <v>15</v>
       </c>
+      <c r="HS50" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35202,6 +35352,9 @@
       <c r="HR51" t="n">
         <v>34</v>
       </c>
+      <c r="HS51" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35884,6 +36037,9 @@
       <c r="HR52" t="n">
         <v>33</v>
       </c>
+      <c r="HS52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36566,6 +36722,9 @@
       <c r="HR53" t="n">
         <v>51</v>
       </c>
+      <c r="HS53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37248,6 +37407,9 @@
       <c r="HR54" t="n">
         <v>3</v>
       </c>
+      <c r="HS54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37930,6 +38092,9 @@
       <c r="HR55" t="n">
         <v>11</v>
       </c>
+      <c r="HS55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38612,6 +38777,9 @@
       <c r="HR56" t="n">
         <v>68.8</v>
       </c>
+      <c r="HS56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39294,6 +39462,9 @@
       <c r="HR57" t="n">
         <v>190</v>
       </c>
+      <c r="HS57" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39976,6 +40147,9 @@
       <c r="HR58" t="n">
         <v>162</v>
       </c>
+      <c r="HS58" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40658,6 +40832,9 @@
       <c r="HR59" t="n">
         <v>352</v>
       </c>
+      <c r="HS59" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41340,6 +41517,9 @@
       <c r="HR60" t="n">
         <v>1.17</v>
       </c>
+      <c r="HS60" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42022,6 +42202,9 @@
       <c r="HR61" t="n">
         <v>87</v>
       </c>
+      <c r="HS61" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42704,6 +42887,9 @@
       <c r="HR62" t="n">
         <v>52</v>
       </c>
+      <c r="HS62" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43386,6 +43572,9 @@
       <c r="HR63" t="n">
         <v>41</v>
       </c>
+      <c r="HS63" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44068,6 +44257,9 @@
       <c r="HR64" t="n">
         <v>16</v>
       </c>
+      <c r="HS64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44750,6 +44942,9 @@
       <c r="HR65" t="n">
         <v>21</v>
       </c>
+      <c r="HS65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45432,6 +45627,9 @@
       <c r="HR66" t="n">
         <v>10</v>
       </c>
+      <c r="HS66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46114,6 +46312,9 @@
       <c r="HR67" t="n">
         <v>9</v>
       </c>
+      <c r="HS67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46796,6 +46997,9 @@
       <c r="HR68" t="n">
         <v>7</v>
       </c>
+      <c r="HS68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47478,6 +47682,9 @@
       <c r="HR69" t="n">
         <v>0</v>
       </c>
+      <c r="HS69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48160,6 +48367,9 @@
       <c r="HR70" t="n">
         <v>17</v>
       </c>
+      <c r="HS70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48842,6 +49052,9 @@
       <c r="HR71" t="n">
         <v>58.8</v>
       </c>
+      <c r="HS71" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49524,6 +49737,9 @@
       <c r="HR72" t="n">
         <v>35.2</v>
       </c>
+      <c r="HS72" t="n">
+        <v>31.09</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50206,6 +50422,9 @@
       <c r="HR73" t="n">
         <v>20.71</v>
       </c>
+      <c r="HS73" t="n">
+        <v>17.1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50888,6 +51107,9 @@
       <c r="HR74" t="n">
         <v>37</v>
       </c>
+      <c r="HS74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51570,6 +51792,9 @@
       <c r="HR75" t="n">
         <v>67</v>
       </c>
+      <c r="HS75" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52252,6 +52477,9 @@
       <c r="HR76" t="n">
         <v>40</v>
       </c>
+      <c r="HS76" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52934,6 +53162,9 @@
       <c r="HR77" t="n">
         <v>43</v>
       </c>
+      <c r="HS77" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53616,6 +53847,9 @@
       <c r="HR78" t="n">
         <v>2.53</v>
       </c>
+      <c r="HS78" t="n">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54298,6 +54532,9 @@
       <c r="HR79" t="n">
         <v>4.3</v>
       </c>
+      <c r="HS79" t="n">
+        <v>4.18</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54980,6 +55217,9 @@
       <c r="HR80" t="n">
         <v>39.5</v>
       </c>
+      <c r="HS80" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55662,6 +55902,9 @@
       <c r="HR81" t="n">
         <v>23.3</v>
       </c>
+      <c r="HS81" t="n">
+        <v>23.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56344,6 +56587,9 @@
       <c r="HR82" t="n">
         <v>185</v>
       </c>
+      <c r="HS82" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57026,6 +57272,9 @@
       <c r="HR83" t="n">
         <v>82.40000000000001</v>
       </c>
+      <c r="HS83" t="n">
+        <v>84.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57708,6 +57957,9 @@
       <c r="HR84" t="n">
         <v>25.74</v>
       </c>
+      <c r="HS84" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58390,6 +58642,9 @@
       <c r="HR85" t="n">
         <v>111.4</v>
       </c>
+      <c r="HS85" t="n">
+        <v>89.09999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59072,6 +59327,9 @@
       <c r="HR86" t="n">
         <v>7</v>
       </c>
+      <c r="HS86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59754,6 +60012,9 @@
       <c r="HR87" t="n">
         <v>4</v>
       </c>
+      <c r="HS87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60436,6 +60697,9 @@
       <c r="HR88" t="n">
         <v>3</v>
       </c>
+      <c r="HS88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61118,6 +61382,9 @@
       <c r="HR89" t="n">
         <v>7</v>
       </c>
+      <c r="HS89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61800,6 +62067,9 @@
       <c r="HR90" t="n">
         <v>129</v>
       </c>
+      <c r="HS90" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62482,6 +62752,9 @@
       <c r="HR91" t="n">
         <v>222</v>
       </c>
+      <c r="HS91" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63164,6 +63437,9 @@
       <c r="HR92" t="n">
         <v>259</v>
       </c>
+      <c r="HS92" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63846,6 +64122,9 @@
       <c r="HR93" t="n">
         <v>73.59999999999999</v>
       </c>
+      <c r="HS93" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64528,6 +64807,9 @@
       <c r="HR94" t="n">
         <v>67</v>
       </c>
+      <c r="HS94" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65210,6 +65492,9 @@
       <c r="HR95" t="n">
         <v>6</v>
       </c>
+      <c r="HS95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65892,6 +66177,9 @@
       <c r="HR96" t="n">
         <v>13</v>
       </c>
+      <c r="HS96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66574,6 +66862,9 @@
       <c r="HR97" t="n">
         <v>37</v>
       </c>
+      <c r="HS97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67256,6 +67547,9 @@
       <c r="HR98" t="n">
         <v>40</v>
       </c>
+      <c r="HS98" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67938,6 +68232,9 @@
       <c r="HR99" t="n">
         <v>35</v>
       </c>
+      <c r="HS99" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68620,6 +68917,9 @@
       <c r="HR100" t="n">
         <v>9</v>
       </c>
+      <c r="HS100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69302,6 +69602,9 @@
       <c r="HR101" t="n">
         <v>9</v>
       </c>
+      <c r="HS101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69984,6 +70287,9 @@
       <c r="HR102" t="n">
         <v>90</v>
       </c>
+      <c r="HS102" t="n">
+        <v>90.90000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HS102"/>
+  <dimension ref="A1:HT102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1105,6 +1037,9 @@
       <c r="HS1" t="n">
         <v>10517</v>
       </c>
+      <c r="HT1" t="n">
+        <v>10536</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1790,6 +1725,9 @@
       <c r="HS2" t="n">
         <v>2021</v>
       </c>
+      <c r="HT2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2475,6 +2413,9 @@
       <c r="HS3" t="n">
         <v>23</v>
       </c>
+      <c r="HT3" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3160,6 +3101,9 @@
       <c r="HS4" t="n">
         <v>1</v>
       </c>
+      <c r="HT4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3845,6 +3789,9 @@
       <c r="HS5" t="n">
         <v>1</v>
       </c>
+      <c r="HT5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4530,6 +4477,9 @@
       <c r="HS6" t="n">
         <v>89</v>
       </c>
+      <c r="HT6" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5215,6 +5165,9 @@
       <c r="HS7" t="n">
         <v>75</v>
       </c>
+      <c r="HT7" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5900,6 +5853,9 @@
       <c r="HS8" t="n">
         <v>14</v>
       </c>
+      <c r="HT8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6585,6 +6541,9 @@
       <c r="HS9" t="n">
         <v>1</v>
       </c>
+      <c r="HT9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7270,6 +7229,9 @@
       <c r="HS10" t="n">
         <v>3</v>
       </c>
+      <c r="HT10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7955,6 +7917,9 @@
       <c r="HS11" t="n">
         <v>220</v>
       </c>
+      <c r="HT11" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8640,6 +8605,9 @@
       <c r="HS12" t="n">
         <v>134</v>
       </c>
+      <c r="HT12" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9325,6 +9293,9 @@
       <c r="HS13" t="n">
         <v>354</v>
       </c>
+      <c r="HT13" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10010,6 +9981,9 @@
       <c r="HS14" t="n">
         <v>1.64</v>
       </c>
+      <c r="HT14" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10695,6 +10669,9 @@
       <c r="HS15" t="n">
         <v>93</v>
       </c>
+      <c r="HT15" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11380,6 +11357,9 @@
       <c r="HS16" t="n">
         <v>60</v>
       </c>
+      <c r="HT16" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12065,6 +12045,9 @@
       <c r="HS17" t="n">
         <v>33</v>
       </c>
+      <c r="HT17" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12750,6 +12733,9 @@
       <c r="HS18" t="n">
         <v>20</v>
       </c>
+      <c r="HT18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13435,6 +13421,9 @@
       <c r="HS19" t="n">
         <v>14</v>
       </c>
+      <c r="HT19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14120,6 +14109,9 @@
       <c r="HS20" t="n">
         <v>12</v>
       </c>
+      <c r="HT20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14805,6 +14797,9 @@
       <c r="HS21" t="n">
         <v>8</v>
       </c>
+      <c r="HT21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15490,6 +15485,9 @@
       <c r="HS22" t="n">
         <v>14</v>
       </c>
+      <c r="HT22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16175,6 +16173,9 @@
       <c r="HS23" t="n">
         <v>3</v>
       </c>
+      <c r="HT23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16860,6 +16861,9 @@
       <c r="HS24" t="n">
         <v>29</v>
       </c>
+      <c r="HT24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17545,6 +17549,9 @@
       <c r="HS25" t="n">
         <v>41.4</v>
       </c>
+      <c r="HT25" t="n">
+        <v>57.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18230,6 +18237,9 @@
       <c r="HS26" t="n">
         <v>29.5</v>
       </c>
+      <c r="HT26" t="n">
+        <v>31.09</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18915,6 +18925,9 @@
       <c r="HS27" t="n">
         <v>12.21</v>
       </c>
+      <c r="HT27" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19600,6 +19613,9 @@
       <c r="HS28" t="n">
         <v>43</v>
       </c>
+      <c r="HT28" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20285,6 +20301,9 @@
       <c r="HS29" t="n">
         <v>50</v>
       </c>
+      <c r="HT29" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20970,6 +20989,9 @@
       <c r="HS30" t="n">
         <v>34</v>
       </c>
+      <c r="HT30" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21655,6 +21677,9 @@
       <c r="HS31" t="n">
         <v>58</v>
       </c>
+      <c r="HT31" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22340,6 +22365,9 @@
       <c r="HS32" t="n">
         <v>2</v>
       </c>
+      <c r="HT32" t="n">
+        <v>2.42</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23025,6 +23053,9 @@
       <c r="HS33" t="n">
         <v>4.83</v>
       </c>
+      <c r="HT33" t="n">
+        <v>4.18</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23710,6 +23741,9 @@
       <c r="HS34" t="n">
         <v>44.8</v>
       </c>
+      <c r="HT34" t="n">
+        <v>39.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24395,6 +24429,9 @@
       <c r="HS35" t="n">
         <v>20.7</v>
       </c>
+      <c r="HT35" t="n">
+        <v>23.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25080,6 +25117,9 @@
       <c r="HS36" t="n">
         <v>188.6</v>
       </c>
+      <c r="HT36" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25765,6 +25805,9 @@
       <c r="HS37" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="HT37" t="n">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26450,6 +26493,9 @@
       <c r="HS38" t="n">
         <v>25.33</v>
       </c>
+      <c r="HT38" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27135,6 +27181,9 @@
       <c r="HS39" t="n">
         <v>92.09999999999999</v>
       </c>
+      <c r="HT39" t="n">
+        <v>101.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27820,6 +27869,9 @@
       <c r="HS40" t="n">
         <v>8</v>
       </c>
+      <c r="HT40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28505,6 +28557,9 @@
       <c r="HS41" t="n">
         <v>5</v>
       </c>
+      <c r="HT41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29190,6 +29245,9 @@
       <c r="HS42" t="n">
         <v>3</v>
       </c>
+      <c r="HT42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29875,6 +29933,9 @@
       <c r="HS43" t="n">
         <v>7</v>
       </c>
+      <c r="HT43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30560,6 +30621,9 @@
       <c r="HS44" t="n">
         <v>147</v>
       </c>
+      <c r="HT44" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31245,6 +31309,9 @@
       <c r="HS45" t="n">
         <v>204</v>
       </c>
+      <c r="HT45" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31930,6 +31997,9 @@
       <c r="HS46" t="n">
         <v>259</v>
       </c>
+      <c r="HT46" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32615,6 +32685,9 @@
       <c r="HS47" t="n">
         <v>73.2</v>
       </c>
+      <c r="HT47" t="n">
+        <v>71.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33300,6 +33373,9 @@
       <c r="HS48" t="n">
         <v>50</v>
       </c>
+      <c r="HT48" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33985,6 +34061,9 @@
       <c r="HS49" t="n">
         <v>16</v>
       </c>
+      <c r="HT49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34670,6 +34749,9 @@
       <c r="HS50" t="n">
         <v>18</v>
       </c>
+      <c r="HT50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35355,6 +35437,9 @@
       <c r="HS51" t="n">
         <v>43</v>
       </c>
+      <c r="HT51" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36040,6 +36125,9 @@
       <c r="HS52" t="n">
         <v>34</v>
       </c>
+      <c r="HT52" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36725,6 +36813,9 @@
       <c r="HS53" t="n">
         <v>44</v>
       </c>
+      <c r="HT53" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37410,6 +37501,9 @@
       <c r="HS54" t="n">
         <v>7</v>
       </c>
+      <c r="HT54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38095,6 +38189,9 @@
       <c r="HS55" t="n">
         <v>8</v>
       </c>
+      <c r="HT55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38780,6 +38877,9 @@
       <c r="HS56" t="n">
         <v>66.7</v>
       </c>
+      <c r="HT56" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39465,6 +39565,9 @@
       <c r="HS57" t="n">
         <v>217</v>
       </c>
+      <c r="HT57" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40150,6 +40253,9 @@
       <c r="HS58" t="n">
         <v>125</v>
       </c>
+      <c r="HT58" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40835,6 +40941,9 @@
       <c r="HS59" t="n">
         <v>342</v>
       </c>
+      <c r="HT59" t="n">
+        <v>332</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41520,6 +41629,9 @@
       <c r="HS60" t="n">
         <v>1.74</v>
       </c>
+      <c r="HT60" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42205,6 +42317,9 @@
       <c r="HS61" t="n">
         <v>99</v>
       </c>
+      <c r="HT61" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42890,6 +43005,9 @@
       <c r="HS62" t="n">
         <v>42</v>
       </c>
+      <c r="HT62" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43575,6 +43693,9 @@
       <c r="HS63" t="n">
         <v>42</v>
       </c>
+      <c r="HT63" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44260,6 +44381,9 @@
       <c r="HS64" t="n">
         <v>14</v>
       </c>
+      <c r="HT64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44945,6 +45069,9 @@
       <c r="HS65" t="n">
         <v>20</v>
       </c>
+      <c r="HT65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45630,6 +45757,9 @@
       <c r="HS66" t="n">
         <v>11</v>
       </c>
+      <c r="HT66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46315,6 +46445,9 @@
       <c r="HS67" t="n">
         <v>10</v>
       </c>
+      <c r="HT67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47000,6 +47133,9 @@
       <c r="HS68" t="n">
         <v>6</v>
       </c>
+      <c r="HT68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47685,6 +47821,9 @@
       <c r="HS69" t="n">
         <v>3</v>
       </c>
+      <c r="HT69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48370,6 +48509,9 @@
       <c r="HS70" t="n">
         <v>20</v>
       </c>
+      <c r="HT70" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49055,6 +49197,9 @@
       <c r="HS71" t="n">
         <v>55</v>
       </c>
+      <c r="HT71" t="n">
+        <v>43.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49740,6 +49885,9 @@
       <c r="HS72" t="n">
         <v>31.09</v>
       </c>
+      <c r="HT72" t="n">
+        <v>33.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50425,6 +50573,9 @@
       <c r="HS73" t="n">
         <v>17.1</v>
       </c>
+      <c r="HT73" t="n">
+        <v>14.43</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51110,6 +51261,9 @@
       <c r="HS74" t="n">
         <v>35</v>
       </c>
+      <c r="HT74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51795,6 +51949,9 @@
       <c r="HS75" t="n">
         <v>57</v>
       </c>
+      <c r="HT75" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52480,6 +52637,9 @@
       <c r="HS76" t="n">
         <v>45</v>
       </c>
+      <c r="HT76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53165,6 +53325,9 @@
       <c r="HS77" t="n">
         <v>46</v>
       </c>
+      <c r="HT77" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53850,6 +54013,9 @@
       <c r="HS78" t="n">
         <v>2.3</v>
       </c>
+      <c r="HT78" t="n">
+        <v>2.83</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54535,6 +54701,9 @@
       <c r="HS79" t="n">
         <v>4.18</v>
       </c>
+      <c r="HT79" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55220,6 +55389,9 @@
       <c r="HS80" t="n">
         <v>37</v>
       </c>
+      <c r="HT80" t="n">
+        <v>32.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55905,6 +56077,9 @@
       <c r="HS81" t="n">
         <v>23.9</v>
       </c>
+      <c r="HT81" t="n">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56590,6 +56765,9 @@
       <c r="HS82" t="n">
         <v>187</v>
       </c>
+      <c r="HT82" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57275,6 +57453,9 @@
       <c r="HS83" t="n">
         <v>84.8</v>
       </c>
+      <c r="HT83" t="n">
+        <v>84.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57960,6 +58141,9 @@
       <c r="HS84" t="n">
         <v>24.8</v>
       </c>
+      <c r="HT84" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58645,6 +58829,9 @@
       <c r="HS85" t="n">
         <v>89.09999999999999</v>
       </c>
+      <c r="HT85" t="n">
+        <v>95.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59330,6 +59517,9 @@
       <c r="HS86" t="n">
         <v>8</v>
       </c>
+      <c r="HT86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60015,6 +60205,9 @@
       <c r="HS87" t="n">
         <v>7</v>
       </c>
+      <c r="HT87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60700,6 +60893,9 @@
       <c r="HS88" t="n">
         <v>4</v>
       </c>
+      <c r="HT88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61385,6 +61581,9 @@
       <c r="HS89" t="n">
         <v>4</v>
       </c>
+      <c r="HT89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62070,6 +62269,9 @@
       <c r="HS90" t="n">
         <v>117</v>
       </c>
+      <c r="HT90" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62755,6 +62957,9 @@
       <c r="HS91" t="n">
         <v>212</v>
       </c>
+      <c r="HT91" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63440,6 +63645,9 @@
       <c r="HS92" t="n">
         <v>253</v>
       </c>
+      <c r="HT92" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64125,6 +64333,9 @@
       <c r="HS93" t="n">
         <v>74</v>
       </c>
+      <c r="HT93" t="n">
+        <v>70.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64810,6 +65021,9 @@
       <c r="HS94" t="n">
         <v>57</v>
       </c>
+      <c r="HT94" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65495,6 +65709,9 @@
       <c r="HS95" t="n">
         <v>11</v>
       </c>
+      <c r="HT95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66180,6 +66397,9 @@
       <c r="HS96" t="n">
         <v>11</v>
       </c>
+      <c r="HT96" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66865,6 +67085,9 @@
       <c r="HS97" t="n">
         <v>35</v>
       </c>
+      <c r="HT97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67550,6 +67773,9 @@
       <c r="HS98" t="n">
         <v>45</v>
       </c>
+      <c r="HT98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68235,6 +68461,9 @@
       <c r="HS99" t="n">
         <v>56</v>
       </c>
+      <c r="HT99" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68920,6 +69149,9 @@
       <c r="HS100" t="n">
         <v>9</v>
       </c>
+      <c r="HT100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69605,6 +69837,9 @@
       <c r="HS101" t="n">
         <v>10</v>
       </c>
+      <c r="HT101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70290,6 +70525,9 @@
       <c r="HS102" t="n">
         <v>90.90000000000001</v>
       </c>
+      <c r="HT102" t="n">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HT102"/>
+  <dimension ref="A1:HU102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,6 +1040,9 @@
       <c r="HT1" t="n">
         <v>10536</v>
       </c>
+      <c r="HU1" t="n">
+        <v>10539</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1728,6 +1731,9 @@
       <c r="HT2" t="n">
         <v>2021</v>
       </c>
+      <c r="HU2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2416,6 +2422,9 @@
       <c r="HT3" t="n">
         <v>25</v>
       </c>
+      <c r="HU3" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3104,6 +3113,9 @@
       <c r="HT4" t="n">
         <v>1</v>
       </c>
+      <c r="HU4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3792,6 +3804,9 @@
       <c r="HT5" t="n">
         <v>1</v>
       </c>
+      <c r="HU5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4480,6 +4495,9 @@
       <c r="HT6" t="n">
         <v>74</v>
       </c>
+      <c r="HU6" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5168,6 +5186,9 @@
       <c r="HT7" t="n">
         <v>73</v>
       </c>
+      <c r="HU7" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5856,6 +5877,9 @@
       <c r="HT8" t="n">
         <v>1</v>
       </c>
+      <c r="HU8" t="n">
+        <v>-35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6544,6 +6568,9 @@
       <c r="HT9" t="n">
         <v>1</v>
       </c>
+      <c r="HU9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7232,6 +7259,9 @@
       <c r="HT10" t="n">
         <v>16</v>
       </c>
+      <c r="HU10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7920,6 +7950,9 @@
       <c r="HT11" t="n">
         <v>217</v>
       </c>
+      <c r="HU11" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8608,6 +8641,9 @@
       <c r="HT12" t="n">
         <v>125</v>
       </c>
+      <c r="HU12" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9296,6 +9332,9 @@
       <c r="HT13" t="n">
         <v>342</v>
       </c>
+      <c r="HU13" t="n">
+        <v>325</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9984,6 +10023,9 @@
       <c r="HT14" t="n">
         <v>1.74</v>
       </c>
+      <c r="HU14" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10672,6 +10714,9 @@
       <c r="HT15" t="n">
         <v>90</v>
       </c>
+      <c r="HU15" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11360,6 +11405,9 @@
       <c r="HT16" t="n">
         <v>64</v>
       </c>
+      <c r="HU16" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12048,6 +12096,9 @@
       <c r="HT17" t="n">
         <v>39</v>
       </c>
+      <c r="HU17" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12736,6 +12787,9 @@
       <c r="HT18" t="n">
         <v>20</v>
       </c>
+      <c r="HU18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13424,6 +13478,9 @@
       <c r="HT19" t="n">
         <v>18</v>
       </c>
+      <c r="HU19" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14112,6 +14169,9 @@
       <c r="HT20" t="n">
         <v>11</v>
       </c>
+      <c r="HU20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14800,6 +14860,9 @@
       <c r="HT21" t="n">
         <v>6</v>
       </c>
+      <c r="HU21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15488,6 +15551,9 @@
       <c r="HT22" t="n">
         <v>7</v>
       </c>
+      <c r="HU22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16176,6 +16242,9 @@
       <c r="HT23" t="n">
         <v>1</v>
       </c>
+      <c r="HU23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16864,6 +16933,9 @@
       <c r="HT24" t="n">
         <v>19</v>
       </c>
+      <c r="HU24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17552,6 +17624,9 @@
       <c r="HT25" t="n">
         <v>57.9</v>
       </c>
+      <c r="HU25" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18240,6 +18315,9 @@
       <c r="HT26" t="n">
         <v>31.09</v>
       </c>
+      <c r="HU26" t="n">
+        <v>32.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18928,6 +19006,9 @@
       <c r="HT27" t="n">
         <v>18</v>
       </c>
+      <c r="HU27" t="n">
+        <v>18.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19616,6 +19697,9 @@
       <c r="HT28" t="n">
         <v>43</v>
       </c>
+      <c r="HU28" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20304,6 +20388,9 @@
       <c r="HT29" t="n">
         <v>51</v>
       </c>
+      <c r="HU29" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20992,6 +21079,9 @@
       <c r="HT30" t="n">
         <v>55</v>
       </c>
+      <c r="HU30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21680,6 +21770,9 @@
       <c r="HT31" t="n">
         <v>46</v>
       </c>
+      <c r="HU31" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22368,6 +22461,9 @@
       <c r="HT32" t="n">
         <v>2.42</v>
       </c>
+      <c r="HU32" t="n">
+        <v>2.72</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23056,6 +23152,9 @@
       <c r="HT33" t="n">
         <v>4.18</v>
       </c>
+      <c r="HU33" t="n">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23744,6 +23843,9 @@
       <c r="HT34" t="n">
         <v>39.1</v>
       </c>
+      <c r="HU34" t="n">
+        <v>32.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24432,6 +24534,9 @@
       <c r="HT35" t="n">
         <v>23.9</v>
       </c>
+      <c r="HU35" t="n">
+        <v>20.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25120,6 +25225,9 @@
       <c r="HT36" t="n">
         <v>188.9</v>
       </c>
+      <c r="HU36" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25808,6 +25916,9 @@
       <c r="HT37" t="n">
         <v>87.3</v>
       </c>
+      <c r="HU37" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26496,6 +26607,9 @@
       <c r="HT38" t="n">
         <v>26</v>
       </c>
+      <c r="HU38" t="n">
+        <v>24.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27184,6 +27298,9 @@
       <c r="HT39" t="n">
         <v>101.5</v>
       </c>
+      <c r="HU39" t="n">
+        <v>94.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27872,6 +27989,9 @@
       <c r="HT40" t="n">
         <v>7</v>
       </c>
+      <c r="HU40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28560,6 +28680,9 @@
       <c r="HT41" t="n">
         <v>5</v>
       </c>
+      <c r="HU41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29248,6 +29371,9 @@
       <c r="HT42" t="n">
         <v>3</v>
       </c>
+      <c r="HU42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29936,6 +30062,9 @@
       <c r="HT43" t="n">
         <v>8</v>
       </c>
+      <c r="HU43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30624,6 +30753,9 @@
       <c r="HT44" t="n">
         <v>146</v>
       </c>
+      <c r="HU44" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31312,6 +31444,9 @@
       <c r="HT45" t="n">
         <v>191</v>
       </c>
+      <c r="HU45" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32000,6 +32135,9 @@
       <c r="HT46" t="n">
         <v>243</v>
       </c>
+      <c r="HU46" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32688,6 +32826,9 @@
       <c r="HT47" t="n">
         <v>71.09999999999999</v>
       </c>
+      <c r="HU47" t="n">
+        <v>67.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33376,6 +33517,9 @@
       <c r="HT48" t="n">
         <v>51</v>
       </c>
+      <c r="HU48" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34064,6 +34208,9 @@
       <c r="HT49" t="n">
         <v>13</v>
       </c>
+      <c r="HU49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34752,6 +34899,9 @@
       <c r="HT50" t="n">
         <v>9</v>
       </c>
+      <c r="HU50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35440,6 +35590,9 @@
       <c r="HT51" t="n">
         <v>43</v>
       </c>
+      <c r="HU51" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36128,6 +36281,9 @@
       <c r="HT52" t="n">
         <v>55</v>
       </c>
+      <c r="HU52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36816,6 +36972,9 @@
       <c r="HT53" t="n">
         <v>61</v>
       </c>
+      <c r="HU53" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37504,6 +37663,9 @@
       <c r="HT54" t="n">
         <v>4</v>
       </c>
+      <c r="HU54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38192,6 +38354,9 @@
       <c r="HT55" t="n">
         <v>6</v>
       </c>
+      <c r="HU55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38880,6 +39045,9 @@
       <c r="HT56" t="n">
         <v>54.5</v>
       </c>
+      <c r="HU56" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39568,6 +39736,9 @@
       <c r="HT57" t="n">
         <v>202</v>
       </c>
+      <c r="HU57" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40256,6 +40427,9 @@
       <c r="HT58" t="n">
         <v>130</v>
       </c>
+      <c r="HU58" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40944,6 +41118,9 @@
       <c r="HT59" t="n">
         <v>332</v>
       </c>
+      <c r="HU59" t="n">
+        <v>355</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41632,6 +41809,9 @@
       <c r="HT60" t="n">
         <v>1.55</v>
       </c>
+      <c r="HU60" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42320,6 +42500,9 @@
       <c r="HT61" t="n">
         <v>86</v>
       </c>
+      <c r="HU61" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43008,6 +43191,9 @@
       <c r="HT62" t="n">
         <v>68</v>
       </c>
+      <c r="HU62" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43696,6 +43882,9 @@
       <c r="HT63" t="n">
         <v>45</v>
       </c>
+      <c r="HU63" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44384,6 +44573,9 @@
       <c r="HT64" t="n">
         <v>18</v>
       </c>
+      <c r="HU64" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45072,6 +45264,9 @@
       <c r="HT65" t="n">
         <v>20</v>
       </c>
+      <c r="HU65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45760,6 +45955,9 @@
       <c r="HT66" t="n">
         <v>10</v>
       </c>
+      <c r="HU66" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46448,6 +46646,9 @@
       <c r="HT67" t="n">
         <v>7</v>
       </c>
+      <c r="HU67" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47136,6 +47337,9 @@
       <c r="HT68" t="n">
         <v>11</v>
       </c>
+      <c r="HU68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47824,6 +48028,9 @@
       <c r="HT69" t="n">
         <v>2</v>
       </c>
+      <c r="HU69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48512,6 +48719,9 @@
       <c r="HT70" t="n">
         <v>23</v>
       </c>
+      <c r="HU70" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49200,6 +49410,9 @@
       <c r="HT71" t="n">
         <v>43.5</v>
       </c>
+      <c r="HU71" t="n">
+        <v>53.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49888,6 +50101,9 @@
       <c r="HT72" t="n">
         <v>33.2</v>
       </c>
+      <c r="HU72" t="n">
+        <v>23.67</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50576,6 +50792,9 @@
       <c r="HT73" t="n">
         <v>14.43</v>
       </c>
+      <c r="HU73" t="n">
+        <v>12.68</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51264,6 +51483,9 @@
       <c r="HT74" t="n">
         <v>35</v>
       </c>
+      <c r="HU74" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51952,6 +52174,9 @@
       <c r="HT75" t="n">
         <v>55</v>
       </c>
+      <c r="HU75" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52640,6 +52865,9 @@
       <c r="HT76" t="n">
         <v>34</v>
       </c>
+      <c r="HU76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53328,6 +53556,9 @@
       <c r="HT77" t="n">
         <v>65</v>
       </c>
+      <c r="HU77" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54016,6 +54247,9 @@
       <c r="HT78" t="n">
         <v>2.83</v>
       </c>
+      <c r="HU78" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54704,6 +54938,9 @@
       <c r="HT79" t="n">
         <v>6.5</v>
       </c>
+      <c r="HU79" t="n">
+        <v>3.27</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55392,6 +55629,9 @@
       <c r="HT80" t="n">
         <v>32.3</v>
       </c>
+      <c r="HU80" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56080,6 +56320,9 @@
       <c r="HT81" t="n">
         <v>15.4</v>
       </c>
+      <c r="HU81" t="n">
+        <v>30.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56768,6 +57011,9 @@
       <c r="HT82" t="n">
         <v>186.9</v>
       </c>
+      <c r="HU82" t="n">
+        <v>189.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57456,6 +57702,9 @@
       <c r="HT83" t="n">
         <v>84.40000000000001</v>
       </c>
+      <c r="HU83" t="n">
+        <v>88.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58144,6 +58393,9 @@
       <c r="HT84" t="n">
         <v>25.8</v>
       </c>
+      <c r="HU84" t="n">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58832,6 +59084,9 @@
       <c r="HT85" t="n">
         <v>95.2</v>
       </c>
+      <c r="HU85" t="n">
+        <v>153.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59520,6 +59775,9 @@
       <c r="HT86" t="n">
         <v>8</v>
       </c>
+      <c r="HU86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60208,6 +60466,9 @@
       <c r="HT87" t="n">
         <v>6</v>
       </c>
+      <c r="HU87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60896,6 +61157,9 @@
       <c r="HT88" t="n">
         <v>4</v>
       </c>
+      <c r="HU88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61584,6 +61848,9 @@
       <c r="HT89" t="n">
         <v>5</v>
       </c>
+      <c r="HU89" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62272,6 +62539,9 @@
       <c r="HT90" t="n">
         <v>133</v>
       </c>
+      <c r="HU90" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62960,6 +63230,9 @@
       <c r="HT91" t="n">
         <v>190</v>
       </c>
+      <c r="HU91" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63648,6 +63921,9 @@
       <c r="HT92" t="n">
         <v>233</v>
       </c>
+      <c r="HU92" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64336,6 +64612,9 @@
       <c r="HT93" t="n">
         <v>70.2</v>
       </c>
+      <c r="HU93" t="n">
+        <v>74.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65024,6 +65303,9 @@
       <c r="HT94" t="n">
         <v>55</v>
       </c>
+      <c r="HU94" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65712,6 +65994,9 @@
       <c r="HT95" t="n">
         <v>14</v>
       </c>
+      <c r="HU95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66400,6 +66685,9 @@
       <c r="HT96" t="n">
         <v>15</v>
       </c>
+      <c r="HU96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67088,6 +67376,9 @@
       <c r="HT97" t="n">
         <v>35</v>
       </c>
+      <c r="HU97" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67776,6 +68067,9 @@
       <c r="HT98" t="n">
         <v>34</v>
       </c>
+      <c r="HU98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68464,6 +68758,9 @@
       <c r="HT99" t="n">
         <v>57</v>
       </c>
+      <c r="HU99" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -69152,6 +69449,9 @@
       <c r="HT100" t="n">
         <v>5</v>
       </c>
+      <c r="HU100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69840,6 +70140,9 @@
       <c r="HT101" t="n">
         <v>7</v>
       </c>
+      <c r="HU101" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70528,6 +70831,9 @@
       <c r="HT102" t="n">
         <v>70</v>
       </c>
+      <c r="HU102" t="n">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HU102"/>
+  <dimension ref="A1:HV102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HR87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HU104" activeCellId="0" sqref="HU104"/>
@@ -1140,8 +1140,11 @@
       <c r="HT1" s="2" t="n">
         <v>10536</v>
       </c>
-      <c r="HU1" t="n">
+      <c r="HU1" s="2" t="n">
         <v>10539</v>
+      </c>
+      <c r="HV1" t="n">
+        <v>10548</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1831,8 +1834,11 @@
       <c r="HT2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="HU2" t="n">
+      <c r="HU2" s="2" t="n">
         <v>2021</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>2022</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="1">
@@ -2522,8 +2528,11 @@
       <c r="HT3" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="HU3" t="n">
+      <c r="HU3" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3213,8 +3222,11 @@
       <c r="HT4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="HU4" t="n">
+      <c r="HU4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -3904,8 +3916,11 @@
       <c r="HT5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="HU5" t="n">
+      <c r="HU5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="HV5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -4595,8 +4610,11 @@
       <c r="HT6" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="HU6" t="n">
+      <c r="HU6" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="HV6" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5286,8 +5304,11 @@
       <c r="HT7" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="HU7" t="n">
+      <c r="HU7" s="2" t="n">
         <v>103</v>
+      </c>
+      <c r="HV7" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -5977,8 +5998,11 @@
       <c r="HT8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="HU8" t="n">
+      <c r="HU8" s="2" t="n">
         <v>-35</v>
+      </c>
+      <c r="HV8" t="n">
+        <v>-20</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -6668,7 +6692,10 @@
       <c r="HT9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="HU9" t="n">
+      <c r="HU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7359,8 +7386,11 @@
       <c r="HT10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="HU10" t="n">
+      <c r="HU10" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="HV10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8050,8 +8080,11 @@
       <c r="HT11" s="2" t="n">
         <v>217</v>
       </c>
-      <c r="HU11" t="n">
+      <c r="HU11" s="2" t="n">
         <v>185</v>
+      </c>
+      <c r="HV11" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -8741,8 +8774,11 @@
       <c r="HT12" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="HU12" t="n">
+      <c r="HU12" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="HV12" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -9432,8 +9468,11 @@
       <c r="HT13" s="2" t="n">
         <v>342</v>
       </c>
-      <c r="HU13" t="n">
+      <c r="HU13" s="2" t="n">
         <v>325</v>
+      </c>
+      <c r="HV13" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -10123,8 +10162,11 @@
       <c r="HT14" s="2" t="n">
         <v>1.74</v>
       </c>
-      <c r="HU14" t="n">
+      <c r="HU14" s="2" t="n">
         <v>1.32</v>
+      </c>
+      <c r="HV14" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -10814,8 +10856,11 @@
       <c r="HT15" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="HU15" t="n">
+      <c r="HU15" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="HV15" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -11505,8 +11550,11 @@
       <c r="HT16" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="HU16" t="n">
+      <c r="HU16" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="HV16" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -12196,7 +12244,10 @@
       <c r="HT17" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="HU17" t="n">
+      <c r="HU17" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="HV17" t="n">
         <v>35</v>
       </c>
     </row>
@@ -12887,8 +12938,11 @@
       <c r="HT18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="HU18" t="n">
+      <c r="HU18" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="HV18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -13578,8 +13632,11 @@
       <c r="HT19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="HU19" t="n">
+      <c r="HU19" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="HV19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -14269,8 +14326,11 @@
       <c r="HT20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="HU20" t="n">
+      <c r="HU20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="HV20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -14960,8 +15020,11 @@
       <c r="HT21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="HU21" t="n">
+      <c r="HU21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="HV21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -15651,8 +15714,11 @@
       <c r="HT22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="HU22" t="n">
+      <c r="HU22" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="HV22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -16342,8 +16408,11 @@
       <c r="HT23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="HU23" t="n">
+      <c r="HU23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="HV23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -17033,8 +17102,11 @@
       <c r="HT24" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="HU24" t="n">
+      <c r="HU24" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="HV24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -17724,8 +17796,11 @@
       <c r="HT25" s="2" t="n">
         <v>57.9</v>
       </c>
-      <c r="HU25" t="n">
+      <c r="HU25" s="2" t="n">
         <v>55.6</v>
+      </c>
+      <c r="HV25" t="n">
+        <v>48.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -18415,8 +18490,11 @@
       <c r="HT26" s="2" t="n">
         <v>31.09</v>
       </c>
-      <c r="HU26" t="n">
+      <c r="HU26" s="2" t="n">
         <v>32.5</v>
+      </c>
+      <c r="HV26" t="n">
+        <v>26.46</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -19106,8 +19184,11 @@
       <c r="HT27" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="HU27" t="n">
+      <c r="HU27" s="2" t="n">
         <v>18.06</v>
+      </c>
+      <c r="HV27" t="n">
+        <v>12.74</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -19797,8 +19878,11 @@
       <c r="HT28" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="HU28" t="n">
+      <c r="HU28" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="HV28" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -20488,8 +20572,11 @@
       <c r="HT29" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="HU29" t="n">
+      <c r="HU29" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="HV29" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -21179,8 +21266,11 @@
       <c r="HT30" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="HU30" t="n">
+      <c r="HU30" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="HV30" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -21870,8 +21960,11 @@
       <c r="HT31" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="HU31" t="n">
+      <c r="HU31" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="HV31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -22561,8 +22654,11 @@
       <c r="HT32" s="2" t="n">
         <v>2.42</v>
       </c>
-      <c r="HU32" t="n">
+      <c r="HU32" s="2" t="n">
         <v>2.72</v>
+      </c>
+      <c r="HV32" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -23252,8 +23348,11 @@
       <c r="HT33" s="2" t="n">
         <v>4.18</v>
       </c>
-      <c r="HU33" t="n">
+      <c r="HU33" s="2" t="n">
         <v>4.9</v>
+      </c>
+      <c r="HV33" t="n">
+        <v>3.69</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -23943,8 +24042,11 @@
       <c r="HT34" s="2" t="n">
         <v>39.1</v>
       </c>
-      <c r="HU34" t="n">
+      <c r="HU34" s="2" t="n">
         <v>32.7</v>
+      </c>
+      <c r="HV34" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -24634,8 +24736,11 @@
       <c r="HT35" s="2" t="n">
         <v>23.9</v>
       </c>
-      <c r="HU35" t="n">
+      <c r="HU35" s="2" t="n">
         <v>20.4</v>
+      </c>
+      <c r="HV35" t="n">
+        <v>27.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -25325,8 +25430,11 @@
       <c r="HT36" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="HU36" t="n">
+      <c r="HU36" s="2" t="n">
         <v>188.5</v>
+      </c>
+      <c r="HV36" t="n">
+        <v>189.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -26016,8 +26124,11 @@
       <c r="HT37" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="HU37" t="n">
+      <c r="HU37" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="HV37" t="n">
+        <v>88.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -26707,8 +26818,11 @@
       <c r="HT38" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="HU38" t="n">
+      <c r="HU38" s="2" t="n">
         <v>24.49</v>
+      </c>
+      <c r="HV38" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -27398,8 +27512,11 @@
       <c r="HT39" s="2" t="n">
         <v>101.5</v>
       </c>
-      <c r="HU39" t="n">
+      <c r="HU39" s="2" t="n">
         <v>94.40000000000001</v>
+      </c>
+      <c r="HV39" t="n">
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -28089,7 +28206,10 @@
       <c r="HT40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="HU40" t="n">
+      <c r="HU40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="HV40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -28780,8 +28900,11 @@
       <c r="HT41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="HU41" t="n">
+      <c r="HU41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="HV41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -29471,7 +29594,10 @@
       <c r="HT42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="HU42" t="n">
+      <c r="HU42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -30162,8 +30288,11 @@
       <c r="HT43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="HU43" t="n">
+      <c r="HU43" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="HV43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -30853,8 +30982,11 @@
       <c r="HT44" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="HU44" t="n">
+      <c r="HU44" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="HV44" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -31544,8 +31676,11 @@
       <c r="HT45" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="HU45" t="n">
+      <c r="HU45" s="2" t="n">
         <v>198</v>
+      </c>
+      <c r="HV45" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -32235,8 +32370,11 @@
       <c r="HT46" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="HU46" t="n">
+      <c r="HU46" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="HV46" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -32926,8 +33064,11 @@
       <c r="HT47" s="2" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="HU47" t="n">
+      <c r="HU47" s="2" t="n">
         <v>67.09999999999999</v>
+      </c>
+      <c r="HV47" t="n">
+        <v>71.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -33617,8 +33758,11 @@
       <c r="HT48" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="HU48" t="n">
+      <c r="HU48" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="HV48" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -34308,8 +34452,11 @@
       <c r="HT49" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="HU49" t="n">
+      <c r="HU49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="HV49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -34999,8 +35146,11 @@
       <c r="HT50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="HU50" t="n">
+      <c r="HU50" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="HV50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -35690,8 +35840,11 @@
       <c r="HT51" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="HU51" t="n">
+      <c r="HU51" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="HV51" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -36381,8 +36534,11 @@
       <c r="HT52" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="HU52" t="n">
+      <c r="HU52" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="HV52" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -37072,8 +37228,11 @@
       <c r="HT53" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="HU53" t="n">
+      <c r="HU53" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="HV53" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -37763,8 +37922,11 @@
       <c r="HT54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="HU54" t="n">
+      <c r="HU54" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="HV54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -38454,8 +38616,11 @@
       <c r="HT55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="HU55" t="n">
+      <c r="HU55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="HV55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -39145,8 +39310,11 @@
       <c r="HT56" s="2" t="n">
         <v>54.5</v>
       </c>
-      <c r="HU56" t="n">
+      <c r="HU56" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="HV56" t="n">
+        <v>30.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -39836,8 +40004,11 @@
       <c r="HT57" s="2" t="n">
         <v>202</v>
       </c>
-      <c r="HU57" t="n">
+      <c r="HU57" s="2" t="n">
         <v>223</v>
+      </c>
+      <c r="HV57" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -40527,8 +40698,11 @@
       <c r="HT58" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="HU58" t="n">
+      <c r="HU58" s="2" t="n">
         <v>132</v>
+      </c>
+      <c r="HV58" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -41218,8 +41392,11 @@
       <c r="HT59" s="2" t="n">
         <v>332</v>
       </c>
-      <c r="HU59" t="n">
+      <c r="HU59" s="2" t="n">
         <v>355</v>
+      </c>
+      <c r="HV59" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -41909,8 +42086,11 @@
       <c r="HT60" s="2" t="n">
         <v>1.55</v>
       </c>
-      <c r="HU60" t="n">
+      <c r="HU60" s="2" t="n">
         <v>1.69</v>
+      </c>
+      <c r="HV60" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -42600,8 +42780,11 @@
       <c r="HT61" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="HU61" t="n">
+      <c r="HU61" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="HV61" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -43291,8 +43474,11 @@
       <c r="HT62" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="HU62" t="n">
+      <c r="HU62" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="HV62" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -43982,8 +44168,11 @@
       <c r="HT63" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="HU63" t="n">
+      <c r="HU63" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="HV63" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -44673,8 +44862,11 @@
       <c r="HT64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="HU64" t="n">
+      <c r="HU64" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="HV64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -45364,8 +45556,11 @@
       <c r="HT65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="HU65" t="n">
+      <c r="HU65" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="HV65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -46055,8 +46250,11 @@
       <c r="HT66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="HU66" t="n">
+      <c r="HU66" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="HV66" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -46746,8 +46944,11 @@
       <c r="HT67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="HU67" t="n">
+      <c r="HU67" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="HV67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -47437,8 +47638,11 @@
       <c r="HT68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="HU68" t="n">
+      <c r="HU68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="HV68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -48128,8 +48332,11 @@
       <c r="HT69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="HU69" t="n">
+      <c r="HU69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="HV69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -48819,8 +49026,11 @@
       <c r="HT70" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="HU70" t="n">
+      <c r="HU70" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="HV70" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -49510,8 +49720,11 @@
       <c r="HT71" s="2" t="n">
         <v>43.5</v>
       </c>
-      <c r="HU71" t="n">
+      <c r="HU71" s="2" t="n">
         <v>53.6</v>
+      </c>
+      <c r="HV71" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -50201,8 +50414,11 @@
       <c r="HT72" s="2" t="n">
         <v>33.2</v>
       </c>
-      <c r="HU72" t="n">
+      <c r="HU72" s="2" t="n">
         <v>23.67</v>
+      </c>
+      <c r="HV72" t="n">
+        <v>18.35</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -50892,8 +51108,11 @@
       <c r="HT73" s="2" t="n">
         <v>14.43</v>
       </c>
-      <c r="HU73" t="n">
+      <c r="HU73" s="2" t="n">
         <v>12.68</v>
+      </c>
+      <c r="HV73" t="n">
+        <v>11.56</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -51583,8 +51802,11 @@
       <c r="HT74" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="HU74" t="n">
+      <c r="HU74" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="HV74" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -52274,8 +52496,11 @@
       <c r="HT75" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="HU75" t="n">
+      <c r="HU75" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="HV75" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -52965,8 +53190,11 @@
       <c r="HT76" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="HU76" t="n">
+      <c r="HU76" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="HV76" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -53656,7 +53884,10 @@
       <c r="HT77" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="HU77" t="n">
+      <c r="HU77" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="HV77" t="n">
         <v>49</v>
       </c>
     </row>
@@ -54347,8 +54578,11 @@
       <c r="HT78" s="2" t="n">
         <v>2.83</v>
       </c>
-      <c r="HU78" t="n">
+      <c r="HU78" s="2" t="n">
         <v>1.75</v>
+      </c>
+      <c r="HV78" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -55038,8 +55272,11 @@
       <c r="HT79" s="2" t="n">
         <v>6.5</v>
       </c>
-      <c r="HU79" t="n">
+      <c r="HU79" s="2" t="n">
         <v>3.27</v>
+      </c>
+      <c r="HV79" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -55729,8 +55966,11 @@
       <c r="HT80" s="2" t="n">
         <v>32.3</v>
       </c>
-      <c r="HU80" t="n">
+      <c r="HU80" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="HV80" t="n">
+        <v>46.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -56420,8 +56660,11 @@
       <c r="HT81" s="2" t="n">
         <v>15.4</v>
       </c>
-      <c r="HU81" t="n">
+      <c r="HU81" s="2" t="n">
         <v>30.6</v>
+      </c>
+      <c r="HV81" t="n">
+        <v>34.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -57111,8 +57354,11 @@
       <c r="HT82" s="2" t="n">
         <v>186.9</v>
       </c>
-      <c r="HU82" t="n">
+      <c r="HU82" s="2" t="n">
         <v>189.1</v>
+      </c>
+      <c r="HV82" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -57802,8 +58048,11 @@
       <c r="HT83" s="2" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="HU83" t="n">
+      <c r="HU83" s="2" t="n">
         <v>88.8</v>
+      </c>
+      <c r="HV83" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -58493,8 +58742,11 @@
       <c r="HT84" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="HU84" t="n">
+      <c r="HU84" s="2" t="n">
         <v>27.8</v>
+      </c>
+      <c r="HV84" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -59184,8 +59436,11 @@
       <c r="HT85" s="2" t="n">
         <v>95.2</v>
       </c>
-      <c r="HU85" t="n">
+      <c r="HU85" s="2" t="n">
         <v>153.1</v>
+      </c>
+      <c r="HV85" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -59875,8 +60130,11 @@
       <c r="HT86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="HU86" t="n">
+      <c r="HU86" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="HV86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -60566,8 +60824,11 @@
       <c r="HT87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="HU87" t="n">
+      <c r="HU87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="HV87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -61257,7 +61518,10 @@
       <c r="HT88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="HU88" t="n">
+      <c r="HU88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -61948,8 +62212,11 @@
       <c r="HT89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="HU89" t="n">
+      <c r="HU89" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="HV89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -62639,8 +62906,11 @@
       <c r="HT90" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="HU90" t="n">
+      <c r="HU90" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="HV90" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -63330,8 +63600,11 @@
       <c r="HT91" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="HU91" t="n">
+      <c r="HU91" s="2" t="n">
         <v>221</v>
+      </c>
+      <c r="HV91" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -64021,8 +64294,11 @@
       <c r="HT92" s="2" t="n">
         <v>233</v>
       </c>
-      <c r="HU92" t="n">
+      <c r="HU92" s="2" t="n">
         <v>266</v>
+      </c>
+      <c r="HV92" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -64712,8 +64988,11 @@
       <c r="HT93" s="2" t="n">
         <v>70.2</v>
       </c>
-      <c r="HU93" t="n">
+      <c r="HU93" s="2" t="n">
         <v>74.90000000000001</v>
+      </c>
+      <c r="HV93" t="n">
+        <v>73.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -65403,8 +65682,11 @@
       <c r="HT94" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="HU94" t="n">
+      <c r="HU94" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="HV94" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -66094,8 +66376,11 @@
       <c r="HT95" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="HU95" t="n">
+      <c r="HU95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="HV95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -66785,8 +67070,11 @@
       <c r="HT96" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="HU96" t="n">
+      <c r="HU96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="HV96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -67476,8 +67764,11 @@
       <c r="HT97" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="HU97" t="n">
+      <c r="HU97" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="HV97" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -68167,8 +68458,11 @@
       <c r="HT98" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="HU98" t="n">
+      <c r="HU98" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="HV98" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -68858,8 +69152,11 @@
       <c r="HT99" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="HU99" t="n">
+      <c r="HU99" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="HV99" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -69549,8 +69846,11 @@
       <c r="HT100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="HU100" t="n">
+      <c r="HU100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="HV100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -70240,8 +70540,11 @@
       <c r="HT101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="HU101" t="n">
+      <c r="HU101" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="HV101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -70931,8 +71234,11 @@
       <c r="HT102" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="HU102" t="n">
+      <c r="HU102" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="HV102" t="n">
+        <v>52.9</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HV102"/>
+  <dimension ref="A1:HW102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HR87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HU104" activeCellId="0" sqref="HU104"/>
@@ -1143,8 +1143,11 @@
       <c r="HU1" s="2" t="n">
         <v>10539</v>
       </c>
-      <c r="HV1" t="n">
+      <c r="HV1" s="2" t="n">
         <v>10548</v>
+      </c>
+      <c r="HW1" t="n">
+        <v>10560</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1837,7 +1840,10 @@
       <c r="HU2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="HV2" t="n">
+      <c r="HV2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="HW2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2531,8 +2537,11 @@
       <c r="HU3" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="HV3" t="n">
+      <c r="HV3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3225,8 +3234,11 @@
       <c r="HU4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="HV4" t="n">
+      <c r="HV4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -3919,8 +3931,11 @@
       <c r="HU5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="HV5" t="n">
+      <c r="HV5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -4613,8 +4628,11 @@
       <c r="HU6" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="HV6" t="n">
+      <c r="HV6" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="HW6" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5307,8 +5325,11 @@
       <c r="HU7" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="HV7" t="n">
+      <c r="HV7" s="2" t="n">
         <v>112</v>
+      </c>
+      <c r="HW7" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6001,8 +6022,11 @@
       <c r="HU8" s="2" t="n">
         <v>-35</v>
       </c>
-      <c r="HV8" t="n">
+      <c r="HV8" s="2" t="n">
         <v>-20</v>
+      </c>
+      <c r="HW8" t="n">
+        <v>-36</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -6695,7 +6719,10 @@
       <c r="HU9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="HV9" t="n">
+      <c r="HV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7389,8 +7416,11 @@
       <c r="HU10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="HV10" t="n">
+      <c r="HV10" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="HW10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8083,8 +8113,11 @@
       <c r="HU11" s="2" t="n">
         <v>185</v>
       </c>
-      <c r="HV11" t="n">
+      <c r="HV11" s="2" t="n">
         <v>210</v>
+      </c>
+      <c r="HW11" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -8777,8 +8810,11 @@
       <c r="HU12" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="HV12" t="n">
+      <c r="HV12" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="HW12" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -9471,8 +9507,11 @@
       <c r="HU13" s="2" t="n">
         <v>325</v>
       </c>
-      <c r="HV13" t="n">
+      <c r="HV13" s="2" t="n">
         <v>344</v>
+      </c>
+      <c r="HW13" t="n">
+        <v>404</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -10165,8 +10204,11 @@
       <c r="HU14" s="2" t="n">
         <v>1.32</v>
       </c>
-      <c r="HV14" t="n">
+      <c r="HV14" s="2" t="n">
         <v>1.57</v>
+      </c>
+      <c r="HW14" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -10859,8 +10901,11 @@
       <c r="HU15" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="HV15" t="n">
+      <c r="HV15" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="HW15" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -11553,8 +11598,11 @@
       <c r="HU16" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="HV16" t="n">
+      <c r="HV16" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="HW16" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -12247,8 +12295,11 @@
       <c r="HU17" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="HV17" t="n">
+      <c r="HV17" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="HW17" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -12941,8 +12992,11 @@
       <c r="HU18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="HV18" t="n">
+      <c r="HV18" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="HW18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -13635,8 +13689,11 @@
       <c r="HU19" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="HV19" t="n">
+      <c r="HV19" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="HW19" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -14329,8 +14386,11 @@
       <c r="HU20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="HV20" t="n">
+      <c r="HV20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="HW20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -15023,8 +15083,11 @@
       <c r="HU21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="HV21" t="n">
+      <c r="HV21" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="HW21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -15717,8 +15780,11 @@
       <c r="HU22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="HV22" t="n">
+      <c r="HV22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="HW22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -16411,7 +16477,10 @@
       <c r="HU23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="HV23" t="n">
+      <c r="HV23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -17105,8 +17174,11 @@
       <c r="HU24" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="HV24" t="n">
+      <c r="HV24" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="HW24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -17799,8 +17871,11 @@
       <c r="HU25" s="2" t="n">
         <v>55.6</v>
       </c>
-      <c r="HV25" t="n">
+      <c r="HV25" s="2" t="n">
         <v>48.1</v>
+      </c>
+      <c r="HW25" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -18493,8 +18568,11 @@
       <c r="HU26" s="2" t="n">
         <v>32.5</v>
       </c>
-      <c r="HV26" t="n">
+      <c r="HV26" s="2" t="n">
         <v>26.46</v>
+      </c>
+      <c r="HW26" t="n">
+        <v>40.4</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -19187,8 +19265,11 @@
       <c r="HU27" s="2" t="n">
         <v>18.06</v>
       </c>
-      <c r="HV27" t="n">
+      <c r="HV27" s="2" t="n">
         <v>12.74</v>
+      </c>
+      <c r="HW27" t="n">
+        <v>17.57</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -19881,8 +19962,11 @@
       <c r="HU28" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="HV28" t="n">
+      <c r="HV28" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="HW28" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -20575,8 +20659,11 @@
       <c r="HU29" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="HV29" t="n">
+      <c r="HV29" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="HW29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -21269,8 +21356,11 @@
       <c r="HU30" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="HV30" t="n">
+      <c r="HV30" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="HW30" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -21963,8 +22053,11 @@
       <c r="HU31" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="HV31" t="n">
+      <c r="HV31" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="HW31" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -22657,8 +22750,11 @@
       <c r="HU32" s="2" t="n">
         <v>2.72</v>
       </c>
-      <c r="HV32" t="n">
+      <c r="HV32" s="2" t="n">
         <v>1.78</v>
+      </c>
+      <c r="HW32" t="n">
+        <v>2.39</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -23351,8 +23447,11 @@
       <c r="HU33" s="2" t="n">
         <v>4.9</v>
       </c>
-      <c r="HV33" t="n">
+      <c r="HV33" s="2" t="n">
         <v>3.69</v>
+      </c>
+      <c r="HW33" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -24045,8 +24144,11 @@
       <c r="HU34" s="2" t="n">
         <v>32.7</v>
       </c>
-      <c r="HV34" t="n">
+      <c r="HV34" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="HW34" t="n">
+        <v>36.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -24739,8 +24841,11 @@
       <c r="HU35" s="2" t="n">
         <v>20.4</v>
       </c>
-      <c r="HV35" t="n">
+      <c r="HV35" s="2" t="n">
         <v>27.1</v>
+      </c>
+      <c r="HW35" t="n">
+        <v>18.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -25433,8 +25538,11 @@
       <c r="HU36" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="HV36" t="n">
+      <c r="HV36" s="2" t="n">
         <v>189.6</v>
+      </c>
+      <c r="HW36" t="n">
+        <v>189.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -26127,8 +26235,11 @@
       <c r="HU37" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="HV37" t="n">
+      <c r="HV37" s="2" t="n">
         <v>88.7</v>
+      </c>
+      <c r="HW37" t="n">
+        <v>88.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -26821,8 +26932,11 @@
       <c r="HU38" s="2" t="n">
         <v>24.49</v>
       </c>
-      <c r="HV38" t="n">
+      <c r="HV38" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="HW38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -27515,8 +27629,11 @@
       <c r="HU39" s="2" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="HV39" t="n">
+      <c r="HV39" s="2" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="HW39" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -28209,8 +28326,11 @@
       <c r="HU40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="HV40" t="n">
+      <c r="HV40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="HW40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -28903,8 +29023,11 @@
       <c r="HU41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="HV41" t="n">
+      <c r="HV41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="HW41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -29597,8 +29720,11 @@
       <c r="HU42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="HV42" t="n">
+      <c r="HV42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="HW42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -30291,8 +30417,11 @@
       <c r="HU43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="HV43" t="n">
+      <c r="HV43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="HW43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -30985,8 +31114,11 @@
       <c r="HU44" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="HV44" t="n">
+      <c r="HV44" s="2" t="n">
         <v>143</v>
+      </c>
+      <c r="HW44" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -31679,8 +31811,11 @@
       <c r="HU45" s="2" t="n">
         <v>198</v>
       </c>
-      <c r="HV45" t="n">
+      <c r="HV45" s="2" t="n">
         <v>191</v>
+      </c>
+      <c r="HW45" t="n">
+        <v>287</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -32373,8 +32508,11 @@
       <c r="HU46" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="HV46" t="n">
+      <c r="HV46" s="2" t="n">
         <v>247</v>
+      </c>
+      <c r="HW46" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -33067,8 +33205,11 @@
       <c r="HU47" s="2" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c r="HV47" t="n">
+      <c r="HV47" s="2" t="n">
         <v>71.8</v>
+      </c>
+      <c r="HW47" t="n">
+        <v>79.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -33761,8 +33902,11 @@
       <c r="HU48" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="HV48" t="n">
+      <c r="HV48" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="HW48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -34455,8 +34599,11 @@
       <c r="HU49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="HV49" t="n">
+      <c r="HV49" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="HW49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -35149,8 +35296,11 @@
       <c r="HU50" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="HV50" t="n">
+      <c r="HV50" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="HW50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -35843,8 +35993,11 @@
       <c r="HU51" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="HV51" t="n">
+      <c r="HV51" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="HW51" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -36537,8 +36690,11 @@
       <c r="HU52" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="HV52" t="n">
+      <c r="HV52" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="HW52" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -37231,8 +37387,11 @@
       <c r="HU53" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="HV53" t="n">
+      <c r="HV53" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="HW53" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -37925,8 +38084,11 @@
       <c r="HU54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="HV54" t="n">
+      <c r="HV54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="HW54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -38619,8 +38781,11 @@
       <c r="HU55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="HV55" t="n">
+      <c r="HV55" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="HW55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -39313,8 +39478,11 @@
       <c r="HU56" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="HV56" t="n">
+      <c r="HV56" s="2" t="n">
         <v>30.8</v>
+      </c>
+      <c r="HW56" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -40007,8 +40175,11 @@
       <c r="HU57" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="HV57" t="n">
+      <c r="HV57" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="HW57" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -40701,8 +40872,11 @@
       <c r="HU58" s="2" t="n">
         <v>132</v>
       </c>
-      <c r="HV58" t="n">
+      <c r="HV58" s="2" t="n">
         <v>106</v>
+      </c>
+      <c r="HW58" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -41395,8 +41569,11 @@
       <c r="HU59" s="2" t="n">
         <v>355</v>
       </c>
-      <c r="HV59" t="n">
+      <c r="HV59" s="2" t="n">
         <v>312</v>
+      </c>
+      <c r="HW59" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -42089,8 +42266,11 @@
       <c r="HU60" s="2" t="n">
         <v>1.69</v>
       </c>
-      <c r="HV60" t="n">
+      <c r="HV60" s="2" t="n">
         <v>1.94</v>
+      </c>
+      <c r="HW60" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -42783,8 +42963,11 @@
       <c r="HU61" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="HV61" t="n">
+      <c r="HV61" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="HW61" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -43477,8 +43660,11 @@
       <c r="HU62" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="HV62" t="n">
+      <c r="HV62" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="HW62" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -44171,8 +44357,11 @@
       <c r="HU63" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="HV63" t="n">
+      <c r="HV63" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="HW63" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -44865,8 +45054,11 @@
       <c r="HU64" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="HV64" t="n">
+      <c r="HV64" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="HW64" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -45559,8 +45751,11 @@
       <c r="HU65" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="HV65" t="n">
+      <c r="HV65" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="HW65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -46253,8 +46448,11 @@
       <c r="HU66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="HV66" t="n">
+      <c r="HV66" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="HW66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -46947,7 +47145,10 @@
       <c r="HU67" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="HV67" t="n">
+      <c r="HV67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="HW67" t="n">
         <v>9</v>
       </c>
     </row>
@@ -47641,8 +47842,11 @@
       <c r="HU68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="HV68" t="n">
+      <c r="HV68" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="HW68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -48335,8 +48539,11 @@
       <c r="HU69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="HV69" t="n">
+      <c r="HV69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="HW69" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -49029,8 +49236,11 @@
       <c r="HU70" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="HV70" t="n">
+      <c r="HV70" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="HW70" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -49723,8 +49933,11 @@
       <c r="HU71" s="2" t="n">
         <v>53.6</v>
       </c>
-      <c r="HV71" t="n">
+      <c r="HV71" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="HW71" t="n">
+        <v>55.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -50417,8 +50630,11 @@
       <c r="HU72" s="2" t="n">
         <v>23.67</v>
       </c>
-      <c r="HV72" t="n">
+      <c r="HV72" s="2" t="n">
         <v>18.35</v>
+      </c>
+      <c r="HW72" t="n">
+        <v>21.19</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -51111,8 +51327,11 @@
       <c r="HU73" s="2" t="n">
         <v>12.68</v>
       </c>
-      <c r="HV73" t="n">
+      <c r="HV73" s="2" t="n">
         <v>11.56</v>
+      </c>
+      <c r="HW73" t="n">
+        <v>11.69</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -51805,8 +52024,11 @@
       <c r="HU74" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="HV74" t="n">
+      <c r="HV74" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="HW74" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -52499,8 +52721,11 @@
       <c r="HU75" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="HV75" t="n">
+      <c r="HV75" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="HW75" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -53193,8 +53418,11 @@
       <c r="HU76" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="HV76" t="n">
+      <c r="HV76" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="HW76" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -53887,8 +54115,11 @@
       <c r="HU77" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="HV77" t="n">
+      <c r="HV77" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="HW77" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -54581,8 +54812,11 @@
       <c r="HU78" s="2" t="n">
         <v>1.75</v>
       </c>
-      <c r="HV78" t="n">
+      <c r="HV78" s="2" t="n">
         <v>1.81</v>
+      </c>
+      <c r="HW78" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -55275,8 +55509,11 @@
       <c r="HU79" s="2" t="n">
         <v>3.27</v>
       </c>
-      <c r="HV79" t="n">
+      <c r="HV79" s="2" t="n">
         <v>2.88</v>
+      </c>
+      <c r="HW79" t="n">
+        <v>3.31</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -55969,8 +56206,11 @@
       <c r="HU80" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="HV80" t="n">
+      <c r="HV80" s="2" t="n">
         <v>46.9</v>
+      </c>
+      <c r="HW80" t="n">
+        <v>45.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -56663,8 +56903,11 @@
       <c r="HU81" s="2" t="n">
         <v>30.6</v>
       </c>
-      <c r="HV81" t="n">
+      <c r="HV81" s="2" t="n">
         <v>34.7</v>
+      </c>
+      <c r="HW81" t="n">
+        <v>30.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -57357,8 +57600,11 @@
       <c r="HU82" s="2" t="n">
         <v>189.1</v>
       </c>
-      <c r="HV82" t="n">
+      <c r="HV82" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="HW82" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -58051,8 +58297,11 @@
       <c r="HU83" s="2" t="n">
         <v>88.8</v>
       </c>
-      <c r="HV83" t="n">
+      <c r="HV83" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="HW83" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -58745,8 +58994,11 @@
       <c r="HU84" s="2" t="n">
         <v>27.8</v>
       </c>
-      <c r="HV84" t="n">
+      <c r="HV84" s="2" t="n">
         <v>24.8</v>
+      </c>
+      <c r="HW84" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -59439,8 +59691,11 @@
       <c r="HU85" s="2" t="n">
         <v>153.1</v>
       </c>
-      <c r="HV85" t="n">
+      <c r="HV85" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="HW85" t="n">
+        <v>88.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -60133,7 +60388,10 @@
       <c r="HU86" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="HV86" t="n">
+      <c r="HV86" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="HW86" t="n">
         <v>10</v>
       </c>
     </row>
@@ -60827,7 +61085,10 @@
       <c r="HU87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="HV87" t="n">
+      <c r="HV87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -61521,8 +61782,11 @@
       <c r="HU88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="HV88" t="n">
+      <c r="HV88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="HW88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -62215,8 +62479,11 @@
       <c r="HU89" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="HV89" t="n">
+      <c r="HV89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="HW89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -62909,8 +63176,11 @@
       <c r="HU90" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="HV90" t="n">
+      <c r="HV90" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="HW90" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -63603,8 +63873,11 @@
       <c r="HU91" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="HV91" t="n">
+      <c r="HV91" s="2" t="n">
         <v>167</v>
+      </c>
+      <c r="HW91" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -64297,8 +64570,11 @@
       <c r="HU92" s="2" t="n">
         <v>266</v>
       </c>
-      <c r="HV92" t="n">
+      <c r="HV92" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="HW92" t="n">
+        <v>259</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -64991,8 +65267,11 @@
       <c r="HU93" s="2" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="HV93" t="n">
+      <c r="HV93" s="2" t="n">
         <v>73.7</v>
+      </c>
+      <c r="HW93" t="n">
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -65685,8 +65964,11 @@
       <c r="HU94" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="HV94" t="n">
+      <c r="HV94" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="HW94" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -66379,7 +66661,10 @@
       <c r="HU95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="HV95" t="n">
+      <c r="HV95" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="HW95" t="n">
         <v>11</v>
       </c>
     </row>
@@ -67073,8 +67358,11 @@
       <c r="HU96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="HV96" t="n">
+      <c r="HV96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="HW96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -67767,8 +68055,11 @@
       <c r="HU97" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="HV97" t="n">
+      <c r="HV97" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="HW97" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -68461,8 +68752,11 @@
       <c r="HU98" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="HV98" t="n">
+      <c r="HV98" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="HW98" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -69155,8 +69449,11 @@
       <c r="HU99" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="HV99" t="n">
+      <c r="HV99" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="HW99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -69849,8 +70146,11 @@
       <c r="HU100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="HV100" t="n">
+      <c r="HV100" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="HW100" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -70543,7 +70843,10 @@
       <c r="HU101" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="HV101" t="n">
+      <c r="HV101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="HW101" t="n">
         <v>9</v>
       </c>
     </row>
@@ -71237,8 +71540,11 @@
       <c r="HU102" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="HV102" t="n">
+      <c r="HV102" s="2" t="n">
         <v>52.9</v>
+      </c>
+      <c r="HW102" t="n">
+        <v>56.2</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HW102"/>
+  <dimension ref="A1:HX102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HR87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HU104" activeCellId="0" sqref="HU104"/>
@@ -1146,8 +1146,11 @@
       <c r="HV1" s="2" t="n">
         <v>10548</v>
       </c>
-      <c r="HW1" t="n">
+      <c r="HW1" s="2" t="n">
         <v>10560</v>
+      </c>
+      <c r="HX1" t="n">
+        <v>10565</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1843,7 +1846,10 @@
       <c r="HV2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="HW2" t="n">
+      <c r="HW2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="HX2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2540,8 +2546,11 @@
       <c r="HV3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="HW3" t="n">
+      <c r="HW3" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3237,8 +3246,11 @@
       <c r="HV4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="HW4" t="n">
+      <c r="HW4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -3934,7 +3946,10 @@
       <c r="HV5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="HW5" t="n">
+      <c r="HW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4631,8 +4646,11 @@
       <c r="HV6" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="HW6" t="n">
+      <c r="HW6" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5328,8 +5346,11 @@
       <c r="HV7" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="HW7" t="n">
+      <c r="HW7" s="2" t="n">
         <v>109</v>
+      </c>
+      <c r="HX7" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6025,8 +6046,11 @@
       <c r="HV8" s="2" t="n">
         <v>-20</v>
       </c>
-      <c r="HW8" t="n">
+      <c r="HW8" s="2" t="n">
         <v>-36</v>
+      </c>
+      <c r="HX8" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -6722,8 +6746,11 @@
       <c r="HV9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="HW9" t="n">
+      <c r="HW9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="HX9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -7419,8 +7446,11 @@
       <c r="HV10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="HW10" t="n">
+      <c r="HW10" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="HX10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8116,8 +8146,11 @@
       <c r="HV11" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="HW11" t="n">
+      <c r="HW11" s="2" t="n">
         <v>236</v>
+      </c>
+      <c r="HX11" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -8813,8 +8846,11 @@
       <c r="HV12" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="HW12" t="n">
+      <c r="HW12" s="2" t="n">
         <v>168</v>
+      </c>
+      <c r="HX12" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -9510,8 +9546,11 @@
       <c r="HV13" s="2" t="n">
         <v>344</v>
       </c>
-      <c r="HW13" t="n">
+      <c r="HW13" s="2" t="n">
         <v>404</v>
+      </c>
+      <c r="HX13" t="n">
+        <v>395</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -10207,8 +10246,11 @@
       <c r="HV14" s="2" t="n">
         <v>1.57</v>
       </c>
-      <c r="HW14" t="n">
+      <c r="HW14" s="2" t="n">
         <v>1.4</v>
+      </c>
+      <c r="HX14" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -10904,8 +10946,11 @@
       <c r="HV15" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="HW15" t="n">
+      <c r="HW15" s="2" t="n">
         <v>127</v>
+      </c>
+      <c r="HX15" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -11601,8 +11646,11 @@
       <c r="HV16" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="HW16" t="n">
+      <c r="HW16" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="HX16" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -12298,8 +12346,11 @@
       <c r="HV17" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="HW17" t="n">
+      <c r="HW17" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="HX17" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -12995,8 +13046,11 @@
       <c r="HV18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="HW18" t="n">
+      <c r="HW18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="HX18" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -13692,8 +13746,11 @@
       <c r="HV19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="HW19" t="n">
+      <c r="HW19" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="HX19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -14389,8 +14446,11 @@
       <c r="HV20" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="HW20" t="n">
+      <c r="HW20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="HX20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -15086,8 +15146,11 @@
       <c r="HV21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="HW21" t="n">
+      <c r="HW21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="HX21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -15783,8 +15846,11 @@
       <c r="HV22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="HW22" t="n">
+      <c r="HW22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="HX22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -16480,8 +16546,11 @@
       <c r="HV23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="HW23" t="n">
+      <c r="HW23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="HX23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -17177,7 +17246,10 @@
       <c r="HV24" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="HW24" t="n">
+      <c r="HW24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="HX24" t="n">
         <v>23</v>
       </c>
     </row>
@@ -17874,8 +17946,11 @@
       <c r="HV25" s="2" t="n">
         <v>48.1</v>
       </c>
-      <c r="HW25" t="n">
+      <c r="HW25" s="2" t="n">
         <v>43.5</v>
+      </c>
+      <c r="HX25" t="n">
+        <v>52.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -18571,8 +18646,11 @@
       <c r="HV26" s="2" t="n">
         <v>26.46</v>
       </c>
-      <c r="HW26" t="n">
+      <c r="HW26" s="2" t="n">
         <v>40.4</v>
+      </c>
+      <c r="HX26" t="n">
+        <v>32.92</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -19268,8 +19346,11 @@
       <c r="HV27" s="2" t="n">
         <v>12.74</v>
       </c>
-      <c r="HW27" t="n">
+      <c r="HW27" s="2" t="n">
         <v>17.57</v>
+      </c>
+      <c r="HX27" t="n">
+        <v>17.17</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -19965,8 +20046,11 @@
       <c r="HV28" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="HW28" t="n">
+      <c r="HW28" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="HX28" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -20662,8 +20746,11 @@
       <c r="HV29" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="HW29" t="n">
+      <c r="HW29" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="HX29" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -21359,8 +21446,11 @@
       <c r="HV30" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="HW30" t="n">
+      <c r="HW30" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="HX30" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -22056,7 +22146,10 @@
       <c r="HV31" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="HW31" t="n">
+      <c r="HW31" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="HX31" t="n">
         <v>55</v>
       </c>
     </row>
@@ -22753,7 +22846,10 @@
       <c r="HV32" s="2" t="n">
         <v>1.78</v>
       </c>
-      <c r="HW32" t="n">
+      <c r="HW32" s="2" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="HX32" t="n">
         <v>2.39</v>
       </c>
     </row>
@@ -23450,8 +23546,11 @@
       <c r="HV33" s="2" t="n">
         <v>3.69</v>
       </c>
-      <c r="HW33" t="n">
+      <c r="HW33" s="2" t="n">
         <v>5.5</v>
+      </c>
+      <c r="HX33" t="n">
+        <v>4.58</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -24147,8 +24246,11 @@
       <c r="HV34" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="HW34" t="n">
+      <c r="HW34" s="2" t="n">
         <v>36.4</v>
+      </c>
+      <c r="HX34" t="n">
+        <v>41.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -24844,8 +24946,11 @@
       <c r="HV35" s="2" t="n">
         <v>27.1</v>
       </c>
-      <c r="HW35" t="n">
+      <c r="HW35" s="2" t="n">
         <v>18.2</v>
+      </c>
+      <c r="HX35" t="n">
+        <v>21.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -25541,8 +25646,11 @@
       <c r="HV36" s="2" t="n">
         <v>189.6</v>
       </c>
-      <c r="HW36" t="n">
+      <c r="HW36" s="2" t="n">
         <v>189.2</v>
+      </c>
+      <c r="HX36" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -26238,8 +26346,11 @@
       <c r="HV37" s="2" t="n">
         <v>88.7</v>
       </c>
-      <c r="HW37" t="n">
+      <c r="HW37" s="2" t="n">
         <v>88.2</v>
+      </c>
+      <c r="HX37" t="n">
+        <v>88.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -26935,8 +27046,11 @@
       <c r="HV38" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="HW38" t="n">
+      <c r="HW38" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="HX38" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -27632,8 +27746,11 @@
       <c r="HV39" s="2" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="HW39" t="n">
+      <c r="HW39" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="HX39" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -28329,7 +28446,10 @@
       <c r="HV40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="HW40" t="n">
+      <c r="HW40" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="HX40" t="n">
         <v>10</v>
       </c>
     </row>
@@ -29026,7 +29146,10 @@
       <c r="HV41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="HW41" t="n">
+      <c r="HW41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -29723,8 +29846,11 @@
       <c r="HV42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="HW42" t="n">
+      <c r="HW42" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="HX42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -30420,8 +30546,11 @@
       <c r="HV43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="HW43" t="n">
+      <c r="HW43" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="HX43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -31117,8 +31246,11 @@
       <c r="HV44" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="HW44" t="n">
+      <c r="HW44" s="2" t="n">
         <v>115</v>
+      </c>
+      <c r="HX44" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -31814,8 +31946,11 @@
       <c r="HV45" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="HW45" t="n">
+      <c r="HW45" s="2" t="n">
         <v>287</v>
+      </c>
+      <c r="HX45" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -32511,8 +32646,11 @@
       <c r="HV46" s="2" t="n">
         <v>247</v>
       </c>
-      <c r="HW46" t="n">
+      <c r="HW46" s="2" t="n">
         <v>320</v>
+      </c>
+      <c r="HX46" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -33208,8 +33346,11 @@
       <c r="HV47" s="2" t="n">
         <v>71.8</v>
       </c>
-      <c r="HW47" t="n">
+      <c r="HW47" s="2" t="n">
         <v>79.2</v>
+      </c>
+      <c r="HX47" t="n">
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -33905,8 +34046,11 @@
       <c r="HV48" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="HW48" t="n">
+      <c r="HW48" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="HX48" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -34602,8 +34746,11 @@
       <c r="HV49" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="HW49" t="n">
+      <c r="HW49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="HX49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -35299,7 +35446,10 @@
       <c r="HV50" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="HW50" t="n">
+      <c r="HW50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="HX50" t="n">
         <v>12</v>
       </c>
     </row>
@@ -35996,8 +36146,11 @@
       <c r="HV51" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="HW51" t="n">
+      <c r="HW51" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="HX51" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -36693,8 +36846,11 @@
       <c r="HV52" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="HW52" t="n">
+      <c r="HW52" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="HX52" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -37390,8 +37546,11 @@
       <c r="HV53" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="HW53" t="n">
+      <c r="HW53" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="HX53" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -38087,8 +38246,11 @@
       <c r="HV54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="HW54" t="n">
+      <c r="HW54" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="HX54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -38784,8 +38946,11 @@
       <c r="HV55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="HW55" t="n">
+      <c r="HW55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="HX55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -39481,8 +39646,11 @@
       <c r="HV56" s="2" t="n">
         <v>30.8</v>
       </c>
-      <c r="HW56" t="n">
+      <c r="HW56" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="HX56" t="n">
+        <v>83.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -40178,8 +40346,11 @@
       <c r="HV57" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="HW57" t="n">
+      <c r="HW57" s="2" t="n">
         <v>208</v>
+      </c>
+      <c r="HX57" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -40875,8 +41046,11 @@
       <c r="HV58" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="HW58" t="n">
+      <c r="HW58" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="HX58" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -41572,8 +41746,11 @@
       <c r="HV59" s="2" t="n">
         <v>312</v>
       </c>
-      <c r="HW59" t="n">
+      <c r="HW59" s="2" t="n">
         <v>339</v>
+      </c>
+      <c r="HX59" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -42269,8 +42446,11 @@
       <c r="HV60" s="2" t="n">
         <v>1.94</v>
       </c>
-      <c r="HW60" t="n">
+      <c r="HW60" s="2" t="n">
         <v>1.59</v>
+      </c>
+      <c r="HX60" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -42966,8 +43146,11 @@
       <c r="HV61" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="HW61" t="n">
+      <c r="HW61" s="2" t="n">
         <v>91</v>
+      </c>
+      <c r="HX61" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -43663,8 +43846,11 @@
       <c r="HV62" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="HW62" t="n">
+      <c r="HW62" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="HX62" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -44360,8 +44546,11 @@
       <c r="HV63" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="HW63" t="n">
+      <c r="HW63" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="HX63" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -45057,8 +45246,11 @@
       <c r="HV64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="HW64" t="n">
+      <c r="HW64" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="HX64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -45754,8 +45946,11 @@
       <c r="HV65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="HW65" t="n">
+      <c r="HW65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="HX65" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -46451,8 +46646,11 @@
       <c r="HV66" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="HW66" t="n">
+      <c r="HW66" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="HX66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -47148,8 +47346,11 @@
       <c r="HV67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="HW67" t="n">
+      <c r="HW67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="HX67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -47845,8 +48046,11 @@
       <c r="HV68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="HW68" t="n">
+      <c r="HW68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="HX68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -48542,8 +48746,11 @@
       <c r="HV69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="HW69" t="n">
+      <c r="HW69" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="HX69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -49239,8 +49446,11 @@
       <c r="HV70" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="HW70" t="n">
+      <c r="HW70" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="HX70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -49936,8 +50146,11 @@
       <c r="HV71" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="HW71" t="n">
+      <c r="HW71" s="2" t="n">
         <v>55.2</v>
+      </c>
+      <c r="HX71" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -50633,8 +50846,11 @@
       <c r="HV72" s="2" t="n">
         <v>18.35</v>
       </c>
-      <c r="HW72" t="n">
+      <c r="HW72" s="2" t="n">
         <v>21.19</v>
+      </c>
+      <c r="HX72" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -51330,8 +51546,11 @@
       <c r="HV73" s="2" t="n">
         <v>11.56</v>
       </c>
-      <c r="HW73" t="n">
+      <c r="HW73" s="2" t="n">
         <v>11.69</v>
+      </c>
+      <c r="HX73" t="n">
+        <v>17.65</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -52027,8 +52246,11 @@
       <c r="HV74" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="HW74" t="n">
+      <c r="HW74" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="HX74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -52724,8 +52946,11 @@
       <c r="HV75" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="HW75" t="n">
+      <c r="HW75" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="HX75" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -53421,8 +53646,11 @@
       <c r="HV76" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="HW76" t="n">
+      <c r="HW76" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="HX76" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -54118,8 +54346,11 @@
       <c r="HV77" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="HW77" t="n">
+      <c r="HW77" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="HX77" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -54815,8 +55046,11 @@
       <c r="HV78" s="2" t="n">
         <v>1.81</v>
       </c>
-      <c r="HW78" t="n">
+      <c r="HW78" s="2" t="n">
         <v>1.83</v>
+      </c>
+      <c r="HX78" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -55512,8 +55746,11 @@
       <c r="HV79" s="2" t="n">
         <v>2.88</v>
       </c>
-      <c r="HW79" t="n">
+      <c r="HW79" s="2" t="n">
         <v>3.31</v>
+      </c>
+      <c r="HX79" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -56209,8 +56446,11 @@
       <c r="HV80" s="2" t="n">
         <v>46.9</v>
       </c>
-      <c r="HW80" t="n">
+      <c r="HW80" s="2" t="n">
         <v>45.3</v>
+      </c>
+      <c r="HX80" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -56906,8 +57146,11 @@
       <c r="HV81" s="2" t="n">
         <v>34.7</v>
       </c>
-      <c r="HW81" t="n">
+      <c r="HW81" s="2" t="n">
         <v>30.2</v>
+      </c>
+      <c r="HX81" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -57603,8 +57846,11 @@
       <c r="HV82" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="HW82" t="n">
+      <c r="HW82" s="2" t="n">
         <v>187.4</v>
+      </c>
+      <c r="HX82" t="n">
+        <v>189.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -58300,8 +58546,11 @@
       <c r="HV83" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="HW83" t="n">
+      <c r="HW83" s="2" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="HX83" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -58997,8 +59246,11 @@
       <c r="HV84" s="2" t="n">
         <v>24.8</v>
       </c>
-      <c r="HW84" t="n">
+      <c r="HW84" s="2" t="n">
         <v>25.91</v>
+      </c>
+      <c r="HX84" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -59694,8 +59946,11 @@
       <c r="HV85" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="HW85" t="n">
+      <c r="HW85" s="2" t="n">
         <v>88.3</v>
+      </c>
+      <c r="HX85" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -60391,8 +60646,11 @@
       <c r="HV86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="HW86" t="n">
+      <c r="HW86" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="HX86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -61088,8 +61346,11 @@
       <c r="HV87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="HW87" t="n">
+      <c r="HW87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="HX87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -61785,7 +62046,10 @@
       <c r="HV88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="HW88" t="n">
+      <c r="HW88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -62482,7 +62746,10 @@
       <c r="HV89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="HW89" t="n">
+      <c r="HW89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX89" t="n">
         <v>4</v>
       </c>
     </row>
@@ -63179,8 +63446,11 @@
       <c r="HV90" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="HW90" t="n">
+      <c r="HW90" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="HX90" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -63876,8 +64146,11 @@
       <c r="HV91" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="HW91" t="n">
+      <c r="HW91" s="2" t="n">
         <v>203</v>
+      </c>
+      <c r="HX91" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -64573,8 +64846,11 @@
       <c r="HV92" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="HW92" t="n">
+      <c r="HW92" s="2" t="n">
         <v>259</v>
+      </c>
+      <c r="HX92" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -65270,8 +65546,11 @@
       <c r="HV93" s="2" t="n">
         <v>73.7</v>
       </c>
-      <c r="HW93" t="n">
+      <c r="HW93" s="2" t="n">
         <v>76.40000000000001</v>
+      </c>
+      <c r="HX93" t="n">
+        <v>69.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -65967,8 +66246,11 @@
       <c r="HV94" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="HW94" t="n">
+      <c r="HW94" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="HX94" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -66664,8 +66946,11 @@
       <c r="HV95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="HW95" t="n">
+      <c r="HW95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="HX95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -67361,8 +67646,11 @@
       <c r="HV96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="HW96" t="n">
+      <c r="HW96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="HX96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -68058,8 +68346,11 @@
       <c r="HV97" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="HW97" t="n">
+      <c r="HW97" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="HX97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -68755,8 +69046,11 @@
       <c r="HV98" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="HW98" t="n">
+      <c r="HW98" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="HX98" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -69452,7 +69746,10 @@
       <c r="HV99" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="HW99" t="n">
+      <c r="HW99" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="HX99" t="n">
         <v>51</v>
       </c>
     </row>
@@ -70149,8 +70446,11 @@
       <c r="HV100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="HW100" t="n">
+      <c r="HW100" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="HX100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -70846,8 +71146,11 @@
       <c r="HV101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="HW101" t="n">
+      <c r="HW101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="HX101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -71543,8 +71846,11 @@
       <c r="HV102" s="2" t="n">
         <v>52.9</v>
       </c>
-      <c r="HW102" t="n">
+      <c r="HW102" s="2" t="n">
         <v>56.2</v>
+      </c>
+      <c r="HX102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HX102"/>
+  <dimension ref="A1:HY102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HR87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HU104" activeCellId="0" sqref="HU104"/>
@@ -1149,8 +1149,11 @@
       <c r="HW1" s="2" t="n">
         <v>10560</v>
       </c>
-      <c r="HX1" t="n">
+      <c r="HX1" s="2" t="n">
         <v>10565</v>
+      </c>
+      <c r="HY1" t="n">
+        <v>10576</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1849,7 +1852,10 @@
       <c r="HW2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="HX2" t="n">
+      <c r="HX2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="HY2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2549,8 +2555,11 @@
       <c r="HW3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="HX3" t="n">
+      <c r="HX3" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3249,8 +3258,11 @@
       <c r="HW4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="HX4" t="n">
+      <c r="HX4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -3949,7 +3961,10 @@
       <c r="HW5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="HX5" t="n">
+      <c r="HX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4649,8 +4664,11 @@
       <c r="HW6" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="HX6" t="n">
+      <c r="HX6" s="2" t="n">
         <v>83</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5349,8 +5367,11 @@
       <c r="HW7" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="HX7" t="n">
+      <c r="HX7" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="HY7" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6049,8 +6070,11 @@
       <c r="HW8" s="2" t="n">
         <v>-36</v>
       </c>
-      <c r="HX8" t="n">
+      <c r="HX8" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="HY8" t="n">
+        <v>-34</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -6749,8 +6773,11 @@
       <c r="HW9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="HX9" t="n">
+      <c r="HX9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="HY9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -7449,8 +7476,11 @@
       <c r="HW10" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="HX10" t="n">
+      <c r="HX10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="HY10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8149,8 +8179,11 @@
       <c r="HW11" s="2" t="n">
         <v>236</v>
       </c>
-      <c r="HX11" t="n">
+      <c r="HX11" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="HY11" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -8849,8 +8882,11 @@
       <c r="HW12" s="2" t="n">
         <v>168</v>
       </c>
-      <c r="HX12" t="n">
+      <c r="HX12" s="2" t="n">
         <v>173</v>
+      </c>
+      <c r="HY12" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -9549,8 +9585,11 @@
       <c r="HW13" s="2" t="n">
         <v>404</v>
       </c>
-      <c r="HX13" t="n">
+      <c r="HX13" s="2" t="n">
         <v>395</v>
+      </c>
+      <c r="HY13" t="n">
+        <v>324</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -10249,8 +10288,11 @@
       <c r="HW14" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="HX14" t="n">
+      <c r="HX14" s="2" t="n">
         <v>1.28</v>
+      </c>
+      <c r="HY14" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -10949,8 +10991,11 @@
       <c r="HW15" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="HX15" t="n">
+      <c r="HX15" s="2" t="n">
         <v>91</v>
+      </c>
+      <c r="HY15" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -11649,8 +11694,11 @@
       <c r="HW16" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="HX16" t="n">
+      <c r="HX16" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="HY16" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -12349,8 +12397,11 @@
       <c r="HW17" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="HX17" t="n">
+      <c r="HX17" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="HY17" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -13049,8 +13100,11 @@
       <c r="HW18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="HX18" t="n">
+      <c r="HX18" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="HY18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -13749,8 +13803,11 @@
       <c r="HW19" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="HX19" t="n">
+      <c r="HX19" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="HY19" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -14449,8 +14506,11 @@
       <c r="HW20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="HX20" t="n">
+      <c r="HX20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="HY20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -15149,8 +15209,11 @@
       <c r="HW21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="HX21" t="n">
+      <c r="HX21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="HY21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -15849,8 +15912,11 @@
       <c r="HW22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="HX22" t="n">
+      <c r="HX22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="HY22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -16549,7 +16615,10 @@
       <c r="HW23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="HX23" t="n">
+      <c r="HX23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17249,8 +17318,11 @@
       <c r="HW24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="HX24" t="n">
+      <c r="HX24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="HY24" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -17949,8 +18021,11 @@
       <c r="HW25" s="2" t="n">
         <v>43.5</v>
       </c>
-      <c r="HX25" t="n">
+      <c r="HX25" s="2" t="n">
         <v>52.2</v>
+      </c>
+      <c r="HY25" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -18649,8 +18724,11 @@
       <c r="HW26" s="2" t="n">
         <v>40.4</v>
       </c>
-      <c r="HX26" t="n">
+      <c r="HX26" s="2" t="n">
         <v>32.92</v>
+      </c>
+      <c r="HY26" t="n">
+        <v>40.5</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -19349,8 +19427,11 @@
       <c r="HW27" s="2" t="n">
         <v>17.57</v>
       </c>
-      <c r="HX27" t="n">
+      <c r="HX27" s="2" t="n">
         <v>17.17</v>
+      </c>
+      <c r="HY27" t="n">
+        <v>23.14</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -20049,8 +20130,11 @@
       <c r="HW28" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="HX28" t="n">
+      <c r="HX28" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="HY28" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -20749,8 +20833,11 @@
       <c r="HW29" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="HX29" t="n">
+      <c r="HX29" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="HY29" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -21449,8 +21536,11 @@
       <c r="HW30" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="HX30" t="n">
+      <c r="HX30" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="HY30" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -22149,8 +22239,11 @@
       <c r="HW31" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="HX31" t="n">
+      <c r="HX31" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="HY31" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -22849,8 +22942,11 @@
       <c r="HW32" s="2" t="n">
         <v>2.39</v>
       </c>
-      <c r="HX32" t="n">
+      <c r="HX32" s="2" t="n">
         <v>2.39</v>
+      </c>
+      <c r="HY32" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -23549,8 +23645,11 @@
       <c r="HW33" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="HX33" t="n">
+      <c r="HX33" s="2" t="n">
         <v>4.58</v>
+      </c>
+      <c r="HY33" t="n">
+        <v>5.62</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -24249,8 +24348,11 @@
       <c r="HW34" s="2" t="n">
         <v>36.4</v>
       </c>
-      <c r="HX34" t="n">
+      <c r="HX34" s="2" t="n">
         <v>41.8</v>
+      </c>
+      <c r="HY34" t="n">
+        <v>31.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -24949,8 +25051,11 @@
       <c r="HW35" s="2" t="n">
         <v>18.2</v>
       </c>
-      <c r="HX35" t="n">
+      <c r="HX35" s="2" t="n">
         <v>21.8</v>
+      </c>
+      <c r="HY35" t="n">
+        <v>17.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -25649,8 +25754,11 @@
       <c r="HW36" s="2" t="n">
         <v>189.2</v>
       </c>
-      <c r="HX36" t="n">
+      <c r="HX36" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="HY36" t="n">
+        <v>189.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -26349,8 +26457,11 @@
       <c r="HW37" s="2" t="n">
         <v>88.2</v>
       </c>
-      <c r="HX37" t="n">
+      <c r="HX37" s="2" t="n">
         <v>88.09999999999999</v>
+      </c>
+      <c r="HY37" t="n">
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -27049,8 +27160,11 @@
       <c r="HW38" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="HX38" t="n">
+      <c r="HX38" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="HY38" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -27749,8 +27863,11 @@
       <c r="HW39" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="HX39" t="n">
+      <c r="HX39" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="HY39" t="n">
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -28449,8 +28566,11 @@
       <c r="HW40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="HX40" t="n">
+      <c r="HX40" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="HY40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -29149,7 +29269,10 @@
       <c r="HW41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="HX41" t="n">
+      <c r="HX41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -29849,8 +29972,11 @@
       <c r="HW42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="HX42" t="n">
+      <c r="HX42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="HY42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -30549,8 +30675,11 @@
       <c r="HW43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="HX43" t="n">
+      <c r="HX43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="HY43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -31249,8 +31378,11 @@
       <c r="HW44" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="HX44" t="n">
+      <c r="HX44" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="HY44" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -31949,8 +32081,11 @@
       <c r="HW45" s="2" t="n">
         <v>287</v>
       </c>
-      <c r="HX45" t="n">
+      <c r="HX45" s="2" t="n">
         <v>241</v>
+      </c>
+      <c r="HY45" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -32649,8 +32784,11 @@
       <c r="HW46" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="HX46" t="n">
+      <c r="HX46" s="2" t="n">
         <v>300</v>
+      </c>
+      <c r="HY46" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -33349,8 +33487,11 @@
       <c r="HW47" s="2" t="n">
         <v>79.2</v>
       </c>
-      <c r="HX47" t="n">
+      <c r="HX47" s="2" t="n">
         <v>75.90000000000001</v>
+      </c>
+      <c r="HY47" t="n">
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -34049,8 +34190,11 @@
       <c r="HW48" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="HX48" t="n">
+      <c r="HX48" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="HY48" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -34749,8 +34893,11 @@
       <c r="HW49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="HX49" t="n">
+      <c r="HX49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="HY49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -35449,8 +35596,11 @@
       <c r="HW50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="HX50" t="n">
+      <c r="HX50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="HY50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -36149,8 +36299,11 @@
       <c r="HW51" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="HX51" t="n">
+      <c r="HX51" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="HY51" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -36849,8 +37002,11 @@
       <c r="HW52" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="HX52" t="n">
+      <c r="HX52" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="HY52" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -37549,8 +37705,11 @@
       <c r="HW53" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="HX53" t="n">
+      <c r="HX53" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="HY53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -38249,8 +38408,11 @@
       <c r="HW54" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="HX54" t="n">
+      <c r="HX54" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="HY54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -38949,8 +39111,11 @@
       <c r="HW55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="HX55" t="n">
+      <c r="HX55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="HY55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -39649,8 +39814,11 @@
       <c r="HW56" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="HX56" t="n">
+      <c r="HX56" s="2" t="n">
         <v>83.3</v>
+      </c>
+      <c r="HY56" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -40349,8 +40517,11 @@
       <c r="HW57" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="HX57" t="n">
+      <c r="HX57" s="2" t="n">
         <v>185</v>
+      </c>
+      <c r="HY57" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -41049,8 +41220,11 @@
       <c r="HW58" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="HX58" t="n">
+      <c r="HX58" s="2" t="n">
         <v>115</v>
+      </c>
+      <c r="HY58" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -41749,8 +41923,11 @@
       <c r="HW59" s="2" t="n">
         <v>339</v>
       </c>
-      <c r="HX59" t="n">
+      <c r="HX59" s="2" t="n">
         <v>300</v>
+      </c>
+      <c r="HY59" t="n">
+        <v>386</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -42449,8 +42626,11 @@
       <c r="HW60" s="2" t="n">
         <v>1.59</v>
       </c>
-      <c r="HX60" t="n">
+      <c r="HX60" s="2" t="n">
         <v>1.61</v>
+      </c>
+      <c r="HY60" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -43149,8 +43329,11 @@
       <c r="HW61" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="HX61" t="n">
+      <c r="HX61" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="HY61" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -43849,8 +44032,11 @@
       <c r="HW62" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="HX62" t="n">
+      <c r="HX62" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="HY62" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -44549,8 +44735,11 @@
       <c r="HW63" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="HX63" t="n">
+      <c r="HX63" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="HY63" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -45249,8 +45438,11 @@
       <c r="HW64" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="HX64" t="n">
+      <c r="HX64" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="HY64" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -45949,8 +46141,11 @@
       <c r="HW65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="HX65" t="n">
+      <c r="HX65" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="HY65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -46649,8 +46844,11 @@
       <c r="HW66" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="HX66" t="n">
+      <c r="HX66" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="HY66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -47349,8 +47547,11 @@
       <c r="HW67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="HX67" t="n">
+      <c r="HX67" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="HY67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -48049,8 +48250,11 @@
       <c r="HW68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="HX68" t="n">
+      <c r="HX68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="HY68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -48749,8 +48953,11 @@
       <c r="HW69" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="HX69" t="n">
+      <c r="HX69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="HY69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -49449,8 +49656,11 @@
       <c r="HW70" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="HX70" t="n">
+      <c r="HX70" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="HY70" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -50149,8 +50359,11 @@
       <c r="HW71" s="2" t="n">
         <v>55.2</v>
       </c>
-      <c r="HX71" t="n">
+      <c r="HX71" s="2" t="n">
         <v>47.1</v>
+      </c>
+      <c r="HY71" t="n">
+        <v>56.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -50849,8 +51062,11 @@
       <c r="HW72" s="2" t="n">
         <v>21.19</v>
       </c>
-      <c r="HX72" t="n">
+      <c r="HX72" s="2" t="n">
         <v>37.5</v>
+      </c>
+      <c r="HY72" t="n">
+        <v>29.69</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -51549,8 +51765,11 @@
       <c r="HW73" s="2" t="n">
         <v>11.69</v>
       </c>
-      <c r="HX73" t="n">
+      <c r="HX73" s="2" t="n">
         <v>17.65</v>
+      </c>
+      <c r="HY73" t="n">
+        <v>16.78</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -52249,8 +52468,11 @@
       <c r="HW74" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="HX74" t="n">
+      <c r="HX74" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="HY74" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -52949,8 +53171,11 @@
       <c r="HW75" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="HX75" t="n">
+      <c r="HX75" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="HY75" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -53649,8 +53874,11 @@
       <c r="HW76" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="HX76" t="n">
+      <c r="HX76" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="HY76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -54349,8 +54577,11 @@
       <c r="HW77" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="HX77" t="n">
+      <c r="HX77" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="HY77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -55049,8 +55280,11 @@
       <c r="HW78" s="2" t="n">
         <v>1.83</v>
       </c>
-      <c r="HX78" t="n">
+      <c r="HX78" s="2" t="n">
         <v>2.94</v>
+      </c>
+      <c r="HY78" t="n">
+        <v>2.22</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -55749,8 +55983,11 @@
       <c r="HW79" s="2" t="n">
         <v>3.31</v>
       </c>
-      <c r="HX79" t="n">
+      <c r="HX79" s="2" t="n">
         <v>6.25</v>
+      </c>
+      <c r="HY79" t="n">
+        <v>3.92</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -56449,8 +56686,11 @@
       <c r="HW80" s="2" t="n">
         <v>45.3</v>
       </c>
-      <c r="HX80" t="n">
+      <c r="HX80" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="HY80" t="n">
+        <v>43.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -57149,8 +57389,11 @@
       <c r="HW81" s="2" t="n">
         <v>30.2</v>
       </c>
-      <c r="HX81" t="n">
+      <c r="HX81" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="HY81" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -57849,8 +58092,11 @@
       <c r="HW82" s="2" t="n">
         <v>187.4</v>
       </c>
-      <c r="HX82" t="n">
+      <c r="HX82" s="2" t="n">
         <v>189.2</v>
+      </c>
+      <c r="HY82" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -58549,8 +58795,11 @@
       <c r="HW83" s="2" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="HX83" t="n">
+      <c r="HX83" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="HY83" t="n">
+        <v>86.8</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -59249,8 +59498,11 @@
       <c r="HW84" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="HX84" t="n">
+      <c r="HX84" s="2" t="n">
         <v>25.24</v>
+      </c>
+      <c r="HY84" t="n">
+        <v>24.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -59949,8 +60201,11 @@
       <c r="HW85" s="2" t="n">
         <v>88.3</v>
       </c>
-      <c r="HX85" t="n">
+      <c r="HX85" s="2" t="n">
         <v>87.40000000000001</v>
+      </c>
+      <c r="HY85" t="n">
+        <v>76.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -60649,8 +60904,11 @@
       <c r="HW86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="HX86" t="n">
+      <c r="HX86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="HY86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -61349,8 +61607,11 @@
       <c r="HW87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="HX87" t="n">
+      <c r="HX87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="HY87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -62049,7 +62310,10 @@
       <c r="HW88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="HX88" t="n">
+      <c r="HX88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -62749,8 +63013,11 @@
       <c r="HW89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="HX89" t="n">
+      <c r="HX89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="HY89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -63449,8 +63716,11 @@
       <c r="HW90" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="HX90" t="n">
+      <c r="HX90" s="2" t="n">
         <v>121</v>
+      </c>
+      <c r="HY90" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -64149,8 +64419,11 @@
       <c r="HW91" s="2" t="n">
         <v>203</v>
       </c>
-      <c r="HX91" t="n">
+      <c r="HX91" s="2" t="n">
         <v>175</v>
+      </c>
+      <c r="HY91" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -64849,8 +65122,11 @@
       <c r="HW92" s="2" t="n">
         <v>259</v>
       </c>
-      <c r="HX92" t="n">
+      <c r="HX92" s="2" t="n">
         <v>208</v>
+      </c>
+      <c r="HY92" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -65549,8 +65825,11 @@
       <c r="HW93" s="2" t="n">
         <v>76.40000000000001</v>
       </c>
-      <c r="HX93" t="n">
+      <c r="HX93" s="2" t="n">
         <v>69.3</v>
+      </c>
+      <c r="HY93" t="n">
+        <v>70.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -66249,8 +66528,11 @@
       <c r="HW94" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="HX94" t="n">
+      <c r="HX94" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="HY94" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -66949,7 +67231,10 @@
       <c r="HW95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="HX95" t="n">
+      <c r="HX95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="HY95" t="n">
         <v>8</v>
       </c>
     </row>
@@ -67649,8 +67934,11 @@
       <c r="HW96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="HX96" t="n">
+      <c r="HX96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="HY96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -68349,8 +68637,11 @@
       <c r="HW97" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="HX97" t="n">
+      <c r="HX97" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="HY97" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -69049,8 +69340,11 @@
       <c r="HW98" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="HX98" t="n">
+      <c r="HX98" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="HY98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -69749,8 +70043,11 @@
       <c r="HW99" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="HX99" t="n">
+      <c r="HX99" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="HY99" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -70449,8 +70746,11 @@
       <c r="HW100" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="HX100" t="n">
+      <c r="HX100" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="HY100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -71149,8 +71449,11 @@
       <c r="HW101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="HX101" t="n">
+      <c r="HX101" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="HY101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -71849,8 +72152,11 @@
       <c r="HW102" s="2" t="n">
         <v>56.2</v>
       </c>
-      <c r="HX102" t="n">
+      <c r="HX102" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="HY102" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HY102"/>
+  <dimension ref="A1:HZ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HR87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HU104" activeCellId="0" sqref="HU104"/>
@@ -1152,8 +1152,11 @@
       <c r="HX1" s="2" t="n">
         <v>10565</v>
       </c>
-      <c r="HY1" t="n">
+      <c r="HY1" s="2" t="n">
         <v>10576</v>
+      </c>
+      <c r="HZ1" t="n">
+        <v>10585</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1855,7 +1858,10 @@
       <c r="HX2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="HY2" t="n">
+      <c r="HY2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="HZ2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2558,8 +2564,11 @@
       <c r="HX3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="HY3" t="n">
+      <c r="HY3" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3261,7 +3270,10 @@
       <c r="HX4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="HY4" t="n">
+      <c r="HY4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,7 +3976,10 @@
       <c r="HX5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="HY5" t="n">
+      <c r="HY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4667,8 +4682,11 @@
       <c r="HX6" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="HY6" t="n">
+      <c r="HY6" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="HZ6" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5370,8 +5388,11 @@
       <c r="HX7" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="HY7" t="n">
+      <c r="HY7" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="HZ7" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6073,8 +6094,11 @@
       <c r="HX8" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="HY8" t="n">
+      <c r="HY8" s="2" t="n">
         <v>-34</v>
+      </c>
+      <c r="HZ8" t="n">
+        <v>-67</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -6776,7 +6800,10 @@
       <c r="HX9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="HY9" t="n">
+      <c r="HY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7479,8 +7506,11 @@
       <c r="HX10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="HY10" t="n">
+      <c r="HY10" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="HZ10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8182,8 +8212,11 @@
       <c r="HX11" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="HY11" t="n">
+      <c r="HY11" s="2" t="n">
         <v>193</v>
+      </c>
+      <c r="HZ11" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -8885,8 +8918,11 @@
       <c r="HX12" s="2" t="n">
         <v>173</v>
       </c>
-      <c r="HY12" t="n">
+      <c r="HY12" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="HZ12" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -9588,8 +9624,11 @@
       <c r="HX13" s="2" t="n">
         <v>395</v>
       </c>
-      <c r="HY13" t="n">
+      <c r="HY13" s="2" t="n">
         <v>324</v>
+      </c>
+      <c r="HZ13" t="n">
+        <v>388</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -10291,8 +10330,11 @@
       <c r="HX14" s="2" t="n">
         <v>1.28</v>
       </c>
-      <c r="HY14" t="n">
+      <c r="HY14" s="2" t="n">
         <v>1.47</v>
+      </c>
+      <c r="HZ14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -10994,8 +11036,11 @@
       <c r="HX15" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="HY15" t="n">
+      <c r="HY15" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="HZ15" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -11697,8 +11742,11 @@
       <c r="HX16" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="HY16" t="n">
+      <c r="HY16" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="HZ16" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -12400,8 +12448,11 @@
       <c r="HX17" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="HY17" t="n">
+      <c r="HY17" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="HZ17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -13103,8 +13154,11 @@
       <c r="HX18" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="HY18" t="n">
+      <c r="HY18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="HZ18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -13806,8 +13860,11 @@
       <c r="HX19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="HY19" t="n">
+      <c r="HY19" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="HZ19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -14509,8 +14566,11 @@
       <c r="HX20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="HY20" t="n">
+      <c r="HY20" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="HZ20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -15212,8 +15272,11 @@
       <c r="HX21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="HY21" t="n">
+      <c r="HY21" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="HZ21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -15915,8 +15978,11 @@
       <c r="HX22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="HY22" t="n">
+      <c r="HY22" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="HZ22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -16618,8 +16684,11 @@
       <c r="HX23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="HY23" t="n">
+      <c r="HY23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="HZ23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -17321,8 +17390,11 @@
       <c r="HX24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="HY24" t="n">
+      <c r="HY24" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="HZ24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -18024,8 +18096,11 @@
       <c r="HX25" s="2" t="n">
         <v>52.2</v>
       </c>
-      <c r="HY25" t="n">
+      <c r="HY25" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="HZ25" t="n">
+        <v>38.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -18727,8 +18802,11 @@
       <c r="HX26" s="2" t="n">
         <v>32.92</v>
       </c>
-      <c r="HY26" t="n">
+      <c r="HY26" s="2" t="n">
         <v>40.5</v>
+      </c>
+      <c r="HZ26" t="n">
+        <v>55.43</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -19430,8 +19508,11 @@
       <c r="HX27" s="2" t="n">
         <v>17.17</v>
       </c>
-      <c r="HY27" t="n">
+      <c r="HY27" s="2" t="n">
         <v>23.14</v>
+      </c>
+      <c r="HZ27" t="n">
+        <v>21.56</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -20133,8 +20214,11 @@
       <c r="HX28" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="HY28" t="n">
+      <c r="HY28" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="HZ28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -20836,8 +20920,11 @@
       <c r="HX29" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="HY29" t="n">
+      <c r="HY29" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="HZ29" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -21539,8 +21626,11 @@
       <c r="HX30" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="HY30" t="n">
+      <c r="HY30" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="HZ30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -22242,8 +22332,11 @@
       <c r="HX31" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="HY31" t="n">
+      <c r="HY31" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="HZ31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -22945,8 +23038,11 @@
       <c r="HX32" s="2" t="n">
         <v>2.39</v>
       </c>
-      <c r="HY32" t="n">
+      <c r="HY32" s="2" t="n">
         <v>3.21</v>
+      </c>
+      <c r="HZ32" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -23648,8 +23744,11 @@
       <c r="HX33" s="2" t="n">
         <v>4.58</v>
       </c>
-      <c r="HY33" t="n">
+      <c r="HY33" s="2" t="n">
         <v>5.62</v>
+      </c>
+      <c r="HZ33" t="n">
+        <v>7.57</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -24351,8 +24450,11 @@
       <c r="HX34" s="2" t="n">
         <v>41.8</v>
       </c>
-      <c r="HY34" t="n">
+      <c r="HY34" s="2" t="n">
         <v>31.1</v>
+      </c>
+      <c r="HZ34" t="n">
+        <v>26.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -25054,8 +25156,11 @@
       <c r="HX35" s="2" t="n">
         <v>21.8</v>
       </c>
-      <c r="HY35" t="n">
+      <c r="HY35" s="2" t="n">
         <v>17.8</v>
+      </c>
+      <c r="HZ35" t="n">
+        <v>13.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -25757,8 +25862,11 @@
       <c r="HX36" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="HY36" t="n">
+      <c r="HY36" s="2" t="n">
         <v>189.4</v>
+      </c>
+      <c r="HZ36" t="n">
+        <v>189.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -26460,8 +26568,11 @@
       <c r="HX37" s="2" t="n">
         <v>88.09999999999999</v>
       </c>
-      <c r="HY37" t="n">
+      <c r="HY37" s="2" t="n">
         <v>88.59999999999999</v>
+      </c>
+      <c r="HZ37" t="n">
+        <v>88.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -27163,8 +27274,11 @@
       <c r="HX38" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="HY38" t="n">
+      <c r="HY38" s="2" t="n">
         <v>25.16</v>
+      </c>
+      <c r="HZ38" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -27866,8 +27980,11 @@
       <c r="HX39" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="HY39" t="n">
+      <c r="HY39" s="2" t="n">
         <v>79.09999999999999</v>
+      </c>
+      <c r="HZ39" t="n">
+        <v>90.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -28569,8 +28686,11 @@
       <c r="HX40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="HY40" t="n">
+      <c r="HY40" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="HZ40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -29272,7 +29392,10 @@
       <c r="HX41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="HY41" t="n">
+      <c r="HY41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -29975,8 +30098,11 @@
       <c r="HX42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="HY42" t="n">
+      <c r="HY42" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="HZ42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -30678,8 +30804,11 @@
       <c r="HX43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="HY43" t="n">
+      <c r="HY43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="HZ43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -31381,8 +31510,11 @@
       <c r="HX44" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="HY44" t="n">
+      <c r="HY44" s="2" t="n">
         <v>129</v>
+      </c>
+      <c r="HZ44" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -32084,8 +32216,11 @@
       <c r="HX45" s="2" t="n">
         <v>241</v>
       </c>
-      <c r="HY45" t="n">
+      <c r="HY45" s="2" t="n">
         <v>196</v>
+      </c>
+      <c r="HZ45" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -32787,8 +32922,11 @@
       <c r="HX46" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="HY46" t="n">
+      <c r="HY46" s="2" t="n">
         <v>240</v>
+      </c>
+      <c r="HZ46" t="n">
+        <v>290</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -33490,8 +33628,11 @@
       <c r="HX47" s="2" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="HY47" t="n">
+      <c r="HY47" s="2" t="n">
         <v>74.09999999999999</v>
+      </c>
+      <c r="HZ47" t="n">
+        <v>74.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -34193,8 +34334,11 @@
       <c r="HX48" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="HY48" t="n">
+      <c r="HY48" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="HZ48" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -34896,7 +35040,10 @@
       <c r="HX49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="HY49" t="n">
+      <c r="HY49" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="HZ49" t="n">
         <v>5</v>
       </c>
     </row>
@@ -35599,8 +35746,11 @@
       <c r="HX50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="HY50" t="n">
+      <c r="HY50" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="HZ50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -36302,8 +36452,11 @@
       <c r="HX51" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="HY51" t="n">
+      <c r="HY51" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="HZ51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -37005,8 +37158,11 @@
       <c r="HX52" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="HY52" t="n">
+      <c r="HY52" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="HZ52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -37708,8 +37864,11 @@
       <c r="HX53" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="HY53" t="n">
+      <c r="HY53" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="HZ53" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -38411,8 +38570,11 @@
       <c r="HX54" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="HY54" t="n">
+      <c r="HY54" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="HZ54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -39114,8 +39276,11 @@
       <c r="HX55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="HY55" t="n">
+      <c r="HY55" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="HZ55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -39817,8 +39982,11 @@
       <c r="HX56" s="2" t="n">
         <v>83.3</v>
       </c>
-      <c r="HY56" t="n">
+      <c r="HY56" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="HZ56" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -40520,8 +40688,11 @@
       <c r="HX57" s="2" t="n">
         <v>185</v>
       </c>
-      <c r="HY57" t="n">
+      <c r="HY57" s="2" t="n">
         <v>223</v>
+      </c>
+      <c r="HZ57" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -41223,8 +41394,11 @@
       <c r="HX58" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="HY58" t="n">
+      <c r="HY58" s="2" t="n">
         <v>163</v>
+      </c>
+      <c r="HZ58" t="n">
+        <v>174</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -41926,8 +42100,11 @@
       <c r="HX59" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="HY59" t="n">
+      <c r="HY59" s="2" t="n">
         <v>386</v>
+      </c>
+      <c r="HZ59" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -42629,8 +42806,11 @@
       <c r="HX60" s="2" t="n">
         <v>1.61</v>
       </c>
-      <c r="HY60" t="n">
+      <c r="HY60" s="2" t="n">
         <v>1.37</v>
+      </c>
+      <c r="HZ60" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -43332,8 +43512,11 @@
       <c r="HX61" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="HY61" t="n">
+      <c r="HY61" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="HZ61" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -44035,8 +44218,11 @@
       <c r="HX62" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="HY62" t="n">
+      <c r="HY62" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="HZ62" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -44738,8 +44924,11 @@
       <c r="HX63" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="HY63" t="n">
+      <c r="HY63" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="HZ63" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -45441,8 +45630,11 @@
       <c r="HX64" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="HY64" t="n">
+      <c r="HY64" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="HZ64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -46144,8 +46336,11 @@
       <c r="HX65" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="HY65" t="n">
+      <c r="HY65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="HZ65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -46847,8 +47042,11 @@
       <c r="HX66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="HY66" t="n">
+      <c r="HY66" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="HZ66" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -47550,8 +47748,11 @@
       <c r="HX67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="HY67" t="n">
+      <c r="HY67" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="HZ67" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -48253,8 +48454,11 @@
       <c r="HX68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="HY68" t="n">
+      <c r="HY68" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="HZ68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -48956,7 +49160,10 @@
       <c r="HX69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="HY69" t="n">
+      <c r="HY69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -49659,8 +49866,11 @@
       <c r="HX70" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="HY70" t="n">
+      <c r="HY70" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="HZ70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -50362,8 +50572,11 @@
       <c r="HX71" s="2" t="n">
         <v>47.1</v>
       </c>
-      <c r="HY71" t="n">
+      <c r="HY71" s="2" t="n">
         <v>56.5</v>
+      </c>
+      <c r="HZ71" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -51065,8 +51278,11 @@
       <c r="HX72" s="2" t="n">
         <v>37.5</v>
       </c>
-      <c r="HY72" t="n">
+      <c r="HY72" s="2" t="n">
         <v>29.69</v>
+      </c>
+      <c r="HZ72" t="n">
+        <v>21.05</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -51768,8 +51984,11 @@
       <c r="HX73" s="2" t="n">
         <v>17.65</v>
       </c>
-      <c r="HY73" t="n">
+      <c r="HY73" s="2" t="n">
         <v>16.78</v>
+      </c>
+      <c r="HZ73" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -52471,8 +52690,11 @@
       <c r="HX74" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="HY74" t="n">
+      <c r="HY74" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="HZ74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -53174,8 +53396,11 @@
       <c r="HX75" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="HY75" t="n">
+      <c r="HY75" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="HZ75" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -53877,8 +54102,11 @@
       <c r="HX76" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="HY76" t="n">
+      <c r="HY76" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="HZ76" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -54580,8 +54808,11 @@
       <c r="HX77" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="HY77" t="n">
+      <c r="HY77" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="HZ77" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -55283,8 +55514,11 @@
       <c r="HX78" s="2" t="n">
         <v>2.94</v>
       </c>
-      <c r="HY78" t="n">
+      <c r="HY78" s="2" t="n">
         <v>2.22</v>
+      </c>
+      <c r="HZ78" t="n">
+        <v>2.28</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -55986,8 +56220,11 @@
       <c r="HX79" s="2" t="n">
         <v>6.25</v>
       </c>
-      <c r="HY79" t="n">
+      <c r="HY79" s="2" t="n">
         <v>3.92</v>
+      </c>
+      <c r="HZ79" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -56689,8 +56926,11 @@
       <c r="HX80" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="HY80" t="n">
+      <c r="HY80" s="2" t="n">
         <v>43.1</v>
+      </c>
+      <c r="HZ80" t="n">
+        <v>42.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -57392,8 +57632,11 @@
       <c r="HX81" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="HY81" t="n">
+      <c r="HY81" s="2" t="n">
         <v>25.5</v>
+      </c>
+      <c r="HZ81" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -58095,8 +58338,11 @@
       <c r="HX82" s="2" t="n">
         <v>189.2</v>
       </c>
-      <c r="HY82" t="n">
+      <c r="HY82" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="HZ82" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -58798,8 +59044,11 @@
       <c r="HX83" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="HY83" t="n">
+      <c r="HY83" s="2" t="n">
         <v>86.8</v>
+      </c>
+      <c r="HZ83" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -59501,8 +59750,11 @@
       <c r="HX84" s="2" t="n">
         <v>25.24</v>
       </c>
-      <c r="HY84" t="n">
+      <c r="HY84" s="2" t="n">
         <v>24.74</v>
+      </c>
+      <c r="HZ84" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -60204,8 +60456,11 @@
       <c r="HX85" s="2" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="HY85" t="n">
+      <c r="HY85" s="2" t="n">
         <v>76.3</v>
+      </c>
+      <c r="HZ85" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -60907,8 +61162,11 @@
       <c r="HX86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="HY86" t="n">
+      <c r="HY86" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="HZ86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -61610,7 +61868,10 @@
       <c r="HX87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="HY87" t="n">
+      <c r="HY87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="HZ87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -62313,8 +62574,11 @@
       <c r="HX88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="HY88" t="n">
+      <c r="HY88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="HZ88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -63016,8 +63280,11 @@
       <c r="HX89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="HY89" t="n">
+      <c r="HY89" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="HZ89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -63719,8 +63986,11 @@
       <c r="HX90" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="HY90" t="n">
+      <c r="HY90" s="2" t="n">
         <v>153</v>
+      </c>
+      <c r="HZ90" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -64422,8 +64692,11 @@
       <c r="HX91" s="2" t="n">
         <v>175</v>
       </c>
-      <c r="HY91" t="n">
+      <c r="HY91" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="HZ91" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -65125,8 +65398,11 @@
       <c r="HX92" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="HY92" t="n">
+      <c r="HY92" s="2" t="n">
         <v>273</v>
+      </c>
+      <c r="HZ92" t="n">
+        <v>313</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -65828,8 +66104,11 @@
       <c r="HX93" s="2" t="n">
         <v>69.3</v>
       </c>
-      <c r="HY93" t="n">
+      <c r="HY93" s="2" t="n">
         <v>70.7</v>
+      </c>
+      <c r="HZ93" t="n">
+        <v>78.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -66531,8 +66810,11 @@
       <c r="HX94" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="HY94" t="n">
+      <c r="HY94" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="HZ94" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -67234,8 +67516,11 @@
       <c r="HX95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="HY95" t="n">
+      <c r="HY95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="HZ95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -67937,8 +68222,11 @@
       <c r="HX96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="HY96" t="n">
+      <c r="HY96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="HZ96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -68640,8 +68928,11 @@
       <c r="HX97" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="HY97" t="n">
+      <c r="HY97" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="HZ97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -69343,8 +69634,11 @@
       <c r="HX98" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="HY98" t="n">
+      <c r="HY98" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="HZ98" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -70046,8 +70340,11 @@
       <c r="HX99" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="HY99" t="n">
+      <c r="HY99" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="HZ99" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -70749,8 +71046,11 @@
       <c r="HX100" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="HY100" t="n">
+      <c r="HY100" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="HZ100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -71452,8 +71752,11 @@
       <c r="HX101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="HY101" t="n">
+      <c r="HY101" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="HZ101" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -72155,8 +72458,11 @@
       <c r="HX102" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="HY102" t="n">
+      <c r="HY102" s="2" t="n">
         <v>84.59999999999999</v>
+      </c>
+      <c r="HZ102" t="n">
+        <v>73.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HZ102"/>
+  <dimension ref="A1:IA102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HR87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HU104" activeCellId="0" sqref="HU104"/>
@@ -1155,8 +1155,11 @@
       <c r="HY1" s="2" t="n">
         <v>10576</v>
       </c>
-      <c r="HZ1" t="n">
+      <c r="HZ1" s="2" t="n">
         <v>10585</v>
+      </c>
+      <c r="IA1" t="n">
+        <v>10589</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1861,7 +1864,10 @@
       <c r="HY2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="HZ2" t="n">
+      <c r="HZ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IA2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2567,8 +2573,11 @@
       <c r="HY3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="HZ3" t="n">
+      <c r="HZ3" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3273,8 +3282,11 @@
       <c r="HY4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="HZ4" t="n">
+      <c r="HZ4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -3979,8 +3991,11 @@
       <c r="HY5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="HZ5" t="n">
+      <c r="HZ5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IA5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -4685,8 +4700,11 @@
       <c r="HY6" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="HZ6" t="n">
+      <c r="HZ6" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IA6" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5391,8 +5409,11 @@
       <c r="HY7" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="HZ7" t="n">
+      <c r="HZ7" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="IA7" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6097,8 +6118,11 @@
       <c r="HY8" s="2" t="n">
         <v>-34</v>
       </c>
-      <c r="HZ8" t="n">
+      <c r="HZ8" s="2" t="n">
         <v>-67</v>
+      </c>
+      <c r="IA8" t="n">
+        <v>-17</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -6803,7 +6827,10 @@
       <c r="HY9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="HZ9" t="n">
+      <c r="HZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7509,8 +7536,11 @@
       <c r="HY10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="HZ10" t="n">
+      <c r="HZ10" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IA10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8215,8 +8245,11 @@
       <c r="HY11" s="2" t="n">
         <v>193</v>
       </c>
-      <c r="HZ11" t="n">
+      <c r="HZ11" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="IA11" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -8921,8 +8954,11 @@
       <c r="HY12" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="HZ12" t="n">
+      <c r="HZ12" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="IA12" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -9627,8 +9663,11 @@
       <c r="HY13" s="2" t="n">
         <v>324</v>
       </c>
-      <c r="HZ13" t="n">
+      <c r="HZ13" s="2" t="n">
         <v>388</v>
+      </c>
+      <c r="IA13" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -10333,8 +10372,11 @@
       <c r="HY14" s="2" t="n">
         <v>1.47</v>
       </c>
-      <c r="HZ14" t="n">
+      <c r="HZ14" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IA14" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -11039,8 +11081,11 @@
       <c r="HY15" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="HZ15" t="n">
+      <c r="HZ15" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="IA15" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -11745,8 +11790,11 @@
       <c r="HY16" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="HZ16" t="n">
+      <c r="HZ16" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IA16" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -12451,8 +12499,11 @@
       <c r="HY17" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="HZ17" t="n">
+      <c r="HZ17" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IA17" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -13157,8 +13208,11 @@
       <c r="HY18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="HZ18" t="n">
+      <c r="HZ18" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IA18" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -13863,8 +13917,11 @@
       <c r="HY19" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="HZ19" t="n">
+      <c r="HZ19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IA19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -14569,8 +14626,11 @@
       <c r="HY20" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="HZ20" t="n">
+      <c r="HZ20" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IA20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -15275,8 +15335,11 @@
       <c r="HY21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="HZ21" t="n">
+      <c r="HZ21" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IA21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -15981,8 +16044,11 @@
       <c r="HY22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="HZ22" t="n">
+      <c r="HZ22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IA22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -16687,8 +16753,11 @@
       <c r="HY23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="HZ23" t="n">
+      <c r="HZ23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IA23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -17393,8 +17462,11 @@
       <c r="HY24" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="HZ24" t="n">
+      <c r="HZ24" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IA24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -18099,8 +18171,11 @@
       <c r="HY25" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="HZ25" t="n">
+      <c r="HZ25" s="2" t="n">
         <v>38.9</v>
+      </c>
+      <c r="IA25" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -18805,8 +18880,11 @@
       <c r="HY26" s="2" t="n">
         <v>40.5</v>
       </c>
-      <c r="HZ26" t="n">
+      <c r="HZ26" s="2" t="n">
         <v>55.43</v>
+      </c>
+      <c r="IA26" t="n">
+        <v>43.88</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -19511,8 +19589,11 @@
       <c r="HY27" s="2" t="n">
         <v>23.14</v>
       </c>
-      <c r="HZ27" t="n">
+      <c r="HZ27" s="2" t="n">
         <v>21.56</v>
+      </c>
+      <c r="IA27" t="n">
+        <v>17.55</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -20217,8 +20298,11 @@
       <c r="HY28" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="HZ28" t="n">
+      <c r="HZ28" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IA28" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -20923,8 +21007,11 @@
       <c r="HY29" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="HZ29" t="n">
+      <c r="HZ29" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IA29" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -21629,8 +21716,11 @@
       <c r="HY30" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="HZ30" t="n">
+      <c r="HZ30" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IA30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -22335,8 +22425,11 @@
       <c r="HY31" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="HZ31" t="n">
+      <c r="HZ31" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IA31" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -23041,8 +23134,11 @@
       <c r="HY32" s="2" t="n">
         <v>3.21</v>
       </c>
-      <c r="HZ32" t="n">
+      <c r="HZ32" s="2" t="n">
         <v>2.94</v>
+      </c>
+      <c r="IA32" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -23747,8 +23843,11 @@
       <c r="HY33" s="2" t="n">
         <v>5.62</v>
       </c>
-      <c r="HZ33" t="n">
+      <c r="HZ33" s="2" t="n">
         <v>7.57</v>
+      </c>
+      <c r="IA33" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -24453,8 +24552,11 @@
       <c r="HY34" s="2" t="n">
         <v>31.1</v>
       </c>
-      <c r="HZ34" t="n">
+      <c r="HZ34" s="2" t="n">
         <v>26.4</v>
+      </c>
+      <c r="IA34" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -25159,8 +25261,11 @@
       <c r="HY35" s="2" t="n">
         <v>17.8</v>
       </c>
-      <c r="HZ35" t="n">
+      <c r="HZ35" s="2" t="n">
         <v>13.2</v>
+      </c>
+      <c r="IA35" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -25865,8 +25970,11 @@
       <c r="HY36" s="2" t="n">
         <v>189.4</v>
       </c>
-      <c r="HZ36" t="n">
+      <c r="HZ36" s="2" t="n">
         <v>189.3</v>
+      </c>
+      <c r="IA36" t="n">
+        <v>189.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -26571,8 +26679,11 @@
       <c r="HY37" s="2" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="HZ37" t="n">
+      <c r="HZ37" s="2" t="n">
         <v>88.3</v>
+      </c>
+      <c r="IA37" t="n">
+        <v>88.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -27277,8 +27388,11 @@
       <c r="HY38" s="2" t="n">
         <v>25.16</v>
       </c>
-      <c r="HZ38" t="n">
+      <c r="HZ38" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="IA38" t="n">
+        <v>25.49</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -27983,8 +28097,11 @@
       <c r="HY39" s="2" t="n">
         <v>79.09999999999999</v>
       </c>
-      <c r="HZ39" t="n">
+      <c r="HZ39" s="2" t="n">
         <v>90.7</v>
+      </c>
+      <c r="IA39" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -28689,8 +28806,11 @@
       <c r="HY40" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="HZ40" t="n">
+      <c r="HZ40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IA40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -29395,7 +29515,10 @@
       <c r="HY41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="HZ41" t="n">
+      <c r="HZ41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IA41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -30101,8 +30224,11 @@
       <c r="HY42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="HZ42" t="n">
+      <c r="HZ42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IA42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -30807,7 +30933,10 @@
       <c r="HY43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="HZ43" t="n">
+      <c r="HZ43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IA43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -31513,8 +31642,11 @@
       <c r="HY44" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="HZ44" t="n">
+      <c r="HZ44" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="IA44" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -32219,8 +32351,11 @@
       <c r="HY45" s="2" t="n">
         <v>196</v>
       </c>
-      <c r="HZ45" t="n">
+      <c r="HZ45" s="2" t="n">
         <v>242</v>
+      </c>
+      <c r="IA45" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -32925,8 +33060,11 @@
       <c r="HY46" s="2" t="n">
         <v>240</v>
       </c>
-      <c r="HZ46" t="n">
+      <c r="HZ46" s="2" t="n">
         <v>290</v>
+      </c>
+      <c r="IA46" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -33631,8 +33769,11 @@
       <c r="HY47" s="2" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="HZ47" t="n">
+      <c r="HZ47" s="2" t="n">
         <v>74.7</v>
+      </c>
+      <c r="IA47" t="n">
+        <v>67.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -34337,8 +34478,11 @@
       <c r="HY48" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="HZ48" t="n">
+      <c r="HZ48" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IA48" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -35043,8 +35187,11 @@
       <c r="HY49" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="HZ49" t="n">
+      <c r="HZ49" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IA49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -35749,8 +35896,11 @@
       <c r="HY50" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="HZ50" t="n">
+      <c r="HZ50" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IA50" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -36455,8 +36605,11 @@
       <c r="HY51" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="HZ51" t="n">
+      <c r="HZ51" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IA51" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -37161,8 +37314,11 @@
       <c r="HY52" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="HZ52" t="n">
+      <c r="HZ52" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IA52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -37867,8 +38023,11 @@
       <c r="HY53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="HZ53" t="n">
+      <c r="HZ53" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="IA53" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -38573,8 +38732,11 @@
       <c r="HY54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="HZ54" t="n">
+      <c r="HZ54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IA54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -39279,8 +39441,11 @@
       <c r="HY55" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="HZ55" t="n">
+      <c r="HZ55" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IA55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -39985,8 +40150,11 @@
       <c r="HY56" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="HZ56" t="n">
+      <c r="HZ56" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="IA56" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -40691,8 +40859,11 @@
       <c r="HY57" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="HZ57" t="n">
+      <c r="HZ57" s="2" t="n">
         <v>226</v>
+      </c>
+      <c r="IA57" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -41397,8 +41568,11 @@
       <c r="HY58" s="2" t="n">
         <v>163</v>
       </c>
-      <c r="HZ58" t="n">
+      <c r="HZ58" s="2" t="n">
         <v>174</v>
+      </c>
+      <c r="IA58" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -42103,8 +42277,11 @@
       <c r="HY59" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="HZ59" t="n">
+      <c r="HZ59" s="2" t="n">
         <v>400</v>
+      </c>
+      <c r="IA59" t="n">
+        <v>328</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -42809,8 +42986,11 @@
       <c r="HY60" s="2" t="n">
         <v>1.37</v>
       </c>
-      <c r="HZ60" t="n">
+      <c r="HZ60" s="2" t="n">
         <v>1.3</v>
+      </c>
+      <c r="IA60" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -43515,8 +43695,11 @@
       <c r="HY61" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="HZ61" t="n">
+      <c r="HZ61" s="2" t="n">
         <v>101</v>
+      </c>
+      <c r="IA61" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -44221,8 +44404,11 @@
       <c r="HY62" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="HZ62" t="n">
+      <c r="HZ62" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IA62" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -44927,8 +45113,11 @@
       <c r="HY63" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="HZ63" t="n">
+      <c r="HZ63" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IA63" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -45633,8 +45822,11 @@
       <c r="HY64" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="HZ64" t="n">
+      <c r="HZ64" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IA64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -46339,8 +46531,11 @@
       <c r="HY65" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="HZ65" t="n">
+      <c r="HZ65" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IA65" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -47045,8 +47240,11 @@
       <c r="HY66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="HZ66" t="n">
+      <c r="HZ66" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IA66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -47751,8 +47949,11 @@
       <c r="HY67" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="HZ67" t="n">
+      <c r="HZ67" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IA67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -48457,8 +48658,11 @@
       <c r="HY68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="HZ68" t="n">
+      <c r="HZ68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IA68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -49163,8 +49367,11 @@
       <c r="HY69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="HZ69" t="n">
+      <c r="HZ69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IA69" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -49869,8 +50076,11 @@
       <c r="HY70" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="HZ70" t="n">
+      <c r="HZ70" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IA70" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -50575,8 +50785,11 @@
       <c r="HY71" s="2" t="n">
         <v>56.5</v>
       </c>
-      <c r="HZ71" t="n">
+      <c r="HZ71" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="IA71" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -51281,8 +51494,11 @@
       <c r="HY72" s="2" t="n">
         <v>29.69</v>
       </c>
-      <c r="HZ72" t="n">
+      <c r="HZ72" s="2" t="n">
         <v>21.05</v>
+      </c>
+      <c r="IA72" t="n">
+        <v>32.8</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -51987,8 +52203,11 @@
       <c r="HY73" s="2" t="n">
         <v>16.78</v>
       </c>
-      <c r="HZ73" t="n">
+      <c r="HZ73" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IA73" t="n">
+        <v>12.15</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -52693,8 +52912,11 @@
       <c r="HY74" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="HZ74" t="n">
+      <c r="HZ74" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IA74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -53399,8 +53621,11 @@
       <c r="HY75" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="HZ75" t="n">
+      <c r="HZ75" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IA75" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -54105,8 +54330,11 @@
       <c r="HY76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="HZ76" t="n">
+      <c r="HZ76" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IA76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -54811,7 +55039,10 @@
       <c r="HY77" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="HZ77" t="n">
+      <c r="HZ77" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="IA77" t="n">
         <v>57</v>
       </c>
     </row>
@@ -55517,8 +55748,11 @@
       <c r="HY78" s="2" t="n">
         <v>2.22</v>
       </c>
-      <c r="HZ78" t="n">
+      <c r="HZ78" s="2" t="n">
         <v>2.28</v>
+      </c>
+      <c r="IA78" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -56223,8 +56457,11 @@
       <c r="HY79" s="2" t="n">
         <v>3.92</v>
       </c>
-      <c r="HZ79" t="n">
+      <c r="HZ79" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IA79" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -56929,8 +57166,11 @@
       <c r="HY80" s="2" t="n">
         <v>43.1</v>
       </c>
-      <c r="HZ80" t="n">
+      <c r="HZ80" s="2" t="n">
         <v>42.1</v>
+      </c>
+      <c r="IA80" t="n">
+        <v>38.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -57635,8 +57875,11 @@
       <c r="HY81" s="2" t="n">
         <v>25.5</v>
       </c>
-      <c r="HZ81" t="n">
+      <c r="HZ81" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="IA81" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -58341,8 +58584,11 @@
       <c r="HY82" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="HZ82" t="n">
+      <c r="HZ82" s="2" t="n">
         <v>187.4</v>
+      </c>
+      <c r="IA82" t="n">
+        <v>188.1</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -59047,8 +59293,11 @@
       <c r="HY83" s="2" t="n">
         <v>86.8</v>
       </c>
-      <c r="HZ83" t="n">
+      <c r="HZ83" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="IA83" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -59753,8 +60002,11 @@
       <c r="HY84" s="2" t="n">
         <v>24.74</v>
       </c>
-      <c r="HZ84" t="n">
+      <c r="HZ84" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="IA84" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -60459,8 +60711,11 @@
       <c r="HY85" s="2" t="n">
         <v>76.3</v>
       </c>
-      <c r="HZ85" t="n">
+      <c r="HZ85" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="IA85" t="n">
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -61165,8 +61420,11 @@
       <c r="HY86" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="HZ86" t="n">
+      <c r="HZ86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IA86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -61871,8 +62129,11 @@
       <c r="HY87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="HZ87" t="n">
+      <c r="HZ87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IA87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -62577,8 +62838,11 @@
       <c r="HY88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="HZ88" t="n">
+      <c r="HZ88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IA88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -63283,8 +63547,11 @@
       <c r="HY89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="HZ89" t="n">
+      <c r="HZ89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IA89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -63989,8 +64256,11 @@
       <c r="HY90" s="2" t="n">
         <v>153</v>
       </c>
-      <c r="HZ90" t="n">
+      <c r="HZ90" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="IA90" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -64695,8 +64965,11 @@
       <c r="HY91" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="HZ91" t="n">
+      <c r="HZ91" s="2" t="n">
         <v>254</v>
+      </c>
+      <c r="IA91" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -65401,8 +65674,11 @@
       <c r="HY92" s="2" t="n">
         <v>273</v>
       </c>
-      <c r="HZ92" t="n">
+      <c r="HZ92" s="2" t="n">
         <v>313</v>
+      </c>
+      <c r="IA92" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -66107,8 +66383,11 @@
       <c r="HY93" s="2" t="n">
         <v>70.7</v>
       </c>
-      <c r="HZ93" t="n">
+      <c r="HZ93" s="2" t="n">
         <v>78.2</v>
+      </c>
+      <c r="IA93" t="n">
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -66813,8 +67092,11 @@
       <c r="HY94" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="HZ94" t="n">
+      <c r="HZ94" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IA94" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -67519,8 +67801,11 @@
       <c r="HY95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="HZ95" t="n">
+      <c r="HZ95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IA95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -68225,7 +68510,10 @@
       <c r="HY96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="HZ96" t="n">
+      <c r="HZ96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IA96" t="n">
         <v>13</v>
       </c>
     </row>
@@ -68931,8 +69219,11 @@
       <c r="HY97" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="HZ97" t="n">
+      <c r="HZ97" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IA97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -69637,8 +69928,11 @@
       <c r="HY98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="HZ98" t="n">
+      <c r="HZ98" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IA98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -70343,8 +70637,11 @@
       <c r="HY99" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="HZ99" t="n">
+      <c r="HZ99" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IA99" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -71049,8 +71346,11 @@
       <c r="HY100" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="HZ100" t="n">
+      <c r="HZ100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IA100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -71755,8 +72055,11 @@
       <c r="HY101" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="HZ101" t="n">
+      <c r="HZ101" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IA101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -72461,8 +72764,11 @@
       <c r="HY102" s="2" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="HZ102" t="n">
+      <c r="HZ102" s="2" t="n">
         <v>73.7</v>
+      </c>
+      <c r="IA102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IA102"/>
+  <dimension ref="A1:IC102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HR87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HU104" activeCellId="0" sqref="HU104"/>
@@ -1158,8 +1158,14 @@
       <c r="HZ1" s="2" t="n">
         <v>10585</v>
       </c>
-      <c r="IA1" t="n">
+      <c r="IA1" s="2" t="n">
         <v>10589</v>
+      </c>
+      <c r="IB1" s="2" t="n">
+        <v>10600</v>
+      </c>
+      <c r="IC1" t="n">
+        <v>10611</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1867,7 +1873,13 @@
       <c r="HZ2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IA2" t="n">
+      <c r="IA2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IB2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IC2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2576,8 +2588,14 @@
       <c r="HZ3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IA3" t="n">
+      <c r="IA3" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IB3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3285,7 +3303,13 @@
       <c r="HZ4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IA4" t="n">
+      <c r="IA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3994,7 +4018,13 @@
       <c r="HZ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IA5" t="n">
+      <c r="IA5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4703,8 +4733,14 @@
       <c r="HZ6" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IA6" t="n">
+      <c r="IA6" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IB6" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="IC6" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5412,8 +5448,14 @@
       <c r="HZ7" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="IA7" t="n">
+      <c r="IA7" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="IB7" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IC7" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6121,8 +6163,14 @@
       <c r="HZ8" s="2" t="n">
         <v>-67</v>
       </c>
-      <c r="IA8" t="n">
+      <c r="IA8" s="2" t="n">
         <v>-17</v>
+      </c>
+      <c r="IB8" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IC8" t="n">
+        <v>-53</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -6830,7 +6878,13 @@
       <c r="HZ9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IA9" t="n">
+      <c r="IA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7539,8 +7593,14 @@
       <c r="HZ10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IA10" t="n">
+      <c r="IA10" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IB10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8248,8 +8308,14 @@
       <c r="HZ11" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="IA11" t="n">
+      <c r="IA11" s="2" t="n">
         <v>204</v>
+      </c>
+      <c r="IB11" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="IC11" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -8957,8 +9023,14 @@
       <c r="HZ12" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="IA12" t="n">
+      <c r="IA12" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="IB12" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="IC12" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -9666,8 +9738,14 @@
       <c r="HZ13" s="2" t="n">
         <v>388</v>
       </c>
-      <c r="IA13" t="n">
+      <c r="IA13" s="2" t="n">
         <v>351</v>
+      </c>
+      <c r="IB13" s="2" t="n">
+        <v>404</v>
+      </c>
+      <c r="IC13" t="n">
+        <v>357</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -10375,8 +10453,14 @@
       <c r="HZ14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IA14" t="n">
+      <c r="IA14" s="2" t="n">
         <v>1.39</v>
+      </c>
+      <c r="IB14" s="2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="IC14" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -11084,8 +11168,14 @@
       <c r="HZ15" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IA15" t="n">
+      <c r="IA15" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IB15" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="IC15" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -11793,8 +11883,14 @@
       <c r="HZ16" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IA16" t="n">
+      <c r="IA16" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="IB16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="IC16" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -12502,8 +12598,14 @@
       <c r="HZ17" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IA17" t="n">
+      <c r="IA17" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="IB17" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IC17" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -13211,8 +13313,14 @@
       <c r="HZ18" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IA18" t="n">
+      <c r="IA18" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IB18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IC18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -13920,8 +14028,14 @@
       <c r="HZ19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IA19" t="n">
+      <c r="IA19" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IB19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IC19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -14629,8 +14743,14 @@
       <c r="HZ20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IA20" t="n">
+      <c r="IA20" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IB20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IC20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -15338,8 +15458,14 @@
       <c r="HZ21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IA21" t="n">
+      <c r="IA21" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IB21" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IC21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -16047,7 +16173,13 @@
       <c r="HZ22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IA22" t="n">
+      <c r="IA22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IB22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IC22" t="n">
         <v>11</v>
       </c>
     </row>
@@ -16756,8 +16888,14 @@
       <c r="HZ23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IA23" t="n">
+      <c r="IA23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IB23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -17465,8 +17603,14 @@
       <c r="HZ24" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IA24" t="n">
+      <c r="IA24" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IB24" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="IC24" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -18174,8 +18318,14 @@
       <c r="HZ25" s="2" t="n">
         <v>38.9</v>
       </c>
-      <c r="IA25" t="n">
+      <c r="IA25" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IB25" s="2" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="IC25" t="n">
+        <v>26.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -18883,8 +19033,14 @@
       <c r="HZ26" s="2" t="n">
         <v>55.43</v>
       </c>
-      <c r="IA26" t="n">
+      <c r="IA26" s="2" t="n">
         <v>43.88</v>
+      </c>
+      <c r="IB26" s="2" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="IC26" t="n">
+        <v>89.25</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -19592,8 +19748,14 @@
       <c r="HZ27" s="2" t="n">
         <v>21.56</v>
       </c>
-      <c r="IA27" t="n">
+      <c r="IA27" s="2" t="n">
         <v>17.55</v>
+      </c>
+      <c r="IB27" s="2" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="IC27" t="n">
+        <v>23.8</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -20301,8 +20463,14 @@
       <c r="HZ28" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IA28" t="n">
+      <c r="IA28" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IB28" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="IC28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -21010,8 +21178,14 @@
       <c r="HZ29" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IA29" t="n">
+      <c r="IA29" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IB29" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IC29" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -21719,8 +21893,14 @@
       <c r="HZ30" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IA30" t="n">
+      <c r="IA30" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IB30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IC30" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -22428,8 +22608,14 @@
       <c r="HZ31" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IA31" t="n">
+      <c r="IA31" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IB31" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="IC31" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -23137,8 +23323,14 @@
       <c r="HZ32" s="2" t="n">
         <v>2.94</v>
       </c>
-      <c r="IA32" t="n">
+      <c r="IA32" s="2" t="n">
         <v>2.5</v>
+      </c>
+      <c r="IB32" s="2" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="IC32" t="n">
+        <v>2.87</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -23846,8 +24038,14 @@
       <c r="HZ33" s="2" t="n">
         <v>7.57</v>
       </c>
-      <c r="IA33" t="n">
+      <c r="IA33" s="2" t="n">
         <v>6.25</v>
+      </c>
+      <c r="IB33" s="2" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="IC33" t="n">
+        <v>10.75</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -24555,8 +24753,14 @@
       <c r="HZ34" s="2" t="n">
         <v>26.4</v>
       </c>
-      <c r="IA34" t="n">
+      <c r="IA34" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IB34" s="2" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="IC34" t="n">
+        <v>34.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -25264,8 +25468,14 @@
       <c r="HZ35" s="2" t="n">
         <v>13.2</v>
       </c>
-      <c r="IA35" t="n">
+      <c r="IA35" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IB35" s="2" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="IC35" t="n">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -25973,7 +26183,13 @@
       <c r="HZ36" s="2" t="n">
         <v>189.3</v>
       </c>
-      <c r="IA36" t="n">
+      <c r="IA36" s="2" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="IB36" s="2" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="IC36" t="n">
         <v>189.5</v>
       </c>
     </row>
@@ -26682,8 +26898,14 @@
       <c r="HZ37" s="2" t="n">
         <v>88.3</v>
       </c>
-      <c r="IA37" t="n">
+      <c r="IA37" s="2" t="n">
         <v>88.5</v>
+      </c>
+      <c r="IB37" s="2" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="IC37" t="n">
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -27391,8 +27613,14 @@
       <c r="HZ38" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="IA38" t="n">
+      <c r="IA38" s="2" t="n">
         <v>25.49</v>
+      </c>
+      <c r="IB38" s="2" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="IC38" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -28100,8 +28328,14 @@
       <c r="HZ39" s="2" t="n">
         <v>90.7</v>
       </c>
-      <c r="IA39" t="n">
+      <c r="IA39" s="2" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="IB39" s="2" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="IC39" t="n">
+        <v>92.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -28809,8 +29043,14 @@
       <c r="HZ40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IA40" t="n">
+      <c r="IA40" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IB40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IC40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -29518,7 +29758,13 @@
       <c r="HZ41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IA41" t="n">
+      <c r="IA41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IB41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -30227,8 +30473,14 @@
       <c r="HZ42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IA42" t="n">
+      <c r="IA42" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IB42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IC42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -30936,7 +31188,13 @@
       <c r="HZ43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IA43" t="n">
+      <c r="IA43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IB43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IC43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -31645,8 +31903,14 @@
       <c r="HZ44" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="IA44" t="n">
+      <c r="IA44" s="2" t="n">
         <v>157</v>
+      </c>
+      <c r="IB44" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="IC44" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -32354,8 +32618,14 @@
       <c r="HZ45" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="IA45" t="n">
+      <c r="IA45" s="2" t="n">
         <v>185</v>
+      </c>
+      <c r="IB45" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="IC45" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -33063,8 +33333,14 @@
       <c r="HZ46" s="2" t="n">
         <v>290</v>
       </c>
-      <c r="IA46" t="n">
+      <c r="IA46" s="2" t="n">
         <v>238</v>
+      </c>
+      <c r="IB46" s="2" t="n">
+        <v>306</v>
+      </c>
+      <c r="IC46" t="n">
+        <v>267</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -33772,8 +34048,14 @@
       <c r="HZ47" s="2" t="n">
         <v>74.7</v>
       </c>
-      <c r="IA47" t="n">
+      <c r="IA47" s="2" t="n">
         <v>67.8</v>
+      </c>
+      <c r="IB47" s="2" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="IC47" t="n">
+        <v>74.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -34481,8 +34763,14 @@
       <c r="HZ48" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IA48" t="n">
+      <c r="IA48" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IB48" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IC48" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -35190,8 +35478,14 @@
       <c r="HZ49" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IA49" t="n">
+      <c r="IA49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IB49" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IC49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -35899,8 +36193,14 @@
       <c r="HZ50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IA50" t="n">
+      <c r="IA50" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IB50" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IC50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -36608,8 +36908,14 @@
       <c r="HZ51" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IA51" t="n">
+      <c r="IA51" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IB51" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="IC51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -37317,8 +37623,14 @@
       <c r="HZ52" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IA52" t="n">
+      <c r="IA52" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IB52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IC52" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -38026,8 +38338,14 @@
       <c r="HZ53" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="IA53" t="n">
+      <c r="IA53" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IB53" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IC53" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -38735,8 +39053,14 @@
       <c r="HZ54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IA54" t="n">
+      <c r="IA54" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IB54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IC54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -39444,8 +39768,14 @@
       <c r="HZ55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IA55" t="n">
+      <c r="IA55" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IB55" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IC55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -40153,8 +40483,14 @@
       <c r="HZ56" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="IA56" t="n">
+      <c r="IA56" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IB56" s="2" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="IC56" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -40862,8 +41198,14 @@
       <c r="HZ57" s="2" t="n">
         <v>226</v>
       </c>
-      <c r="IA57" t="n">
+      <c r="IA57" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="IB57" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="IC57" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -41571,8 +41913,14 @@
       <c r="HZ58" s="2" t="n">
         <v>174</v>
       </c>
-      <c r="IA58" t="n">
+      <c r="IA58" s="2" t="n">
         <v>113</v>
+      </c>
+      <c r="IB58" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="IC58" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -42280,8 +42628,14 @@
       <c r="HZ59" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="IA59" t="n">
+      <c r="IA59" s="2" t="n">
         <v>328</v>
+      </c>
+      <c r="IB59" s="2" t="n">
+        <v>346</v>
+      </c>
+      <c r="IC59" t="n">
+        <v>435</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -42989,8 +43343,14 @@
       <c r="HZ60" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="IA60" t="n">
+      <c r="IA60" s="2" t="n">
         <v>1.9</v>
+      </c>
+      <c r="IB60" s="2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="IC60" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -43698,8 +44058,14 @@
       <c r="HZ61" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="IA61" t="n">
+      <c r="IA61" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="IB61" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="IC61" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -44407,8 +44773,14 @@
       <c r="HZ62" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IA62" t="n">
+      <c r="IA62" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="IB62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IC62" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -45116,8 +45488,14 @@
       <c r="HZ63" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IA63" t="n">
+      <c r="IA63" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IB63" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IC63" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -45825,8 +46203,14 @@
       <c r="HZ64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IA64" t="n">
+      <c r="IA64" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IB64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IC64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -46534,8 +46918,14 @@
       <c r="HZ65" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IA65" t="n">
+      <c r="IA65" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IB65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IC65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -47243,8 +47633,14 @@
       <c r="HZ66" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IA66" t="n">
+      <c r="IA66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IB66" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IC66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -47952,8 +48348,14 @@
       <c r="HZ67" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IA67" t="n">
+      <c r="IA67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IB67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IC67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -48661,8 +49063,14 @@
       <c r="HZ68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IA68" t="n">
+      <c r="IA68" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IB68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IC68" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -49370,8 +49778,14 @@
       <c r="HZ69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IA69" t="n">
+      <c r="IA69" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IB69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -50079,8 +50493,14 @@
       <c r="HZ70" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IA70" t="n">
+      <c r="IA70" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IB70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IC70" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -50788,8 +51208,14 @@
       <c r="HZ71" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="IA71" t="n">
+      <c r="IA71" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IB71" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="IC71" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -51497,8 +51923,14 @@
       <c r="HZ72" s="2" t="n">
         <v>21.05</v>
       </c>
-      <c r="IA72" t="n">
+      <c r="IA72" s="2" t="n">
         <v>32.8</v>
+      </c>
+      <c r="IB72" s="2" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="IC72" t="n">
+        <v>36.25</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -52206,8 +52638,14 @@
       <c r="HZ73" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IA73" t="n">
+      <c r="IA73" s="2" t="n">
         <v>12.15</v>
+      </c>
+      <c r="IB73" s="2" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="IC73" t="n">
+        <v>15.54</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -52915,8 +53353,14 @@
       <c r="HZ74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IA74" t="n">
+      <c r="IA74" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IB74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IC74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -53624,7 +54068,13 @@
       <c r="HZ75" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IA75" t="n">
+      <c r="IA75" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="IB75" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="IC75" t="n">
         <v>65</v>
       </c>
     </row>
@@ -54333,8 +54783,14 @@
       <c r="HZ76" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IA76" t="n">
+      <c r="IA76" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IB76" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IC76" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -55042,8 +55498,14 @@
       <c r="HZ77" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IA77" t="n">
+      <c r="IA77" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IB77" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="IC77" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -55751,8 +56213,14 @@
       <c r="HZ78" s="2" t="n">
         <v>2.28</v>
       </c>
-      <c r="IA78" t="n">
+      <c r="IA78" s="2" t="n">
         <v>2.11</v>
+      </c>
+      <c r="IB78" s="2" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="IC78" t="n">
+        <v>2.14</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -56460,8 +56928,14 @@
       <c r="HZ79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IA79" t="n">
+      <c r="IA79" s="2" t="n">
         <v>5.7</v>
+      </c>
+      <c r="IB79" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IC79" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -57169,8 +57643,14 @@
       <c r="HZ80" s="2" t="n">
         <v>42.1</v>
       </c>
-      <c r="IA80" t="n">
+      <c r="IA80" s="2" t="n">
         <v>38.6</v>
+      </c>
+      <c r="IB80" s="2" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="IC80" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -57878,8 +58358,14 @@
       <c r="HZ81" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="IA81" t="n">
+      <c r="IA81" s="2" t="n">
         <v>17.5</v>
+      </c>
+      <c r="IB81" s="2" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="IC81" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -58587,8 +59073,14 @@
       <c r="HZ82" s="2" t="n">
         <v>187.4</v>
       </c>
-      <c r="IA82" t="n">
+      <c r="IA82" s="2" t="n">
         <v>188.1</v>
+      </c>
+      <c r="IB82" s="2" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="IC82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -59296,8 +59788,14 @@
       <c r="HZ83" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="IA83" t="n">
+      <c r="IA83" s="2" t="n">
         <v>86.2</v>
+      </c>
+      <c r="IB83" s="2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="IC83" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -60005,8 +60503,14 @@
       <c r="HZ84" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="IA84" t="n">
+      <c r="IA84" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="IB84" s="2" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="IC84" t="n">
+        <v>26.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -60714,8 +61218,14 @@
       <c r="HZ85" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="IA85" t="n">
+      <c r="IA85" s="2" t="n">
         <v>81.40000000000001</v>
+      </c>
+      <c r="IB85" s="2" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="IC85" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -61423,8 +61933,14 @@
       <c r="HZ86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IA86" t="n">
+      <c r="IA86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IB86" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IC86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -62132,8 +62648,14 @@
       <c r="HZ87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IA87" t="n">
+      <c r="IA87" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IB87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IC87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -62841,8 +63363,14 @@
       <c r="HZ88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IA88" t="n">
+      <c r="IA88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IB88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -63550,8 +64078,14 @@
       <c r="HZ89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IA89" t="n">
+      <c r="IA89" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IB89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IC89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -64259,8 +64793,14 @@
       <c r="HZ90" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="IA90" t="n">
+      <c r="IA90" s="2" t="n">
         <v>138</v>
+      </c>
+      <c r="IB90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="IC90" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -64968,8 +65508,14 @@
       <c r="HZ91" s="2" t="n">
         <v>254</v>
       </c>
-      <c r="IA91" t="n">
+      <c r="IA91" s="2" t="n">
         <v>199</v>
+      </c>
+      <c r="IB91" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="IC91" t="n">
+        <v>298</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -65677,8 +66223,14 @@
       <c r="HZ92" s="2" t="n">
         <v>313</v>
       </c>
-      <c r="IA92" t="n">
+      <c r="IA92" s="2" t="n">
         <v>231</v>
+      </c>
+      <c r="IB92" s="2" t="n">
+        <v>263</v>
+      </c>
+      <c r="IC92" t="n">
+        <v>328</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -66386,8 +66938,14 @@
       <c r="HZ93" s="2" t="n">
         <v>78.2</v>
       </c>
-      <c r="IA93" t="n">
+      <c r="IA93" s="2" t="n">
         <v>70.40000000000001</v>
+      </c>
+      <c r="IB93" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="IC93" t="n">
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -67095,7 +67653,13 @@
       <c r="HZ94" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IA94" t="n">
+      <c r="IA94" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="IB94" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="IC94" t="n">
         <v>65</v>
       </c>
     </row>
@@ -67804,7 +68368,13 @@
       <c r="HZ95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IA95" t="n">
+      <c r="IA95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IB95" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IC95" t="n">
         <v>10</v>
       </c>
     </row>
@@ -68513,8 +69083,14 @@
       <c r="HZ96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IA96" t="n">
+      <c r="IA96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IB96" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -69222,8 +69798,14 @@
       <c r="HZ97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IA97" t="n">
+      <c r="IA97" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IB97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IC97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -69931,8 +70513,14 @@
       <c r="HZ98" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IA98" t="n">
+      <c r="IA98" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IB98" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IC98" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -70640,8 +71228,14 @@
       <c r="HZ99" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IA99" t="n">
+      <c r="IA99" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IB99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="IC99" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -71349,7 +71943,13 @@
       <c r="HZ100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IA100" t="n">
+      <c r="IA100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IB100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC100" t="n">
         <v>3</v>
       </c>
     </row>
@@ -72058,8 +72658,14 @@
       <c r="HZ101" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IA101" t="n">
+      <c r="IA101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IB101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IC101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -72767,8 +73373,14 @@
       <c r="HZ102" s="2" t="n">
         <v>73.7</v>
       </c>
-      <c r="IA102" t="n">
+      <c r="IA102" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IB102" s="2" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="IC102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IC102"/>
+  <dimension ref="A1:IE102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HR87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HU104" activeCellId="0" sqref="HU104"/>
@@ -1164,8 +1164,14 @@
       <c r="IB1" s="2" t="n">
         <v>10600</v>
       </c>
-      <c r="IC1" t="n">
+      <c r="IC1" s="2" t="n">
         <v>10611</v>
+      </c>
+      <c r="ID1" s="2" t="n">
+        <v>10623</v>
+      </c>
+      <c r="IE1" t="n">
+        <v>10627</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1879,7 +1885,13 @@
       <c r="IB2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IC2" t="n">
+      <c r="IC2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="ID2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IE2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2594,8 +2606,14 @@
       <c r="IB3" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IC3" t="n">
+      <c r="IC3" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="ID3" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3309,7 +3327,13 @@
       <c r="IB4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IC4" t="n">
+      <c r="IC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4024,8 +4048,14 @@
       <c r="IB5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IC5" t="n">
+      <c r="IC5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="ID5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -4739,8 +4769,14 @@
       <c r="IB6" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="IC6" t="n">
+      <c r="IC6" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="ID6" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="IE6" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5454,8 +5490,14 @@
       <c r="IB7" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IC7" t="n">
+      <c r="IC7" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="ID7" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="IE7" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6169,8 +6211,14 @@
       <c r="IB8" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IC8" t="n">
+      <c r="IC8" s="2" t="n">
         <v>-53</v>
+      </c>
+      <c r="ID8" s="2" t="n">
+        <v>-30</v>
+      </c>
+      <c r="IE8" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -6884,8 +6932,14 @@
       <c r="IB9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IC9" t="n">
+      <c r="IC9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="ID9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -7599,8 +7653,14 @@
       <c r="IB10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IC10" t="n">
+      <c r="IC10" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="ID10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IE10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8314,8 +8374,14 @@
       <c r="IB11" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="IC11" t="n">
+      <c r="IC11" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="ID11" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="IE11" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9029,8 +9095,14 @@
       <c r="IB12" s="2" t="n">
         <v>198</v>
       </c>
-      <c r="IC12" t="n">
+      <c r="IC12" s="2" t="n">
         <v>152</v>
+      </c>
+      <c r="ID12" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="IE12" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -9744,8 +9816,14 @@
       <c r="IB13" s="2" t="n">
         <v>404</v>
       </c>
-      <c r="IC13" t="n">
+      <c r="IC13" s="2" t="n">
         <v>357</v>
+      </c>
+      <c r="ID13" s="2" t="n">
+        <v>354</v>
+      </c>
+      <c r="IE13" t="n">
+        <v>388</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -10459,8 +10537,14 @@
       <c r="IB14" s="2" t="n">
         <v>1.04</v>
       </c>
-      <c r="IC14" t="n">
+      <c r="IC14" s="2" t="n">
         <v>1.35</v>
+      </c>
+      <c r="ID14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="IE14" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -11174,8 +11258,14 @@
       <c r="IB15" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="IC15" t="n">
+      <c r="IC15" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="ID15" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="IE15" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -11889,8 +11979,14 @@
       <c r="IB16" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="IC16" t="n">
+      <c r="IC16" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="ID16" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IE16" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -12604,8 +12700,14 @@
       <c r="IB17" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IC17" t="n">
+      <c r="IC17" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="ID17" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="IE17" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -13319,8 +13421,14 @@
       <c r="IB18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IC18" t="n">
+      <c r="IC18" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="ID18" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IE18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -14034,8 +14142,14 @@
       <c r="IB19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IC19" t="n">
+      <c r="IC19" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="ID19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IE19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -14749,8 +14863,14 @@
       <c r="IB20" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IC20" t="n">
+      <c r="IC20" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="ID20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IE20" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -15464,8 +15584,14 @@
       <c r="IB21" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IC21" t="n">
+      <c r="IC21" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="ID21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IE21" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -16179,8 +16305,14 @@
       <c r="IB22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IC22" t="n">
+      <c r="IC22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="ID22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IE22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -16894,8 +17026,14 @@
       <c r="IB23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IC23" t="n">
+      <c r="IC23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="ID23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IE23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -17609,8 +17747,14 @@
       <c r="IB24" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IC24" t="n">
+      <c r="IC24" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="ID24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IE24" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -18324,8 +18468,14 @@
       <c r="IB25" s="2" t="n">
         <v>60.7</v>
       </c>
-      <c r="IC25" t="n">
+      <c r="IC25" s="2" t="n">
         <v>26.7</v>
+      </c>
+      <c r="ID25" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="IE25" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -19039,8 +19189,14 @@
       <c r="IB26" s="2" t="n">
         <v>23.76</v>
       </c>
-      <c r="IC26" t="n">
+      <c r="IC26" s="2" t="n">
         <v>89.25</v>
+      </c>
+      <c r="ID26" s="2" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="IE26" t="n">
+        <v>18.48</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -19754,8 +19910,14 @@
       <c r="IB27" s="2" t="n">
         <v>14.43</v>
       </c>
-      <c r="IC27" t="n">
+      <c r="IC27" s="2" t="n">
         <v>23.8</v>
+      </c>
+      <c r="ID27" s="2" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="IE27" t="n">
+        <v>11.76</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -20469,8 +20631,14 @@
       <c r="IB28" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IC28" t="n">
+      <c r="IC28" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="ID28" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="IE28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -21184,8 +21352,14 @@
       <c r="IB29" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IC29" t="n">
+      <c r="IC29" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="ID29" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="IE29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -21899,8 +22073,14 @@
       <c r="IB30" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IC30" t="n">
+      <c r="IC30" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="ID30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="IE30" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -22614,8 +22794,14 @@
       <c r="IB31" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IC31" t="n">
+      <c r="IC31" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="ID31" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IE31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -23329,8 +23515,14 @@
       <c r="IB32" s="2" t="n">
         <v>1.96</v>
       </c>
-      <c r="IC32" t="n">
+      <c r="IC32" s="2" t="n">
         <v>2.87</v>
+      </c>
+      <c r="ID32" s="2" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="IE32" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -24044,8 +24236,14 @@
       <c r="IB33" s="2" t="n">
         <v>3.24</v>
       </c>
-      <c r="IC33" t="n">
+      <c r="IC33" s="2" t="n">
         <v>10.75</v>
+      </c>
+      <c r="ID33" s="2" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="IE33" t="n">
+        <v>2.29</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -24759,8 +24957,14 @@
       <c r="IB34" s="2" t="n">
         <v>45.5</v>
       </c>
-      <c r="IC34" t="n">
+      <c r="IC34" s="2" t="n">
         <v>34.9</v>
+      </c>
+      <c r="ID34" s="2" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="IE34" t="n">
+        <v>64.59999999999999</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -25474,8 +25678,14 @@
       <c r="IB35" s="2" t="n">
         <v>30.9</v>
       </c>
-      <c r="IC35" t="n">
+      <c r="IC35" s="2" t="n">
         <v>9.300000000000001</v>
+      </c>
+      <c r="ID35" s="2" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="IE35" t="n">
+        <v>43.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -26189,8 +26399,14 @@
       <c r="IB36" s="2" t="n">
         <v>189.5</v>
       </c>
-      <c r="IC36" t="n">
+      <c r="IC36" s="2" t="n">
         <v>189.5</v>
+      </c>
+      <c r="ID36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="IE36" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -26904,8 +27120,14 @@
       <c r="IB37" s="2" t="n">
         <v>89.09999999999999</v>
       </c>
-      <c r="IC37" t="n">
+      <c r="IC37" s="2" t="n">
         <v>89.09999999999999</v>
+      </c>
+      <c r="ID37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="IE37" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -27619,8 +27841,14 @@
       <c r="IB38" s="2" t="n">
         <v>25.41</v>
       </c>
-      <c r="IC38" t="n">
+      <c r="IC38" s="2" t="n">
         <v>25.41</v>
+      </c>
+      <c r="ID38" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="IE38" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -28334,8 +28562,14 @@
       <c r="IB39" s="2" t="n">
         <v>91.09999999999999</v>
       </c>
-      <c r="IC39" t="n">
+      <c r="IC39" s="2" t="n">
         <v>92.09999999999999</v>
+      </c>
+      <c r="ID39" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="IE39" t="n">
+        <v>77.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -29049,8 +29283,14 @@
       <c r="IB40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IC40" t="n">
+      <c r="IC40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="ID40" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IE40" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -29764,8 +30004,14 @@
       <c r="IB41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IC41" t="n">
+      <c r="IC41" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="ID41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IE41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -30479,8 +30725,14 @@
       <c r="IB42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IC42" t="n">
+      <c r="IC42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="ID42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IE42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -31194,8 +31446,14 @@
       <c r="IB43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IC43" t="n">
+      <c r="IC43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="ID43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IE43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -31909,8 +32167,14 @@
       <c r="IB44" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="IC44" t="n">
+      <c r="IC44" s="2" t="n">
         <v>127</v>
+      </c>
+      <c r="ID44" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="IE44" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -32624,8 +32888,14 @@
       <c r="IB45" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="IC45" t="n">
+      <c r="IC45" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="ID45" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="IE45" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -33339,8 +33609,14 @@
       <c r="IB46" s="2" t="n">
         <v>306</v>
       </c>
-      <c r="IC46" t="n">
+      <c r="IC46" s="2" t="n">
         <v>267</v>
+      </c>
+      <c r="ID46" s="2" t="n">
+        <v>272</v>
+      </c>
+      <c r="IE46" t="n">
+        <v>297</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -34054,8 +34330,14 @@
       <c r="IB47" s="2" t="n">
         <v>75.7</v>
       </c>
-      <c r="IC47" t="n">
+      <c r="IC47" s="2" t="n">
         <v>74.8</v>
+      </c>
+      <c r="ID47" s="2" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="IE47" t="n">
+        <v>76.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -34769,8 +35051,14 @@
       <c r="IB48" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IC48" t="n">
+      <c r="IC48" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="ID48" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="IE48" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -35484,8 +35772,14 @@
       <c r="IB49" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IC49" t="n">
+      <c r="IC49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="ID49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IE49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -36199,8 +36493,14 @@
       <c r="IB50" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IC50" t="n">
+      <c r="IC50" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="ID50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IE50" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -36914,8 +37214,14 @@
       <c r="IB51" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IC51" t="n">
+      <c r="IC51" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="ID51" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="IE51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -37629,8 +37935,14 @@
       <c r="IB52" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IC52" t="n">
+      <c r="IC52" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="ID52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="IE52" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -38344,8 +38656,14 @@
       <c r="IB53" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IC53" t="n">
+      <c r="IC53" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="ID53" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IE53" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -39059,7 +39377,13 @@
       <c r="IB54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IC54" t="n">
+      <c r="IC54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="ID54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IE54" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39774,8 +40098,14 @@
       <c r="IB55" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IC55" t="n">
+      <c r="IC55" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="ID55" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IE55" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -40489,8 +40819,14 @@
       <c r="IB56" s="2" t="n">
         <v>88.2</v>
       </c>
-      <c r="IC56" t="n">
+      <c r="IC56" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="ID56" s="2" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="IE56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -41204,8 +41540,14 @@
       <c r="IB57" s="2" t="n">
         <v>179</v>
       </c>
-      <c r="IC57" t="n">
+      <c r="IC57" s="2" t="n">
         <v>255</v>
+      </c>
+      <c r="ID57" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="IE57" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -41919,8 +42261,14 @@
       <c r="IB58" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="IC58" t="n">
+      <c r="IC58" s="2" t="n">
         <v>180</v>
+      </c>
+      <c r="ID58" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="IE58" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -42634,8 +42982,14 @@
       <c r="IB59" s="2" t="n">
         <v>346</v>
       </c>
-      <c r="IC59" t="n">
+      <c r="IC59" s="2" t="n">
         <v>435</v>
+      </c>
+      <c r="ID59" s="2" t="n">
+        <v>420</v>
+      </c>
+      <c r="IE59" t="n">
+        <v>288</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -43349,7 +43703,13 @@
       <c r="IB60" s="2" t="n">
         <v>1.07</v>
       </c>
-      <c r="IC60" t="n">
+      <c r="IC60" s="2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="ID60" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="IE60" t="n">
         <v>1.42</v>
       </c>
     </row>
@@ -44064,8 +44424,14 @@
       <c r="IB61" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IC61" t="n">
+      <c r="IC61" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="ID61" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="IE61" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -44779,8 +45145,14 @@
       <c r="IB62" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IC62" t="n">
+      <c r="IC62" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="ID62" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IE62" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -45494,8 +45866,14 @@
       <c r="IB63" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IC63" t="n">
+      <c r="IC63" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="ID63" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IE63" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -46209,8 +46587,14 @@
       <c r="IB64" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IC64" t="n">
+      <c r="IC64" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="ID64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IE64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -46924,8 +47308,14 @@
       <c r="IB65" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IC65" t="n">
+      <c r="IC65" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="ID65" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IE65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -47639,8 +48029,14 @@
       <c r="IB66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IC66" t="n">
+      <c r="IC66" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="ID66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IE66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -48354,8 +48750,14 @@
       <c r="IB67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IC67" t="n">
+      <c r="IC67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="ID67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IE67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -49069,8 +49471,14 @@
       <c r="IB68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IC68" t="n">
+      <c r="IC68" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="ID68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IE68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -49784,8 +50192,14 @@
       <c r="IB69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IC69" t="n">
+      <c r="IC69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="ID69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IE69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -50499,8 +50913,14 @@
       <c r="IB70" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IC70" t="n">
+      <c r="IC70" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="ID70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="IE70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -51214,8 +51634,14 @@
       <c r="IB71" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="IC71" t="n">
+      <c r="IC71" s="2" t="n">
         <v>42.9</v>
+      </c>
+      <c r="ID71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IE71" t="n">
+        <v>61.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -51929,8 +52355,14 @@
       <c r="IB72" s="2" t="n">
         <v>43.25</v>
       </c>
-      <c r="IC72" t="n">
+      <c r="IC72" s="2" t="n">
         <v>36.25</v>
+      </c>
+      <c r="ID72" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="IE72" t="n">
+        <v>22.15</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -52644,8 +53076,14 @@
       <c r="IB73" s="2" t="n">
         <v>24.71</v>
       </c>
-      <c r="IC73" t="n">
+      <c r="IC73" s="2" t="n">
         <v>15.54</v>
+      </c>
+      <c r="ID73" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IE73" t="n">
+        <v>13.71</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -53359,8 +53797,14 @@
       <c r="IB74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IC74" t="n">
+      <c r="IC74" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="ID74" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IE74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -54074,8 +54518,14 @@
       <c r="IB75" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IC75" t="n">
+      <c r="IC75" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="ID75" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="IE75" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -54789,8 +55239,14 @@
       <c r="IB76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IC76" t="n">
+      <c r="IC76" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="ID76" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IE76" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -55504,8 +55960,14 @@
       <c r="IB77" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IC77" t="n">
+      <c r="IC77" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="ID77" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="IE77" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -56219,8 +56681,14 @@
       <c r="IB78" s="2" t="n">
         <v>3.43</v>
       </c>
-      <c r="IC78" t="n">
+      <c r="IC78" s="2" t="n">
         <v>2.14</v>
+      </c>
+      <c r="ID78" s="2" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="IE78" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -56934,8 +57402,14 @@
       <c r="IB79" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IC79" t="n">
+      <c r="IC79" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="ID79" s="2" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="IE79" t="n">
+        <v>3.38</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -57649,8 +58123,14 @@
       <c r="IB80" s="2" t="n">
         <v>29.2</v>
       </c>
-      <c r="IC80" t="n">
+      <c r="IC80" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="ID80" s="2" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="IE80" t="n">
+        <v>40.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -58364,8 +58844,14 @@
       <c r="IB81" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="IC81" t="n">
+      <c r="IC81" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="ID81" s="2" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="IE81" t="n">
+        <v>29.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -59079,8 +59565,14 @@
       <c r="IB82" s="2" t="n">
         <v>187.3</v>
       </c>
-      <c r="IC82" t="n">
+      <c r="IC82" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="ID82" s="2" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="IE82" t="n">
+        <v>189.1</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -59794,8 +60286,14 @@
       <c r="IB83" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="IC83" t="n">
+      <c r="IC83" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="ID83" s="2" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="IE83" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -60509,8 +61007,14 @@
       <c r="IB84" s="2" t="n">
         <v>24.33</v>
       </c>
-      <c r="IC84" t="n">
+      <c r="IC84" s="2" t="n">
         <v>26.66</v>
+      </c>
+      <c r="ID84" s="2" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="IE84" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -61224,8 +61728,14 @@
       <c r="IB85" s="2" t="n">
         <v>69.5</v>
       </c>
-      <c r="IC85" t="n">
+      <c r="IC85" s="2" t="n">
         <v>120.6</v>
+      </c>
+      <c r="ID85" s="2" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="IE85" t="n">
+        <v>88.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -61939,8 +62449,14 @@
       <c r="IB86" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IC86" t="n">
+      <c r="IC86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="ID86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IE86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -62654,8 +63170,14 @@
       <c r="IB87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IC87" t="n">
+      <c r="IC87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="ID87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IE87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -63369,8 +63891,14 @@
       <c r="IB88" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IC88" t="n">
+      <c r="IC88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="ID88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IE88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -64084,8 +64612,14 @@
       <c r="IB89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IC89" t="n">
+      <c r="IC89" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="ID89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -64799,8 +65333,14 @@
       <c r="IB90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="IC90" t="n">
+      <c r="IC90" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="ID90" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="IE90" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -65514,8 +66054,14 @@
       <c r="IB91" s="2" t="n">
         <v>219</v>
       </c>
-      <c r="IC91" t="n">
+      <c r="IC91" s="2" t="n">
         <v>298</v>
+      </c>
+      <c r="ID91" s="2" t="n">
+        <v>261</v>
+      </c>
+      <c r="IE91" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -66229,8 +66775,14 @@
       <c r="IB92" s="2" t="n">
         <v>263</v>
       </c>
-      <c r="IC92" t="n">
+      <c r="IC92" s="2" t="n">
         <v>328</v>
+      </c>
+      <c r="ID92" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="IE92" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -66944,8 +67496,14 @@
       <c r="IB93" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="IC93" t="n">
+      <c r="IC93" s="2" t="n">
         <v>75.40000000000001</v>
+      </c>
+      <c r="ID93" s="2" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="IE93" t="n">
+        <v>75.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -67659,8 +68217,14 @@
       <c r="IB94" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IC94" t="n">
+      <c r="IC94" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="ID94" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="IE94" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -68374,8 +68938,14 @@
       <c r="IB95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IC95" t="n">
+      <c r="IC95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="ID95" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IE95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -69089,8 +69659,14 @@
       <c r="IB96" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IC96" t="n">
+      <c r="IC96" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="ID96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IE96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -69804,8 +70380,14 @@
       <c r="IB97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IC97" t="n">
+      <c r="IC97" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="ID97" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IE97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -70519,8 +71101,14 @@
       <c r="IB98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IC98" t="n">
+      <c r="IC98" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="ID98" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IE98" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -71234,8 +71822,14 @@
       <c r="IB99" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IC99" t="n">
+      <c r="IC99" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="ID99" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IE99" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -71949,8 +72543,14 @@
       <c r="IB100" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IC100" t="n">
+      <c r="IC100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="ID100" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IE100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -72664,8 +73264,14 @@
       <c r="IB101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IC101" t="n">
+      <c r="IC101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="ID101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IE101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -73379,8 +73985,14 @@
       <c r="IB102" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="IC102" t="n">
+      <c r="IC102" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="ID102" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IE102" t="n">
+        <v>61.5</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IE102"/>
+  <dimension ref="A1:IK102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HR87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HU104" activeCellId="0" sqref="HU104"/>
@@ -1170,8 +1170,26 @@
       <c r="ID1" s="2" t="n">
         <v>10623</v>
       </c>
-      <c r="IE1" t="n">
+      <c r="IE1" s="2" t="n">
         <v>10627</v>
+      </c>
+      <c r="IF1" s="2" t="n">
+        <v>10634</v>
+      </c>
+      <c r="IG1" s="2" t="n">
+        <v>10652</v>
+      </c>
+      <c r="IH1" s="2" t="n">
+        <v>10656</v>
+      </c>
+      <c r="II1" s="2" t="n">
+        <v>10662</v>
+      </c>
+      <c r="IJ1" s="2" t="n">
+        <v>10675</v>
+      </c>
+      <c r="IK1" t="n">
+        <v>10686</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1891,7 +1909,25 @@
       <c r="ID2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IE2" t="n">
+      <c r="IE2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IF2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IG2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IH2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="II2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IJ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IK2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2612,8 +2648,26 @@
       <c r="ID3" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IE3" t="n">
+      <c r="IE3" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IF3" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IG3" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IH3" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="II3" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IJ3" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3333,8 +3387,26 @@
       <c r="ID4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IE4" t="n">
+      <c r="IE4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IF4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="II4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4054,7 +4126,25 @@
       <c r="ID5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IE5" t="n">
+      <c r="IE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="II5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4775,8 +4865,26 @@
       <c r="ID6" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IE6" t="n">
+      <c r="IE6" s="2" t="n">
         <v>138</v>
+      </c>
+      <c r="IF6" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="IG6" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="IH6" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="II6" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="IJ6" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="IK6" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5496,8 +5604,26 @@
       <c r="ID7" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="IE7" t="n">
+      <c r="IE7" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="IF7" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="IG7" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="IH7" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="II7" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="IJ7" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IK7" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6217,8 +6343,26 @@
       <c r="ID8" s="2" t="n">
         <v>-30</v>
       </c>
-      <c r="IE8" t="n">
+      <c r="IE8" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IF8" s="2" t="n">
+        <v>-14</v>
+      </c>
+      <c r="IG8" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IH8" s="2" t="n">
+        <v>-20</v>
+      </c>
+      <c r="II8" s="2" t="n">
+        <v>-11</v>
+      </c>
+      <c r="IJ8" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="IK8" t="n">
+        <v>-55</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -6938,8 +7082,26 @@
       <c r="ID9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IE9" t="n">
+      <c r="IE9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="II9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -7659,8 +7821,26 @@
       <c r="ID10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IE10" t="n">
+      <c r="IE10" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IF10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IG10" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IH10" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="II10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IJ10" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IK10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8380,8 +8560,26 @@
       <c r="ID11" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="IE11" t="n">
+      <c r="IE11" s="2" t="n">
         <v>224</v>
+      </c>
+      <c r="IF11" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="IG11" s="2" t="n">
+        <v>258</v>
+      </c>
+      <c r="IH11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="II11" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="IJ11" s="2" t="n">
+        <v>263</v>
+      </c>
+      <c r="IK11" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9101,8 +9299,26 @@
       <c r="ID12" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="IE12" t="n">
+      <c r="IE12" s="2" t="n">
         <v>164</v>
+      </c>
+      <c r="IF12" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="IG12" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="IH12" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="II12" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="IJ12" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="IK12" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -9822,8 +10038,26 @@
       <c r="ID13" s="2" t="n">
         <v>354</v>
       </c>
-      <c r="IE13" t="n">
+      <c r="IE13" s="2" t="n">
         <v>388</v>
+      </c>
+      <c r="IF13" s="2" t="n">
+        <v>333</v>
+      </c>
+      <c r="IG13" s="2" t="n">
+        <v>423</v>
+      </c>
+      <c r="IH13" s="2" t="n">
+        <v>355</v>
+      </c>
+      <c r="II13" s="2" t="n">
+        <v>367</v>
+      </c>
+      <c r="IJ13" s="2" t="n">
+        <v>405</v>
+      </c>
+      <c r="IK13" t="n">
+        <v>307</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -10543,8 +10777,26 @@
       <c r="ID14" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="IE14" t="n">
+      <c r="IE14" s="2" t="n">
         <v>1.37</v>
+      </c>
+      <c r="IF14" s="2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="IG14" s="2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="IH14" s="2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="II14" s="2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="IJ14" s="2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="IK14" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -11264,8 +11516,26 @@
       <c r="ID15" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="IE15" t="n">
+      <c r="IE15" s="2" t="n">
         <v>121</v>
+      </c>
+      <c r="IF15" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="IG15" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="IH15" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="II15" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="IJ15" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IK15" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -11985,8 +12255,26 @@
       <c r="ID16" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IE16" t="n">
+      <c r="IE16" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IF16" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IG16" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IH16" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="II16" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="IJ16" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="IK16" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -12706,8 +12994,26 @@
       <c r="ID17" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IE17" t="n">
+      <c r="IE17" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IF17" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="IG17" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IH17" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="II17" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IJ17" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="IK17" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -13427,8 +13733,26 @@
       <c r="ID18" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IE18" t="n">
+      <c r="IE18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IF18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IG18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="IH18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="II18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IJ18" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IK18" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -14148,8 +14472,26 @@
       <c r="ID19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IE19" t="n">
+      <c r="IE19" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IF19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IG19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IH19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="II19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IJ19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IK19" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -14869,8 +15211,26 @@
       <c r="ID20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IE20" t="n">
+      <c r="IE20" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IF20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IG20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IH20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="II20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IJ20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IK20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -15590,8 +15950,26 @@
       <c r="ID21" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IE21" t="n">
+      <c r="IE21" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IF21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IG21" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IH21" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="II21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IJ21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IK21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -16311,7 +16689,25 @@
       <c r="ID22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IE22" t="n">
+      <c r="IE22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IF22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IG22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IH22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="II22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IJ22" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IK22" t="n">
         <v>10</v>
       </c>
     </row>
@@ -17032,8 +17428,26 @@
       <c r="ID23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IE23" t="n">
+      <c r="IE23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IF23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IH23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="II23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IK23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -17753,8 +18167,26 @@
       <c r="ID24" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IE24" t="n">
+      <c r="IE24" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IF24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="IG24" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="IH24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="II24" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IJ24" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IK24" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -18474,8 +18906,26 @@
       <c r="ID25" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IE25" t="n">
+      <c r="IE25" s="2" t="n">
         <v>63.6</v>
+      </c>
+      <c r="IF25" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="IG25" s="2" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="IH25" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="II25" s="2" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="IJ25" s="2" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="IK25" t="n">
+        <v>21.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -19195,8 +19645,26 @@
       <c r="ID26" s="2" t="n">
         <v>32.18</v>
       </c>
-      <c r="IE26" t="n">
+      <c r="IE26" s="2" t="n">
         <v>18.48</v>
+      </c>
+      <c r="IF26" s="2" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="IG26" s="2" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="IH26" s="2" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="II26" s="2" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="IJ26" s="2" t="n">
+        <v>36.82</v>
+      </c>
+      <c r="IK26" t="n">
+        <v>102.33</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -19916,8 +20384,26 @@
       <c r="ID27" s="2" t="n">
         <v>17.7</v>
       </c>
-      <c r="IE27" t="n">
+      <c r="IE27" s="2" t="n">
         <v>11.76</v>
+      </c>
+      <c r="IF27" s="2" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="IG27" s="2" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="IH27" s="2" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="II27" s="2" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="IJ27" s="2" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="IK27" t="n">
+        <v>21.93</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -20637,8 +21123,26 @@
       <c r="ID28" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IE28" t="n">
+      <c r="IE28" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IF28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IG28" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IH28" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="II28" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="IJ28" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IK28" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -21358,8 +21862,26 @@
       <c r="ID29" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IE29" t="n">
+      <c r="IE29" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IF29" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="IG29" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IH29" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="II29" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="IJ29" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="IK29" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -22079,8 +22601,26 @@
       <c r="ID30" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IE30" t="n">
+      <c r="IE30" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IF30" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IG30" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="IH30" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="II30" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IJ30" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IK30" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -22800,8 +23340,26 @@
       <c r="ID31" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IE31" t="n">
+      <c r="IE31" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IF31" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IG31" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IH31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="II31" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IJ31" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="IK31" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -23521,8 +24079,26 @@
       <c r="ID32" s="2" t="n">
         <v>2.35</v>
       </c>
-      <c r="IE32" t="n">
+      <c r="IE32" s="2" t="n">
         <v>1.45</v>
+      </c>
+      <c r="IF32" s="2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="IG32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IH32" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="II32" s="2" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="IJ32" s="2" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="IK32" t="n">
+        <v>2.64</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -24242,8 +24818,26 @@
       <c r="ID33" s="2" t="n">
         <v>4.27</v>
       </c>
-      <c r="IE33" t="n">
+      <c r="IE33" s="2" t="n">
         <v>2.29</v>
+      </c>
+      <c r="IF33" s="2" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="IG33" s="2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="IH33" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="II33" s="2" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="IJ33" s="2" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="IK33" t="n">
+        <v>12.33</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -24963,8 +25557,26 @@
       <c r="ID34" s="2" t="n">
         <v>38.3</v>
       </c>
-      <c r="IE34" t="n">
+      <c r="IE34" s="2" t="n">
         <v>64.59999999999999</v>
+      </c>
+      <c r="IF34" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IG34" s="2" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="IH34" s="2" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="II34" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IJ34" s="2" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="IK34" t="n">
+        <v>35.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -25684,8 +26296,26 @@
       <c r="ID35" s="2" t="n">
         <v>23.4</v>
       </c>
-      <c r="IE35" t="n">
+      <c r="IE35" s="2" t="n">
         <v>43.8</v>
+      </c>
+      <c r="IF35" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="IG35" s="2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="IH35" s="2" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="II35" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IJ35" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="IK35" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -26405,8 +27035,26 @@
       <c r="ID36" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="IE36" t="n">
+      <c r="IE36" s="2" t="n">
         <v>188.7</v>
+      </c>
+      <c r="IF36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="IG36" s="2" t="n">
+        <v>189.6</v>
+      </c>
+      <c r="IH36" s="2" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="II36" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="IJ36" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="IK36" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -27126,8 +27774,26 @@
       <c r="ID37" s="2" t="n">
         <v>87.8</v>
       </c>
-      <c r="IE37" t="n">
+      <c r="IE37" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="IF37" s="2" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="IG37" s="2" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="IH37" s="2" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="II37" s="2" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="IJ37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="IK37" t="n">
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -27847,8 +28513,26 @@
       <c r="ID38" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="IE38" t="n">
+      <c r="IE38" s="2" t="n">
         <v>25.16</v>
+      </c>
+      <c r="IF38" s="2" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="IG38" s="2" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="IH38" s="2" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="II38" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="IJ38" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="IK38" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -28568,8 +29252,26 @@
       <c r="ID39" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="IE39" t="n">
+      <c r="IE39" s="2" t="n">
         <v>77.7</v>
+      </c>
+      <c r="IF39" s="2" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="IG39" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="IH39" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="II39" s="2" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="IJ39" s="2" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="IK39" t="n">
+        <v>100.1</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -29289,8 +29991,26 @@
       <c r="ID40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IE40" t="n">
+      <c r="IE40" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IF40" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IG40" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IH40" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="II40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IJ40" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IK40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -30010,8 +30730,26 @@
       <c r="ID41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IE41" t="n">
+      <c r="IE41" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IF41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IG41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IH41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="II41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IK41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -30731,8 +31469,26 @@
       <c r="ID42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IE42" t="n">
+      <c r="IE42" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IF42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IG42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IH42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="II42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IJ42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IK42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -31452,8 +32208,26 @@
       <c r="ID43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IE43" t="n">
+      <c r="IE43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IF43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IG43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IH43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="II43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IJ43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IK43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -32173,8 +32947,26 @@
       <c r="ID44" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="IE44" t="n">
+      <c r="IE44" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="IF44" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="IG44" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="IH44" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="II44" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="IJ44" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="IK44" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -32894,8 +33686,26 @@
       <c r="ID45" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="IE45" t="n">
+      <c r="IE45" s="2" t="n">
         <v>252</v>
+      </c>
+      <c r="IF45" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="IG45" s="2" t="n">
+        <v>308</v>
+      </c>
+      <c r="IH45" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="II45" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="IJ45" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="IK45" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -33615,8 +34425,26 @@
       <c r="ID46" s="2" t="n">
         <v>272</v>
       </c>
-      <c r="IE46" t="n">
+      <c r="IE46" s="2" t="n">
         <v>297</v>
+      </c>
+      <c r="IF46" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="IG46" s="2" t="n">
+        <v>351</v>
+      </c>
+      <c r="IH46" s="2" t="n">
+        <v>280</v>
+      </c>
+      <c r="II46" s="2" t="n">
+        <v>266</v>
+      </c>
+      <c r="IJ46" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="IK46" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -34336,8 +35164,26 @@
       <c r="ID47" s="2" t="n">
         <v>76.8</v>
       </c>
-      <c r="IE47" t="n">
+      <c r="IE47" s="2" t="n">
         <v>76.5</v>
+      </c>
+      <c r="IF47" s="2" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="IG47" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="IH47" s="2" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="II47" s="2" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="IJ47" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="IK47" t="n">
+        <v>66.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -35057,8 +35903,26 @@
       <c r="ID48" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IE48" t="n">
+      <c r="IE48" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IF48" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="IG48" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IH48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="II48" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="IJ48" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="IK48" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -35778,8 +36642,26 @@
       <c r="ID49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IE49" t="n">
+      <c r="IE49" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IF49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IG49" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IH49" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="II49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IJ49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IK49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -36499,8 +37381,26 @@
       <c r="ID50" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IE50" t="n">
+      <c r="IE50" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IF50" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IG50" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IH50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="II50" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IJ50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IK50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -37220,8 +38120,26 @@
       <c r="ID51" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IE51" t="n">
+      <c r="IE51" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IF51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IG51" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IH51" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="II51" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="IJ51" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IK51" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -37941,8 +38859,26 @@
       <c r="ID52" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IE52" t="n">
+      <c r="IE52" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IF52" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IG52" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="IH52" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="II52" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IJ52" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IK52" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -38662,8 +39598,26 @@
       <c r="ID53" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IE53" t="n">
+      <c r="IE53" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IF53" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="IG53" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="IH53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="II53" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="IJ53" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="IK53" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -39383,7 +40337,25 @@
       <c r="ID54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IE54" t="n">
+      <c r="IE54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IF54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IG54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IH54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="II54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IJ54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK54" t="n">
         <v>5</v>
       </c>
     </row>
@@ -40104,8 +41076,26 @@
       <c r="ID55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IE55" t="n">
+      <c r="IE55" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IF55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IG55" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IH55" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="II55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IJ55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IK55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -40825,8 +41815,26 @@
       <c r="ID56" s="2" t="n">
         <v>27.3</v>
       </c>
-      <c r="IE56" t="n">
+      <c r="IE56" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IF56" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="IG56" s="2" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="IH56" s="2" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="II56" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="IJ56" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="IK56" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -41546,8 +42554,26 @@
       <c r="ID57" s="2" t="n">
         <v>246</v>
       </c>
-      <c r="IE57" t="n">
+      <c r="IE57" s="2" t="n">
         <v>169</v>
+      </c>
+      <c r="IF57" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="IG57" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="IH57" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="II57" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="IJ57" s="2" t="n">
+        <v>248</v>
+      </c>
+      <c r="IK57" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -42267,8 +43293,26 @@
       <c r="ID58" s="2" t="n">
         <v>174</v>
       </c>
-      <c r="IE58" t="n">
+      <c r="IE58" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="IF58" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="IG58" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="IH58" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="II58" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="IJ58" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="IK58" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -42988,8 +44032,26 @@
       <c r="ID59" s="2" t="n">
         <v>420</v>
       </c>
-      <c r="IE59" t="n">
+      <c r="IE59" s="2" t="n">
         <v>288</v>
+      </c>
+      <c r="IF59" s="2" t="n">
+        <v>363</v>
+      </c>
+      <c r="IG59" s="2" t="n">
+        <v>295</v>
+      </c>
+      <c r="IH59" s="2" t="n">
+        <v>386</v>
+      </c>
+      <c r="II59" s="2" t="n">
+        <v>358</v>
+      </c>
+      <c r="IJ59" s="2" t="n">
+        <v>353</v>
+      </c>
+      <c r="IK59" t="n">
+        <v>399</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -43709,8 +44771,26 @@
       <c r="ID60" s="2" t="n">
         <v>1.41</v>
       </c>
-      <c r="IE60" t="n">
+      <c r="IE60" s="2" t="n">
         <v>1.42</v>
+      </c>
+      <c r="IF60" s="2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="IG60" s="2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="IH60" s="2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="II60" s="2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="IJ60" s="2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="IK60" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -44430,8 +45510,26 @@
       <c r="ID61" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="IE61" t="n">
+      <c r="IE61" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="IF61" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="IG61" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="IH61" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="II61" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="IJ61" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IK61" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -45151,8 +46249,26 @@
       <c r="ID62" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IE62" t="n">
+      <c r="IE62" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IF62" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="IG62" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IH62" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="II62" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IJ62" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="IK62" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -45872,8 +46988,26 @@
       <c r="ID63" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IE63" t="n">
+      <c r="IE63" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IF63" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IG63" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IH63" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="II63" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IJ63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="IK63" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -46593,8 +47727,26 @@
       <c r="ID64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IE64" t="n">
+      <c r="IE64" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IF64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IG64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IH64" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="II64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IJ64" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IK64" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -47314,8 +48466,26 @@
       <c r="ID65" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IE65" t="n">
+      <c r="IE65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IF65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IG65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="IH65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="II65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IJ65" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IK65" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -48035,8 +49205,26 @@
       <c r="ID66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IE66" t="n">
+      <c r="IE66" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IF66" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IG66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IH66" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="II66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IJ66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IK66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -48756,8 +49944,26 @@
       <c r="ID67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IE67" t="n">
+      <c r="IE67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IF67" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IG67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IH67" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="II67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IJ67" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IK67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -49477,8 +50683,26 @@
       <c r="ID68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IE68" t="n">
+      <c r="IE68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IF68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IG68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IH68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="II68" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IJ68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IK68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -50198,8 +51422,26 @@
       <c r="ID69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IE69" t="n">
+      <c r="IE69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IF69" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IG69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IH69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="II69" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IJ69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IK69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -50919,8 +52161,26 @@
       <c r="ID70" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IE70" t="n">
+      <c r="IE70" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IF70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="IG70" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IH70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="II70" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="IJ70" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IK70" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -51640,8 +52900,26 @@
       <c r="ID71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IE71" t="n">
+      <c r="IE71" s="2" t="n">
         <v>61.9</v>
+      </c>
+      <c r="IF71" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="IG71" s="2" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="IH71" s="2" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="II71" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="IJ71" s="2" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="IK71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -52361,8 +53639,26 @@
       <c r="ID72" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IE72" t="n">
+      <c r="IE72" s="2" t="n">
         <v>22.15</v>
+      </c>
+      <c r="IF72" s="2" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="IG72" s="2" t="n">
+        <v>42.14</v>
+      </c>
+      <c r="IH72" s="2" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="II72" s="2" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="IJ72" s="2" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="IK72" t="n">
+        <v>33.25</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -53082,8 +54378,26 @@
       <c r="ID73" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IE73" t="n">
+      <c r="IE73" s="2" t="n">
         <v>13.71</v>
+      </c>
+      <c r="IF73" s="2" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="IG73" s="2" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="IH73" s="2" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="II73" s="2" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="IJ73" s="2" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="IK73" t="n">
+        <v>16.62</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -53803,8 +55117,26 @@
       <c r="ID74" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IE74" t="n">
+      <c r="IE74" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IF74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IG74" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IH74" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="II74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IJ74" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IK74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -54524,8 +55856,26 @@
       <c r="ID75" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IE75" t="n">
+      <c r="IE75" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IF75" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IG75" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IH75" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="II75" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IJ75" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="IK75" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -55245,8 +56595,26 @@
       <c r="ID76" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IE76" t="n">
+      <c r="IE76" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IF76" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IG76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IH76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="II76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IJ76" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IK76" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -55966,8 +57334,26 @@
       <c r="ID77" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IE77" t="n">
+      <c r="IE77" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IF77" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IG77" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IH77" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="II77" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="IJ77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IK77" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -56687,8 +58073,26 @@
       <c r="ID78" s="2" t="n">
         <v>2.13</v>
       </c>
-      <c r="IE78" t="n">
+      <c r="IE78" s="2" t="n">
         <v>2.1</v>
+      </c>
+      <c r="IF78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IG78" s="2" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="IH78" s="2" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="II78" s="2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="IJ78" s="2" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="IK78" t="n">
+        <v>2.71</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -57408,8 +58812,26 @@
       <c r="ID79" s="2" t="n">
         <v>4.27</v>
       </c>
-      <c r="IE79" t="n">
+      <c r="IE79" s="2" t="n">
         <v>3.38</v>
+      </c>
+      <c r="IF79" s="2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="IG79" s="2" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="IH79" s="2" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="II79" s="2" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="IJ79" s="2" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="IK79" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -58129,8 +59551,26 @@
       <c r="ID80" s="2" t="n">
         <v>40.6</v>
       </c>
-      <c r="IE80" t="n">
+      <c r="IE80" s="2" t="n">
         <v>40.9</v>
+      </c>
+      <c r="IF80" s="2" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="IG80" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IH80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="II80" s="2" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="IJ80" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="IK80" t="n">
+        <v>30.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -58850,8 +60290,26 @@
       <c r="ID81" s="2" t="n">
         <v>23.4</v>
       </c>
-      <c r="IE81" t="n">
+      <c r="IE81" s="2" t="n">
         <v>29.5</v>
+      </c>
+      <c r="IF81" s="2" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="IG81" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="IH81" s="2" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="II81" s="2" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="IJ81" s="2" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="IK81" t="n">
+        <v>18.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -59571,8 +61029,26 @@
       <c r="ID82" s="2" t="n">
         <v>187.1</v>
       </c>
-      <c r="IE82" t="n">
+      <c r="IE82" s="2" t="n">
         <v>189.1</v>
+      </c>
+      <c r="IF82" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="IG82" s="2" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="IH82" s="2" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="II82" s="2" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="IJ82" s="2" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="IK82" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -60292,8 +61768,26 @@
       <c r="ID83" s="2" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="IE83" t="n">
+      <c r="IE83" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="IF83" s="2" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="IG83" s="2" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="IH83" s="2" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="II83" s="2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="IJ83" s="2" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="IK83" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -61013,8 +62507,26 @@
       <c r="ID84" s="2" t="n">
         <v>24.49</v>
       </c>
-      <c r="IE84" t="n">
+      <c r="IE84" s="2" t="n">
         <v>25.41</v>
+      </c>
+      <c r="IF84" s="2" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="IG84" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IH84" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="II84" s="2" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="IJ84" s="2" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="IK84" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -61734,8 +63246,26 @@
       <c r="ID85" s="2" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="IE85" t="n">
+      <c r="IE85" s="2" t="n">
         <v>88.8</v>
+      </c>
+      <c r="IF85" s="2" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="IG85" s="2" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="IH85" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="II85" s="2" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="IJ85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="IK85" t="n">
+        <v>106.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -62455,8 +63985,26 @@
       <c r="ID86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IE86" t="n">
+      <c r="IE86" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IF86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IG86" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IH86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="II86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IJ86" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IK86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -63176,8 +64724,26 @@
       <c r="ID87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IE87" t="n">
+      <c r="IE87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IF87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IG87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IH87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="II87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IJ87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -63897,8 +65463,26 @@
       <c r="ID88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IE88" t="n">
+      <c r="IE88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IF88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IG88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IH88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="II88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IJ88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IK88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -64618,8 +66202,26 @@
       <c r="ID89" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IE89" t="n">
+      <c r="IE89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IF89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IG89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IH89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="II89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IJ89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IK89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -65339,8 +66941,26 @@
       <c r="ID90" s="2" t="n">
         <v>163</v>
       </c>
-      <c r="IE90" t="n">
+      <c r="IE90" s="2" t="n">
         <v>113</v>
+      </c>
+      <c r="IF90" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="IG90" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="IH90" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="II90" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="IJ90" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="IK90" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -66060,8 +67680,26 @@
       <c r="ID91" s="2" t="n">
         <v>261</v>
       </c>
-      <c r="IE91" t="n">
+      <c r="IE91" s="2" t="n">
         <v>171</v>
+      </c>
+      <c r="IF91" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="IG91" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="IH91" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="II91" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="IJ91" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="IK91" t="n">
+        <v>267</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -66781,8 +68419,26 @@
       <c r="ID92" s="2" t="n">
         <v>317</v>
       </c>
-      <c r="IE92" t="n">
+      <c r="IE92" s="2" t="n">
         <v>217</v>
+      </c>
+      <c r="IF92" s="2" t="n">
+        <v>259</v>
+      </c>
+      <c r="IG92" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="IH92" s="2" t="n">
+        <v>285</v>
+      </c>
+      <c r="II92" s="2" t="n">
+        <v>248</v>
+      </c>
+      <c r="IJ92" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="IK92" t="n">
+        <v>298</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -67502,8 +69158,26 @@
       <c r="ID93" s="2" t="n">
         <v>75.5</v>
       </c>
-      <c r="IE93" t="n">
+      <c r="IE93" s="2" t="n">
         <v>75.3</v>
+      </c>
+      <c r="IF93" s="2" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="IG93" s="2" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="IH93" s="2" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="II93" s="2" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="IJ93" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="IK93" t="n">
+        <v>74.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -68223,8 +69897,26 @@
       <c r="ID94" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IE94" t="n">
+      <c r="IE94" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IF94" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IG94" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IH94" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="II94" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IJ94" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="IK94" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -68944,8 +70636,26 @@
       <c r="ID95" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IE95" t="n">
+      <c r="IE95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IF95" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IG95" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IH95" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="II95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IJ95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IK95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -69665,8 +71375,26 @@
       <c r="ID96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IE96" t="n">
+      <c r="IE96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IF96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IG96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IH96" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="II96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IJ96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IK96" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -70386,8 +72114,26 @@
       <c r="ID97" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IE97" t="n">
+      <c r="IE97" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IF97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IG97" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IH97" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="II97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IJ97" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IK97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -71107,8 +72853,26 @@
       <c r="ID98" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IE98" t="n">
+      <c r="IE98" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IF98" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IG98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IH98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="II98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IJ98" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IK98" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -71828,8 +73592,26 @@
       <c r="ID99" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IE99" t="n">
+      <c r="IE99" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IF99" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="IG99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IH99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="II99" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IJ99" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="IK99" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -72549,7 +74331,25 @@
       <c r="ID100" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IE100" t="n">
+      <c r="IE100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IF100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IG100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IH100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="II100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK100" t="n">
         <v>4</v>
       </c>
     </row>
@@ -73270,8 +75070,26 @@
       <c r="ID101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IE101" t="n">
+      <c r="IE101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IF101" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IG101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IH101" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="II101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IJ101" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IK101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -73991,8 +75809,26 @@
       <c r="ID102" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IE102" t="n">
+      <c r="IE102" s="2" t="n">
         <v>61.5</v>
+      </c>
+      <c r="IF102" s="2" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="IG102" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="IH102" s="2" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="II102" s="2" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="IJ102" s="2" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="IK102" t="n">
+        <v>83.3</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/GWS_stats.xlsx
+++ b/django_AFL_ML/Data/GWS_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IK102"/>
+  <dimension ref="A1:IS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HR87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HU104" activeCellId="0" sqref="HU104"/>
@@ -1188,8 +1188,32 @@
       <c r="IJ1" s="2" t="n">
         <v>10675</v>
       </c>
-      <c r="IK1" t="n">
+      <c r="IK1" s="2" t="n">
         <v>10686</v>
+      </c>
+      <c r="IL1" s="2" t="n">
+        <v>10690</v>
+      </c>
+      <c r="IM1" s="2" t="n">
+        <v>10690</v>
+      </c>
+      <c r="IN1" s="2" t="n">
+        <v>10690</v>
+      </c>
+      <c r="IO1" s="2" t="n">
+        <v>10698</v>
+      </c>
+      <c r="IP1" s="2" t="n">
+        <v>10712</v>
+      </c>
+      <c r="IQ1" s="2" t="n">
+        <v>10717</v>
+      </c>
+      <c r="IR1" s="2" t="n">
+        <v>10730</v>
+      </c>
+      <c r="IS1" t="n">
+        <v>10737</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1927,7 +1951,31 @@
       <c r="IJ2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IK2" t="n">
+      <c r="IK2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IL2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IM2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IN2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IO2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IP2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IQ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IR2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IS2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2666,8 +2714,32 @@
       <c r="IJ3" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IK3" t="n">
+      <c r="IK3" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IL3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IM3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IN3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IO3" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IP3" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IQ3" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="IR3" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3405,8 +3477,32 @@
       <c r="IJ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IK4" t="n">
+      <c r="IK4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4144,8 +4240,32 @@
       <c r="IJ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IK5" t="n">
+      <c r="IK5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IL5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -4883,8 +5003,32 @@
       <c r="IJ6" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="IK6" t="n">
+      <c r="IK6" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IL6" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IM6" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IN6" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IO6" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IP6" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="IQ6" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="IR6" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="IS6" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5622,8 +5766,32 @@
       <c r="IJ7" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IK7" t="n">
+      <c r="IK7" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="IL7" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="IM7" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="IN7" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="IO7" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="IP7" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="IQ7" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="IR7" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="IS7" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6361,8 +6529,32 @@
       <c r="IJ8" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IK8" t="n">
+      <c r="IK8" s="2" t="n">
         <v>-55</v>
+      </c>
+      <c r="IL8" s="2" t="n">
+        <v>-40</v>
+      </c>
+      <c r="IM8" s="2" t="n">
+        <v>-40</v>
+      </c>
+      <c r="IN8" s="2" t="n">
+        <v>-40</v>
+      </c>
+      <c r="IO8" s="2" t="n">
+        <v>-36</v>
+      </c>
+      <c r="IP8" s="2" t="n">
+        <v>-73</v>
+      </c>
+      <c r="IQ8" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="IR8" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="IS8" t="n">
+        <v>-20</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7100,7 +7292,31 @@
       <c r="IJ9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IK9" t="n">
+      <c r="IK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7839,8 +8055,32 @@
       <c r="IJ10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IK10" t="n">
+      <c r="IK10" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IL10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IM10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IN10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IO10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IP10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IQ10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IR10" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IS10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8578,8 +8818,32 @@
       <c r="IJ11" s="2" t="n">
         <v>263</v>
       </c>
-      <c r="IK11" t="n">
+      <c r="IK11" s="2" t="n">
         <v>191</v>
+      </c>
+      <c r="IL11" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="IM11" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="IN11" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="IO11" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="IP11" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="IQ11" s="2" t="n">
+        <v>251</v>
+      </c>
+      <c r="IR11" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="IS11" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9317,8 +9581,32 @@
       <c r="IJ12" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="IK12" t="n">
+      <c r="IK12" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="IL12" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="IM12" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="IN12" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="IO12" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="IP12" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="IQ12" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="IR12" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="IS12" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10056,8 +10344,32 @@
       <c r="IJ13" s="2" t="n">
         <v>405</v>
       </c>
-      <c r="IK13" t="n">
+      <c r="IK13" s="2" t="n">
         <v>307</v>
+      </c>
+      <c r="IL13" s="2" t="n">
+        <v>344</v>
+      </c>
+      <c r="IM13" s="2" t="n">
+        <v>344</v>
+      </c>
+      <c r="IN13" s="2" t="n">
+        <v>344</v>
+      </c>
+      <c r="IO13" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="IP13" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="IQ13" s="2" t="n">
+        <v>366</v>
+      </c>
+      <c r="IR13" s="2" t="n">
+        <v>428</v>
+      </c>
+      <c r="IS13" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -10795,8 +11107,32 @@
       <c r="IJ14" s="2" t="n">
         <v>1.85</v>
       </c>
-      <c r="IK14" t="n">
+      <c r="IK14" s="2" t="n">
         <v>1.65</v>
+      </c>
+      <c r="IL14" s="2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="IM14" s="2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="IN14" s="2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="IO14" s="2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="IP14" s="2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="IQ14" s="2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="IR14" s="2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="IS14" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -11534,8 +11870,32 @@
       <c r="IJ15" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IK15" t="n">
+      <c r="IK15" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="IL15" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="IM15" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="IN15" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="IO15" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="IP15" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="IQ15" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="IR15" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="IS15" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -12273,8 +12633,32 @@
       <c r="IJ16" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="IK16" t="n">
+      <c r="IK16" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IL16" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IM16" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IN16" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IO16" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IP16" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IQ16" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="IR16" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IS16" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13012,8 +13396,32 @@
       <c r="IJ17" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IK17" t="n">
+      <c r="IK17" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IL17" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IM17" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IN17" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IO17" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="IP17" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IQ17" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IR17" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="IS17" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -13751,8 +14159,32 @@
       <c r="IJ18" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IK18" t="n">
+      <c r="IK18" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IL18" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IM18" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IN18" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IO18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IP18" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IQ18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IR18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IS18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -14490,8 +14922,32 @@
       <c r="IJ19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IK19" t="n">
+      <c r="IK19" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IL19" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IM19" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IN19" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IO19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IP19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IQ19" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="IR19" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IS19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -15229,8 +15685,32 @@
       <c r="IJ20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IK20" t="n">
+      <c r="IK20" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IL20" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IM20" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IN20" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IO20" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IP20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IQ20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IR20" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IS20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -15968,8 +16448,32 @@
       <c r="IJ21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IK21" t="n">
+      <c r="IK21" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IL21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IM21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IN21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IO21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IP21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IQ21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IR21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IS21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -16707,8 +17211,32 @@
       <c r="IJ22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IK22" t="n">
+      <c r="IK22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IL22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IM22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IO22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IP22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IQ22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IR22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IS22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -17446,7 +17974,31 @@
       <c r="IJ23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IK23" t="n">
+      <c r="IK23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18185,8 +18737,32 @@
       <c r="IJ24" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IK24" t="n">
+      <c r="IK24" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IL24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IM24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IN24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IO24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IP24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IQ24" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IR24" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IS24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -18924,8 +19500,32 @@
       <c r="IJ25" s="2" t="n">
         <v>64.7</v>
       </c>
-      <c r="IK25" t="n">
+      <c r="IK25" s="2" t="n">
         <v>21.4</v>
+      </c>
+      <c r="IL25" s="2" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="IM25" s="2" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="IN25" s="2" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="IO25" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="IP25" s="2" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="IQ25" s="2" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="IR25" s="2" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="IS25" t="n">
+        <v>52.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -19663,8 +20263,32 @@
       <c r="IJ26" s="2" t="n">
         <v>36.82</v>
       </c>
-      <c r="IK26" t="n">
+      <c r="IK26" s="2" t="n">
         <v>102.33</v>
+      </c>
+      <c r="IL26" s="2" t="n">
+        <v>38.22</v>
+      </c>
+      <c r="IM26" s="2" t="n">
+        <v>38.22</v>
+      </c>
+      <c r="IN26" s="2" t="n">
+        <v>38.22</v>
+      </c>
+      <c r="IO26" s="2" t="n">
+        <v>42.75</v>
+      </c>
+      <c r="IP26" s="2" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="IQ26" s="2" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="IR26" s="2" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="IS26" t="n">
+        <v>33.9</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -20402,8 +21026,32 @@
       <c r="IJ27" s="2" t="n">
         <v>23.82</v>
       </c>
-      <c r="IK27" t="n">
+      <c r="IK27" s="2" t="n">
         <v>21.93</v>
+      </c>
+      <c r="IL27" s="2" t="n">
+        <v>24.57</v>
+      </c>
+      <c r="IM27" s="2" t="n">
+        <v>24.57</v>
+      </c>
+      <c r="IN27" s="2" t="n">
+        <v>24.57</v>
+      </c>
+      <c r="IO27" s="2" t="n">
+        <v>24.43</v>
+      </c>
+      <c r="IP27" s="2" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="IQ27" s="2" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="IR27" s="2" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="IS27" t="n">
+        <v>17.84</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -21141,8 +21789,32 @@
       <c r="IJ28" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IK28" t="n">
+      <c r="IK28" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IL28" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IM28" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IN28" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IO28" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IP28" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IQ28" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IR28" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IS28" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -21880,8 +22552,32 @@
       <c r="IJ29" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="IK29" t="n">
+      <c r="IK29" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IL29" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="IM29" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="IN29" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="IO29" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="IP29" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="IQ29" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IR29" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IS29" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -22619,8 +23315,32 @@
       <c r="IJ30" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IK30" t="n">
+      <c r="IK30" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IL30" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IM30" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IN30" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IO30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="IP30" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="IQ30" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="IR30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IS30" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -23358,8 +24078,32 @@
       <c r="IJ31" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="IK31" t="n">
+      <c r="IK31" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IL31" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IM31" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IN31" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IO31" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="IP31" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IQ31" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="IR31" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IS31" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -24097,8 +24841,32 @@
       <c r="IJ32" s="2" t="n">
         <v>3.71</v>
       </c>
-      <c r="IK32" t="n">
+      <c r="IK32" s="2" t="n">
         <v>2.64</v>
+      </c>
+      <c r="IL32" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="IM32" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="IN32" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="IO32" s="2" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="IP32" s="2" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="IQ32" s="2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="IR32" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IS32" t="n">
+        <v>2.37</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -24836,8 +25604,32 @@
       <c r="IJ33" s="2" t="n">
         <v>5.73</v>
       </c>
-      <c r="IK33" t="n">
+      <c r="IK33" s="2" t="n">
         <v>12.33</v>
+      </c>
+      <c r="IL33" s="2" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="IM33" s="2" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="IN33" s="2" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="IO33" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IP33" s="2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="IQ33" s="2" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="IR33" s="2" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="IS33" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -25575,8 +26367,32 @@
       <c r="IJ34" s="2" t="n">
         <v>23.8</v>
       </c>
-      <c r="IK34" t="n">
+      <c r="IK34" s="2" t="n">
         <v>35.1</v>
+      </c>
+      <c r="IL34" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IM34" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IN34" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IO34" s="2" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="IP34" s="2" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="IQ34" s="2" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="IR34" s="2" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="IS34" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -26314,8 +27130,32 @@
       <c r="IJ35" s="2" t="n">
         <v>17.5</v>
       </c>
-      <c r="IK35" t="n">
+      <c r="IK35" s="2" t="n">
         <v>8.1</v>
+      </c>
+      <c r="IL35" s="2" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="IM35" s="2" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="IN35" s="2" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="IO35" s="2" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="IP35" s="2" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="IQ35" s="2" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="IR35" s="2" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="IS35" t="n">
+        <v>22.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -27053,8 +27893,32 @@
       <c r="IJ36" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="IK36" t="n">
+      <c r="IK36" s="2" t="n">
         <v>188.9</v>
+      </c>
+      <c r="IL36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="IM36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="IN36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="IO36" s="2" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="IP36" s="2" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="IQ36" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="IR36" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="IS36" t="n">
+        <v>189.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -27792,8 +28656,32 @@
       <c r="IJ37" s="2" t="n">
         <v>87.8</v>
       </c>
-      <c r="IK37" t="n">
+      <c r="IK37" s="2" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="IL37" s="2" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="IM37" s="2" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="IN37" s="2" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="IO37" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="IP37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="IQ37" s="2" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="IR37" s="2" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="IS37" t="n">
+        <v>88.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -28531,8 +29419,32 @@
       <c r="IJ38" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="IK38" t="n">
+      <c r="IK38" s="2" t="n">
         <v>26.16</v>
+      </c>
+      <c r="IL38" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="IM38" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="IN38" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="IO38" s="2" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="IP38" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="IQ38" s="2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="IR38" s="2" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="IS38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -29270,8 +30182,32 @@
       <c r="IJ39" s="2" t="n">
         <v>97.2</v>
       </c>
-      <c r="IK39" t="n">
+      <c r="IK39" s="2" t="n">
         <v>100.1</v>
+      </c>
+      <c r="IL39" s="2" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="IM39" s="2" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="IN39" s="2" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="IO39" s="2" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="IP39" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="IQ39" s="2" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="IR39" s="2" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="IS39" t="n">
+        <v>91.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -30009,7 +30945,31 @@
       <c r="IJ40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IK40" t="n">
+      <c r="IK40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IL40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IM40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IN40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IO40" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IP40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IQ40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IR40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IS40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -30748,8 +31708,32 @@
       <c r="IJ41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IK41" t="n">
+      <c r="IK41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IL41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IM41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IO41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IP41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IQ41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IR41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IS41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -31487,8 +32471,32 @@
       <c r="IJ42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IK42" t="n">
+      <c r="IK42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IL42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IM42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IN42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IO42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IP42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IQ42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IR42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IS42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -32226,8 +33234,32 @@
       <c r="IJ43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IK43" t="n">
+      <c r="IK43" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IL43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IM43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IO43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IP43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IQ43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IR43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IS43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -32965,8 +33997,32 @@
       <c r="IJ44" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="IK44" t="n">
+      <c r="IK44" s="2" t="n">
         <v>113</v>
+      </c>
+      <c r="IL44" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="IM44" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="IN44" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="IO44" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="IP44" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="IQ44" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="IR44" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="IS44" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -33704,8 +34760,32 @@
       <c r="IJ45" s="2" t="n">
         <v>185</v>
       </c>
-      <c r="IK45" t="n">
+      <c r="IK45" s="2" t="n">
         <v>185</v>
+      </c>
+      <c r="IL45" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="IM45" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="IN45" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="IO45" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="IP45" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="IQ45" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="IR45" s="2" t="n">
+        <v>304</v>
+      </c>
+      <c r="IS45" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -34443,8 +35523,32 @@
       <c r="IJ46" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="IK46" t="n">
+      <c r="IK46" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="IL46" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="IM46" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="IN46" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="IO46" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="IP46" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="IQ46" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="IR46" s="2" t="n">
+        <v>338</v>
+      </c>
+      <c r="IS46" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -35182,8 +36286,32 @@
       <c r="IJ47" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="IK47" t="n">
+      <c r="IK47" s="2" t="n">
         <v>66.8</v>
+      </c>
+      <c r="IL47" s="2" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="IM47" s="2" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="IN47" s="2" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="IO47" s="2" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="IP47" s="2" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="IQ47" s="2" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="IR47" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="IS47" t="n">
+        <v>73.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -35921,8 +37049,32 @@
       <c r="IJ48" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="IK48" t="n">
+      <c r="IK48" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IL48" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="IM48" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="IN48" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="IO48" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="IP48" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="IQ48" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IR48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IS48" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -36660,8 +37812,32 @@
       <c r="IJ49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IK49" t="n">
+      <c r="IK49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IL49" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IM49" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IN49" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IO49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IP49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IQ49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IR49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IS49" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -37399,8 +38575,32 @@
       <c r="IJ50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IK50" t="n">
+      <c r="IK50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IL50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IM50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IN50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IO50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IP50" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IQ50" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IR50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IS50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -38138,8 +39338,32 @@
       <c r="IJ51" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IK51" t="n">
+      <c r="IK51" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IL51" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IM51" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IN51" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IO51" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IP51" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IQ51" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IR51" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IS51" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -38877,8 +40101,32 @@
       <c r="IJ52" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IK52" t="n">
+      <c r="IK52" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IL52" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IM52" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IN52" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IO52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="IP52" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="IQ52" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="IR52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IS52" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -39616,8 +40864,32 @@
       <c r="IJ53" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="IK53" t="n">
+      <c r="IK53" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IL53" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IM53" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IN53" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IO53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IP53" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IQ53" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IR53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IS53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -40355,8 +41627,32 @@
       <c r="IJ54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IK54" t="n">
+      <c r="IK54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IL54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IP54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IR54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IS54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -41094,8 +42390,32 @@
       <c r="IJ55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IK55" t="n">
+      <c r="IK55" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IL55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IM55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IN55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IO55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IP55" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IQ55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IR55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IS55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -41833,8 +43153,32 @@
       <c r="IJ56" s="2" t="n">
         <v>63.6</v>
       </c>
-      <c r="IK56" t="n">
+      <c r="IK56" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="IL56" s="2" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="IM56" s="2" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="IN56" s="2" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="IO56" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="IP56" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="IQ56" s="2" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="IR56" s="2" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="IS56" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -42572,8 +43916,32 @@
       <c r="IJ57" s="2" t="n">
         <v>248</v>
       </c>
-      <c r="IK57" t="n">
+      <c r="IK57" s="2" t="n">
         <v>237</v>
+      </c>
+      <c r="IL57" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="IM57" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="IN57" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="IO57" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="IP57" s="2" t="n">
+        <v>258</v>
+      </c>
+      <c r="IQ57" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="IR57" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="IS57" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -43311,8 +44679,32 @@
       <c r="IJ58" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="IK58" t="n">
+      <c r="IK58" s="2" t="n">
         <v>162</v>
+      </c>
+      <c r="IL58" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="IM58" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="IN58" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="IO58" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="IP58" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="IQ58" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="IR58" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="IS58" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -44050,8 +45442,32 @@
       <c r="IJ59" s="2" t="n">
         <v>353</v>
       </c>
-      <c r="IK59" t="n">
+      <c r="IK59" s="2" t="n">
         <v>399</v>
+      </c>
+      <c r="IL59" s="2" t="n">
+        <v>367</v>
+      </c>
+      <c r="IM59" s="2" t="n">
+        <v>367</v>
+      </c>
+      <c r="IN59" s="2" t="n">
+        <v>367</v>
+      </c>
+      <c r="IO59" s="2" t="n">
+        <v>416</v>
+      </c>
+      <c r="IP59" s="2" t="n">
+        <v>418</v>
+      </c>
+      <c r="IQ59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="IR59" s="2" t="n">
+        <v>379</v>
+      </c>
+      <c r="IS59" t="n">
+        <v>397</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -44789,8 +46205,32 @@
       <c r="IJ60" s="2" t="n">
         <v>2.36</v>
       </c>
-      <c r="IK60" t="n">
+      <c r="IK60" s="2" t="n">
         <v>1.46</v>
+      </c>
+      <c r="IL60" s="2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="IM60" s="2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="IN60" s="2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="IO60" s="2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="IP60" s="2" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="IQ60" s="2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="IR60" s="2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="IS60" t="n">
+        <v>1.18</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -45528,8 +46968,32 @@
       <c r="IJ61" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IK61" t="n">
+      <c r="IK61" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="IL61" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="IM61" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="IN61" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="IO61" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="IP61" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="IQ61" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="IR61" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="IS61" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -46267,8 +47731,32 @@
       <c r="IJ62" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="IK62" t="n">
+      <c r="IK62" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IL62" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IM62" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IN62" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IO62" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IP62" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="IQ62" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IR62" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="IS62" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -47006,8 +48494,32 @@
       <c r="IJ63" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IK63" t="n">
+      <c r="IK63" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IL63" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="IM63" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="IN63" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="IO63" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IP63" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="IQ63" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="IR63" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="IS63" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -47745,8 +49257,32 @@
       <c r="IJ64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IK64" t="n">
+      <c r="IK64" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IL64" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IM64" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IN64" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IO64" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IP64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IQ64" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="IR64" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IS64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -48484,8 +50020,32 @@
       <c r="IJ65" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IK65" t="n">
+      <c r="IK65" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IL65" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IM65" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IN65" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IO65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IP65" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IQ65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IR65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IS65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -49223,8 +50783,32 @@
       <c r="IJ66" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IK66" t="n">
+      <c r="IK66" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IL66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IM66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IN66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IO66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IP66" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IQ66" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IR66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IS66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -49962,8 +51546,32 @@
       <c r="IJ67" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IK67" t="n">
+      <c r="IK67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IL67" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IM67" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IN67" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IO67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IP67" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IQ67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IR67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IS67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -50701,8 +52309,32 @@
       <c r="IJ68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IK68" t="n">
+      <c r="IK68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IL68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IM68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IN68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IO68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IP68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IQ68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IR68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IS68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -51440,8 +53072,32 @@
       <c r="IJ69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IK69" t="n">
+      <c r="IK69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IL69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IM69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IN69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IO69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IP69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -52179,7 +53835,31 @@
       <c r="IJ70" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IK70" t="n">
+      <c r="IK70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IL70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IM70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IN70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IO70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IP70" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="IQ70" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IR70" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IS70" t="n">
         <v>24</v>
       </c>
     </row>
@@ -52918,8 +54598,32 @@
       <c r="IJ71" s="2" t="n">
         <v>46.7</v>
       </c>
-      <c r="IK71" t="n">
+      <c r="IK71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IL71" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="IM71" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="IN71" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="IO71" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="IP71" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="IQ71" s="2" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="IR71" s="2" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="IS71" t="n">
+        <v>54.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -53657,8 +55361,32 @@
       <c r="IJ72" s="2" t="n">
         <v>50.43</v>
       </c>
-      <c r="IK72" t="n">
+      <c r="IK72" s="2" t="n">
         <v>33.25</v>
+      </c>
+      <c r="IL72" s="2" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="IM72" s="2" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="IN72" s="2" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="IO72" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IP72" s="2" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="IQ72" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IR72" s="2" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="IS72" t="n">
+        <v>30.54</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -54396,8 +56124,32 @@
       <c r="IJ73" s="2" t="n">
         <v>23.53</v>
       </c>
-      <c r="IK73" t="n">
+      <c r="IK73" s="2" t="n">
         <v>16.62</v>
+      </c>
+      <c r="IL73" s="2" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="IM73" s="2" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="IN73" s="2" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="IO73" s="2" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="IP73" s="2" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="IQ73" s="2" t="n">
+        <v>16.84</v>
+      </c>
+      <c r="IR73" s="2" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="IS73" t="n">
+        <v>16.54</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -55135,8 +56887,32 @@
       <c r="IJ74" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IK74" t="n">
+      <c r="IK74" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IL74" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IM74" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IN74" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IO74" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="IP74" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IQ74" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="IR74" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IS74" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -55874,8 +57650,32 @@
       <c r="IJ75" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="IK75" t="n">
+      <c r="IK75" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IL75" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IM75" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IN75" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IO75" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IP75" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IQ75" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IR75" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IS75" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -56613,7 +58413,31 @@
       <c r="IJ76" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IK76" t="n">
+      <c r="IK76" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IL76" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IM76" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IN76" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IO76" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="IP76" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="IQ76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IR76" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IS76" t="n">
         <v>34</v>
       </c>
     </row>
@@ -57352,8 +59176,32 @@
       <c r="IJ77" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IK77" t="n">
+      <c r="IK77" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IL77" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="IM77" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="IN77" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="IO77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="IP77" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="IQ77" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IR77" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="IS77" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -58091,8 +59939,32 @@
       <c r="IJ78" s="2" t="n">
         <v>3.93</v>
       </c>
-      <c r="IK78" t="n">
+      <c r="IK78" s="2" t="n">
         <v>2.71</v>
+      </c>
+      <c r="IL78" s="2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="IM78" s="2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="IN78" s="2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="IO78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="IP78" s="2" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="IQ78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IR78" s="2" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="IS78" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -58830,8 +60702,32 @@
       <c r="IJ79" s="2" t="n">
         <v>8.43</v>
       </c>
-      <c r="IK79" t="n">
+      <c r="IK79" s="2" t="n">
         <v>5.42</v>
+      </c>
+      <c r="IL79" s="2" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="IM79" s="2" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="IN79" s="2" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="IO79" s="2" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="IP79" s="2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="IQ79" s="2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="IR79" s="2" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="IS79" t="n">
+        <v>5.31</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -59569,8 +61465,32 @@
       <c r="IJ80" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IK80" t="n">
+      <c r="IK80" s="2" t="n">
         <v>30.8</v>
+      </c>
+      <c r="IL80" s="2" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="IM80" s="2" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="IN80" s="2" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="IO80" s="2" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="IP80" s="2" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="IQ80" s="2" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="IR80" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="IS80" t="n">
+        <v>34.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -60308,8 +62228,32 @@
       <c r="IJ81" s="2" t="n">
         <v>11.9</v>
       </c>
-      <c r="IK81" t="n">
+      <c r="IK81" s="2" t="n">
         <v>18.5</v>
+      </c>
+      <c r="IL81" s="2" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="IM81" s="2" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="IN81" s="2" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="IO81" s="2" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="IP81" s="2" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="IQ81" s="2" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="IR81" s="2" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="IS81" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -61047,8 +62991,32 @@
       <c r="IJ82" s="2" t="n">
         <v>187.3</v>
       </c>
-      <c r="IK82" t="n">
+      <c r="IK82" s="2" t="n">
         <v>187.5</v>
+      </c>
+      <c r="IL82" s="2" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="IM82" s="2" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="IN82" s="2" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="IO82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="IP82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="IQ82" s="2" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="IR82" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="IS82" t="n">
+        <v>188.1</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -61786,8 +63754,32 @@
       <c r="IJ83" s="2" t="n">
         <v>84.7</v>
       </c>
-      <c r="IK83" t="n">
+      <c r="IK83" s="2" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="IL83" s="2" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="IM83" s="2" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="IN83" s="2" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="IO83" s="2" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="IP83" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="IQ83" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="IR83" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="IS83" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -62525,8 +64517,32 @@
       <c r="IJ84" s="2" t="n">
         <v>24.66</v>
       </c>
-      <c r="IK84" t="n">
+      <c r="IK84" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="IL84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="IM84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="IN84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="IO84" s="2" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="IP84" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="IQ84" s="2" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="IR84" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="IS84" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -63264,8 +65280,32 @@
       <c r="IJ85" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="IK85" t="n">
+      <c r="IK85" s="2" t="n">
         <v>106.5</v>
+      </c>
+      <c r="IL85" s="2" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="IM85" s="2" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="IN85" s="2" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="IO85" s="2" t="n">
+        <v>84.3</v>
+      </c>
+      <c r="IP85" s="2" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="IQ85" s="2" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="IR85" s="2" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="IS85" t="n">
+        <v>89.90000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -64003,8 +66043,32 @@
       <c r="IJ86" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IK86" t="n">
+      <c r="IK86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IL86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IM86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IN86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IO86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IP86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IQ86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IR86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IS86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -64742,8 +66806,32 @@
       <c r="IJ87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IK87" t="n">
+      <c r="IK87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IL87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IM87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IO87" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IP87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IQ87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IR87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IS87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -65481,8 +67569,32 @@
       <c r="IJ88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IK88" t="n">
+      <c r="IK88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IL88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IM88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IO88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IP88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IQ88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IR88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IS88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -66220,8 +68332,32 @@
       <c r="IJ89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IK89" t="n">
+      <c r="IK89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IL89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IM89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IN89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IO89" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IP89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IQ89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IR89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IS89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -66959,8 +69095,32 @@
       <c r="IJ90" s="2" t="n">
         <v>171</v>
       </c>
-      <c r="IK90" t="n">
+      <c r="IK90" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="IL90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="IM90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="IN90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="IO90" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="IP90" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="IQ90" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="IR90" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="IS90" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -67698,8 +69858,32 @@
       <c r="IJ91" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="IK91" t="n">
+      <c r="IK91" s="2" t="n">
         <v>267</v>
+      </c>
+      <c r="IL91" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="IM91" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="IN91" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="IO91" s="2" t="n">
+        <v>280</v>
+      </c>
+      <c r="IP91" s="2" t="n">
+        <v>259</v>
+      </c>
+      <c r="IQ91" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="IR91" s="2" t="n">
+        <v>251</v>
+      </c>
+      <c r="IS91" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -68437,8 +70621,32 @@
       <c r="IJ92" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="IK92" t="n">
+      <c r="IK92" s="2" t="n">
         <v>298</v>
+      </c>
+      <c r="IL92" s="2" t="n">
+        <v>265</v>
+      </c>
+      <c r="IM92" s="2" t="n">
+        <v>265</v>
+      </c>
+      <c r="IN92" s="2" t="n">
+        <v>265</v>
+      </c>
+      <c r="IO92" s="2" t="n">
+        <v>323</v>
+      </c>
+      <c r="IP92" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="IQ92" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="IR92" s="2" t="n">
+        <v>291</v>
+      </c>
+      <c r="IS92" t="n">
+        <v>294</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -69176,8 +71384,32 @@
       <c r="IJ93" s="2" t="n">
         <v>53.3</v>
       </c>
-      <c r="IK93" t="n">
+      <c r="IK93" s="2" t="n">
         <v>74.7</v>
+      </c>
+      <c r="IL93" s="2" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="IM93" s="2" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="IN93" s="2" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="IO93" s="2" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="IP93" s="2" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="IQ93" s="2" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="IR93" s="2" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="IS93" t="n">
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -69915,8 +72147,32 @@
       <c r="IJ94" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="IK94" t="n">
+      <c r="IK94" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IL94" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IM94" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IN94" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IO94" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IP94" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IQ94" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IR94" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IS94" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -70654,8 +72910,32 @@
       <c r="IJ95" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IK95" t="n">
+      <c r="IK95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IL95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IM95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IN95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IO95" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IP95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IQ95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IR95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IS95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -71393,8 +73673,32 @@
       <c r="IJ96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IK96" t="n">
+      <c r="IK96" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IL96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IM96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IN96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IO96" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IP96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IQ96" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IR96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IS96" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -72132,8 +74436,32 @@
       <c r="IJ97" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IK97" t="n">
+      <c r="IK97" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IL97" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IM97" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IN97" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IO97" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="IP97" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IQ97" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="IR97" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IS97" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -72871,7 +75199,31 @@
       <c r="IJ98" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IK98" t="n">
+      <c r="IK98" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IL98" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IM98" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IN98" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IO98" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="IP98" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="IQ98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IR98" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IS98" t="n">
         <v>34</v>
       </c>
     </row>
@@ -73610,8 +75962,32 @@
       <c r="IJ99" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="IK99" t="n">
+      <c r="IK99" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IL99" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="IM99" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="IN99" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="IO99" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IP99" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="IQ99" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IR99" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IS99" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -74349,8 +76725,32 @@
       <c r="IJ100" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IK100" t="n">
+      <c r="IK100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IL100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO100" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IP100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IQ100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IR100" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IS100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -75088,8 +77488,32 @@
       <c r="IJ101" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IK101" t="n">
+      <c r="IK101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IL101" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IM101" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IN101" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IO101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IP101" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IQ101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IR101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IS101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -75827,8 +78251,32 @@
       <c r="IJ102" s="2" t="n">
         <v>28.6</v>
       </c>
-      <c r="IK102" t="n">
+      <c r="IK102" s="2" t="n">
         <v>83.3</v>
+      </c>
+      <c r="IL102" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="IM102" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="IN102" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="IO102" s="2" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="IP102" s="2" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="IQ102" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="IR102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="IS102" t="n">
+        <v>61.5</v>
       </c>
     </row>
   </sheetData>
